--- a/me/3.REST-API.xlsx
+++ b/me/3.REST-API.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\salesforce-integration-with-external-systems\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE88B5A-8A12-43ED-BEAB-BFED01A88F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE75F31-2C0A-467C-A8FB-39E17BEDFCFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use Postman to call a REST API" sheetId="1" r:id="rId1"/>
     <sheet name="CreateAConnectedAppInSalesforce" sheetId="2" r:id="rId2"/>
     <sheet name="Authenticating REST API users" sheetId="3" r:id="rId3"/>
+    <sheet name="Execute a SOQL Query" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>https://www.postman.com/salesforce-developers/workspace/salesforce-developers/request/12721794-dadc3f1a-71b3-4431-a958-fa00c4731b6f</t>
   </si>
@@ -100,12 +101,87 @@
   <si>
     <t>CreateAConnectedAppInSalesforce</t>
   </si>
+  <si>
+    <t>RESTAccountById</t>
+  </si>
+  <si>
+    <t>access_token</t>
+  </si>
+  <si>
+    <t>instance_url</t>
+  </si>
+  <si>
+    <t>00D5g00000GYf6f!ARwAQCsy9BukCwV7L830D34RGFj9z7Q8AmE9AWijdjOIs31BG6sDQ2mUF.di8fgFsgE1XJOeajtthGT4bqmWRe6fdrHxgTxX</t>
+  </si>
+  <si>
+    <t>https://training-quang-dev-ed.develop.my.salesforce.com</t>
+  </si>
+  <si>
+    <r>
+      <t>instance_url/services/data/v55.0/sobjects/Account/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0015g00000smH6TAAU</t>
+    </r>
+  </si>
+  <si>
+    <t>→</t>
+  </si>
+  <si>
+    <t>Đã lấy ở Soap API</t>
+  </si>
+  <si>
+    <t>RESTStudentById</t>
+  </si>
+  <si>
+    <t>Authenticating REST API users</t>
+  </si>
+  <si>
+    <r>
+      <t>https://training-quang-dev-ed.develop.my.salesforce.com/services/data/v55.0/sobjects/Student__c/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a0A5g000006OQuREAW</t>
+    </r>
+  </si>
+  <si>
+    <t>RESTSchoolById</t>
+  </si>
+  <si>
+    <r>
+      <t>https://training-quang-dev-ed.develop.my.salesforce.com/services/data/v55.0/sobjects/School__c/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a0B5g00000tpvm7EAA</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +193,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -229,7 +312,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -242,8 +325,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1435,6 +1523,681 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>360765</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66389</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C711B593-0D46-FABC-EE60-DF0563F6CACA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="1400175"/>
+          <a:ext cx="9476190" cy="2285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C722E2BC-E981-C65A-8A65-3668E1B4FBA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2295525" y="923925"/>
+          <a:ext cx="3733800" cy="2152650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6C428ED-3117-9632-5147-6D846624660A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1428750" y="1362075"/>
+          <a:ext cx="571500" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>85621</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B086A3D3-BB58-8E7B-10E5-9C58AA185653}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="7543800"/>
+          <a:ext cx="11249025" cy="5686321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0ED743-CC97-F13C-7856-1D6C0207EF75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1362075" y="1114425"/>
+          <a:ext cx="561975" cy="66675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>579821</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>171055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9F992E8-F7B5-B8A4-9D99-FCFD105B1526}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790575" y="4057650"/>
+          <a:ext cx="9628571" cy="3161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{397B0597-5AF2-FCDD-7A3B-9180BC601C7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4114800" y="1333500"/>
+          <a:ext cx="1647825" cy="6305550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>17833</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>46914</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E1CFDCD-AC39-ED0D-E861-571046ED69D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="14363700"/>
+          <a:ext cx="9733333" cy="5685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>59385</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD3157F9-3739-FCF3-0426-8A3DB2FA1542}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="20250150"/>
+          <a:ext cx="11334750" cy="5717235"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B52AD39-C1CE-607B-0F9E-FEF8B38C669B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6210300" y="14268450"/>
+          <a:ext cx="495300" cy="6029325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>246476</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>66418</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88A98BF6-4C4A-F796-9458-ACECDC23C352}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="26965275"/>
+          <a:ext cx="9390476" cy="2057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>608382</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>9124</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F6843DB-08D9-10E5-FA26-93C0C4F82A7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="28994100"/>
+          <a:ext cx="9742857" cy="3209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>93132</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D34E2571-F06E-5F93-B581-442A0CD0D2A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="32432625"/>
+          <a:ext cx="11172825" cy="5570007"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03A53D47-78D5-8703-BC32-26D72D20998D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5743575" y="26841450"/>
+          <a:ext cx="895350" cy="5848350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1700,7 +2463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B72:T99"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
@@ -3195,14 +3958,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5329CB-83F2-404D-89A3-A4B97386C9D0}">
   <dimension ref="B3:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3277,6 +4040,12 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="8"/>
+      <c r="N7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
@@ -3313,695 +4082,134 @@
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
       <c r="T14" s="5"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
       <c r="T15" s="5"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
       <c r="T16" s="5"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
       <c r="T17" s="5"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
       <c r="T18" s="5"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
       <c r="T19" s="5"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
       <c r="T20" s="5"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
       <c r="T21" s="5"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
       <c r="T22" s="5"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
       <c r="T23" s="5"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
       <c r="T24" s="5"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
       <c r="T25" s="5"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
       <c r="T26" s="5"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
       <c r="T27" s="5"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
       <c r="T28" s="5"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
       <c r="T29" s="5"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
       <c r="T30" s="5"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
       <c r="T31" s="5"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
       <c r="T32" s="5"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
       <c r="T33" s="5"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
       <c r="T34" s="5"/>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
       <c r="T35" s="5"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
       <c r="T36" s="5"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B37" s="4"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
       <c r="T37" s="5"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12"/>
-      <c r="S38" s="12"/>
       <c r="T38" s="5"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="12"/>
       <c r="T39" s="5"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="12"/>
-      <c r="S40" s="12"/>
       <c r="T40" s="5"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="12"/>
-      <c r="S41" s="12"/>
       <c r="T41" s="5"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="12"/>
-      <c r="S42" s="12"/>
       <c r="T42" s="5"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="12"/>
-      <c r="S43" s="12"/>
       <c r="T43" s="5"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="12"/>
-      <c r="S44" s="12"/>
       <c r="T44" s="5"/>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B45" s="4"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="12"/>
-      <c r="P45" s="12"/>
-      <c r="Q45" s="12"/>
-      <c r="R45" s="12"/>
-      <c r="S45" s="12"/>
       <c r="T45" s="5"/>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B46" s="4"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="12"/>
-      <c r="R46" s="12"/>
-      <c r="S46" s="12"/>
       <c r="T46" s="5"/>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.25">
@@ -4024,53 +4232,22 @@
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="3"/>
-      <c r="S47" s="12"/>
       <c r="T47" s="5"/>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B48" s="4"/>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="12"/>
-      <c r="P48" s="12"/>
-      <c r="Q48" s="12"/>
       <c r="R48" s="5"/>
-      <c r="S48" s="12"/>
       <c r="T48" s="5"/>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B49" s="4"/>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="12"/>
-      <c r="P49" s="12"/>
-      <c r="Q49" s="12"/>
       <c r="R49" s="5"/>
-      <c r="S49" s="12"/>
       <c r="T49" s="5"/>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.25">
@@ -4078,22 +4255,7 @@
       <c r="C50" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="12"/>
       <c r="R50" s="5"/>
-      <c r="S50" s="12"/>
       <c r="T50" s="5"/>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.25">
@@ -4101,22 +4263,7 @@
       <c r="C51" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="12"/>
-      <c r="P51" s="12"/>
-      <c r="Q51" s="12"/>
       <c r="R51" s="5"/>
-      <c r="S51" s="12"/>
       <c r="T51" s="5"/>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.25">
@@ -4124,22 +4271,7 @@
       <c r="C52" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="12"/>
-      <c r="P52" s="12"/>
-      <c r="Q52" s="12"/>
       <c r="R52" s="5"/>
-      <c r="S52" s="12"/>
       <c r="T52" s="5"/>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.25">
@@ -4147,22 +4279,7 @@
       <c r="C53" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="12"/>
-      <c r="O53" s="12"/>
-      <c r="P53" s="12"/>
-      <c r="Q53" s="12"/>
       <c r="R53" s="5"/>
-      <c r="S53" s="12"/>
       <c r="T53" s="5"/>
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.25">
@@ -4185,7 +4302,6 @@
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
       <c r="R54" s="8"/>
-      <c r="S54" s="12"/>
       <c r="T54" s="5"/>
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.25">
@@ -4217,4 +4333,4316 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3B7A6E-F13C-43C6-B131-2464E70AA25C}">
+  <dimension ref="A4:T201"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="H207" sqref="H207"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="16" max="16" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="3"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="5"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="5"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="5"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="5"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="5"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="5"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="5"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="5"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="5"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="5"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="5"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="5"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="5"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="5"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="5"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="5"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="5"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="5"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="5"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="5"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="5"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="5"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="5"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="5"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="5"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="5"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="5"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="5"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="5"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="5"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="5"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="5"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="15"/>
+      <c r="S37" s="15"/>
+      <c r="T37" s="5"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="15"/>
+      <c r="S38" s="15"/>
+      <c r="T38" s="5"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="15"/>
+      <c r="T39" s="5"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="15"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="5"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="15"/>
+      <c r="S41" s="15"/>
+      <c r="T41" s="5"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="15"/>
+      <c r="S42" s="15"/>
+      <c r="T42" s="5"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="15"/>
+      <c r="S43" s="15"/>
+      <c r="T43" s="5"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="15"/>
+      <c r="S44" s="15"/>
+      <c r="T44" s="5"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="15"/>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="15"/>
+      <c r="S45" s="15"/>
+      <c r="T45" s="5"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="15"/>
+      <c r="Q46" s="15"/>
+      <c r="R46" s="15"/>
+      <c r="S46" s="15"/>
+      <c r="T46" s="5"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="15"/>
+      <c r="R47" s="15"/>
+      <c r="S47" s="15"/>
+      <c r="T47" s="5"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="15"/>
+      <c r="S48" s="15"/>
+      <c r="T48" s="5"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="15"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="5"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="15"/>
+      <c r="S50" s="15"/>
+      <c r="T50" s="5"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="15"/>
+      <c r="R51" s="15"/>
+      <c r="S51" s="15"/>
+      <c r="T51" s="5"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="15"/>
+      <c r="P52" s="15"/>
+      <c r="Q52" s="15"/>
+      <c r="R52" s="15"/>
+      <c r="S52" s="15"/>
+      <c r="T52" s="5"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="15"/>
+      <c r="Q53" s="15"/>
+      <c r="R53" s="15"/>
+      <c r="S53" s="15"/>
+      <c r="T53" s="5"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="15"/>
+      <c r="Q54" s="15"/>
+      <c r="R54" s="15"/>
+      <c r="S54" s="15"/>
+      <c r="T54" s="5"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="15"/>
+      <c r="Q55" s="15"/>
+      <c r="R55" s="15"/>
+      <c r="S55" s="15"/>
+      <c r="T55" s="5"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="15"/>
+      <c r="R56" s="15"/>
+      <c r="S56" s="15"/>
+      <c r="T56" s="5"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="15"/>
+      <c r="Q57" s="15"/>
+      <c r="R57" s="15"/>
+      <c r="S57" s="15"/>
+      <c r="T57" s="5"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="15"/>
+      <c r="P58" s="15"/>
+      <c r="Q58" s="15"/>
+      <c r="R58" s="15"/>
+      <c r="S58" s="15"/>
+      <c r="T58" s="5"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="15"/>
+      <c r="P59" s="15"/>
+      <c r="Q59" s="15"/>
+      <c r="R59" s="15"/>
+      <c r="S59" s="15"/>
+      <c r="T59" s="5"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="15"/>
+      <c r="P60" s="15"/>
+      <c r="Q60" s="15"/>
+      <c r="R60" s="15"/>
+      <c r="S60" s="15"/>
+      <c r="T60" s="5"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="15"/>
+      <c r="Q61" s="15"/>
+      <c r="R61" s="15"/>
+      <c r="S61" s="15"/>
+      <c r="T61" s="5"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="15"/>
+      <c r="Q62" s="15"/>
+      <c r="R62" s="15"/>
+      <c r="S62" s="15"/>
+      <c r="T62" s="5"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="15"/>
+      <c r="P63" s="15"/>
+      <c r="Q63" s="15"/>
+      <c r="R63" s="15"/>
+      <c r="S63" s="15"/>
+      <c r="T63" s="5"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="15"/>
+      <c r="N64" s="15"/>
+      <c r="O64" s="15"/>
+      <c r="P64" s="15"/>
+      <c r="Q64" s="15"/>
+      <c r="R64" s="15"/>
+      <c r="S64" s="15"/>
+      <c r="T64" s="5"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="15"/>
+      <c r="Q65" s="15"/>
+      <c r="R65" s="15"/>
+      <c r="S65" s="15"/>
+      <c r="T65" s="5"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="15"/>
+      <c r="P66" s="15"/>
+      <c r="Q66" s="15"/>
+      <c r="R66" s="15"/>
+      <c r="S66" s="15"/>
+      <c r="T66" s="5"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="15"/>
+      <c r="P67" s="15"/>
+      <c r="Q67" s="15"/>
+      <c r="R67" s="15"/>
+      <c r="S67" s="15"/>
+      <c r="T67" s="5"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="15"/>
+      <c r="P68" s="15"/>
+      <c r="Q68" s="15"/>
+      <c r="R68" s="15"/>
+      <c r="S68" s="15"/>
+      <c r="T68" s="5"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15"/>
+      <c r="P69" s="15"/>
+      <c r="Q69" s="15"/>
+      <c r="R69" s="15"/>
+      <c r="S69" s="15"/>
+      <c r="T69" s="5"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="15"/>
+      <c r="P70" s="15"/>
+      <c r="Q70" s="15"/>
+      <c r="R70" s="15"/>
+      <c r="S70" s="15"/>
+      <c r="T70" s="5"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" s="6"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="7"/>
+      <c r="S71" s="7"/>
+      <c r="T71" s="8"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="3"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+      <c r="B75" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
+      <c r="N75" s="15"/>
+      <c r="O75" s="15"/>
+      <c r="P75" s="15"/>
+      <c r="Q75" s="15"/>
+      <c r="R75" s="15"/>
+      <c r="S75" s="15"/>
+      <c r="T75" s="5"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="15"/>
+      <c r="Q76" s="15"/>
+      <c r="R76" s="15"/>
+      <c r="S76" s="15"/>
+      <c r="T76" s="5"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15"/>
+      <c r="Q77" s="15"/>
+      <c r="R77" s="15"/>
+      <c r="S77" s="15"/>
+      <c r="T77" s="5"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="15"/>
+      <c r="P78" s="15"/>
+      <c r="Q78" s="15"/>
+      <c r="R78" s="15"/>
+      <c r="S78" s="15"/>
+      <c r="T78" s="5"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" s="4"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="15"/>
+      <c r="M79" s="15"/>
+      <c r="N79" s="15"/>
+      <c r="O79" s="15"/>
+      <c r="P79" s="15"/>
+      <c r="Q79" s="15"/>
+      <c r="R79" s="15"/>
+      <c r="S79" s="15"/>
+      <c r="T79" s="5"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="15"/>
+      <c r="M80" s="15"/>
+      <c r="N80" s="15"/>
+      <c r="O80" s="15"/>
+      <c r="P80" s="15"/>
+      <c r="Q80" s="15"/>
+      <c r="R80" s="15"/>
+      <c r="S80" s="15"/>
+      <c r="T80" s="5"/>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="15"/>
+      <c r="L81" s="15"/>
+      <c r="M81" s="15"/>
+      <c r="N81" s="15"/>
+      <c r="O81" s="15"/>
+      <c r="P81" s="15"/>
+      <c r="Q81" s="15"/>
+      <c r="R81" s="15"/>
+      <c r="S81" s="15"/>
+      <c r="T81" s="5"/>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="15"/>
+      <c r="M82" s="15"/>
+      <c r="N82" s="15"/>
+      <c r="O82" s="15"/>
+      <c r="P82" s="15"/>
+      <c r="Q82" s="15"/>
+      <c r="R82" s="15"/>
+      <c r="S82" s="15"/>
+      <c r="T82" s="5"/>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="15"/>
+      <c r="L83" s="15"/>
+      <c r="M83" s="15"/>
+      <c r="N83" s="15"/>
+      <c r="O83" s="15"/>
+      <c r="P83" s="15"/>
+      <c r="Q83" s="15"/>
+      <c r="R83" s="15"/>
+      <c r="S83" s="15"/>
+      <c r="T83" s="5"/>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="15"/>
+      <c r="M84" s="15"/>
+      <c r="N84" s="15"/>
+      <c r="O84" s="15"/>
+      <c r="P84" s="15"/>
+      <c r="Q84" s="15"/>
+      <c r="R84" s="15"/>
+      <c r="S84" s="15"/>
+      <c r="T84" s="5"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
+      <c r="O85" s="15"/>
+      <c r="P85" s="15"/>
+      <c r="Q85" s="15"/>
+      <c r="R85" s="15"/>
+      <c r="S85" s="15"/>
+      <c r="T85" s="5"/>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="15"/>
+      <c r="L86" s="15"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="15"/>
+      <c r="O86" s="15"/>
+      <c r="P86" s="15"/>
+      <c r="Q86" s="15"/>
+      <c r="R86" s="15"/>
+      <c r="S86" s="15"/>
+      <c r="T86" s="5"/>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="15"/>
+      <c r="O87" s="15"/>
+      <c r="P87" s="15"/>
+      <c r="Q87" s="15"/>
+      <c r="R87" s="15"/>
+      <c r="S87" s="15"/>
+      <c r="T87" s="5"/>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="15"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="15"/>
+      <c r="O88" s="15"/>
+      <c r="P88" s="15"/>
+      <c r="Q88" s="15"/>
+      <c r="R88" s="15"/>
+      <c r="S88" s="15"/>
+      <c r="T88" s="5"/>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="15"/>
+      <c r="L89" s="15"/>
+      <c r="M89" s="15"/>
+      <c r="N89" s="15"/>
+      <c r="O89" s="15"/>
+      <c r="P89" s="15"/>
+      <c r="Q89" s="15"/>
+      <c r="R89" s="15"/>
+      <c r="S89" s="15"/>
+      <c r="T89" s="5"/>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="15"/>
+      <c r="L90" s="15"/>
+      <c r="M90" s="15"/>
+      <c r="N90" s="15"/>
+      <c r="O90" s="15"/>
+      <c r="P90" s="15"/>
+      <c r="Q90" s="15"/>
+      <c r="R90" s="15"/>
+      <c r="S90" s="15"/>
+      <c r="T90" s="5"/>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="15"/>
+      <c r="K91" s="15"/>
+      <c r="L91" s="15"/>
+      <c r="M91" s="15"/>
+      <c r="N91" s="15"/>
+      <c r="O91" s="15"/>
+      <c r="P91" s="15"/>
+      <c r="Q91" s="15"/>
+      <c r="R91" s="15"/>
+      <c r="S91" s="15"/>
+      <c r="T91" s="5"/>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="B92" s="15"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="15"/>
+      <c r="K92" s="15"/>
+      <c r="L92" s="15"/>
+      <c r="M92" s="15"/>
+      <c r="N92" s="15"/>
+      <c r="O92" s="15"/>
+      <c r="P92" s="15"/>
+      <c r="Q92" s="15"/>
+      <c r="R92" s="15"/>
+      <c r="S92" s="15"/>
+      <c r="T92" s="5"/>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="15"/>
+      <c r="K93" s="15"/>
+      <c r="L93" s="15"/>
+      <c r="M93" s="15"/>
+      <c r="N93" s="15"/>
+      <c r="O93" s="15"/>
+      <c r="P93" s="15"/>
+      <c r="Q93" s="15"/>
+      <c r="R93" s="15"/>
+      <c r="S93" s="15"/>
+      <c r="T93" s="5"/>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="15"/>
+      <c r="L94" s="15"/>
+      <c r="M94" s="15"/>
+      <c r="N94" s="15"/>
+      <c r="O94" s="15"/>
+      <c r="P94" s="15"/>
+      <c r="Q94" s="15"/>
+      <c r="R94" s="15"/>
+      <c r="S94" s="15"/>
+      <c r="T94" s="5"/>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+      <c r="B95" s="15"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="15"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="15"/>
+      <c r="K95" s="15"/>
+      <c r="L95" s="15"/>
+      <c r="M95" s="15"/>
+      <c r="N95" s="15"/>
+      <c r="O95" s="15"/>
+      <c r="P95" s="15"/>
+      <c r="Q95" s="15"/>
+      <c r="R95" s="15"/>
+      <c r="S95" s="15"/>
+      <c r="T95" s="5"/>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+      <c r="B96" s="15"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="15"/>
+      <c r="K96" s="15"/>
+      <c r="L96" s="15"/>
+      <c r="M96" s="15"/>
+      <c r="N96" s="15"/>
+      <c r="O96" s="15"/>
+      <c r="P96" s="15"/>
+      <c r="Q96" s="15"/>
+      <c r="R96" s="15"/>
+      <c r="S96" s="15"/>
+      <c r="T96" s="5"/>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="15"/>
+      <c r="K97" s="15"/>
+      <c r="L97" s="15"/>
+      <c r="M97" s="15"/>
+      <c r="N97" s="15"/>
+      <c r="O97" s="15"/>
+      <c r="P97" s="15"/>
+      <c r="Q97" s="15"/>
+      <c r="R97" s="15"/>
+      <c r="S97" s="15"/>
+      <c r="T97" s="5"/>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="15"/>
+      <c r="K98" s="15"/>
+      <c r="L98" s="15"/>
+      <c r="M98" s="15"/>
+      <c r="N98" s="15"/>
+      <c r="O98" s="15"/>
+      <c r="P98" s="15"/>
+      <c r="Q98" s="15"/>
+      <c r="R98" s="15"/>
+      <c r="S98" s="15"/>
+      <c r="T98" s="5"/>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+      <c r="B99" s="15"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="15"/>
+      <c r="K99" s="15"/>
+      <c r="L99" s="15"/>
+      <c r="M99" s="15"/>
+      <c r="N99" s="15"/>
+      <c r="O99" s="15"/>
+      <c r="P99" s="15"/>
+      <c r="Q99" s="15"/>
+      <c r="R99" s="15"/>
+      <c r="S99" s="15"/>
+      <c r="T99" s="5"/>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="15"/>
+      <c r="K100" s="15"/>
+      <c r="L100" s="15"/>
+      <c r="M100" s="15"/>
+      <c r="N100" s="15"/>
+      <c r="O100" s="15"/>
+      <c r="P100" s="15"/>
+      <c r="Q100" s="15"/>
+      <c r="R100" s="15"/>
+      <c r="S100" s="15"/>
+      <c r="T100" s="5"/>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A101" s="4"/>
+      <c r="B101" s="15"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="15"/>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="15"/>
+      <c r="K101" s="15"/>
+      <c r="L101" s="15"/>
+      <c r="M101" s="15"/>
+      <c r="N101" s="15"/>
+      <c r="O101" s="15"/>
+      <c r="P101" s="15"/>
+      <c r="Q101" s="15"/>
+      <c r="R101" s="15"/>
+      <c r="S101" s="15"/>
+      <c r="T101" s="5"/>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="15"/>
+      <c r="K102" s="15"/>
+      <c r="L102" s="15"/>
+      <c r="M102" s="15"/>
+      <c r="N102" s="15"/>
+      <c r="O102" s="15"/>
+      <c r="P102" s="15"/>
+      <c r="Q102" s="15"/>
+      <c r="R102" s="15"/>
+      <c r="S102" s="15"/>
+      <c r="T102" s="5"/>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="15"/>
+      <c r="K103" s="15"/>
+      <c r="L103" s="15"/>
+      <c r="M103" s="15"/>
+      <c r="N103" s="15"/>
+      <c r="O103" s="15"/>
+      <c r="P103" s="15"/>
+      <c r="Q103" s="15"/>
+      <c r="R103" s="15"/>
+      <c r="S103" s="15"/>
+      <c r="T103" s="5"/>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="15"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="15"/>
+      <c r="K104" s="15"/>
+      <c r="L104" s="15"/>
+      <c r="M104" s="15"/>
+      <c r="N104" s="15"/>
+      <c r="O104" s="15"/>
+      <c r="P104" s="15"/>
+      <c r="Q104" s="15"/>
+      <c r="R104" s="15"/>
+      <c r="S104" s="15"/>
+      <c r="T104" s="5"/>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
+      <c r="B105" s="15"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="15"/>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="15"/>
+      <c r="K105" s="15"/>
+      <c r="L105" s="15"/>
+      <c r="M105" s="15"/>
+      <c r="N105" s="15"/>
+      <c r="O105" s="15"/>
+      <c r="P105" s="15"/>
+      <c r="Q105" s="15"/>
+      <c r="R105" s="15"/>
+      <c r="S105" s="15"/>
+      <c r="T105" s="5"/>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A106" s="4"/>
+      <c r="B106" s="15"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="15"/>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="15"/>
+      <c r="K106" s="15"/>
+      <c r="L106" s="15"/>
+      <c r="M106" s="15"/>
+      <c r="N106" s="15"/>
+      <c r="O106" s="15"/>
+      <c r="P106" s="15"/>
+      <c r="Q106" s="15"/>
+      <c r="R106" s="15"/>
+      <c r="S106" s="15"/>
+      <c r="T106" s="5"/>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A107" s="4"/>
+      <c r="B107" s="15"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="15"/>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="15"/>
+      <c r="K107" s="15"/>
+      <c r="L107" s="15"/>
+      <c r="M107" s="15"/>
+      <c r="N107" s="15"/>
+      <c r="O107" s="15"/>
+      <c r="P107" s="15"/>
+      <c r="Q107" s="15"/>
+      <c r="R107" s="15"/>
+      <c r="S107" s="15"/>
+      <c r="T107" s="5"/>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A108" s="4"/>
+      <c r="B108" s="15"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="15"/>
+      <c r="K108" s="15"/>
+      <c r="L108" s="15"/>
+      <c r="M108" s="15"/>
+      <c r="N108" s="15"/>
+      <c r="O108" s="15"/>
+      <c r="P108" s="15"/>
+      <c r="Q108" s="15"/>
+      <c r="R108" s="15"/>
+      <c r="S108" s="15"/>
+      <c r="T108" s="5"/>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A109" s="4"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="15"/>
+      <c r="K109" s="15"/>
+      <c r="L109" s="15"/>
+      <c r="M109" s="15"/>
+      <c r="N109" s="15"/>
+      <c r="O109" s="15"/>
+      <c r="P109" s="15"/>
+      <c r="Q109" s="15"/>
+      <c r="R109" s="15"/>
+      <c r="S109" s="15"/>
+      <c r="T109" s="5"/>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A110" s="4"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="15"/>
+      <c r="K110" s="15"/>
+      <c r="L110" s="15"/>
+      <c r="M110" s="15"/>
+      <c r="N110" s="15"/>
+      <c r="O110" s="15"/>
+      <c r="P110" s="15"/>
+      <c r="Q110" s="15"/>
+      <c r="R110" s="15"/>
+      <c r="S110" s="15"/>
+      <c r="T110" s="5"/>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A111" s="4"/>
+      <c r="B111" s="15"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="15"/>
+      <c r="K111" s="15"/>
+      <c r="L111" s="15"/>
+      <c r="M111" s="15"/>
+      <c r="N111" s="15"/>
+      <c r="O111" s="15"/>
+      <c r="P111" s="15"/>
+      <c r="Q111" s="15"/>
+      <c r="R111" s="15"/>
+      <c r="S111" s="15"/>
+      <c r="T111" s="5"/>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A112" s="4"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="15"/>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="15"/>
+      <c r="K112" s="15"/>
+      <c r="L112" s="15"/>
+      <c r="M112" s="15"/>
+      <c r="N112" s="15"/>
+      <c r="O112" s="15"/>
+      <c r="P112" s="15"/>
+      <c r="Q112" s="15"/>
+      <c r="R112" s="15"/>
+      <c r="S112" s="15"/>
+      <c r="T112" s="5"/>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A113" s="4"/>
+      <c r="B113" s="15"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="15"/>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="15"/>
+      <c r="K113" s="15"/>
+      <c r="L113" s="15"/>
+      <c r="M113" s="15"/>
+      <c r="N113" s="15"/>
+      <c r="O113" s="15"/>
+      <c r="P113" s="15"/>
+      <c r="Q113" s="15"/>
+      <c r="R113" s="15"/>
+      <c r="S113" s="15"/>
+      <c r="T113" s="5"/>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A114" s="4"/>
+      <c r="B114" s="15"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="15"/>
+      <c r="K114" s="15"/>
+      <c r="L114" s="15"/>
+      <c r="M114" s="15"/>
+      <c r="N114" s="15"/>
+      <c r="O114" s="15"/>
+      <c r="P114" s="15"/>
+      <c r="Q114" s="15"/>
+      <c r="R114" s="15"/>
+      <c r="S114" s="15"/>
+      <c r="T114" s="5"/>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A115" s="4"/>
+      <c r="B115" s="15"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="15"/>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="15"/>
+      <c r="K115" s="15"/>
+      <c r="L115" s="15"/>
+      <c r="M115" s="15"/>
+      <c r="N115" s="15"/>
+      <c r="O115" s="15"/>
+      <c r="P115" s="15"/>
+      <c r="Q115" s="15"/>
+      <c r="R115" s="15"/>
+      <c r="S115" s="15"/>
+      <c r="T115" s="5"/>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A116" s="4"/>
+      <c r="B116" s="15"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="15"/>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="15"/>
+      <c r="K116" s="15"/>
+      <c r="L116" s="15"/>
+      <c r="M116" s="15"/>
+      <c r="N116" s="15"/>
+      <c r="O116" s="15"/>
+      <c r="P116" s="15"/>
+      <c r="Q116" s="15"/>
+      <c r="R116" s="15"/>
+      <c r="S116" s="15"/>
+      <c r="T116" s="5"/>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A117" s="4"/>
+      <c r="B117" s="15"/>
+      <c r="C117" s="15"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="15"/>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="15"/>
+      <c r="K117" s="15"/>
+      <c r="L117" s="15"/>
+      <c r="M117" s="15"/>
+      <c r="N117" s="15"/>
+      <c r="O117" s="15"/>
+      <c r="P117" s="15"/>
+      <c r="Q117" s="15"/>
+      <c r="R117" s="15"/>
+      <c r="S117" s="15"/>
+      <c r="T117" s="5"/>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A118" s="4"/>
+      <c r="B118" s="15"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="15"/>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="15"/>
+      <c r="K118" s="15"/>
+      <c r="L118" s="15"/>
+      <c r="M118" s="15"/>
+      <c r="N118" s="15"/>
+      <c r="O118" s="15"/>
+      <c r="P118" s="15"/>
+      <c r="Q118" s="15"/>
+      <c r="R118" s="15"/>
+      <c r="S118" s="15"/>
+      <c r="T118" s="5"/>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A119" s="4"/>
+      <c r="B119" s="15"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="15"/>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="15"/>
+      <c r="K119" s="15"/>
+      <c r="L119" s="15"/>
+      <c r="M119" s="15"/>
+      <c r="N119" s="15"/>
+      <c r="O119" s="15"/>
+      <c r="P119" s="15"/>
+      <c r="Q119" s="15"/>
+      <c r="R119" s="15"/>
+      <c r="S119" s="15"/>
+      <c r="T119" s="5"/>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A120" s="4"/>
+      <c r="B120" s="15"/>
+      <c r="C120" s="15"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="15"/>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="15"/>
+      <c r="K120" s="15"/>
+      <c r="L120" s="15"/>
+      <c r="M120" s="15"/>
+      <c r="N120" s="15"/>
+      <c r="O120" s="15"/>
+      <c r="P120" s="15"/>
+      <c r="Q120" s="15"/>
+      <c r="R120" s="15"/>
+      <c r="S120" s="15"/>
+      <c r="T120" s="5"/>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A121" s="4"/>
+      <c r="B121" s="15"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="15"/>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="15"/>
+      <c r="K121" s="15"/>
+      <c r="L121" s="15"/>
+      <c r="M121" s="15"/>
+      <c r="N121" s="15"/>
+      <c r="O121" s="15"/>
+      <c r="P121" s="15"/>
+      <c r="Q121" s="15"/>
+      <c r="R121" s="15"/>
+      <c r="S121" s="15"/>
+      <c r="T121" s="5"/>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A122" s="4"/>
+      <c r="B122" s="15"/>
+      <c r="C122" s="15"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="15"/>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="15"/>
+      <c r="K122" s="15"/>
+      <c r="L122" s="15"/>
+      <c r="M122" s="15"/>
+      <c r="N122" s="15"/>
+      <c r="O122" s="15"/>
+      <c r="P122" s="15"/>
+      <c r="Q122" s="15"/>
+      <c r="R122" s="15"/>
+      <c r="S122" s="15"/>
+      <c r="T122" s="5"/>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A123" s="4"/>
+      <c r="B123" s="15"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="15"/>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="15"/>
+      <c r="K123" s="15"/>
+      <c r="L123" s="15"/>
+      <c r="M123" s="15"/>
+      <c r="N123" s="15"/>
+      <c r="O123" s="15"/>
+      <c r="P123" s="15"/>
+      <c r="Q123" s="15"/>
+      <c r="R123" s="15"/>
+      <c r="S123" s="15"/>
+      <c r="T123" s="5"/>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A124" s="4"/>
+      <c r="B124" s="15"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="15"/>
+      <c r="K124" s="15"/>
+      <c r="L124" s="15"/>
+      <c r="M124" s="15"/>
+      <c r="N124" s="15"/>
+      <c r="O124" s="15"/>
+      <c r="P124" s="15"/>
+      <c r="Q124" s="15"/>
+      <c r="R124" s="15"/>
+      <c r="S124" s="15"/>
+      <c r="T124" s="5"/>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A125" s="4"/>
+      <c r="B125" s="15"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15"/>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="15"/>
+      <c r="K125" s="15"/>
+      <c r="L125" s="15"/>
+      <c r="M125" s="15"/>
+      <c r="N125" s="15"/>
+      <c r="O125" s="15"/>
+      <c r="P125" s="15"/>
+      <c r="Q125" s="15"/>
+      <c r="R125" s="15"/>
+      <c r="S125" s="15"/>
+      <c r="T125" s="5"/>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A126" s="4"/>
+      <c r="B126" s="15"/>
+      <c r="C126" s="15"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="15"/>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="15"/>
+      <c r="K126" s="15"/>
+      <c r="L126" s="15"/>
+      <c r="M126" s="15"/>
+      <c r="N126" s="15"/>
+      <c r="O126" s="15"/>
+      <c r="P126" s="15"/>
+      <c r="Q126" s="15"/>
+      <c r="R126" s="15"/>
+      <c r="S126" s="15"/>
+      <c r="T126" s="5"/>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A127" s="4"/>
+      <c r="B127" s="15"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="15"/>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="15"/>
+      <c r="K127" s="15"/>
+      <c r="L127" s="15"/>
+      <c r="M127" s="15"/>
+      <c r="N127" s="15"/>
+      <c r="O127" s="15"/>
+      <c r="P127" s="15"/>
+      <c r="Q127" s="15"/>
+      <c r="R127" s="15"/>
+      <c r="S127" s="15"/>
+      <c r="T127" s="5"/>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A128" s="4"/>
+      <c r="B128" s="15"/>
+      <c r="C128" s="15"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="15"/>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="15"/>
+      <c r="K128" s="15"/>
+      <c r="L128" s="15"/>
+      <c r="M128" s="15"/>
+      <c r="N128" s="15"/>
+      <c r="O128" s="15"/>
+      <c r="P128" s="15"/>
+      <c r="Q128" s="15"/>
+      <c r="R128" s="15"/>
+      <c r="S128" s="15"/>
+      <c r="T128" s="5"/>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A129" s="4"/>
+      <c r="B129" s="15"/>
+      <c r="C129" s="15"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="15"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="15"/>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="15"/>
+      <c r="K129" s="15"/>
+      <c r="L129" s="15"/>
+      <c r="M129" s="15"/>
+      <c r="N129" s="15"/>
+      <c r="O129" s="15"/>
+      <c r="P129" s="15"/>
+      <c r="Q129" s="15"/>
+      <c r="R129" s="15"/>
+      <c r="S129" s="15"/>
+      <c r="T129" s="5"/>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A130" s="4"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="15"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="15"/>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="15"/>
+      <c r="K130" s="15"/>
+      <c r="L130" s="15"/>
+      <c r="M130" s="15"/>
+      <c r="N130" s="15"/>
+      <c r="O130" s="15"/>
+      <c r="P130" s="15"/>
+      <c r="Q130" s="15"/>
+      <c r="R130" s="15"/>
+      <c r="S130" s="15"/>
+      <c r="T130" s="5"/>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A131" s="4"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="15"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="15"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="15"/>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="15"/>
+      <c r="K131" s="15"/>
+      <c r="L131" s="15"/>
+      <c r="M131" s="15"/>
+      <c r="N131" s="15"/>
+      <c r="O131" s="15"/>
+      <c r="P131" s="15"/>
+      <c r="Q131" s="15"/>
+      <c r="R131" s="15"/>
+      <c r="S131" s="15"/>
+      <c r="T131" s="5"/>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A132" s="4"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="15"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="15"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="15"/>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="15"/>
+      <c r="K132" s="15"/>
+      <c r="L132" s="15"/>
+      <c r="M132" s="15"/>
+      <c r="N132" s="15"/>
+      <c r="O132" s="15"/>
+      <c r="P132" s="15"/>
+      <c r="Q132" s="15"/>
+      <c r="R132" s="15"/>
+      <c r="S132" s="15"/>
+      <c r="T132" s="5"/>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A133" s="4"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="15"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="15"/>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="15"/>
+      <c r="K133" s="15"/>
+      <c r="L133" s="15"/>
+      <c r="M133" s="15"/>
+      <c r="N133" s="15"/>
+      <c r="O133" s="15"/>
+      <c r="P133" s="15"/>
+      <c r="Q133" s="15"/>
+      <c r="R133" s="15"/>
+      <c r="S133" s="15"/>
+      <c r="T133" s="5"/>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A134" s="4"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="15"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="15"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="15"/>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="15"/>
+      <c r="K134" s="15"/>
+      <c r="L134" s="15"/>
+      <c r="M134" s="15"/>
+      <c r="N134" s="15"/>
+      <c r="O134" s="15"/>
+      <c r="P134" s="15"/>
+      <c r="Q134" s="15"/>
+      <c r="R134" s="15"/>
+      <c r="S134" s="15"/>
+      <c r="T134" s="5"/>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A135" s="4"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="15"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="15"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="15"/>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="15"/>
+      <c r="K135" s="15"/>
+      <c r="L135" s="15"/>
+      <c r="M135" s="15"/>
+      <c r="N135" s="15"/>
+      <c r="O135" s="15"/>
+      <c r="P135" s="15"/>
+      <c r="Q135" s="15"/>
+      <c r="R135" s="15"/>
+      <c r="S135" s="15"/>
+      <c r="T135" s="5"/>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A136" s="4"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="15"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="15"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="15"/>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="15"/>
+      <c r="K136" s="15"/>
+      <c r="L136" s="15"/>
+      <c r="M136" s="15"/>
+      <c r="N136" s="15"/>
+      <c r="O136" s="15"/>
+      <c r="P136" s="15"/>
+      <c r="Q136" s="15"/>
+      <c r="R136" s="15"/>
+      <c r="S136" s="15"/>
+      <c r="T136" s="5"/>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A137" s="6"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="7"/>
+      <c r="G137" s="7"/>
+      <c r="H137" s="7"/>
+      <c r="I137" s="7"/>
+      <c r="J137" s="7"/>
+      <c r="K137" s="7"/>
+      <c r="L137" s="7"/>
+      <c r="M137" s="7"/>
+      <c r="N137" s="7"/>
+      <c r="O137" s="7"/>
+      <c r="P137" s="7"/>
+      <c r="Q137" s="7"/>
+      <c r="R137" s="7"/>
+      <c r="S137" s="7"/>
+      <c r="T137" s="8"/>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A140" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+      <c r="J140" s="2"/>
+      <c r="K140" s="2"/>
+      <c r="L140" s="2"/>
+      <c r="M140" s="2"/>
+      <c r="N140" s="2"/>
+      <c r="O140" s="2"/>
+      <c r="P140" s="2"/>
+      <c r="Q140" s="2"/>
+      <c r="R140" s="2"/>
+      <c r="S140" s="2"/>
+      <c r="T140" s="3"/>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A141" s="16"/>
+      <c r="B141" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C141" s="15"/>
+      <c r="D141" s="15"/>
+      <c r="E141" s="15"/>
+      <c r="F141" s="15"/>
+      <c r="G141" s="15"/>
+      <c r="H141" s="15"/>
+      <c r="I141" s="15"/>
+      <c r="J141" s="15"/>
+      <c r="K141" s="15"/>
+      <c r="L141" s="15"/>
+      <c r="M141" s="15"/>
+      <c r="N141" s="15"/>
+      <c r="O141" s="15"/>
+      <c r="P141" s="15"/>
+      <c r="Q141" s="15"/>
+      <c r="R141" s="15"/>
+      <c r="S141" s="15"/>
+      <c r="T141" s="5"/>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A142" s="4"/>
+      <c r="B142" s="15"/>
+      <c r="C142" s="15"/>
+      <c r="D142" s="15"/>
+      <c r="E142" s="15"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="15"/>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="15"/>
+      <c r="K142" s="15"/>
+      <c r="L142" s="15"/>
+      <c r="M142" s="15"/>
+      <c r="N142" s="15"/>
+      <c r="O142" s="15"/>
+      <c r="P142" s="15"/>
+      <c r="Q142" s="15"/>
+      <c r="R142" s="15"/>
+      <c r="S142" s="15"/>
+      <c r="T142" s="5"/>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A143" s="4"/>
+      <c r="B143" s="15"/>
+      <c r="C143" s="15"/>
+      <c r="D143" s="15"/>
+      <c r="E143" s="15"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="15"/>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="15"/>
+      <c r="K143" s="15"/>
+      <c r="L143" s="15"/>
+      <c r="M143" s="15"/>
+      <c r="N143" s="15"/>
+      <c r="O143" s="15"/>
+      <c r="P143" s="15"/>
+      <c r="Q143" s="15"/>
+      <c r="R143" s="15"/>
+      <c r="S143" s="15"/>
+      <c r="T143" s="5"/>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A144" s="4"/>
+      <c r="B144" s="15"/>
+      <c r="C144" s="15"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="15"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="15"/>
+      <c r="H144" s="15"/>
+      <c r="I144" s="15"/>
+      <c r="J144" s="15"/>
+      <c r="K144" s="15"/>
+      <c r="L144" s="15"/>
+      <c r="M144" s="15"/>
+      <c r="N144" s="15"/>
+      <c r="O144" s="15"/>
+      <c r="P144" s="15"/>
+      <c r="Q144" s="15"/>
+      <c r="R144" s="15"/>
+      <c r="S144" s="15"/>
+      <c r="T144" s="5"/>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A145" s="4"/>
+      <c r="B145" s="15"/>
+      <c r="C145" s="15"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="15"/>
+      <c r="H145" s="15"/>
+      <c r="I145" s="15"/>
+      <c r="J145" s="15"/>
+      <c r="K145" s="15"/>
+      <c r="L145" s="15"/>
+      <c r="M145" s="15"/>
+      <c r="N145" s="15"/>
+      <c r="O145" s="15"/>
+      <c r="P145" s="15"/>
+      <c r="Q145" s="15"/>
+      <c r="R145" s="15"/>
+      <c r="S145" s="15"/>
+      <c r="T145" s="5"/>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A146" s="4"/>
+      <c r="B146" s="15"/>
+      <c r="C146" s="15"/>
+      <c r="D146" s="15"/>
+      <c r="E146" s="15"/>
+      <c r="F146" s="15"/>
+      <c r="G146" s="15"/>
+      <c r="H146" s="15"/>
+      <c r="I146" s="15"/>
+      <c r="J146" s="15"/>
+      <c r="K146" s="15"/>
+      <c r="L146" s="15"/>
+      <c r="M146" s="15"/>
+      <c r="N146" s="15"/>
+      <c r="O146" s="15"/>
+      <c r="P146" s="15"/>
+      <c r="Q146" s="15"/>
+      <c r="R146" s="15"/>
+      <c r="S146" s="15"/>
+      <c r="T146" s="5"/>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A147" s="4"/>
+      <c r="B147" s="15"/>
+      <c r="C147" s="15"/>
+      <c r="D147" s="15"/>
+      <c r="E147" s="15"/>
+      <c r="F147" s="15"/>
+      <c r="G147" s="15"/>
+      <c r="H147" s="15"/>
+      <c r="I147" s="15"/>
+      <c r="J147" s="15"/>
+      <c r="K147" s="15"/>
+      <c r="L147" s="15"/>
+      <c r="M147" s="15"/>
+      <c r="N147" s="15"/>
+      <c r="O147" s="15"/>
+      <c r="P147" s="15"/>
+      <c r="Q147" s="15"/>
+      <c r="R147" s="15"/>
+      <c r="S147" s="15"/>
+      <c r="T147" s="5"/>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A148" s="4"/>
+      <c r="B148" s="15"/>
+      <c r="C148" s="15"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="15"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="15"/>
+      <c r="H148" s="15"/>
+      <c r="I148" s="15"/>
+      <c r="J148" s="15"/>
+      <c r="K148" s="15"/>
+      <c r="L148" s="15"/>
+      <c r="M148" s="15"/>
+      <c r="N148" s="15"/>
+      <c r="O148" s="15"/>
+      <c r="P148" s="15"/>
+      <c r="Q148" s="15"/>
+      <c r="R148" s="15"/>
+      <c r="S148" s="15"/>
+      <c r="T148" s="5"/>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A149" s="4"/>
+      <c r="B149" s="15"/>
+      <c r="C149" s="15"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="15"/>
+      <c r="F149" s="15"/>
+      <c r="G149" s="15"/>
+      <c r="H149" s="15"/>
+      <c r="I149" s="15"/>
+      <c r="J149" s="15"/>
+      <c r="K149" s="15"/>
+      <c r="L149" s="15"/>
+      <c r="M149" s="15"/>
+      <c r="N149" s="15"/>
+      <c r="O149" s="15"/>
+      <c r="P149" s="15"/>
+      <c r="Q149" s="15"/>
+      <c r="R149" s="15"/>
+      <c r="S149" s="15"/>
+      <c r="T149" s="5"/>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A150" s="4"/>
+      <c r="B150" s="15"/>
+      <c r="C150" s="15"/>
+      <c r="D150" s="15"/>
+      <c r="E150" s="15"/>
+      <c r="F150" s="15"/>
+      <c r="G150" s="15"/>
+      <c r="H150" s="15"/>
+      <c r="I150" s="15"/>
+      <c r="J150" s="15"/>
+      <c r="K150" s="15"/>
+      <c r="L150" s="15"/>
+      <c r="M150" s="15"/>
+      <c r="N150" s="15"/>
+      <c r="O150" s="15"/>
+      <c r="P150" s="15"/>
+      <c r="Q150" s="15"/>
+      <c r="R150" s="15"/>
+      <c r="S150" s="15"/>
+      <c r="T150" s="5"/>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A151" s="4"/>
+      <c r="B151" s="15"/>
+      <c r="C151" s="15"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="15"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="15"/>
+      <c r="H151" s="15"/>
+      <c r="I151" s="15"/>
+      <c r="J151" s="15"/>
+      <c r="K151" s="15"/>
+      <c r="L151" s="15"/>
+      <c r="M151" s="15"/>
+      <c r="N151" s="15"/>
+      <c r="O151" s="15"/>
+      <c r="P151" s="15"/>
+      <c r="Q151" s="15"/>
+      <c r="R151" s="15"/>
+      <c r="S151" s="15"/>
+      <c r="T151" s="5"/>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A152" s="4"/>
+      <c r="B152" s="15"/>
+      <c r="C152" s="15"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="15"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="15"/>
+      <c r="H152" s="15"/>
+      <c r="I152" s="15"/>
+      <c r="J152" s="15"/>
+      <c r="K152" s="15"/>
+      <c r="L152" s="15"/>
+      <c r="M152" s="15"/>
+      <c r="N152" s="15"/>
+      <c r="O152" s="15"/>
+      <c r="P152" s="15"/>
+      <c r="Q152" s="15"/>
+      <c r="R152" s="15"/>
+      <c r="S152" s="15"/>
+      <c r="T152" s="5"/>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A153" s="4"/>
+      <c r="B153" s="15"/>
+      <c r="C153" s="15"/>
+      <c r="D153" s="15"/>
+      <c r="E153" s="15"/>
+      <c r="F153" s="15"/>
+      <c r="G153" s="15"/>
+      <c r="H153" s="15"/>
+      <c r="I153" s="15"/>
+      <c r="J153" s="15"/>
+      <c r="K153" s="15"/>
+      <c r="L153" s="15"/>
+      <c r="M153" s="15"/>
+      <c r="N153" s="15"/>
+      <c r="O153" s="15"/>
+      <c r="P153" s="15"/>
+      <c r="Q153" s="15"/>
+      <c r="R153" s="15"/>
+      <c r="S153" s="15"/>
+      <c r="T153" s="5"/>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A154" s="4"/>
+      <c r="B154" s="15"/>
+      <c r="C154" s="15"/>
+      <c r="D154" s="15"/>
+      <c r="E154" s="15"/>
+      <c r="F154" s="15"/>
+      <c r="G154" s="15"/>
+      <c r="H154" s="15"/>
+      <c r="I154" s="15"/>
+      <c r="J154" s="15"/>
+      <c r="K154" s="15"/>
+      <c r="L154" s="15"/>
+      <c r="M154" s="15"/>
+      <c r="N154" s="15"/>
+      <c r="O154" s="15"/>
+      <c r="P154" s="15"/>
+      <c r="Q154" s="15"/>
+      <c r="R154" s="15"/>
+      <c r="S154" s="15"/>
+      <c r="T154" s="5"/>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A155" s="4"/>
+      <c r="B155" s="15"/>
+      <c r="C155" s="15"/>
+      <c r="D155" s="15"/>
+      <c r="E155" s="15"/>
+      <c r="F155" s="15"/>
+      <c r="G155" s="15"/>
+      <c r="H155" s="15"/>
+      <c r="I155" s="15"/>
+      <c r="J155" s="15"/>
+      <c r="K155" s="15"/>
+      <c r="L155" s="15"/>
+      <c r="M155" s="15"/>
+      <c r="N155" s="15"/>
+      <c r="O155" s="15"/>
+      <c r="P155" s="15"/>
+      <c r="Q155" s="15"/>
+      <c r="R155" s="15"/>
+      <c r="S155" s="15"/>
+      <c r="T155" s="5"/>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A156" s="4"/>
+      <c r="B156" s="15"/>
+      <c r="C156" s="15"/>
+      <c r="D156" s="15"/>
+      <c r="E156" s="15"/>
+      <c r="F156" s="15"/>
+      <c r="G156" s="15"/>
+      <c r="H156" s="15"/>
+      <c r="I156" s="15"/>
+      <c r="J156" s="15"/>
+      <c r="K156" s="15"/>
+      <c r="L156" s="15"/>
+      <c r="M156" s="15"/>
+      <c r="N156" s="15"/>
+      <c r="O156" s="15"/>
+      <c r="P156" s="15"/>
+      <c r="Q156" s="15"/>
+      <c r="R156" s="15"/>
+      <c r="S156" s="15"/>
+      <c r="T156" s="5"/>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A157" s="4"/>
+      <c r="B157" s="15"/>
+      <c r="C157" s="15"/>
+      <c r="D157" s="15"/>
+      <c r="E157" s="15"/>
+      <c r="F157" s="15"/>
+      <c r="G157" s="15"/>
+      <c r="H157" s="15"/>
+      <c r="I157" s="15"/>
+      <c r="J157" s="15"/>
+      <c r="K157" s="15"/>
+      <c r="L157" s="15"/>
+      <c r="M157" s="15"/>
+      <c r="N157" s="15"/>
+      <c r="O157" s="15"/>
+      <c r="P157" s="15"/>
+      <c r="Q157" s="15"/>
+      <c r="R157" s="15"/>
+      <c r="S157" s="15"/>
+      <c r="T157" s="5"/>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A158" s="4"/>
+      <c r="B158" s="15"/>
+      <c r="C158" s="15"/>
+      <c r="D158" s="15"/>
+      <c r="E158" s="15"/>
+      <c r="F158" s="15"/>
+      <c r="G158" s="15"/>
+      <c r="H158" s="15"/>
+      <c r="I158" s="15"/>
+      <c r="J158" s="15"/>
+      <c r="K158" s="15"/>
+      <c r="L158" s="15"/>
+      <c r="M158" s="15"/>
+      <c r="N158" s="15"/>
+      <c r="O158" s="15"/>
+      <c r="P158" s="15"/>
+      <c r="Q158" s="15"/>
+      <c r="R158" s="15"/>
+      <c r="S158" s="15"/>
+      <c r="T158" s="5"/>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A159" s="4"/>
+      <c r="B159" s="15"/>
+      <c r="C159" s="15"/>
+      <c r="D159" s="15"/>
+      <c r="E159" s="15"/>
+      <c r="F159" s="15"/>
+      <c r="G159" s="15"/>
+      <c r="H159" s="15"/>
+      <c r="I159" s="15"/>
+      <c r="J159" s="15"/>
+      <c r="K159" s="15"/>
+      <c r="L159" s="15"/>
+      <c r="M159" s="15"/>
+      <c r="N159" s="15"/>
+      <c r="O159" s="15"/>
+      <c r="P159" s="15"/>
+      <c r="Q159" s="15"/>
+      <c r="R159" s="15"/>
+      <c r="S159" s="15"/>
+      <c r="T159" s="5"/>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A160" s="4"/>
+      <c r="B160" s="15"/>
+      <c r="C160" s="15"/>
+      <c r="D160" s="15"/>
+      <c r="E160" s="15"/>
+      <c r="F160" s="15"/>
+      <c r="G160" s="15"/>
+      <c r="H160" s="15"/>
+      <c r="I160" s="15"/>
+      <c r="J160" s="15"/>
+      <c r="K160" s="15"/>
+      <c r="L160" s="15"/>
+      <c r="M160" s="15"/>
+      <c r="N160" s="15"/>
+      <c r="O160" s="15"/>
+      <c r="P160" s="15"/>
+      <c r="Q160" s="15"/>
+      <c r="R160" s="15"/>
+      <c r="S160" s="15"/>
+      <c r="T160" s="5"/>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A161" s="4"/>
+      <c r="B161" s="15"/>
+      <c r="C161" s="15"/>
+      <c r="D161" s="15"/>
+      <c r="E161" s="15"/>
+      <c r="F161" s="15"/>
+      <c r="G161" s="15"/>
+      <c r="H161" s="15"/>
+      <c r="I161" s="15"/>
+      <c r="J161" s="15"/>
+      <c r="K161" s="15"/>
+      <c r="L161" s="15"/>
+      <c r="M161" s="15"/>
+      <c r="N161" s="15"/>
+      <c r="O161" s="15"/>
+      <c r="P161" s="15"/>
+      <c r="Q161" s="15"/>
+      <c r="R161" s="15"/>
+      <c r="S161" s="15"/>
+      <c r="T161" s="5"/>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A162" s="4"/>
+      <c r="B162" s="15"/>
+      <c r="C162" s="15"/>
+      <c r="D162" s="15"/>
+      <c r="E162" s="15"/>
+      <c r="F162" s="15"/>
+      <c r="G162" s="15"/>
+      <c r="H162" s="15"/>
+      <c r="I162" s="15"/>
+      <c r="J162" s="15"/>
+      <c r="K162" s="15"/>
+      <c r="L162" s="15"/>
+      <c r="M162" s="15"/>
+      <c r="N162" s="15"/>
+      <c r="O162" s="15"/>
+      <c r="P162" s="15"/>
+      <c r="Q162" s="15"/>
+      <c r="R162" s="15"/>
+      <c r="S162" s="15"/>
+      <c r="T162" s="5"/>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A163" s="4"/>
+      <c r="B163" s="15"/>
+      <c r="C163" s="15"/>
+      <c r="D163" s="15"/>
+      <c r="E163" s="15"/>
+      <c r="F163" s="15"/>
+      <c r="G163" s="15"/>
+      <c r="H163" s="15"/>
+      <c r="I163" s="15"/>
+      <c r="J163" s="15"/>
+      <c r="K163" s="15"/>
+      <c r="L163" s="15"/>
+      <c r="M163" s="15"/>
+      <c r="N163" s="15"/>
+      <c r="O163" s="15"/>
+      <c r="P163" s="15"/>
+      <c r="Q163" s="15"/>
+      <c r="R163" s="15"/>
+      <c r="S163" s="15"/>
+      <c r="T163" s="5"/>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A164" s="4"/>
+      <c r="B164" s="15"/>
+      <c r="C164" s="15"/>
+      <c r="D164" s="15"/>
+      <c r="E164" s="15"/>
+      <c r="F164" s="15"/>
+      <c r="G164" s="15"/>
+      <c r="H164" s="15"/>
+      <c r="I164" s="15"/>
+      <c r="J164" s="15"/>
+      <c r="K164" s="15"/>
+      <c r="L164" s="15"/>
+      <c r="M164" s="15"/>
+      <c r="N164" s="15"/>
+      <c r="O164" s="15"/>
+      <c r="P164" s="15"/>
+      <c r="Q164" s="15"/>
+      <c r="R164" s="15"/>
+      <c r="S164" s="15"/>
+      <c r="T164" s="5"/>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A165" s="4"/>
+      <c r="B165" s="15"/>
+      <c r="C165" s="15"/>
+      <c r="D165" s="15"/>
+      <c r="E165" s="15"/>
+      <c r="F165" s="15"/>
+      <c r="G165" s="15"/>
+      <c r="H165" s="15"/>
+      <c r="I165" s="15"/>
+      <c r="J165" s="15"/>
+      <c r="K165" s="15"/>
+      <c r="L165" s="15"/>
+      <c r="M165" s="15"/>
+      <c r="N165" s="15"/>
+      <c r="O165" s="15"/>
+      <c r="P165" s="15"/>
+      <c r="Q165" s="15"/>
+      <c r="R165" s="15"/>
+      <c r="S165" s="15"/>
+      <c r="T165" s="5"/>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A166" s="4"/>
+      <c r="B166" s="15"/>
+      <c r="C166" s="15"/>
+      <c r="D166" s="15"/>
+      <c r="E166" s="15"/>
+      <c r="F166" s="15"/>
+      <c r="G166" s="15"/>
+      <c r="H166" s="15"/>
+      <c r="I166" s="15"/>
+      <c r="J166" s="15"/>
+      <c r="K166" s="15"/>
+      <c r="L166" s="15"/>
+      <c r="M166" s="15"/>
+      <c r="N166" s="15"/>
+      <c r="O166" s="15"/>
+      <c r="P166" s="15"/>
+      <c r="Q166" s="15"/>
+      <c r="R166" s="15"/>
+      <c r="S166" s="15"/>
+      <c r="T166" s="5"/>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A167" s="4"/>
+      <c r="B167" s="15"/>
+      <c r="C167" s="15"/>
+      <c r="D167" s="15"/>
+      <c r="E167" s="15"/>
+      <c r="F167" s="15"/>
+      <c r="G167" s="15"/>
+      <c r="H167" s="15"/>
+      <c r="I167" s="15"/>
+      <c r="J167" s="15"/>
+      <c r="K167" s="15"/>
+      <c r="L167" s="15"/>
+      <c r="M167" s="15"/>
+      <c r="N167" s="15"/>
+      <c r="O167" s="15"/>
+      <c r="P167" s="15"/>
+      <c r="Q167" s="15"/>
+      <c r="R167" s="15"/>
+      <c r="S167" s="15"/>
+      <c r="T167" s="5"/>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A168" s="4"/>
+      <c r="B168" s="15"/>
+      <c r="C168" s="15"/>
+      <c r="D168" s="15"/>
+      <c r="E168" s="15"/>
+      <c r="F168" s="15"/>
+      <c r="G168" s="15"/>
+      <c r="H168" s="15"/>
+      <c r="I168" s="15"/>
+      <c r="J168" s="15"/>
+      <c r="K168" s="15"/>
+      <c r="L168" s="15"/>
+      <c r="M168" s="15"/>
+      <c r="N168" s="15"/>
+      <c r="O168" s="15"/>
+      <c r="P168" s="15"/>
+      <c r="Q168" s="15"/>
+      <c r="R168" s="15"/>
+      <c r="S168" s="15"/>
+      <c r="T168" s="5"/>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A169" s="4"/>
+      <c r="B169" s="15"/>
+      <c r="C169" s="15"/>
+      <c r="D169" s="15"/>
+      <c r="E169" s="15"/>
+      <c r="F169" s="15"/>
+      <c r="G169" s="15"/>
+      <c r="H169" s="15"/>
+      <c r="I169" s="15"/>
+      <c r="J169" s="15"/>
+      <c r="K169" s="15"/>
+      <c r="L169" s="15"/>
+      <c r="M169" s="15"/>
+      <c r="N169" s="15"/>
+      <c r="O169" s="15"/>
+      <c r="P169" s="15"/>
+      <c r="Q169" s="15"/>
+      <c r="R169" s="15"/>
+      <c r="S169" s="15"/>
+      <c r="T169" s="5"/>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A170" s="4"/>
+      <c r="B170" s="15"/>
+      <c r="C170" s="15"/>
+      <c r="D170" s="15"/>
+      <c r="E170" s="15"/>
+      <c r="F170" s="15"/>
+      <c r="G170" s="15"/>
+      <c r="H170" s="15"/>
+      <c r="I170" s="15"/>
+      <c r="J170" s="15"/>
+      <c r="K170" s="15"/>
+      <c r="L170" s="15"/>
+      <c r="M170" s="15"/>
+      <c r="N170" s="15"/>
+      <c r="O170" s="15"/>
+      <c r="P170" s="15"/>
+      <c r="Q170" s="15"/>
+      <c r="R170" s="15"/>
+      <c r="S170" s="15"/>
+      <c r="T170" s="5"/>
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A171" s="4"/>
+      <c r="B171" s="15"/>
+      <c r="C171" s="15"/>
+      <c r="D171" s="15"/>
+      <c r="E171" s="15"/>
+      <c r="F171" s="15"/>
+      <c r="G171" s="15"/>
+      <c r="H171" s="15"/>
+      <c r="I171" s="15"/>
+      <c r="J171" s="15"/>
+      <c r="K171" s="15"/>
+      <c r="L171" s="15"/>
+      <c r="M171" s="15"/>
+      <c r="N171" s="15"/>
+      <c r="O171" s="15"/>
+      <c r="P171" s="15"/>
+      <c r="Q171" s="15"/>
+      <c r="R171" s="15"/>
+      <c r="S171" s="15"/>
+      <c r="T171" s="5"/>
+    </row>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A172" s="4"/>
+      <c r="B172" s="15"/>
+      <c r="C172" s="15"/>
+      <c r="D172" s="15"/>
+      <c r="E172" s="15"/>
+      <c r="F172" s="15"/>
+      <c r="G172" s="15"/>
+      <c r="H172" s="15"/>
+      <c r="I172" s="15"/>
+      <c r="J172" s="15"/>
+      <c r="K172" s="15"/>
+      <c r="L172" s="15"/>
+      <c r="M172" s="15"/>
+      <c r="N172" s="15"/>
+      <c r="O172" s="15"/>
+      <c r="P172" s="15"/>
+      <c r="Q172" s="15"/>
+      <c r="R172" s="15"/>
+      <c r="S172" s="15"/>
+      <c r="T172" s="5"/>
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A173" s="4"/>
+      <c r="B173" s="15"/>
+      <c r="C173" s="15"/>
+      <c r="D173" s="15"/>
+      <c r="E173" s="15"/>
+      <c r="F173" s="15"/>
+      <c r="G173" s="15"/>
+      <c r="H173" s="15"/>
+      <c r="I173" s="15"/>
+      <c r="J173" s="15"/>
+      <c r="K173" s="15"/>
+      <c r="L173" s="15"/>
+      <c r="M173" s="15"/>
+      <c r="N173" s="15"/>
+      <c r="O173" s="15"/>
+      <c r="P173" s="15"/>
+      <c r="Q173" s="15"/>
+      <c r="R173" s="15"/>
+      <c r="S173" s="15"/>
+      <c r="T173" s="5"/>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A174" s="4"/>
+      <c r="B174" s="15"/>
+      <c r="C174" s="15"/>
+      <c r="D174" s="15"/>
+      <c r="E174" s="15"/>
+      <c r="F174" s="15"/>
+      <c r="G174" s="15"/>
+      <c r="H174" s="15"/>
+      <c r="I174" s="15"/>
+      <c r="J174" s="15"/>
+      <c r="K174" s="15"/>
+      <c r="L174" s="15"/>
+      <c r="M174" s="15"/>
+      <c r="N174" s="15"/>
+      <c r="O174" s="15"/>
+      <c r="P174" s="15"/>
+      <c r="Q174" s="15"/>
+      <c r="R174" s="15"/>
+      <c r="S174" s="15"/>
+      <c r="T174" s="5"/>
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A175" s="4"/>
+      <c r="B175" s="15"/>
+      <c r="C175" s="15"/>
+      <c r="D175" s="15"/>
+      <c r="E175" s="15"/>
+      <c r="F175" s="15"/>
+      <c r="G175" s="15"/>
+      <c r="H175" s="15"/>
+      <c r="I175" s="15"/>
+      <c r="J175" s="15"/>
+      <c r="K175" s="15"/>
+      <c r="L175" s="15"/>
+      <c r="M175" s="15"/>
+      <c r="N175" s="15"/>
+      <c r="O175" s="15"/>
+      <c r="P175" s="15"/>
+      <c r="Q175" s="15"/>
+      <c r="R175" s="15"/>
+      <c r="S175" s="15"/>
+      <c r="T175" s="5"/>
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A176" s="4"/>
+      <c r="B176" s="15"/>
+      <c r="C176" s="15"/>
+      <c r="D176" s="15"/>
+      <c r="E176" s="15"/>
+      <c r="F176" s="15"/>
+      <c r="G176" s="15"/>
+      <c r="H176" s="15"/>
+      <c r="I176" s="15"/>
+      <c r="J176" s="15"/>
+      <c r="K176" s="15"/>
+      <c r="L176" s="15"/>
+      <c r="M176" s="15"/>
+      <c r="N176" s="15"/>
+      <c r="O176" s="15"/>
+      <c r="P176" s="15"/>
+      <c r="Q176" s="15"/>
+      <c r="R176" s="15"/>
+      <c r="S176" s="15"/>
+      <c r="T176" s="5"/>
+    </row>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A177" s="4"/>
+      <c r="B177" s="15"/>
+      <c r="C177" s="15"/>
+      <c r="D177" s="15"/>
+      <c r="E177" s="15"/>
+      <c r="F177" s="15"/>
+      <c r="G177" s="15"/>
+      <c r="H177" s="15"/>
+      <c r="I177" s="15"/>
+      <c r="J177" s="15"/>
+      <c r="K177" s="15"/>
+      <c r="L177" s="15"/>
+      <c r="M177" s="15"/>
+      <c r="N177" s="15"/>
+      <c r="O177" s="15"/>
+      <c r="P177" s="15"/>
+      <c r="Q177" s="15"/>
+      <c r="R177" s="15"/>
+      <c r="S177" s="15"/>
+      <c r="T177" s="5"/>
+    </row>
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A178" s="4"/>
+      <c r="B178" s="15"/>
+      <c r="C178" s="15"/>
+      <c r="D178" s="15"/>
+      <c r="E178" s="15"/>
+      <c r="F178" s="15"/>
+      <c r="G178" s="15"/>
+      <c r="H178" s="15"/>
+      <c r="I178" s="15"/>
+      <c r="J178" s="15"/>
+      <c r="K178" s="15"/>
+      <c r="L178" s="15"/>
+      <c r="M178" s="15"/>
+      <c r="N178" s="15"/>
+      <c r="O178" s="15"/>
+      <c r="P178" s="15"/>
+      <c r="Q178" s="15"/>
+      <c r="R178" s="15"/>
+      <c r="S178" s="15"/>
+      <c r="T178" s="5"/>
+    </row>
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A179" s="4"/>
+      <c r="B179" s="15"/>
+      <c r="C179" s="15"/>
+      <c r="D179" s="15"/>
+      <c r="E179" s="15"/>
+      <c r="F179" s="15"/>
+      <c r="G179" s="15"/>
+      <c r="H179" s="15"/>
+      <c r="I179" s="15"/>
+      <c r="J179" s="15"/>
+      <c r="K179" s="15"/>
+      <c r="L179" s="15"/>
+      <c r="M179" s="15"/>
+      <c r="N179" s="15"/>
+      <c r="O179" s="15"/>
+      <c r="P179" s="15"/>
+      <c r="Q179" s="15"/>
+      <c r="R179" s="15"/>
+      <c r="S179" s="15"/>
+      <c r="T179" s="5"/>
+    </row>
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A180" s="4"/>
+      <c r="B180" s="15"/>
+      <c r="C180" s="15"/>
+      <c r="D180" s="15"/>
+      <c r="E180" s="15"/>
+      <c r="F180" s="15"/>
+      <c r="G180" s="15"/>
+      <c r="H180" s="15"/>
+      <c r="I180" s="15"/>
+      <c r="J180" s="15"/>
+      <c r="K180" s="15"/>
+      <c r="L180" s="15"/>
+      <c r="M180" s="15"/>
+      <c r="N180" s="15"/>
+      <c r="O180" s="15"/>
+      <c r="P180" s="15"/>
+      <c r="Q180" s="15"/>
+      <c r="R180" s="15"/>
+      <c r="S180" s="15"/>
+      <c r="T180" s="5"/>
+    </row>
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A181" s="4"/>
+      <c r="B181" s="15"/>
+      <c r="C181" s="15"/>
+      <c r="D181" s="15"/>
+      <c r="E181" s="15"/>
+      <c r="F181" s="15"/>
+      <c r="G181" s="15"/>
+      <c r="H181" s="15"/>
+      <c r="I181" s="15"/>
+      <c r="J181" s="15"/>
+      <c r="K181" s="15"/>
+      <c r="L181" s="15"/>
+      <c r="M181" s="15"/>
+      <c r="N181" s="15"/>
+      <c r="O181" s="15"/>
+      <c r="P181" s="15"/>
+      <c r="Q181" s="15"/>
+      <c r="R181" s="15"/>
+      <c r="S181" s="15"/>
+      <c r="T181" s="5"/>
+    </row>
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A182" s="4"/>
+      <c r="B182" s="15"/>
+      <c r="C182" s="15"/>
+      <c r="D182" s="15"/>
+      <c r="E182" s="15"/>
+      <c r="F182" s="15"/>
+      <c r="G182" s="15"/>
+      <c r="H182" s="15"/>
+      <c r="I182" s="15"/>
+      <c r="J182" s="15"/>
+      <c r="K182" s="15"/>
+      <c r="L182" s="15"/>
+      <c r="M182" s="15"/>
+      <c r="N182" s="15"/>
+      <c r="O182" s="15"/>
+      <c r="P182" s="15"/>
+      <c r="Q182" s="15"/>
+      <c r="R182" s="15"/>
+      <c r="S182" s="15"/>
+      <c r="T182" s="5"/>
+    </row>
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A183" s="4"/>
+      <c r="B183" s="15"/>
+      <c r="C183" s="15"/>
+      <c r="D183" s="15"/>
+      <c r="E183" s="15"/>
+      <c r="F183" s="15"/>
+      <c r="G183" s="15"/>
+      <c r="H183" s="15"/>
+      <c r="I183" s="15"/>
+      <c r="J183" s="15"/>
+      <c r="K183" s="15"/>
+      <c r="L183" s="15"/>
+      <c r="M183" s="15"/>
+      <c r="N183" s="15"/>
+      <c r="O183" s="15"/>
+      <c r="P183" s="15"/>
+      <c r="Q183" s="15"/>
+      <c r="R183" s="15"/>
+      <c r="S183" s="15"/>
+      <c r="T183" s="5"/>
+    </row>
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A184" s="4"/>
+      <c r="B184" s="15"/>
+      <c r="C184" s="15"/>
+      <c r="D184" s="15"/>
+      <c r="E184" s="15"/>
+      <c r="F184" s="15"/>
+      <c r="G184" s="15"/>
+      <c r="H184" s="15"/>
+      <c r="I184" s="15"/>
+      <c r="J184" s="15"/>
+      <c r="K184" s="15"/>
+      <c r="L184" s="15"/>
+      <c r="M184" s="15"/>
+      <c r="N184" s="15"/>
+      <c r="O184" s="15"/>
+      <c r="P184" s="15"/>
+      <c r="Q184" s="15"/>
+      <c r="R184" s="15"/>
+      <c r="S184" s="15"/>
+      <c r="T184" s="5"/>
+    </row>
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A185" s="4"/>
+      <c r="B185" s="15"/>
+      <c r="C185" s="15"/>
+      <c r="D185" s="15"/>
+      <c r="E185" s="15"/>
+      <c r="F185" s="15"/>
+      <c r="G185" s="15"/>
+      <c r="H185" s="15"/>
+      <c r="I185" s="15"/>
+      <c r="J185" s="15"/>
+      <c r="K185" s="15"/>
+      <c r="L185" s="15"/>
+      <c r="M185" s="15"/>
+      <c r="N185" s="15"/>
+      <c r="O185" s="15"/>
+      <c r="P185" s="15"/>
+      <c r="Q185" s="15"/>
+      <c r="R185" s="15"/>
+      <c r="S185" s="15"/>
+      <c r="T185" s="5"/>
+    </row>
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A186" s="4"/>
+      <c r="B186" s="15"/>
+      <c r="C186" s="15"/>
+      <c r="D186" s="15"/>
+      <c r="E186" s="15"/>
+      <c r="F186" s="15"/>
+      <c r="G186" s="15"/>
+      <c r="H186" s="15"/>
+      <c r="I186" s="15"/>
+      <c r="J186" s="15"/>
+      <c r="K186" s="15"/>
+      <c r="L186" s="15"/>
+      <c r="M186" s="15"/>
+      <c r="N186" s="15"/>
+      <c r="O186" s="15"/>
+      <c r="P186" s="15"/>
+      <c r="Q186" s="15"/>
+      <c r="R186" s="15"/>
+      <c r="S186" s="15"/>
+      <c r="T186" s="5"/>
+    </row>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A187" s="4"/>
+      <c r="B187" s="15"/>
+      <c r="C187" s="15"/>
+      <c r="D187" s="15"/>
+      <c r="E187" s="15"/>
+      <c r="F187" s="15"/>
+      <c r="G187" s="15"/>
+      <c r="H187" s="15"/>
+      <c r="I187" s="15"/>
+      <c r="J187" s="15"/>
+      <c r="K187" s="15"/>
+      <c r="L187" s="15"/>
+      <c r="M187" s="15"/>
+      <c r="N187" s="15"/>
+      <c r="O187" s="15"/>
+      <c r="P187" s="15"/>
+      <c r="Q187" s="15"/>
+      <c r="R187" s="15"/>
+      <c r="S187" s="15"/>
+      <c r="T187" s="5"/>
+    </row>
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A188" s="4"/>
+      <c r="B188" s="15"/>
+      <c r="C188" s="15"/>
+      <c r="D188" s="15"/>
+      <c r="E188" s="15"/>
+      <c r="F188" s="15"/>
+      <c r="G188" s="15"/>
+      <c r="H188" s="15"/>
+      <c r="I188" s="15"/>
+      <c r="J188" s="15"/>
+      <c r="K188" s="15"/>
+      <c r="L188" s="15"/>
+      <c r="M188" s="15"/>
+      <c r="N188" s="15"/>
+      <c r="O188" s="15"/>
+      <c r="P188" s="15"/>
+      <c r="Q188" s="15"/>
+      <c r="R188" s="15"/>
+      <c r="S188" s="15"/>
+      <c r="T188" s="5"/>
+    </row>
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A189" s="4"/>
+      <c r="B189" s="15"/>
+      <c r="C189" s="15"/>
+      <c r="D189" s="15"/>
+      <c r="E189" s="15"/>
+      <c r="F189" s="15"/>
+      <c r="G189" s="15"/>
+      <c r="H189" s="15"/>
+      <c r="I189" s="15"/>
+      <c r="J189" s="15"/>
+      <c r="K189" s="15"/>
+      <c r="L189" s="15"/>
+      <c r="M189" s="15"/>
+      <c r="N189" s="15"/>
+      <c r="O189" s="15"/>
+      <c r="P189" s="15"/>
+      <c r="Q189" s="15"/>
+      <c r="R189" s="15"/>
+      <c r="S189" s="15"/>
+      <c r="T189" s="5"/>
+    </row>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A190" s="4"/>
+      <c r="B190" s="15"/>
+      <c r="C190" s="15"/>
+      <c r="D190" s="15"/>
+      <c r="E190" s="15"/>
+      <c r="F190" s="15"/>
+      <c r="G190" s="15"/>
+      <c r="H190" s="15"/>
+      <c r="I190" s="15"/>
+      <c r="J190" s="15"/>
+      <c r="K190" s="15"/>
+      <c r="L190" s="15"/>
+      <c r="M190" s="15"/>
+      <c r="N190" s="15"/>
+      <c r="O190" s="15"/>
+      <c r="P190" s="15"/>
+      <c r="Q190" s="15"/>
+      <c r="R190" s="15"/>
+      <c r="S190" s="15"/>
+      <c r="T190" s="5"/>
+    </row>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A191" s="4"/>
+      <c r="B191" s="15"/>
+      <c r="C191" s="15"/>
+      <c r="D191" s="15"/>
+      <c r="E191" s="15"/>
+      <c r="F191" s="15"/>
+      <c r="G191" s="15"/>
+      <c r="H191" s="15"/>
+      <c r="I191" s="15"/>
+      <c r="J191" s="15"/>
+      <c r="K191" s="15"/>
+      <c r="L191" s="15"/>
+      <c r="M191" s="15"/>
+      <c r="N191" s="15"/>
+      <c r="O191" s="15"/>
+      <c r="P191" s="15"/>
+      <c r="Q191" s="15"/>
+      <c r="R191" s="15"/>
+      <c r="S191" s="15"/>
+      <c r="T191" s="5"/>
+    </row>
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A192" s="4"/>
+      <c r="B192" s="15"/>
+      <c r="C192" s="15"/>
+      <c r="D192" s="15"/>
+      <c r="E192" s="15"/>
+      <c r="F192" s="15"/>
+      <c r="G192" s="15"/>
+      <c r="H192" s="15"/>
+      <c r="I192" s="15"/>
+      <c r="J192" s="15"/>
+      <c r="K192" s="15"/>
+      <c r="L192" s="15"/>
+      <c r="M192" s="15"/>
+      <c r="N192" s="15"/>
+      <c r="O192" s="15"/>
+      <c r="P192" s="15"/>
+      <c r="Q192" s="15"/>
+      <c r="R192" s="15"/>
+      <c r="S192" s="15"/>
+      <c r="T192" s="5"/>
+    </row>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A193" s="4"/>
+      <c r="B193" s="15"/>
+      <c r="C193" s="15"/>
+      <c r="D193" s="15"/>
+      <c r="E193" s="15"/>
+      <c r="F193" s="15"/>
+      <c r="G193" s="15"/>
+      <c r="H193" s="15"/>
+      <c r="I193" s="15"/>
+      <c r="J193" s="15"/>
+      <c r="K193" s="15"/>
+      <c r="L193" s="15"/>
+      <c r="M193" s="15"/>
+      <c r="N193" s="15"/>
+      <c r="O193" s="15"/>
+      <c r="P193" s="15"/>
+      <c r="Q193" s="15"/>
+      <c r="R193" s="15"/>
+      <c r="S193" s="15"/>
+      <c r="T193" s="5"/>
+    </row>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A194" s="4"/>
+      <c r="B194" s="15"/>
+      <c r="C194" s="15"/>
+      <c r="D194" s="15"/>
+      <c r="E194" s="15"/>
+      <c r="F194" s="15"/>
+      <c r="G194" s="15"/>
+      <c r="H194" s="15"/>
+      <c r="I194" s="15"/>
+      <c r="J194" s="15"/>
+      <c r="K194" s="15"/>
+      <c r="L194" s="15"/>
+      <c r="M194" s="15"/>
+      <c r="N194" s="15"/>
+      <c r="O194" s="15"/>
+      <c r="P194" s="15"/>
+      <c r="Q194" s="15"/>
+      <c r="R194" s="15"/>
+      <c r="S194" s="15"/>
+      <c r="T194" s="5"/>
+    </row>
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A195" s="4"/>
+      <c r="B195" s="15"/>
+      <c r="C195" s="15"/>
+      <c r="D195" s="15"/>
+      <c r="E195" s="15"/>
+      <c r="F195" s="15"/>
+      <c r="G195" s="15"/>
+      <c r="H195" s="15"/>
+      <c r="I195" s="15"/>
+      <c r="J195" s="15"/>
+      <c r="K195" s="15"/>
+      <c r="L195" s="15"/>
+      <c r="M195" s="15"/>
+      <c r="N195" s="15"/>
+      <c r="O195" s="15"/>
+      <c r="P195" s="15"/>
+      <c r="Q195" s="15"/>
+      <c r="R195" s="15"/>
+      <c r="S195" s="15"/>
+      <c r="T195" s="5"/>
+    </row>
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A196" s="4"/>
+      <c r="B196" s="15"/>
+      <c r="C196" s="15"/>
+      <c r="D196" s="15"/>
+      <c r="E196" s="15"/>
+      <c r="F196" s="15"/>
+      <c r="G196" s="15"/>
+      <c r="H196" s="15"/>
+      <c r="I196" s="15"/>
+      <c r="J196" s="15"/>
+      <c r="K196" s="15"/>
+      <c r="L196" s="15"/>
+      <c r="M196" s="15"/>
+      <c r="N196" s="15"/>
+      <c r="O196" s="15"/>
+      <c r="P196" s="15"/>
+      <c r="Q196" s="15"/>
+      <c r="R196" s="15"/>
+      <c r="S196" s="15"/>
+      <c r="T196" s="5"/>
+    </row>
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A197" s="4"/>
+      <c r="B197" s="15"/>
+      <c r="C197" s="15"/>
+      <c r="D197" s="15"/>
+      <c r="E197" s="15"/>
+      <c r="F197" s="15"/>
+      <c r="G197" s="15"/>
+      <c r="H197" s="15"/>
+      <c r="I197" s="15"/>
+      <c r="J197" s="15"/>
+      <c r="K197" s="15"/>
+      <c r="L197" s="15"/>
+      <c r="M197" s="15"/>
+      <c r="N197" s="15"/>
+      <c r="O197" s="15"/>
+      <c r="P197" s="15"/>
+      <c r="Q197" s="15"/>
+      <c r="R197" s="15"/>
+      <c r="S197" s="15"/>
+      <c r="T197" s="5"/>
+    </row>
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A198" s="4"/>
+      <c r="B198" s="15"/>
+      <c r="C198" s="15"/>
+      <c r="D198" s="15"/>
+      <c r="E198" s="15"/>
+      <c r="F198" s="15"/>
+      <c r="G198" s="15"/>
+      <c r="H198" s="15"/>
+      <c r="I198" s="15"/>
+      <c r="J198" s="15"/>
+      <c r="K198" s="15"/>
+      <c r="L198" s="15"/>
+      <c r="M198" s="15"/>
+      <c r="N198" s="15"/>
+      <c r="O198" s="15"/>
+      <c r="P198" s="15"/>
+      <c r="Q198" s="15"/>
+      <c r="R198" s="15"/>
+      <c r="S198" s="15"/>
+      <c r="T198" s="5"/>
+    </row>
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A199" s="4"/>
+      <c r="B199" s="15"/>
+      <c r="C199" s="15"/>
+      <c r="D199" s="15"/>
+      <c r="E199" s="15"/>
+      <c r="F199" s="15"/>
+      <c r="G199" s="15"/>
+      <c r="H199" s="15"/>
+      <c r="I199" s="15"/>
+      <c r="J199" s="15"/>
+      <c r="K199" s="15"/>
+      <c r="L199" s="15"/>
+      <c r="M199" s="15"/>
+      <c r="N199" s="15"/>
+      <c r="O199" s="15"/>
+      <c r="P199" s="15"/>
+      <c r="Q199" s="15"/>
+      <c r="R199" s="15"/>
+      <c r="S199" s="15"/>
+      <c r="T199" s="5"/>
+    </row>
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A200" s="4"/>
+      <c r="B200" s="15"/>
+      <c r="C200" s="15"/>
+      <c r="D200" s="15"/>
+      <c r="E200" s="15"/>
+      <c r="F200" s="15"/>
+      <c r="G200" s="15"/>
+      <c r="H200" s="15"/>
+      <c r="I200" s="15"/>
+      <c r="J200" s="15"/>
+      <c r="K200" s="15"/>
+      <c r="L200" s="15"/>
+      <c r="M200" s="15"/>
+      <c r="N200" s="15"/>
+      <c r="O200" s="15"/>
+      <c r="P200" s="15"/>
+      <c r="Q200" s="15"/>
+      <c r="R200" s="15"/>
+      <c r="S200" s="15"/>
+      <c r="T200" s="5"/>
+    </row>
+    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A201" s="6"/>
+      <c r="B201" s="7"/>
+      <c r="C201" s="7"/>
+      <c r="D201" s="7"/>
+      <c r="E201" s="7"/>
+      <c r="F201" s="7"/>
+      <c r="G201" s="7"/>
+      <c r="H201" s="7"/>
+      <c r="I201" s="7"/>
+      <c r="J201" s="7"/>
+      <c r="K201" s="7"/>
+      <c r="L201" s="7"/>
+      <c r="M201" s="7"/>
+      <c r="N201" s="7"/>
+      <c r="O201" s="7"/>
+      <c r="P201" s="7"/>
+      <c r="Q201" s="7"/>
+      <c r="R201" s="7"/>
+      <c r="S201" s="7"/>
+      <c r="T201" s="8"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" location="'Authenticating REST API users'!A1" display="Authenticating REST API users" xr:uid="{63E64539-8FCE-4D4A-963E-BA3157E6A3B1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/3.REST-API.xlsx
+++ b/me/3.REST-API.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\salesforce-integration-with-external-systems\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE75F31-2C0A-467C-A8FB-39E17BEDFCFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAB1E40-F37C-4AA4-A330-FB0A4847F46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use Postman to call a REST API" sheetId="1" r:id="rId1"/>
     <sheet name="CreateAConnectedAppInSalesforce" sheetId="2" r:id="rId2"/>
     <sheet name="Authenticating REST API users" sheetId="3" r:id="rId3"/>
     <sheet name="Execute a SOQL Query" sheetId="4" r:id="rId4"/>
+    <sheet name="Create a record" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="67">
   <si>
     <t>https://www.postman.com/salesforce-developers/workspace/salesforce-developers/request/12721794-dadc3f1a-71b3-4431-a958-fa00c4731b6f</t>
   </si>
@@ -176,6 +177,96 @@
       <t>a0B5g00000tpvm7EAA</t>
     </r>
   </si>
+  <si>
+    <t>構成</t>
+  </si>
+  <si>
+    <t>salesforce-integration-with-external-systems</t>
+  </si>
+  <si>
+    <t>2.SOAP-API</t>
+  </si>
+  <si>
+    <t>3.REST-API</t>
+  </si>
+  <si>
+    <t>1.RESTOAuthAuthentication.txt</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>2.RESTAccountById.txt</t>
+  </si>
+  <si>
+    <t>2.RESTSchoolById.txt</t>
+  </si>
+  <si>
+    <t>2.RESTStudentById.txt</t>
+  </si>
+  <si>
+    <t>salesforce-integration-with-external-systems\3.REST-API\1.RESTOAuthAuthentication.txt</t>
+  </si>
+  <si>
+    <t>https://training-quang-dev-ed.develop.my.salesforce.com/services/data/v55.0/sobjects/Account/0015g00000smH6TAAU</t>
+  </si>
+  <si>
+    <t>salesforce-integration-with-external-systems\3.REST-API\2.RESTAccountById.txt</t>
+  </si>
+  <si>
+    <t>salesforce-integration-with-external-systems\3.REST-API\2.RESTStudentById.txt</t>
+  </si>
+  <si>
+    <t>salesforce-integration-with-external-systems\3.REST-API\2.RESTSchoolById.txt</t>
+  </si>
+  <si>
+    <t>Dữ liệu gửi đi có thể dạng json hoặc xml đều được</t>
+  </si>
+  <si>
+    <t>3.RESTCreateNewRecordAccount.txt</t>
+  </si>
+  <si>
+    <t>3.RESTCreateStudentRecord.txt</t>
+  </si>
+  <si>
+    <t>https://training-quang-dev-ed.develop.my.salesforce.com/services/data/v55.0/sobjects/Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   "Name": "Deepika Khanna",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   "Site": "mytutorialrack.com",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   "Phone": "7777778888"</t>
+  </si>
+  <si>
+    <t>salesforce-integration-with-external-systems\3.REST-API\3.RESTCreateStudentRecord.txt</t>
+  </si>
+  <si>
+    <t>https://training-quang-dev-ed.develop.my.salesforce.com/services/data/v55.0/sobjects/Student__c</t>
+  </si>
+  <si>
+    <t>&lt;Student__c&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;Student_Name__c&gt;John Abraham&lt;/Student_Name__c&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;Phone_Number__c&gt;6789098888&lt;/Phone_Number__c&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;Email__c&gt;john@gmail.com&lt;/Email__c&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;Address__c&gt;Bombay,India&lt;/Address__c&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/Student__c&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;School__c&gt;a0B5g00000tpvmvEAA&lt;/School__c&gt;</t>
+  </si>
 </sst>
 </file>
 
@@ -312,7 +403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -324,14 +415,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1059,13 +1152,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1112,13 +1205,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1165,13 +1258,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1218,13 +1311,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1271,13 +1364,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>96778</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1321,13 +1414,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1374,13 +1467,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1427,13 +1520,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1480,13 +1573,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>475065</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>171180</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1529,13 +1622,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>360765</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>66389</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1573,13 +1666,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1626,13 +1719,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1679,13 +1772,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>85621</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1723,13 +1816,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1776,13 +1869,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>579821</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>171055</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1820,13 +1913,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1873,13 +1966,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>17833</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>46914</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1917,13 +2010,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>59385</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1961,13 +2054,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2014,13 +2107,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>246476</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>66418</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2058,13 +2151,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>608382</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>9124</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2102,13 +2195,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>200</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>93132</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2146,13 +2239,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2193,6 +2286,416 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>256014</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>180702</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{613789D1-0382-FE4C-E4C4-DF2789792DFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="4857750"/>
+          <a:ext cx="9285714" cy="2180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>389351</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>190136</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE24EE2F-9F04-AFCF-A514-10F7735AE11D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="7181850"/>
+          <a:ext cx="9390476" cy="2914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>436974</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>28368</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{392721C0-2174-3149-1D98-A0073AC6BDAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781050" y="10182225"/>
+          <a:ext cx="9409524" cy="1657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>350906</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C64C3DC-3707-B216-0200-A9641EF97D98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781050" y="12106275"/>
+          <a:ext cx="11152256" cy="3752849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>389353</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>152008</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E31AA944-78BC-BACC-55AA-E0A0AB648695}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="18735675"/>
+          <a:ext cx="9371428" cy="3133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>360770</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>85507</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7518D23A-EF4C-F7BC-F10F-DFECFC54BFDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="22155150"/>
+          <a:ext cx="9438095" cy="1742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>322225</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>27774</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC3F32BF-8383-3033-73F1-111AEC38A6CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12315825" y="18954750"/>
+          <a:ext cx="13000000" cy="6409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D3B5782-5C31-3666-8FC6-CF678FA3B548}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2714625" y="18049875"/>
+          <a:ext cx="15373350" cy="981075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>27710</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5F2D0A3-0780-1E67-C1BA-0B14143BC21F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="24260175"/>
+          <a:ext cx="11220450" cy="5676035"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2463,7 +2966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B72:T99"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
@@ -2629,7 +3132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27584379-A4D2-4852-BCC6-F94B22249646}">
   <dimension ref="B3:T306"/>
   <sheetViews>
-    <sheetView topLeftCell="A271" workbookViewId="0">
+    <sheetView topLeftCell="A292" workbookViewId="0">
       <selection activeCell="C286" sqref="C286:N287"/>
     </sheetView>
   </sheetViews>
@@ -3956,113 +4459,85 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5329CB-83F2-404D-89A3-A4B97386C9D0}">
-  <dimension ref="B3:T55"/>
+  <dimension ref="A4:T65"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="D8" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="2" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="8"/>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="8"/>
-      <c r="N7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -4071,88 +4546,189 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="3"/>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="T14" s="5"/>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="T15" s="5"/>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="T16" s="5"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="T17" s="5"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="T18" s="5"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="T19" s="5"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="T20" s="5"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-      <c r="T21" s="5"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="T22" s="5"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="T23" s="5"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="8"/>
+      <c r="N16" t="s">
+        <v>30</v>
+      </c>
+      <c r="O16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="8"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="3"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="T24" s="5"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="T25" s="5"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="T26" s="5"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="T27" s="5"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="T28" s="5"/>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="T29" s="5"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="T30" s="5"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="T31" s="5"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
       <c r="T32" s="5"/>
     </row>
@@ -4214,120 +4790,160 @@
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B47" s="4"/>
-      <c r="C47" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="3"/>
       <c r="T47" s="5"/>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B48" s="4"/>
-      <c r="C48" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="R48" s="5"/>
       <c r="T48" s="5"/>
     </row>
     <row r="49" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B49" s="4"/>
-      <c r="C49" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="R49" s="5"/>
       <c r="T49" s="5"/>
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B50" s="4"/>
-      <c r="C50" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="R50" s="5"/>
       <c r="T50" s="5"/>
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B51" s="4"/>
-      <c r="C51" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R51" s="5"/>
       <c r="T51" s="5"/>
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B52" s="4"/>
-      <c r="C52" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R52" s="5"/>
       <c r="T52" s="5"/>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B53" s="4"/>
-      <c r="C53" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="R53" s="5"/>
       <c r="T53" s="5"/>
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B54" s="4"/>
-      <c r="C54" s="6" t="s">
+      <c r="T54" s="5"/>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B55" s="4"/>
+      <c r="T55" s="5"/>
+    </row>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B56" s="4"/>
+      <c r="T56" s="5"/>
+    </row>
+    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B57" s="4"/>
+      <c r="C57" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="3"/>
+      <c r="T57" s="5"/>
+    </row>
+    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B58" s="4"/>
+      <c r="C58" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="R58" s="5"/>
+      <c r="T58" s="5"/>
+    </row>
+    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B59" s="4"/>
+      <c r="C59" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="R59" s="5"/>
+      <c r="T59" s="5"/>
+    </row>
+    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B60" s="4"/>
+      <c r="C60" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R60" s="5"/>
+      <c r="T60" s="5"/>
+    </row>
+    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B61" s="4"/>
+      <c r="C61" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R61" s="5"/>
+      <c r="T61" s="5"/>
+    </row>
+    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B62" s="4"/>
+      <c r="C62" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R62" s="5"/>
+      <c r="T62" s="5"/>
+    </row>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B63" s="4"/>
+      <c r="C63" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R63" s="5"/>
+      <c r="T63" s="5"/>
+    </row>
+    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B64" s="4"/>
+      <c r="C64" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="7"/>
-      <c r="O54" s="7"/>
-      <c r="P54" s="7"/>
-      <c r="Q54" s="7"/>
-      <c r="R54" s="8"/>
-      <c r="T54" s="5"/>
-    </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B55" s="6"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
-      <c r="N55" s="7"/>
-      <c r="O55" s="7"/>
-      <c r="P55" s="7"/>
-      <c r="Q55" s="7"/>
-      <c r="R55" s="7"/>
-      <c r="S55" s="7"/>
-      <c r="T55" s="8"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="8"/>
+      <c r="T64" s="5"/>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B65" s="6"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7"/>
+      <c r="S65" s="7"/>
+      <c r="T65" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" location="CreateAConnectedAppInSalesforce!A1" display="CreateAConnectedAppInSalesforce" xr:uid="{C45C2851-E7A9-4EC6-94D1-B687780B8CE7}"/>
+    <hyperlink ref="B12" location="CreateAConnectedAppInSalesforce!A1" display="CreateAConnectedAppInSalesforce" xr:uid="{C45C2851-E7A9-4EC6-94D1-B687780B8CE7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4337,10 +4953,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3B7A6E-F13C-43C6-B131-2464E70AA25C}">
-  <dimension ref="A4:T201"/>
+  <dimension ref="A4:T220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="H207" sqref="H207"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4349,4300 +4965,4445 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="D8" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="D9" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="D10" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="D11" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="3"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="5"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="5"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="5"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="5"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="5"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="5"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="5"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="5"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="5"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="5"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="5"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="3"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
+      <c r="A16" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
       <c r="T16" s="5"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
       <c r="T17" s="5"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
       <c r="T18" s="5"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
       <c r="T19" s="5"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
+      <c r="B20" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="T20" s="5"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
+      <c r="B21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="3"/>
       <c r="T21" s="5"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
+      <c r="B22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="8"/>
       <c r="T22" s="5"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
       <c r="T23" s="5"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
       <c r="T24" s="5"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
       <c r="T25" s="5"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
       <c r="T26" s="5"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
       <c r="T27" s="5"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
       <c r="T28" s="5"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
       <c r="T29" s="5"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
       <c r="T30" s="5"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
       <c r="T31" s="5"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="15"/>
       <c r="T32" s="5"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="15"/>
-      <c r="S33" s="15"/>
       <c r="T33" s="5"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="15"/>
       <c r="T34" s="5"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="15"/>
-      <c r="S35" s="15"/>
       <c r="T35" s="5"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="15"/>
-      <c r="S36" s="15"/>
       <c r="T36" s="5"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
-      <c r="R37" s="15"/>
-      <c r="S37" s="15"/>
       <c r="T37" s="5"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="15"/>
-      <c r="S38" s="15"/>
       <c r="T38" s="5"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
       <c r="T39" s="5"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="15"/>
-      <c r="S40" s="15"/>
       <c r="T40" s="5"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="15"/>
-      <c r="R41" s="15"/>
-      <c r="S41" s="15"/>
       <c r="T41" s="5"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="15"/>
-      <c r="S42" s="15"/>
       <c r="T42" s="5"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="15"/>
-      <c r="S43" s="15"/>
       <c r="T43" s="5"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="15"/>
-      <c r="R44" s="15"/>
-      <c r="S44" s="15"/>
       <c r="T44" s="5"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="15"/>
-      <c r="Q45" s="15"/>
-      <c r="R45" s="15"/>
-      <c r="S45" s="15"/>
       <c r="T45" s="5"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="15"/>
-      <c r="O46" s="15"/>
-      <c r="P46" s="15"/>
-      <c r="Q46" s="15"/>
-      <c r="R46" s="15"/>
-      <c r="S46" s="15"/>
       <c r="T46" s="5"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="15"/>
-      <c r="Q47" s="15"/>
-      <c r="R47" s="15"/>
-      <c r="S47" s="15"/>
       <c r="T47" s="5"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="15"/>
-      <c r="Q48" s="15"/>
-      <c r="R48" s="15"/>
-      <c r="S48" s="15"/>
       <c r="T48" s="5"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="15"/>
-      <c r="N49" s="15"/>
-      <c r="O49" s="15"/>
-      <c r="P49" s="15"/>
-      <c r="Q49" s="15"/>
-      <c r="R49" s="15"/>
-      <c r="S49" s="15"/>
       <c r="T49" s="5"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="15"/>
-      <c r="M50" s="15"/>
-      <c r="N50" s="15"/>
-      <c r="O50" s="15"/>
-      <c r="P50" s="15"/>
-      <c r="Q50" s="15"/>
-      <c r="R50" s="15"/>
-      <c r="S50" s="15"/>
       <c r="T50" s="5"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="15"/>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="15"/>
-      <c r="R51" s="15"/>
-      <c r="S51" s="15"/>
       <c r="T51" s="5"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="15"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="15"/>
-      <c r="O52" s="15"/>
-      <c r="P52" s="15"/>
-      <c r="Q52" s="15"/>
-      <c r="R52" s="15"/>
-      <c r="S52" s="15"/>
       <c r="T52" s="5"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="15"/>
-      <c r="P53" s="15"/>
-      <c r="Q53" s="15"/>
-      <c r="R53" s="15"/>
-      <c r="S53" s="15"/>
       <c r="T53" s="5"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="15"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="15"/>
-      <c r="O54" s="15"/>
-      <c r="P54" s="15"/>
-      <c r="Q54" s="15"/>
-      <c r="R54" s="15"/>
-      <c r="S54" s="15"/>
       <c r="T54" s="5"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="15"/>
-      <c r="P55" s="15"/>
-      <c r="Q55" s="15"/>
-      <c r="R55" s="15"/>
-      <c r="S55" s="15"/>
       <c r="T55" s="5"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="15"/>
-      <c r="L56" s="15"/>
-      <c r="M56" s="15"/>
-      <c r="N56" s="15"/>
-      <c r="O56" s="15"/>
-      <c r="P56" s="15"/>
-      <c r="Q56" s="15"/>
-      <c r="R56" s="15"/>
-      <c r="S56" s="15"/>
       <c r="T56" s="5"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="15"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="15"/>
-      <c r="O57" s="15"/>
-      <c r="P57" s="15"/>
-      <c r="Q57" s="15"/>
-      <c r="R57" s="15"/>
-      <c r="S57" s="15"/>
       <c r="T57" s="5"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="15"/>
-      <c r="M58" s="15"/>
-      <c r="N58" s="15"/>
-      <c r="O58" s="15"/>
-      <c r="P58" s="15"/>
-      <c r="Q58" s="15"/>
-      <c r="R58" s="15"/>
-      <c r="S58" s="15"/>
       <c r="T58" s="5"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="15"/>
-      <c r="M59" s="15"/>
-      <c r="N59" s="15"/>
-      <c r="O59" s="15"/>
-      <c r="P59" s="15"/>
-      <c r="Q59" s="15"/>
-      <c r="R59" s="15"/>
-      <c r="S59" s="15"/>
       <c r="T59" s="5"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="15"/>
-      <c r="P60" s="15"/>
-      <c r="Q60" s="15"/>
-      <c r="R60" s="15"/>
-      <c r="S60" s="15"/>
       <c r="T60" s="5"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="15"/>
-      <c r="L61" s="15"/>
-      <c r="M61" s="15"/>
-      <c r="N61" s="15"/>
-      <c r="O61" s="15"/>
-      <c r="P61" s="15"/>
-      <c r="Q61" s="15"/>
-      <c r="R61" s="15"/>
-      <c r="S61" s="15"/>
       <c r="T61" s="5"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="15"/>
-      <c r="L62" s="15"/>
-      <c r="M62" s="15"/>
-      <c r="N62" s="15"/>
-      <c r="O62" s="15"/>
-      <c r="P62" s="15"/>
-      <c r="Q62" s="15"/>
-      <c r="R62" s="15"/>
-      <c r="S62" s="15"/>
       <c r="T62" s="5"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="15"/>
-      <c r="M63" s="15"/>
-      <c r="N63" s="15"/>
-      <c r="O63" s="15"/>
-      <c r="P63" s="15"/>
-      <c r="Q63" s="15"/>
-      <c r="R63" s="15"/>
-      <c r="S63" s="15"/>
       <c r="T63" s="5"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
-      <c r="L64" s="15"/>
-      <c r="M64" s="15"/>
-      <c r="N64" s="15"/>
-      <c r="O64" s="15"/>
-      <c r="P64" s="15"/>
-      <c r="Q64" s="15"/>
-      <c r="R64" s="15"/>
-      <c r="S64" s="15"/>
       <c r="T64" s="5"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="15"/>
-      <c r="M65" s="15"/>
-      <c r="N65" s="15"/>
-      <c r="O65" s="15"/>
-      <c r="P65" s="15"/>
-      <c r="Q65" s="15"/>
-      <c r="R65" s="15"/>
-      <c r="S65" s="15"/>
       <c r="T65" s="5"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="15"/>
-      <c r="M66" s="15"/>
-      <c r="N66" s="15"/>
-      <c r="O66" s="15"/>
-      <c r="P66" s="15"/>
-      <c r="Q66" s="15"/>
-      <c r="R66" s="15"/>
-      <c r="S66" s="15"/>
       <c r="T66" s="5"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="15"/>
-      <c r="L67" s="15"/>
-      <c r="M67" s="15"/>
-      <c r="N67" s="15"/>
-      <c r="O67" s="15"/>
-      <c r="P67" s="15"/>
-      <c r="Q67" s="15"/>
-      <c r="R67" s="15"/>
-      <c r="S67" s="15"/>
       <c r="T67" s="5"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="15"/>
-      <c r="L68" s="15"/>
-      <c r="M68" s="15"/>
-      <c r="N68" s="15"/>
-      <c r="O68" s="15"/>
-      <c r="P68" s="15"/>
-      <c r="Q68" s="15"/>
-      <c r="R68" s="15"/>
-      <c r="S68" s="15"/>
       <c r="T68" s="5"/>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="15"/>
-      <c r="L69" s="15"/>
-      <c r="M69" s="15"/>
-      <c r="N69" s="15"/>
-      <c r="O69" s="15"/>
-      <c r="P69" s="15"/>
-      <c r="Q69" s="15"/>
-      <c r="R69" s="15"/>
-      <c r="S69" s="15"/>
       <c r="T69" s="5"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="15"/>
-      <c r="L70" s="15"/>
-      <c r="M70" s="15"/>
-      <c r="N70" s="15"/>
-      <c r="O70" s="15"/>
-      <c r="P70" s="15"/>
-      <c r="Q70" s="15"/>
-      <c r="R70" s="15"/>
-      <c r="S70" s="15"/>
       <c r="T70" s="5"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A71" s="6"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="7"/>
-      <c r="M71" s="7"/>
-      <c r="N71" s="7"/>
-      <c r="O71" s="7"/>
-      <c r="P71" s="7"/>
-      <c r="Q71" s="7"/>
-      <c r="R71" s="7"/>
-      <c r="S71" s="7"/>
-      <c r="T71" s="8"/>
+      <c r="A71" s="4"/>
+      <c r="T71" s="5"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="T72" s="5"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="T73" s="5"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" s="2"/>
-      <c r="Q74" s="2"/>
-      <c r="R74" s="2"/>
-      <c r="S74" s="2"/>
-      <c r="T74" s="3"/>
+      <c r="A74" s="4"/>
+      <c r="T74" s="5"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
-      <c r="B75" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="15"/>
-      <c r="L75" s="15"/>
-      <c r="M75" s="15"/>
-      <c r="N75" s="15"/>
-      <c r="O75" s="15"/>
-      <c r="P75" s="15"/>
-      <c r="Q75" s="15"/>
-      <c r="R75" s="15"/>
-      <c r="S75" s="15"/>
       <c r="T75" s="5"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="15"/>
-      <c r="L76" s="15"/>
-      <c r="M76" s="15"/>
-      <c r="N76" s="15"/>
-      <c r="O76" s="15"/>
-      <c r="P76" s="15"/>
-      <c r="Q76" s="15"/>
-      <c r="R76" s="15"/>
-      <c r="S76" s="15"/>
       <c r="T76" s="5"/>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="15"/>
-      <c r="K77" s="15"/>
-      <c r="L77" s="15"/>
-      <c r="M77" s="15"/>
-      <c r="N77" s="15"/>
-      <c r="O77" s="15"/>
-      <c r="P77" s="15"/>
-      <c r="Q77" s="15"/>
-      <c r="R77" s="15"/>
-      <c r="S77" s="15"/>
       <c r="T77" s="5"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
-      <c r="B78" s="15"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="15"/>
-      <c r="L78" s="15"/>
-      <c r="M78" s="15"/>
-      <c r="N78" s="15"/>
-      <c r="O78" s="15"/>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="15"/>
-      <c r="R78" s="15"/>
-      <c r="S78" s="15"/>
       <c r="T78" s="5"/>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="15"/>
-      <c r="K79" s="15"/>
-      <c r="L79" s="15"/>
-      <c r="M79" s="15"/>
-      <c r="N79" s="15"/>
-      <c r="O79" s="15"/>
-      <c r="P79" s="15"/>
-      <c r="Q79" s="15"/>
-      <c r="R79" s="15"/>
-      <c r="S79" s="15"/>
       <c r="T79" s="5"/>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="15"/>
-      <c r="L80" s="15"/>
-      <c r="M80" s="15"/>
-      <c r="N80" s="15"/>
-      <c r="O80" s="15"/>
-      <c r="P80" s="15"/>
-      <c r="Q80" s="15"/>
-      <c r="R80" s="15"/>
-      <c r="S80" s="15"/>
       <c r="T80" s="5"/>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
-      <c r="B81" s="15"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="15"/>
-      <c r="K81" s="15"/>
-      <c r="L81" s="15"/>
-      <c r="M81" s="15"/>
-      <c r="N81" s="15"/>
-      <c r="O81" s="15"/>
-      <c r="P81" s="15"/>
-      <c r="Q81" s="15"/>
-      <c r="R81" s="15"/>
-      <c r="S81" s="15"/>
       <c r="T81" s="5"/>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="15"/>
-      <c r="L82" s="15"/>
-      <c r="M82" s="15"/>
-      <c r="N82" s="15"/>
-      <c r="O82" s="15"/>
-      <c r="P82" s="15"/>
-      <c r="Q82" s="15"/>
-      <c r="R82" s="15"/>
-      <c r="S82" s="15"/>
       <c r="T82" s="5"/>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
-      <c r="B83" s="15"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="15"/>
-      <c r="K83" s="15"/>
-      <c r="L83" s="15"/>
-      <c r="M83" s="15"/>
-      <c r="N83" s="15"/>
-      <c r="O83" s="15"/>
-      <c r="P83" s="15"/>
-      <c r="Q83" s="15"/>
-      <c r="R83" s="15"/>
-      <c r="S83" s="15"/>
       <c r="T83" s="5"/>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
-      <c r="B84" s="15"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="15"/>
-      <c r="L84" s="15"/>
-      <c r="M84" s="15"/>
-      <c r="N84" s="15"/>
-      <c r="O84" s="15"/>
-      <c r="P84" s="15"/>
-      <c r="Q84" s="15"/>
-      <c r="R84" s="15"/>
-      <c r="S84" s="15"/>
       <c r="T84" s="5"/>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
-      <c r="B85" s="15"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="15"/>
-      <c r="K85" s="15"/>
-      <c r="L85" s="15"/>
-      <c r="M85" s="15"/>
-      <c r="N85" s="15"/>
-      <c r="O85" s="15"/>
-      <c r="P85" s="15"/>
-      <c r="Q85" s="15"/>
-      <c r="R85" s="15"/>
-      <c r="S85" s="15"/>
       <c r="T85" s="5"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
-      <c r="B86" s="15"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="15"/>
-      <c r="L86" s="15"/>
-      <c r="M86" s="15"/>
-      <c r="N86" s="15"/>
-      <c r="O86" s="15"/>
-      <c r="P86" s="15"/>
-      <c r="Q86" s="15"/>
-      <c r="R86" s="15"/>
-      <c r="S86" s="15"/>
-      <c r="T86" s="5"/>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A87" s="4"/>
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="15"/>
-      <c r="L87" s="15"/>
-      <c r="M87" s="15"/>
-      <c r="N87" s="15"/>
-      <c r="O87" s="15"/>
-      <c r="P87" s="15"/>
-      <c r="Q87" s="15"/>
-      <c r="R87" s="15"/>
-      <c r="S87" s="15"/>
-      <c r="T87" s="5"/>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
-      <c r="B88" s="15"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="15"/>
-      <c r="L88" s="15"/>
-      <c r="M88" s="15"/>
-      <c r="N88" s="15"/>
-      <c r="O88" s="15"/>
-      <c r="P88" s="15"/>
-      <c r="Q88" s="15"/>
-      <c r="R88" s="15"/>
-      <c r="S88" s="15"/>
-      <c r="T88" s="5"/>
+      <c r="A86" s="6"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7"/>
+      <c r="P86" s="7"/>
+      <c r="Q86" s="7"/>
+      <c r="R86" s="7"/>
+      <c r="S86" s="7"/>
+      <c r="T86" s="8"/>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
-      <c r="B89" s="15"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="15"/>
-      <c r="K89" s="15"/>
-      <c r="L89" s="15"/>
-      <c r="M89" s="15"/>
-      <c r="N89" s="15"/>
-      <c r="O89" s="15"/>
-      <c r="P89" s="15"/>
-      <c r="Q89" s="15"/>
-      <c r="R89" s="15"/>
-      <c r="S89" s="15"/>
-      <c r="T89" s="5"/>
+      <c r="A89" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="2"/>
+      <c r="R89" s="2"/>
+      <c r="S89" s="2"/>
+      <c r="T89" s="3"/>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="15"/>
-      <c r="K90" s="15"/>
-      <c r="L90" s="15"/>
-      <c r="M90" s="15"/>
-      <c r="N90" s="15"/>
-      <c r="O90" s="15"/>
-      <c r="P90" s="15"/>
-      <c r="Q90" s="15"/>
-      <c r="R90" s="15"/>
-      <c r="S90" s="15"/>
+      <c r="A90" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="18"/>
+      <c r="K90" s="18"/>
+      <c r="L90" s="18"/>
+      <c r="M90" s="18"/>
+      <c r="N90" s="18"/>
+      <c r="O90" s="18"/>
+      <c r="P90" s="18"/>
+      <c r="Q90" s="18"/>
+      <c r="R90" s="18"/>
+      <c r="S90" s="18"/>
       <c r="T90" s="5"/>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
-      <c r="B91" s="15"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="15"/>
-      <c r="K91" s="15"/>
-      <c r="L91" s="15"/>
-      <c r="M91" s="15"/>
-      <c r="N91" s="15"/>
-      <c r="O91" s="15"/>
-      <c r="P91" s="15"/>
-      <c r="Q91" s="15"/>
-      <c r="R91" s="15"/>
-      <c r="S91" s="15"/>
+      <c r="B91" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="3"/>
       <c r="T91" s="5"/>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
-      <c r="B92" s="15"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="15"/>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="15"/>
-      <c r="K92" s="15"/>
-      <c r="L92" s="15"/>
-      <c r="M92" s="15"/>
-      <c r="N92" s="15"/>
-      <c r="O92" s="15"/>
-      <c r="P92" s="15"/>
-      <c r="Q92" s="15"/>
-      <c r="R92" s="15"/>
-      <c r="S92" s="15"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="8"/>
       <c r="T92" s="5"/>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
-      <c r="B93" s="15"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="15"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="15"/>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="15"/>
-      <c r="K93" s="15"/>
-      <c r="L93" s="15"/>
-      <c r="M93" s="15"/>
-      <c r="N93" s="15"/>
-      <c r="O93" s="15"/>
-      <c r="P93" s="15"/>
-      <c r="Q93" s="15"/>
-      <c r="R93" s="15"/>
-      <c r="S93" s="15"/>
       <c r="T93" s="5"/>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
-      <c r="B94" s="15"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="15"/>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="15"/>
-      <c r="K94" s="15"/>
-      <c r="L94" s="15"/>
-      <c r="M94" s="15"/>
-      <c r="N94" s="15"/>
-      <c r="O94" s="15"/>
-      <c r="P94" s="15"/>
-      <c r="Q94" s="15"/>
-      <c r="R94" s="15"/>
-      <c r="S94" s="15"/>
       <c r="T94" s="5"/>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
-      <c r="B95" s="15"/>
-      <c r="C95" s="15"/>
-      <c r="D95" s="15"/>
-      <c r="E95" s="15"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="15"/>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="15"/>
-      <c r="K95" s="15"/>
-      <c r="L95" s="15"/>
-      <c r="M95" s="15"/>
-      <c r="N95" s="15"/>
-      <c r="O95" s="15"/>
-      <c r="P95" s="15"/>
-      <c r="Q95" s="15"/>
-      <c r="R95" s="15"/>
-      <c r="S95" s="15"/>
       <c r="T95" s="5"/>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
-      <c r="B96" s="15"/>
-      <c r="C96" s="15"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="15"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="15"/>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="15"/>
-      <c r="K96" s="15"/>
-      <c r="L96" s="15"/>
-      <c r="M96" s="15"/>
-      <c r="N96" s="15"/>
-      <c r="O96" s="15"/>
-      <c r="P96" s="15"/>
-      <c r="Q96" s="15"/>
-      <c r="R96" s="15"/>
-      <c r="S96" s="15"/>
       <c r="T96" s="5"/>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
-      <c r="B97" s="15"/>
-      <c r="C97" s="15"/>
-      <c r="D97" s="15"/>
-      <c r="E97" s="15"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="15"/>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="15"/>
-      <c r="K97" s="15"/>
-      <c r="L97" s="15"/>
-      <c r="M97" s="15"/>
-      <c r="N97" s="15"/>
-      <c r="O97" s="15"/>
-      <c r="P97" s="15"/>
-      <c r="Q97" s="15"/>
-      <c r="R97" s="15"/>
-      <c r="S97" s="15"/>
       <c r="T97" s="5"/>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
-      <c r="B98" s="15"/>
-      <c r="C98" s="15"/>
-      <c r="D98" s="15"/>
-      <c r="E98" s="15"/>
-      <c r="F98" s="15"/>
-      <c r="G98" s="15"/>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="15"/>
-      <c r="K98" s="15"/>
-      <c r="L98" s="15"/>
-      <c r="M98" s="15"/>
-      <c r="N98" s="15"/>
-      <c r="O98" s="15"/>
-      <c r="P98" s="15"/>
-      <c r="Q98" s="15"/>
-      <c r="R98" s="15"/>
-      <c r="S98" s="15"/>
       <c r="T98" s="5"/>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
-      <c r="B99" s="15"/>
-      <c r="C99" s="15"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="15"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="15"/>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="15"/>
-      <c r="K99" s="15"/>
-      <c r="L99" s="15"/>
-      <c r="M99" s="15"/>
-      <c r="N99" s="15"/>
-      <c r="O99" s="15"/>
-      <c r="P99" s="15"/>
-      <c r="Q99" s="15"/>
-      <c r="R99" s="15"/>
-      <c r="S99" s="15"/>
       <c r="T99" s="5"/>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
-      <c r="B100" s="15"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="15"/>
-      <c r="E100" s="15"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="15"/>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="15"/>
-      <c r="K100" s="15"/>
-      <c r="L100" s="15"/>
-      <c r="M100" s="15"/>
-      <c r="N100" s="15"/>
-      <c r="O100" s="15"/>
-      <c r="P100" s="15"/>
-      <c r="Q100" s="15"/>
-      <c r="R100" s="15"/>
-      <c r="S100" s="15"/>
       <c r="T100" s="5"/>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
-      <c r="B101" s="15"/>
-      <c r="C101" s="15"/>
-      <c r="D101" s="15"/>
-      <c r="E101" s="15"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="15"/>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="15"/>
-      <c r="K101" s="15"/>
-      <c r="L101" s="15"/>
-      <c r="M101" s="15"/>
-      <c r="N101" s="15"/>
-      <c r="O101" s="15"/>
-      <c r="P101" s="15"/>
-      <c r="Q101" s="15"/>
-      <c r="R101" s="15"/>
-      <c r="S101" s="15"/>
       <c r="T101" s="5"/>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
-      <c r="B102" s="15"/>
-      <c r="C102" s="15"/>
-      <c r="D102" s="15"/>
-      <c r="E102" s="15"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="15"/>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="15"/>
-      <c r="K102" s="15"/>
-      <c r="L102" s="15"/>
-      <c r="M102" s="15"/>
-      <c r="N102" s="15"/>
-      <c r="O102" s="15"/>
-      <c r="P102" s="15"/>
-      <c r="Q102" s="15"/>
-      <c r="R102" s="15"/>
-      <c r="S102" s="15"/>
       <c r="T102" s="5"/>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
-      <c r="B103" s="15"/>
-      <c r="C103" s="15"/>
-      <c r="D103" s="15"/>
-      <c r="E103" s="15"/>
-      <c r="F103" s="15"/>
-      <c r="G103" s="15"/>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="15"/>
-      <c r="K103" s="15"/>
-      <c r="L103" s="15"/>
-      <c r="M103" s="15"/>
-      <c r="N103" s="15"/>
-      <c r="O103" s="15"/>
-      <c r="P103" s="15"/>
-      <c r="Q103" s="15"/>
-      <c r="R103" s="15"/>
-      <c r="S103" s="15"/>
       <c r="T103" s="5"/>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
-      <c r="B104" s="15"/>
-      <c r="C104" s="15"/>
-      <c r="D104" s="15"/>
-      <c r="E104" s="15"/>
-      <c r="F104" s="15"/>
-      <c r="G104" s="15"/>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="15"/>
-      <c r="K104" s="15"/>
-      <c r="L104" s="15"/>
-      <c r="M104" s="15"/>
-      <c r="N104" s="15"/>
-      <c r="O104" s="15"/>
-      <c r="P104" s="15"/>
-      <c r="Q104" s="15"/>
-      <c r="R104" s="15"/>
-      <c r="S104" s="15"/>
       <c r="T104" s="5"/>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
-      <c r="B105" s="15"/>
-      <c r="C105" s="15"/>
-      <c r="D105" s="15"/>
-      <c r="E105" s="15"/>
-      <c r="F105" s="15"/>
-      <c r="G105" s="15"/>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="15"/>
-      <c r="K105" s="15"/>
-      <c r="L105" s="15"/>
-      <c r="M105" s="15"/>
-      <c r="N105" s="15"/>
-      <c r="O105" s="15"/>
-      <c r="P105" s="15"/>
-      <c r="Q105" s="15"/>
-      <c r="R105" s="15"/>
-      <c r="S105" s="15"/>
       <c r="T105" s="5"/>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
-      <c r="B106" s="15"/>
-      <c r="C106" s="15"/>
-      <c r="D106" s="15"/>
-      <c r="E106" s="15"/>
-      <c r="F106" s="15"/>
-      <c r="G106" s="15"/>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="15"/>
-      <c r="K106" s="15"/>
-      <c r="L106" s="15"/>
-      <c r="M106" s="15"/>
-      <c r="N106" s="15"/>
-      <c r="O106" s="15"/>
-      <c r="P106" s="15"/>
-      <c r="Q106" s="15"/>
-      <c r="R106" s="15"/>
-      <c r="S106" s="15"/>
       <c r="T106" s="5"/>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
-      <c r="B107" s="15"/>
-      <c r="C107" s="15"/>
-      <c r="D107" s="15"/>
-      <c r="E107" s="15"/>
-      <c r="F107" s="15"/>
-      <c r="G107" s="15"/>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="15"/>
-      <c r="K107" s="15"/>
-      <c r="L107" s="15"/>
-      <c r="M107" s="15"/>
-      <c r="N107" s="15"/>
-      <c r="O107" s="15"/>
-      <c r="P107" s="15"/>
-      <c r="Q107" s="15"/>
-      <c r="R107" s="15"/>
-      <c r="S107" s="15"/>
       <c r="T107" s="5"/>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
-      <c r="B108" s="15"/>
-      <c r="C108" s="15"/>
-      <c r="D108" s="15"/>
-      <c r="E108" s="15"/>
-      <c r="F108" s="15"/>
-      <c r="G108" s="15"/>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="15"/>
-      <c r="K108" s="15"/>
-      <c r="L108" s="15"/>
-      <c r="M108" s="15"/>
-      <c r="N108" s="15"/>
-      <c r="O108" s="15"/>
-      <c r="P108" s="15"/>
-      <c r="Q108" s="15"/>
-      <c r="R108" s="15"/>
-      <c r="S108" s="15"/>
       <c r="T108" s="5"/>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
-      <c r="B109" s="15"/>
-      <c r="C109" s="15"/>
-      <c r="D109" s="15"/>
-      <c r="E109" s="15"/>
-      <c r="F109" s="15"/>
-      <c r="G109" s="15"/>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="15"/>
-      <c r="K109" s="15"/>
-      <c r="L109" s="15"/>
-      <c r="M109" s="15"/>
-      <c r="N109" s="15"/>
-      <c r="O109" s="15"/>
-      <c r="P109" s="15"/>
-      <c r="Q109" s="15"/>
-      <c r="R109" s="15"/>
-      <c r="S109" s="15"/>
       <c r="T109" s="5"/>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
-      <c r="B110" s="15"/>
-      <c r="C110" s="15"/>
-      <c r="D110" s="15"/>
-      <c r="E110" s="15"/>
-      <c r="F110" s="15"/>
-      <c r="G110" s="15"/>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="15"/>
-      <c r="K110" s="15"/>
-      <c r="L110" s="15"/>
-      <c r="M110" s="15"/>
-      <c r="N110" s="15"/>
-      <c r="O110" s="15"/>
-      <c r="P110" s="15"/>
-      <c r="Q110" s="15"/>
-      <c r="R110" s="15"/>
-      <c r="S110" s="15"/>
       <c r="T110" s="5"/>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
-      <c r="B111" s="15"/>
-      <c r="C111" s="15"/>
-      <c r="D111" s="15"/>
-      <c r="E111" s="15"/>
-      <c r="F111" s="15"/>
-      <c r="G111" s="15"/>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="15"/>
-      <c r="K111" s="15"/>
-      <c r="L111" s="15"/>
-      <c r="M111" s="15"/>
-      <c r="N111" s="15"/>
-      <c r="O111" s="15"/>
-      <c r="P111" s="15"/>
-      <c r="Q111" s="15"/>
-      <c r="R111" s="15"/>
-      <c r="S111" s="15"/>
       <c r="T111" s="5"/>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
-      <c r="B112" s="15"/>
-      <c r="C112" s="15"/>
-      <c r="D112" s="15"/>
-      <c r="E112" s="15"/>
-      <c r="F112" s="15"/>
-      <c r="G112" s="15"/>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="15"/>
-      <c r="K112" s="15"/>
-      <c r="L112" s="15"/>
-      <c r="M112" s="15"/>
-      <c r="N112" s="15"/>
-      <c r="O112" s="15"/>
-      <c r="P112" s="15"/>
-      <c r="Q112" s="15"/>
-      <c r="R112" s="15"/>
-      <c r="S112" s="15"/>
       <c r="T112" s="5"/>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
-      <c r="B113" s="15"/>
-      <c r="C113" s="15"/>
-      <c r="D113" s="15"/>
-      <c r="E113" s="15"/>
-      <c r="F113" s="15"/>
-      <c r="G113" s="15"/>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="15"/>
-      <c r="K113" s="15"/>
-      <c r="L113" s="15"/>
-      <c r="M113" s="15"/>
-      <c r="N113" s="15"/>
-      <c r="O113" s="15"/>
-      <c r="P113" s="15"/>
-      <c r="Q113" s="15"/>
-      <c r="R113" s="15"/>
-      <c r="S113" s="15"/>
       <c r="T113" s="5"/>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
-      <c r="B114" s="15"/>
-      <c r="C114" s="15"/>
-      <c r="D114" s="15"/>
-      <c r="E114" s="15"/>
-      <c r="F114" s="15"/>
-      <c r="G114" s="15"/>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="15"/>
-      <c r="K114" s="15"/>
-      <c r="L114" s="15"/>
-      <c r="M114" s="15"/>
-      <c r="N114" s="15"/>
-      <c r="O114" s="15"/>
-      <c r="P114" s="15"/>
-      <c r="Q114" s="15"/>
-      <c r="R114" s="15"/>
-      <c r="S114" s="15"/>
       <c r="T114" s="5"/>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
-      <c r="B115" s="15"/>
-      <c r="C115" s="15"/>
-      <c r="D115" s="15"/>
-      <c r="E115" s="15"/>
-      <c r="F115" s="15"/>
-      <c r="G115" s="15"/>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="15"/>
-      <c r="K115" s="15"/>
-      <c r="L115" s="15"/>
-      <c r="M115" s="15"/>
-      <c r="N115" s="15"/>
-      <c r="O115" s="15"/>
-      <c r="P115" s="15"/>
-      <c r="Q115" s="15"/>
-      <c r="R115" s="15"/>
-      <c r="S115" s="15"/>
       <c r="T115" s="5"/>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
-      <c r="B116" s="15"/>
-      <c r="C116" s="15"/>
-      <c r="D116" s="15"/>
-      <c r="E116" s="15"/>
-      <c r="F116" s="15"/>
-      <c r="G116" s="15"/>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="15"/>
-      <c r="K116" s="15"/>
-      <c r="L116" s="15"/>
-      <c r="M116" s="15"/>
-      <c r="N116" s="15"/>
-      <c r="O116" s="15"/>
-      <c r="P116" s="15"/>
-      <c r="Q116" s="15"/>
-      <c r="R116" s="15"/>
-      <c r="S116" s="15"/>
       <c r="T116" s="5"/>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
-      <c r="B117" s="15"/>
-      <c r="C117" s="15"/>
-      <c r="D117" s="15"/>
-      <c r="E117" s="15"/>
-      <c r="F117" s="15"/>
-      <c r="G117" s="15"/>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="15"/>
-      <c r="K117" s="15"/>
-      <c r="L117" s="15"/>
-      <c r="M117" s="15"/>
-      <c r="N117" s="15"/>
-      <c r="O117" s="15"/>
-      <c r="P117" s="15"/>
-      <c r="Q117" s="15"/>
-      <c r="R117" s="15"/>
-      <c r="S117" s="15"/>
       <c r="T117" s="5"/>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
-      <c r="B118" s="15"/>
-      <c r="C118" s="15"/>
-      <c r="D118" s="15"/>
-      <c r="E118" s="15"/>
-      <c r="F118" s="15"/>
-      <c r="G118" s="15"/>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="15"/>
-      <c r="K118" s="15"/>
-      <c r="L118" s="15"/>
-      <c r="M118" s="15"/>
-      <c r="N118" s="15"/>
-      <c r="O118" s="15"/>
-      <c r="P118" s="15"/>
-      <c r="Q118" s="15"/>
-      <c r="R118" s="15"/>
-      <c r="S118" s="15"/>
       <c r="T118" s="5"/>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
-      <c r="B119" s="15"/>
-      <c r="C119" s="15"/>
-      <c r="D119" s="15"/>
-      <c r="E119" s="15"/>
-      <c r="F119" s="15"/>
-      <c r="G119" s="15"/>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
-      <c r="J119" s="15"/>
-      <c r="K119" s="15"/>
-      <c r="L119" s="15"/>
-      <c r="M119" s="15"/>
-      <c r="N119" s="15"/>
-      <c r="O119" s="15"/>
-      <c r="P119" s="15"/>
-      <c r="Q119" s="15"/>
-      <c r="R119" s="15"/>
-      <c r="S119" s="15"/>
       <c r="T119" s="5"/>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
-      <c r="B120" s="15"/>
-      <c r="C120" s="15"/>
-      <c r="D120" s="15"/>
-      <c r="E120" s="15"/>
-      <c r="F120" s="15"/>
-      <c r="G120" s="15"/>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="15"/>
-      <c r="K120" s="15"/>
-      <c r="L120" s="15"/>
-      <c r="M120" s="15"/>
-      <c r="N120" s="15"/>
-      <c r="O120" s="15"/>
-      <c r="P120" s="15"/>
-      <c r="Q120" s="15"/>
-      <c r="R120" s="15"/>
-      <c r="S120" s="15"/>
       <c r="T120" s="5"/>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
-      <c r="B121" s="15"/>
-      <c r="C121" s="15"/>
-      <c r="D121" s="15"/>
-      <c r="E121" s="15"/>
-      <c r="F121" s="15"/>
-      <c r="G121" s="15"/>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="15"/>
-      <c r="K121" s="15"/>
-      <c r="L121" s="15"/>
-      <c r="M121" s="15"/>
-      <c r="N121" s="15"/>
-      <c r="O121" s="15"/>
-      <c r="P121" s="15"/>
-      <c r="Q121" s="15"/>
-      <c r="R121" s="15"/>
-      <c r="S121" s="15"/>
       <c r="T121" s="5"/>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
-      <c r="B122" s="15"/>
-      <c r="C122" s="15"/>
-      <c r="D122" s="15"/>
-      <c r="E122" s="15"/>
-      <c r="F122" s="15"/>
-      <c r="G122" s="15"/>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="15"/>
-      <c r="K122" s="15"/>
-      <c r="L122" s="15"/>
-      <c r="M122" s="15"/>
-      <c r="N122" s="15"/>
-      <c r="O122" s="15"/>
-      <c r="P122" s="15"/>
-      <c r="Q122" s="15"/>
-      <c r="R122" s="15"/>
-      <c r="S122" s="15"/>
       <c r="T122" s="5"/>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
-      <c r="B123" s="15"/>
-      <c r="C123" s="15"/>
-      <c r="D123" s="15"/>
-      <c r="E123" s="15"/>
-      <c r="F123" s="15"/>
-      <c r="G123" s="15"/>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="15"/>
-      <c r="K123" s="15"/>
-      <c r="L123" s="15"/>
-      <c r="M123" s="15"/>
-      <c r="N123" s="15"/>
-      <c r="O123" s="15"/>
-      <c r="P123" s="15"/>
-      <c r="Q123" s="15"/>
-      <c r="R123" s="15"/>
-      <c r="S123" s="15"/>
       <c r="T123" s="5"/>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
-      <c r="B124" s="15"/>
-      <c r="C124" s="15"/>
-      <c r="D124" s="15"/>
-      <c r="E124" s="15"/>
-      <c r="F124" s="15"/>
-      <c r="G124" s="15"/>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="15"/>
-      <c r="K124" s="15"/>
-      <c r="L124" s="15"/>
-      <c r="M124" s="15"/>
-      <c r="N124" s="15"/>
-      <c r="O124" s="15"/>
-      <c r="P124" s="15"/>
-      <c r="Q124" s="15"/>
-      <c r="R124" s="15"/>
-      <c r="S124" s="15"/>
       <c r="T124" s="5"/>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
-      <c r="B125" s="15"/>
-      <c r="C125" s="15"/>
-      <c r="D125" s="15"/>
-      <c r="E125" s="15"/>
-      <c r="F125" s="15"/>
-      <c r="G125" s="15"/>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="15"/>
-      <c r="K125" s="15"/>
-      <c r="L125" s="15"/>
-      <c r="M125" s="15"/>
-      <c r="N125" s="15"/>
-      <c r="O125" s="15"/>
-      <c r="P125" s="15"/>
-      <c r="Q125" s="15"/>
-      <c r="R125" s="15"/>
-      <c r="S125" s="15"/>
       <c r="T125" s="5"/>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
-      <c r="B126" s="15"/>
-      <c r="C126" s="15"/>
-      <c r="D126" s="15"/>
-      <c r="E126" s="15"/>
-      <c r="F126" s="15"/>
-      <c r="G126" s="15"/>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="15"/>
-      <c r="K126" s="15"/>
-      <c r="L126" s="15"/>
-      <c r="M126" s="15"/>
-      <c r="N126" s="15"/>
-      <c r="O126" s="15"/>
-      <c r="P126" s="15"/>
-      <c r="Q126" s="15"/>
-      <c r="R126" s="15"/>
-      <c r="S126" s="15"/>
       <c r="T126" s="5"/>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
-      <c r="B127" s="15"/>
-      <c r="C127" s="15"/>
-      <c r="D127" s="15"/>
-      <c r="E127" s="15"/>
-      <c r="F127" s="15"/>
-      <c r="G127" s="15"/>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="15"/>
-      <c r="K127" s="15"/>
-      <c r="L127" s="15"/>
-      <c r="M127" s="15"/>
-      <c r="N127" s="15"/>
-      <c r="O127" s="15"/>
-      <c r="P127" s="15"/>
-      <c r="Q127" s="15"/>
-      <c r="R127" s="15"/>
-      <c r="S127" s="15"/>
       <c r="T127" s="5"/>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
-      <c r="B128" s="15"/>
-      <c r="C128" s="15"/>
-      <c r="D128" s="15"/>
-      <c r="E128" s="15"/>
-      <c r="F128" s="15"/>
-      <c r="G128" s="15"/>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="15"/>
-      <c r="K128" s="15"/>
-      <c r="L128" s="15"/>
-      <c r="M128" s="15"/>
-      <c r="N128" s="15"/>
-      <c r="O128" s="15"/>
-      <c r="P128" s="15"/>
-      <c r="Q128" s="15"/>
-      <c r="R128" s="15"/>
-      <c r="S128" s="15"/>
       <c r="T128" s="5"/>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
-      <c r="B129" s="15"/>
-      <c r="C129" s="15"/>
-      <c r="D129" s="15"/>
-      <c r="E129" s="15"/>
-      <c r="F129" s="15"/>
-      <c r="G129" s="15"/>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="15"/>
-      <c r="K129" s="15"/>
-      <c r="L129" s="15"/>
-      <c r="M129" s="15"/>
-      <c r="N129" s="15"/>
-      <c r="O129" s="15"/>
-      <c r="P129" s="15"/>
-      <c r="Q129" s="15"/>
-      <c r="R129" s="15"/>
-      <c r="S129" s="15"/>
       <c r="T129" s="5"/>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="15"/>
-      <c r="D130" s="15"/>
-      <c r="E130" s="15"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="15"/>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="15"/>
-      <c r="K130" s="15"/>
-      <c r="L130" s="15"/>
-      <c r="M130" s="15"/>
-      <c r="N130" s="15"/>
-      <c r="O130" s="15"/>
-      <c r="P130" s="15"/>
-      <c r="Q130" s="15"/>
-      <c r="R130" s="15"/>
-      <c r="S130" s="15"/>
       <c r="T130" s="5"/>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="15"/>
-      <c r="D131" s="15"/>
-      <c r="E131" s="15"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="15"/>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="15"/>
-      <c r="K131" s="15"/>
-      <c r="L131" s="15"/>
-      <c r="M131" s="15"/>
-      <c r="N131" s="15"/>
-      <c r="O131" s="15"/>
-      <c r="P131" s="15"/>
-      <c r="Q131" s="15"/>
-      <c r="R131" s="15"/>
-      <c r="S131" s="15"/>
       <c r="T131" s="5"/>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
-      <c r="B132" s="15"/>
-      <c r="C132" s="15"/>
-      <c r="D132" s="15"/>
-      <c r="E132" s="15"/>
-      <c r="F132" s="15"/>
-      <c r="G132" s="15"/>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="15"/>
-      <c r="K132" s="15"/>
-      <c r="L132" s="15"/>
-      <c r="M132" s="15"/>
-      <c r="N132" s="15"/>
-      <c r="O132" s="15"/>
-      <c r="P132" s="15"/>
-      <c r="Q132" s="15"/>
-      <c r="R132" s="15"/>
-      <c r="S132" s="15"/>
       <c r="T132" s="5"/>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
-      <c r="B133" s="15"/>
-      <c r="C133" s="15"/>
-      <c r="D133" s="15"/>
-      <c r="E133" s="15"/>
-      <c r="F133" s="15"/>
-      <c r="G133" s="15"/>
-      <c r="H133" s="15"/>
-      <c r="I133" s="15"/>
-      <c r="J133" s="15"/>
-      <c r="K133" s="15"/>
-      <c r="L133" s="15"/>
-      <c r="M133" s="15"/>
-      <c r="N133" s="15"/>
-      <c r="O133" s="15"/>
-      <c r="P133" s="15"/>
-      <c r="Q133" s="15"/>
-      <c r="R133" s="15"/>
-      <c r="S133" s="15"/>
       <c r="T133" s="5"/>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
-      <c r="B134" s="15"/>
-      <c r="C134" s="15"/>
-      <c r="D134" s="15"/>
-      <c r="E134" s="15"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="15"/>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
-      <c r="J134" s="15"/>
-      <c r="K134" s="15"/>
-      <c r="L134" s="15"/>
-      <c r="M134" s="15"/>
-      <c r="N134" s="15"/>
-      <c r="O134" s="15"/>
-      <c r="P134" s="15"/>
-      <c r="Q134" s="15"/>
-      <c r="R134" s="15"/>
-      <c r="S134" s="15"/>
       <c r="T134" s="5"/>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
-      <c r="B135" s="15"/>
-      <c r="C135" s="15"/>
-      <c r="D135" s="15"/>
-      <c r="E135" s="15"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="15"/>
-      <c r="H135" s="15"/>
-      <c r="I135" s="15"/>
-      <c r="J135" s="15"/>
-      <c r="K135" s="15"/>
-      <c r="L135" s="15"/>
-      <c r="M135" s="15"/>
-      <c r="N135" s="15"/>
-      <c r="O135" s="15"/>
-      <c r="P135" s="15"/>
-      <c r="Q135" s="15"/>
-      <c r="R135" s="15"/>
-      <c r="S135" s="15"/>
       <c r="T135" s="5"/>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
-      <c r="B136" s="15"/>
-      <c r="C136" s="15"/>
-      <c r="D136" s="15"/>
-      <c r="E136" s="15"/>
-      <c r="F136" s="15"/>
-      <c r="G136" s="15"/>
-      <c r="H136" s="15"/>
-      <c r="I136" s="15"/>
-      <c r="J136" s="15"/>
-      <c r="K136" s="15"/>
-      <c r="L136" s="15"/>
-      <c r="M136" s="15"/>
-      <c r="N136" s="15"/>
-      <c r="O136" s="15"/>
-      <c r="P136" s="15"/>
-      <c r="Q136" s="15"/>
-      <c r="R136" s="15"/>
-      <c r="S136" s="15"/>
       <c r="T136" s="5"/>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A137" s="6"/>
-      <c r="B137" s="7"/>
-      <c r="C137" s="7"/>
-      <c r="D137" s="7"/>
-      <c r="E137" s="7"/>
-      <c r="F137" s="7"/>
-      <c r="G137" s="7"/>
-      <c r="H137" s="7"/>
-      <c r="I137" s="7"/>
-      <c r="J137" s="7"/>
-      <c r="K137" s="7"/>
-      <c r="L137" s="7"/>
-      <c r="M137" s="7"/>
-      <c r="N137" s="7"/>
-      <c r="O137" s="7"/>
-      <c r="P137" s="7"/>
-      <c r="Q137" s="7"/>
-      <c r="R137" s="7"/>
-      <c r="S137" s="7"/>
-      <c r="T137" s="8"/>
+      <c r="A137" s="4"/>
+      <c r="T137" s="5"/>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A138" s="4"/>
+      <c r="T138" s="5"/>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A139" s="4"/>
+      <c r="T139" s="5"/>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A140" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
-      <c r="F140" s="2"/>
-      <c r="G140" s="2"/>
-      <c r="H140" s="2"/>
-      <c r="I140" s="2"/>
-      <c r="J140" s="2"/>
-      <c r="K140" s="2"/>
-      <c r="L140" s="2"/>
-      <c r="M140" s="2"/>
-      <c r="N140" s="2"/>
-      <c r="O140" s="2"/>
-      <c r="P140" s="2"/>
-      <c r="Q140" s="2"/>
-      <c r="R140" s="2"/>
-      <c r="S140" s="2"/>
-      <c r="T140" s="3"/>
+      <c r="A140" s="4"/>
+      <c r="T140" s="5"/>
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A141" s="16"/>
-      <c r="B141" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C141" s="15"/>
-      <c r="D141" s="15"/>
-      <c r="E141" s="15"/>
-      <c r="F141" s="15"/>
-      <c r="G141" s="15"/>
-      <c r="H141" s="15"/>
-      <c r="I141" s="15"/>
-      <c r="J141" s="15"/>
-      <c r="K141" s="15"/>
-      <c r="L141" s="15"/>
-      <c r="M141" s="15"/>
-      <c r="N141" s="15"/>
-      <c r="O141" s="15"/>
-      <c r="P141" s="15"/>
-      <c r="Q141" s="15"/>
-      <c r="R141" s="15"/>
-      <c r="S141" s="15"/>
+      <c r="A141" s="4"/>
       <c r="T141" s="5"/>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
-      <c r="B142" s="15"/>
-      <c r="C142" s="15"/>
-      <c r="D142" s="15"/>
-      <c r="E142" s="15"/>
-      <c r="F142" s="15"/>
-      <c r="G142" s="15"/>
-      <c r="H142" s="15"/>
-      <c r="I142" s="15"/>
-      <c r="J142" s="15"/>
-      <c r="K142" s="15"/>
-      <c r="L142" s="15"/>
-      <c r="M142" s="15"/>
-      <c r="N142" s="15"/>
-      <c r="O142" s="15"/>
-      <c r="P142" s="15"/>
-      <c r="Q142" s="15"/>
-      <c r="R142" s="15"/>
-      <c r="S142" s="15"/>
       <c r="T142" s="5"/>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
-      <c r="B143" s="15"/>
-      <c r="C143" s="15"/>
-      <c r="D143" s="15"/>
-      <c r="E143" s="15"/>
-      <c r="F143" s="15"/>
-      <c r="G143" s="15"/>
-      <c r="H143" s="15"/>
-      <c r="I143" s="15"/>
-      <c r="J143" s="15"/>
-      <c r="K143" s="15"/>
-      <c r="L143" s="15"/>
-      <c r="M143" s="15"/>
-      <c r="N143" s="15"/>
-      <c r="O143" s="15"/>
-      <c r="P143" s="15"/>
-      <c r="Q143" s="15"/>
-      <c r="R143" s="15"/>
-      <c r="S143" s="15"/>
       <c r="T143" s="5"/>
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
-      <c r="B144" s="15"/>
-      <c r="C144" s="15"/>
-      <c r="D144" s="15"/>
-      <c r="E144" s="15"/>
-      <c r="F144" s="15"/>
-      <c r="G144" s="15"/>
-      <c r="H144" s="15"/>
-      <c r="I144" s="15"/>
-      <c r="J144" s="15"/>
-      <c r="K144" s="15"/>
-      <c r="L144" s="15"/>
-      <c r="M144" s="15"/>
-      <c r="N144" s="15"/>
-      <c r="O144" s="15"/>
-      <c r="P144" s="15"/>
-      <c r="Q144" s="15"/>
-      <c r="R144" s="15"/>
-      <c r="S144" s="15"/>
       <c r="T144" s="5"/>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
-      <c r="B145" s="15"/>
-      <c r="C145" s="15"/>
-      <c r="D145" s="15"/>
-      <c r="E145" s="15"/>
-      <c r="F145" s="15"/>
-      <c r="G145" s="15"/>
-      <c r="H145" s="15"/>
-      <c r="I145" s="15"/>
-      <c r="J145" s="15"/>
-      <c r="K145" s="15"/>
-      <c r="L145" s="15"/>
-      <c r="M145" s="15"/>
-      <c r="N145" s="15"/>
-      <c r="O145" s="15"/>
-      <c r="P145" s="15"/>
-      <c r="Q145" s="15"/>
-      <c r="R145" s="15"/>
-      <c r="S145" s="15"/>
       <c r="T145" s="5"/>
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
-      <c r="B146" s="15"/>
-      <c r="C146" s="15"/>
-      <c r="D146" s="15"/>
-      <c r="E146" s="15"/>
-      <c r="F146" s="15"/>
-      <c r="G146" s="15"/>
-      <c r="H146" s="15"/>
-      <c r="I146" s="15"/>
-      <c r="J146" s="15"/>
-      <c r="K146" s="15"/>
-      <c r="L146" s="15"/>
-      <c r="M146" s="15"/>
-      <c r="N146" s="15"/>
-      <c r="O146" s="15"/>
-      <c r="P146" s="15"/>
-      <c r="Q146" s="15"/>
-      <c r="R146" s="15"/>
-      <c r="S146" s="15"/>
       <c r="T146" s="5"/>
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
-      <c r="B147" s="15"/>
-      <c r="C147" s="15"/>
-      <c r="D147" s="15"/>
-      <c r="E147" s="15"/>
-      <c r="F147" s="15"/>
-      <c r="G147" s="15"/>
-      <c r="H147" s="15"/>
-      <c r="I147" s="15"/>
-      <c r="J147" s="15"/>
-      <c r="K147" s="15"/>
-      <c r="L147" s="15"/>
-      <c r="M147" s="15"/>
-      <c r="N147" s="15"/>
-      <c r="O147" s="15"/>
-      <c r="P147" s="15"/>
-      <c r="Q147" s="15"/>
-      <c r="R147" s="15"/>
-      <c r="S147" s="15"/>
       <c r="T147" s="5"/>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
-      <c r="B148" s="15"/>
-      <c r="C148" s="15"/>
-      <c r="D148" s="15"/>
-      <c r="E148" s="15"/>
-      <c r="F148" s="15"/>
-      <c r="G148" s="15"/>
-      <c r="H148" s="15"/>
-      <c r="I148" s="15"/>
-      <c r="J148" s="15"/>
-      <c r="K148" s="15"/>
-      <c r="L148" s="15"/>
-      <c r="M148" s="15"/>
-      <c r="N148" s="15"/>
-      <c r="O148" s="15"/>
-      <c r="P148" s="15"/>
-      <c r="Q148" s="15"/>
-      <c r="R148" s="15"/>
-      <c r="S148" s="15"/>
       <c r="T148" s="5"/>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
-      <c r="B149" s="15"/>
-      <c r="C149" s="15"/>
-      <c r="D149" s="15"/>
-      <c r="E149" s="15"/>
-      <c r="F149" s="15"/>
-      <c r="G149" s="15"/>
-      <c r="H149" s="15"/>
-      <c r="I149" s="15"/>
-      <c r="J149" s="15"/>
-      <c r="K149" s="15"/>
-      <c r="L149" s="15"/>
-      <c r="M149" s="15"/>
-      <c r="N149" s="15"/>
-      <c r="O149" s="15"/>
-      <c r="P149" s="15"/>
-      <c r="Q149" s="15"/>
-      <c r="R149" s="15"/>
-      <c r="S149" s="15"/>
       <c r="T149" s="5"/>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
-      <c r="B150" s="15"/>
-      <c r="C150" s="15"/>
-      <c r="D150" s="15"/>
-      <c r="E150" s="15"/>
-      <c r="F150" s="15"/>
-      <c r="G150" s="15"/>
-      <c r="H150" s="15"/>
-      <c r="I150" s="15"/>
-      <c r="J150" s="15"/>
-      <c r="K150" s="15"/>
-      <c r="L150" s="15"/>
-      <c r="M150" s="15"/>
-      <c r="N150" s="15"/>
-      <c r="O150" s="15"/>
-      <c r="P150" s="15"/>
-      <c r="Q150" s="15"/>
-      <c r="R150" s="15"/>
-      <c r="S150" s="15"/>
       <c r="T150" s="5"/>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
-      <c r="B151" s="15"/>
-      <c r="C151" s="15"/>
-      <c r="D151" s="15"/>
-      <c r="E151" s="15"/>
-      <c r="F151" s="15"/>
-      <c r="G151" s="15"/>
-      <c r="H151" s="15"/>
-      <c r="I151" s="15"/>
-      <c r="J151" s="15"/>
-      <c r="K151" s="15"/>
-      <c r="L151" s="15"/>
-      <c r="M151" s="15"/>
-      <c r="N151" s="15"/>
-      <c r="O151" s="15"/>
-      <c r="P151" s="15"/>
-      <c r="Q151" s="15"/>
-      <c r="R151" s="15"/>
-      <c r="S151" s="15"/>
       <c r="T151" s="5"/>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
-      <c r="B152" s="15"/>
-      <c r="C152" s="15"/>
-      <c r="D152" s="15"/>
-      <c r="E152" s="15"/>
-      <c r="F152" s="15"/>
-      <c r="G152" s="15"/>
-      <c r="H152" s="15"/>
-      <c r="I152" s="15"/>
-      <c r="J152" s="15"/>
-      <c r="K152" s="15"/>
-      <c r="L152" s="15"/>
-      <c r="M152" s="15"/>
-      <c r="N152" s="15"/>
-      <c r="O152" s="15"/>
-      <c r="P152" s="15"/>
-      <c r="Q152" s="15"/>
-      <c r="R152" s="15"/>
-      <c r="S152" s="15"/>
       <c r="T152" s="5"/>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
-      <c r="B153" s="15"/>
-      <c r="C153" s="15"/>
-      <c r="D153" s="15"/>
-      <c r="E153" s="15"/>
-      <c r="F153" s="15"/>
-      <c r="G153" s="15"/>
-      <c r="H153" s="15"/>
-      <c r="I153" s="15"/>
-      <c r="J153" s="15"/>
-      <c r="K153" s="15"/>
-      <c r="L153" s="15"/>
-      <c r="M153" s="15"/>
-      <c r="N153" s="15"/>
-      <c r="O153" s="15"/>
-      <c r="P153" s="15"/>
-      <c r="Q153" s="15"/>
-      <c r="R153" s="15"/>
-      <c r="S153" s="15"/>
       <c r="T153" s="5"/>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A154" s="4"/>
-      <c r="B154" s="15"/>
-      <c r="C154" s="15"/>
-      <c r="D154" s="15"/>
-      <c r="E154" s="15"/>
-      <c r="F154" s="15"/>
-      <c r="G154" s="15"/>
-      <c r="H154" s="15"/>
-      <c r="I154" s="15"/>
-      <c r="J154" s="15"/>
-      <c r="K154" s="15"/>
-      <c r="L154" s="15"/>
-      <c r="M154" s="15"/>
-      <c r="N154" s="15"/>
-      <c r="O154" s="15"/>
-      <c r="P154" s="15"/>
-      <c r="Q154" s="15"/>
-      <c r="R154" s="15"/>
-      <c r="S154" s="15"/>
-      <c r="T154" s="5"/>
-    </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A155" s="4"/>
-      <c r="B155" s="15"/>
-      <c r="C155" s="15"/>
-      <c r="D155" s="15"/>
-      <c r="E155" s="15"/>
-      <c r="F155" s="15"/>
-      <c r="G155" s="15"/>
-      <c r="H155" s="15"/>
-      <c r="I155" s="15"/>
-      <c r="J155" s="15"/>
-      <c r="K155" s="15"/>
-      <c r="L155" s="15"/>
-      <c r="M155" s="15"/>
-      <c r="N155" s="15"/>
-      <c r="O155" s="15"/>
-      <c r="P155" s="15"/>
-      <c r="Q155" s="15"/>
-      <c r="R155" s="15"/>
-      <c r="S155" s="15"/>
-      <c r="T155" s="5"/>
-    </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A156" s="4"/>
-      <c r="B156" s="15"/>
-      <c r="C156" s="15"/>
-      <c r="D156" s="15"/>
-      <c r="E156" s="15"/>
-      <c r="F156" s="15"/>
-      <c r="G156" s="15"/>
-      <c r="H156" s="15"/>
-      <c r="I156" s="15"/>
-      <c r="J156" s="15"/>
-      <c r="K156" s="15"/>
-      <c r="L156" s="15"/>
-      <c r="M156" s="15"/>
-      <c r="N156" s="15"/>
-      <c r="O156" s="15"/>
-      <c r="P156" s="15"/>
-      <c r="Q156" s="15"/>
-      <c r="R156" s="15"/>
-      <c r="S156" s="15"/>
-      <c r="T156" s="5"/>
+      <c r="A154" s="6"/>
+      <c r="B154" s="7"/>
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="7"/>
+      <c r="F154" s="7"/>
+      <c r="G154" s="7"/>
+      <c r="H154" s="7"/>
+      <c r="I154" s="7"/>
+      <c r="J154" s="7"/>
+      <c r="K154" s="7"/>
+      <c r="L154" s="7"/>
+      <c r="M154" s="7"/>
+      <c r="N154" s="7"/>
+      <c r="O154" s="7"/>
+      <c r="P154" s="7"/>
+      <c r="Q154" s="7"/>
+      <c r="R154" s="7"/>
+      <c r="S154" s="7"/>
+      <c r="T154" s="8"/>
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A157" s="4"/>
-      <c r="B157" s="15"/>
-      <c r="C157" s="15"/>
-      <c r="D157" s="15"/>
-      <c r="E157" s="15"/>
-      <c r="F157" s="15"/>
-      <c r="G157" s="15"/>
-      <c r="H157" s="15"/>
-      <c r="I157" s="15"/>
-      <c r="J157" s="15"/>
-      <c r="K157" s="15"/>
-      <c r="L157" s="15"/>
-      <c r="M157" s="15"/>
-      <c r="N157" s="15"/>
-      <c r="O157" s="15"/>
-      <c r="P157" s="15"/>
-      <c r="Q157" s="15"/>
-      <c r="R157" s="15"/>
-      <c r="S157" s="15"/>
-      <c r="T157" s="5"/>
+      <c r="A157" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+      <c r="H157" s="2"/>
+      <c r="I157" s="2"/>
+      <c r="J157" s="2"/>
+      <c r="K157" s="2"/>
+      <c r="L157" s="2"/>
+      <c r="M157" s="2"/>
+      <c r="N157" s="2"/>
+      <c r="O157" s="2"/>
+      <c r="P157" s="2"/>
+      <c r="Q157" s="2"/>
+      <c r="R157" s="2"/>
+      <c r="S157" s="2"/>
+      <c r="T157" s="3"/>
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A158" s="4"/>
-      <c r="B158" s="15"/>
-      <c r="C158" s="15"/>
-      <c r="D158" s="15"/>
-      <c r="E158" s="15"/>
-      <c r="F158" s="15"/>
-      <c r="G158" s="15"/>
-      <c r="H158" s="15"/>
-      <c r="I158" s="15"/>
-      <c r="J158" s="15"/>
-      <c r="K158" s="15"/>
-      <c r="L158" s="15"/>
-      <c r="M158" s="15"/>
-      <c r="N158" s="15"/>
-      <c r="O158" s="15"/>
-      <c r="P158" s="15"/>
-      <c r="Q158" s="15"/>
-      <c r="R158" s="15"/>
-      <c r="S158" s="15"/>
+      <c r="A158" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B158" s="18"/>
+      <c r="C158" s="18"/>
+      <c r="D158" s="18"/>
+      <c r="E158" s="18"/>
+      <c r="F158" s="18"/>
+      <c r="G158" s="18"/>
+      <c r="H158" s="18"/>
+      <c r="I158" s="18"/>
+      <c r="J158" s="18"/>
+      <c r="K158" s="18"/>
+      <c r="L158" s="18"/>
+      <c r="M158" s="18"/>
+      <c r="N158" s="18"/>
+      <c r="O158" s="18"/>
+      <c r="P158" s="18"/>
+      <c r="Q158" s="18"/>
+      <c r="R158" s="18"/>
+      <c r="S158" s="18"/>
       <c r="T158" s="5"/>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
-      <c r="B159" s="15"/>
-      <c r="C159" s="15"/>
-      <c r="D159" s="15"/>
-      <c r="E159" s="15"/>
-      <c r="F159" s="15"/>
-      <c r="G159" s="15"/>
-      <c r="H159" s="15"/>
-      <c r="I159" s="15"/>
-      <c r="J159" s="15"/>
-      <c r="K159" s="15"/>
-      <c r="L159" s="15"/>
-      <c r="M159" s="15"/>
-      <c r="N159" s="15"/>
-      <c r="O159" s="15"/>
-      <c r="P159" s="15"/>
-      <c r="Q159" s="15"/>
-      <c r="R159" s="15"/>
-      <c r="S159" s="15"/>
+      <c r="B159" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2"/>
+      <c r="J159" s="2"/>
+      <c r="K159" s="2"/>
+      <c r="L159" s="2"/>
+      <c r="M159" s="3"/>
       <c r="T159" s="5"/>
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
-      <c r="B160" s="15"/>
-      <c r="C160" s="15"/>
-      <c r="D160" s="15"/>
-      <c r="E160" s="15"/>
-      <c r="F160" s="15"/>
-      <c r="G160" s="15"/>
-      <c r="H160" s="15"/>
-      <c r="I160" s="15"/>
-      <c r="J160" s="15"/>
-      <c r="K160" s="15"/>
-      <c r="L160" s="15"/>
-      <c r="M160" s="15"/>
-      <c r="N160" s="15"/>
-      <c r="O160" s="15"/>
-      <c r="P160" s="15"/>
-      <c r="Q160" s="15"/>
-      <c r="R160" s="15"/>
-      <c r="S160" s="15"/>
+      <c r="B160" s="20"/>
+      <c r="C160" s="7"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="7"/>
+      <c r="G160" s="7"/>
+      <c r="H160" s="7"/>
+      <c r="I160" s="7"/>
+      <c r="J160" s="7"/>
+      <c r="K160" s="7"/>
+      <c r="L160" s="7"/>
+      <c r="M160" s="8"/>
       <c r="T160" s="5"/>
     </row>
     <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
-      <c r="B161" s="15"/>
-      <c r="C161" s="15"/>
-      <c r="D161" s="15"/>
-      <c r="E161" s="15"/>
-      <c r="F161" s="15"/>
-      <c r="G161" s="15"/>
-      <c r="H161" s="15"/>
-      <c r="I161" s="15"/>
-      <c r="J161" s="15"/>
-      <c r="K161" s="15"/>
-      <c r="L161" s="15"/>
-      <c r="M161" s="15"/>
-      <c r="N161" s="15"/>
-      <c r="O161" s="15"/>
-      <c r="P161" s="15"/>
-      <c r="Q161" s="15"/>
-      <c r="R161" s="15"/>
-      <c r="S161" s="15"/>
       <c r="T161" s="5"/>
     </row>
     <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
-      <c r="B162" s="15"/>
-      <c r="C162" s="15"/>
-      <c r="D162" s="15"/>
-      <c r="E162" s="15"/>
-      <c r="F162" s="15"/>
-      <c r="G162" s="15"/>
-      <c r="H162" s="15"/>
-      <c r="I162" s="15"/>
-      <c r="J162" s="15"/>
-      <c r="K162" s="15"/>
-      <c r="L162" s="15"/>
-      <c r="M162" s="15"/>
-      <c r="N162" s="15"/>
-      <c r="O162" s="15"/>
-      <c r="P162" s="15"/>
-      <c r="Q162" s="15"/>
-      <c r="R162" s="15"/>
-      <c r="S162" s="15"/>
       <c r="T162" s="5"/>
     </row>
     <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
-      <c r="B163" s="15"/>
-      <c r="C163" s="15"/>
-      <c r="D163" s="15"/>
-      <c r="E163" s="15"/>
-      <c r="F163" s="15"/>
-      <c r="G163" s="15"/>
-      <c r="H163" s="15"/>
-      <c r="I163" s="15"/>
-      <c r="J163" s="15"/>
-      <c r="K163" s="15"/>
-      <c r="L163" s="15"/>
-      <c r="M163" s="15"/>
-      <c r="N163" s="15"/>
-      <c r="O163" s="15"/>
-      <c r="P163" s="15"/>
-      <c r="Q163" s="15"/>
-      <c r="R163" s="15"/>
-      <c r="S163" s="15"/>
       <c r="T163" s="5"/>
     </row>
     <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
-      <c r="B164" s="15"/>
-      <c r="C164" s="15"/>
-      <c r="D164" s="15"/>
-      <c r="E164" s="15"/>
-      <c r="F164" s="15"/>
-      <c r="G164" s="15"/>
-      <c r="H164" s="15"/>
-      <c r="I164" s="15"/>
-      <c r="J164" s="15"/>
-      <c r="K164" s="15"/>
-      <c r="L164" s="15"/>
-      <c r="M164" s="15"/>
-      <c r="N164" s="15"/>
-      <c r="O164" s="15"/>
-      <c r="P164" s="15"/>
-      <c r="Q164" s="15"/>
-      <c r="R164" s="15"/>
-      <c r="S164" s="15"/>
       <c r="T164" s="5"/>
     </row>
     <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
-      <c r="B165" s="15"/>
-      <c r="C165" s="15"/>
-      <c r="D165" s="15"/>
-      <c r="E165" s="15"/>
-      <c r="F165" s="15"/>
-      <c r="G165" s="15"/>
-      <c r="H165" s="15"/>
-      <c r="I165" s="15"/>
-      <c r="J165" s="15"/>
-      <c r="K165" s="15"/>
-      <c r="L165" s="15"/>
-      <c r="M165" s="15"/>
-      <c r="N165" s="15"/>
-      <c r="O165" s="15"/>
-      <c r="P165" s="15"/>
-      <c r="Q165" s="15"/>
-      <c r="R165" s="15"/>
-      <c r="S165" s="15"/>
       <c r="T165" s="5"/>
     </row>
     <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" s="4"/>
-      <c r="B166" s="15"/>
-      <c r="C166" s="15"/>
-      <c r="D166" s="15"/>
-      <c r="E166" s="15"/>
-      <c r="F166" s="15"/>
-      <c r="G166" s="15"/>
-      <c r="H166" s="15"/>
-      <c r="I166" s="15"/>
-      <c r="J166" s="15"/>
-      <c r="K166" s="15"/>
-      <c r="L166" s="15"/>
-      <c r="M166" s="15"/>
-      <c r="N166" s="15"/>
-      <c r="O166" s="15"/>
-      <c r="P166" s="15"/>
-      <c r="Q166" s="15"/>
-      <c r="R166" s="15"/>
-      <c r="S166" s="15"/>
       <c r="T166" s="5"/>
     </row>
     <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
-      <c r="B167" s="15"/>
-      <c r="C167" s="15"/>
-      <c r="D167" s="15"/>
-      <c r="E167" s="15"/>
-      <c r="F167" s="15"/>
-      <c r="G167" s="15"/>
-      <c r="H167" s="15"/>
-      <c r="I167" s="15"/>
-      <c r="J167" s="15"/>
-      <c r="K167" s="15"/>
-      <c r="L167" s="15"/>
-      <c r="M167" s="15"/>
-      <c r="N167" s="15"/>
-      <c r="O167" s="15"/>
-      <c r="P167" s="15"/>
-      <c r="Q167" s="15"/>
-      <c r="R167" s="15"/>
-      <c r="S167" s="15"/>
       <c r="T167" s="5"/>
     </row>
     <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
-      <c r="B168" s="15"/>
-      <c r="C168" s="15"/>
-      <c r="D168" s="15"/>
-      <c r="E168" s="15"/>
-      <c r="F168" s="15"/>
-      <c r="G168" s="15"/>
-      <c r="H168" s="15"/>
-      <c r="I168" s="15"/>
-      <c r="J168" s="15"/>
-      <c r="K168" s="15"/>
-      <c r="L168" s="15"/>
-      <c r="M168" s="15"/>
-      <c r="N168" s="15"/>
-      <c r="O168" s="15"/>
-      <c r="P168" s="15"/>
-      <c r="Q168" s="15"/>
-      <c r="R168" s="15"/>
-      <c r="S168" s="15"/>
       <c r="T168" s="5"/>
     </row>
     <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" s="4"/>
-      <c r="B169" s="15"/>
-      <c r="C169" s="15"/>
-      <c r="D169" s="15"/>
-      <c r="E169" s="15"/>
-      <c r="F169" s="15"/>
-      <c r="G169" s="15"/>
-      <c r="H169" s="15"/>
-      <c r="I169" s="15"/>
-      <c r="J169" s="15"/>
-      <c r="K169" s="15"/>
-      <c r="L169" s="15"/>
-      <c r="M169" s="15"/>
-      <c r="N169" s="15"/>
-      <c r="O169" s="15"/>
-      <c r="P169" s="15"/>
-      <c r="Q169" s="15"/>
-      <c r="R169" s="15"/>
-      <c r="S169" s="15"/>
       <c r="T169" s="5"/>
     </row>
     <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170" s="4"/>
-      <c r="B170" s="15"/>
-      <c r="C170" s="15"/>
-      <c r="D170" s="15"/>
-      <c r="E170" s="15"/>
-      <c r="F170" s="15"/>
-      <c r="G170" s="15"/>
-      <c r="H170" s="15"/>
-      <c r="I170" s="15"/>
-      <c r="J170" s="15"/>
-      <c r="K170" s="15"/>
-      <c r="L170" s="15"/>
-      <c r="M170" s="15"/>
-      <c r="N170" s="15"/>
-      <c r="O170" s="15"/>
-      <c r="P170" s="15"/>
-      <c r="Q170" s="15"/>
-      <c r="R170" s="15"/>
-      <c r="S170" s="15"/>
       <c r="T170" s="5"/>
     </row>
     <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171" s="4"/>
-      <c r="B171" s="15"/>
-      <c r="C171" s="15"/>
-      <c r="D171" s="15"/>
-      <c r="E171" s="15"/>
-      <c r="F171" s="15"/>
-      <c r="G171" s="15"/>
-      <c r="H171" s="15"/>
-      <c r="I171" s="15"/>
-      <c r="J171" s="15"/>
-      <c r="K171" s="15"/>
-      <c r="L171" s="15"/>
-      <c r="M171" s="15"/>
-      <c r="N171" s="15"/>
-      <c r="O171" s="15"/>
-      <c r="P171" s="15"/>
-      <c r="Q171" s="15"/>
-      <c r="R171" s="15"/>
-      <c r="S171" s="15"/>
       <c r="T171" s="5"/>
     </row>
     <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" s="4"/>
-      <c r="B172" s="15"/>
-      <c r="C172" s="15"/>
-      <c r="D172" s="15"/>
-      <c r="E172" s="15"/>
-      <c r="F172" s="15"/>
-      <c r="G172" s="15"/>
-      <c r="H172" s="15"/>
-      <c r="I172" s="15"/>
-      <c r="J172" s="15"/>
-      <c r="K172" s="15"/>
-      <c r="L172" s="15"/>
-      <c r="M172" s="15"/>
-      <c r="N172" s="15"/>
-      <c r="O172" s="15"/>
-      <c r="P172" s="15"/>
-      <c r="Q172" s="15"/>
-      <c r="R172" s="15"/>
-      <c r="S172" s="15"/>
       <c r="T172" s="5"/>
     </row>
     <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173" s="4"/>
-      <c r="B173" s="15"/>
-      <c r="C173" s="15"/>
-      <c r="D173" s="15"/>
-      <c r="E173" s="15"/>
-      <c r="F173" s="15"/>
-      <c r="G173" s="15"/>
-      <c r="H173" s="15"/>
-      <c r="I173" s="15"/>
-      <c r="J173" s="15"/>
-      <c r="K173" s="15"/>
-      <c r="L173" s="15"/>
-      <c r="M173" s="15"/>
-      <c r="N173" s="15"/>
-      <c r="O173" s="15"/>
-      <c r="P173" s="15"/>
-      <c r="Q173" s="15"/>
-      <c r="R173" s="15"/>
-      <c r="S173" s="15"/>
       <c r="T173" s="5"/>
     </row>
     <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174" s="4"/>
-      <c r="B174" s="15"/>
-      <c r="C174" s="15"/>
-      <c r="D174" s="15"/>
-      <c r="E174" s="15"/>
-      <c r="F174" s="15"/>
-      <c r="G174" s="15"/>
-      <c r="H174" s="15"/>
-      <c r="I174" s="15"/>
-      <c r="J174" s="15"/>
-      <c r="K174" s="15"/>
-      <c r="L174" s="15"/>
-      <c r="M174" s="15"/>
-      <c r="N174" s="15"/>
-      <c r="O174" s="15"/>
-      <c r="P174" s="15"/>
-      <c r="Q174" s="15"/>
-      <c r="R174" s="15"/>
-      <c r="S174" s="15"/>
       <c r="T174" s="5"/>
     </row>
     <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
-      <c r="B175" s="15"/>
-      <c r="C175" s="15"/>
-      <c r="D175" s="15"/>
-      <c r="E175" s="15"/>
-      <c r="F175" s="15"/>
-      <c r="G175" s="15"/>
-      <c r="H175" s="15"/>
-      <c r="I175" s="15"/>
-      <c r="J175" s="15"/>
-      <c r="K175" s="15"/>
-      <c r="L175" s="15"/>
-      <c r="M175" s="15"/>
-      <c r="N175" s="15"/>
-      <c r="O175" s="15"/>
-      <c r="P175" s="15"/>
-      <c r="Q175" s="15"/>
-      <c r="R175" s="15"/>
-      <c r="S175" s="15"/>
       <c r="T175" s="5"/>
     </row>
     <row r="176" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
-      <c r="B176" s="15"/>
-      <c r="C176" s="15"/>
-      <c r="D176" s="15"/>
-      <c r="E176" s="15"/>
-      <c r="F176" s="15"/>
-      <c r="G176" s="15"/>
-      <c r="H176" s="15"/>
-      <c r="I176" s="15"/>
-      <c r="J176" s="15"/>
-      <c r="K176" s="15"/>
-      <c r="L176" s="15"/>
-      <c r="M176" s="15"/>
-      <c r="N176" s="15"/>
-      <c r="O176" s="15"/>
-      <c r="P176" s="15"/>
-      <c r="Q176" s="15"/>
-      <c r="R176" s="15"/>
-      <c r="S176" s="15"/>
       <c r="T176" s="5"/>
     </row>
     <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
-      <c r="B177" s="15"/>
-      <c r="C177" s="15"/>
-      <c r="D177" s="15"/>
-      <c r="E177" s="15"/>
-      <c r="F177" s="15"/>
-      <c r="G177" s="15"/>
-      <c r="H177" s="15"/>
-      <c r="I177" s="15"/>
-      <c r="J177" s="15"/>
-      <c r="K177" s="15"/>
-      <c r="L177" s="15"/>
-      <c r="M177" s="15"/>
-      <c r="N177" s="15"/>
-      <c r="O177" s="15"/>
-      <c r="P177" s="15"/>
-      <c r="Q177" s="15"/>
-      <c r="R177" s="15"/>
-      <c r="S177" s="15"/>
       <c r="T177" s="5"/>
     </row>
     <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
-      <c r="B178" s="15"/>
-      <c r="C178" s="15"/>
-      <c r="D178" s="15"/>
-      <c r="E178" s="15"/>
-      <c r="F178" s="15"/>
-      <c r="G178" s="15"/>
-      <c r="H178" s="15"/>
-      <c r="I178" s="15"/>
-      <c r="J178" s="15"/>
-      <c r="K178" s="15"/>
-      <c r="L178" s="15"/>
-      <c r="M178" s="15"/>
-      <c r="N178" s="15"/>
-      <c r="O178" s="15"/>
-      <c r="P178" s="15"/>
-      <c r="Q178" s="15"/>
-      <c r="R178" s="15"/>
-      <c r="S178" s="15"/>
       <c r="T178" s="5"/>
     </row>
     <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
-      <c r="B179" s="15"/>
-      <c r="C179" s="15"/>
-      <c r="D179" s="15"/>
-      <c r="E179" s="15"/>
-      <c r="F179" s="15"/>
-      <c r="G179" s="15"/>
-      <c r="H179" s="15"/>
-      <c r="I179" s="15"/>
-      <c r="J179" s="15"/>
-      <c r="K179" s="15"/>
-      <c r="L179" s="15"/>
-      <c r="M179" s="15"/>
-      <c r="N179" s="15"/>
-      <c r="O179" s="15"/>
-      <c r="P179" s="15"/>
-      <c r="Q179" s="15"/>
-      <c r="R179" s="15"/>
-      <c r="S179" s="15"/>
       <c r="T179" s="5"/>
     </row>
     <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
-      <c r="B180" s="15"/>
-      <c r="C180" s="15"/>
-      <c r="D180" s="15"/>
-      <c r="E180" s="15"/>
-      <c r="F180" s="15"/>
-      <c r="G180" s="15"/>
-      <c r="H180" s="15"/>
-      <c r="I180" s="15"/>
-      <c r="J180" s="15"/>
-      <c r="K180" s="15"/>
-      <c r="L180" s="15"/>
-      <c r="M180" s="15"/>
-      <c r="N180" s="15"/>
-      <c r="O180" s="15"/>
-      <c r="P180" s="15"/>
-      <c r="Q180" s="15"/>
-      <c r="R180" s="15"/>
-      <c r="S180" s="15"/>
       <c r="T180" s="5"/>
     </row>
     <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" s="4"/>
-      <c r="B181" s="15"/>
-      <c r="C181" s="15"/>
-      <c r="D181" s="15"/>
-      <c r="E181" s="15"/>
-      <c r="F181" s="15"/>
-      <c r="G181" s="15"/>
-      <c r="H181" s="15"/>
-      <c r="I181" s="15"/>
-      <c r="J181" s="15"/>
-      <c r="K181" s="15"/>
-      <c r="L181" s="15"/>
-      <c r="M181" s="15"/>
-      <c r="N181" s="15"/>
-      <c r="O181" s="15"/>
-      <c r="P181" s="15"/>
-      <c r="Q181" s="15"/>
-      <c r="R181" s="15"/>
-      <c r="S181" s="15"/>
       <c r="T181" s="5"/>
     </row>
     <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" s="4"/>
-      <c r="B182" s="15"/>
-      <c r="C182" s="15"/>
-      <c r="D182" s="15"/>
-      <c r="E182" s="15"/>
-      <c r="F182" s="15"/>
-      <c r="G182" s="15"/>
-      <c r="H182" s="15"/>
-      <c r="I182" s="15"/>
-      <c r="J182" s="15"/>
-      <c r="K182" s="15"/>
-      <c r="L182" s="15"/>
-      <c r="M182" s="15"/>
-      <c r="N182" s="15"/>
-      <c r="O182" s="15"/>
-      <c r="P182" s="15"/>
-      <c r="Q182" s="15"/>
-      <c r="R182" s="15"/>
-      <c r="S182" s="15"/>
       <c r="T182" s="5"/>
     </row>
     <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" s="4"/>
-      <c r="B183" s="15"/>
-      <c r="C183" s="15"/>
-      <c r="D183" s="15"/>
-      <c r="E183" s="15"/>
-      <c r="F183" s="15"/>
-      <c r="G183" s="15"/>
-      <c r="H183" s="15"/>
-      <c r="I183" s="15"/>
-      <c r="J183" s="15"/>
-      <c r="K183" s="15"/>
-      <c r="L183" s="15"/>
-      <c r="M183" s="15"/>
-      <c r="N183" s="15"/>
-      <c r="O183" s="15"/>
-      <c r="P183" s="15"/>
-      <c r="Q183" s="15"/>
-      <c r="R183" s="15"/>
-      <c r="S183" s="15"/>
       <c r="T183" s="5"/>
     </row>
     <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" s="4"/>
-      <c r="B184" s="15"/>
-      <c r="C184" s="15"/>
-      <c r="D184" s="15"/>
-      <c r="E184" s="15"/>
-      <c r="F184" s="15"/>
-      <c r="G184" s="15"/>
-      <c r="H184" s="15"/>
-      <c r="I184" s="15"/>
-      <c r="J184" s="15"/>
-      <c r="K184" s="15"/>
-      <c r="L184" s="15"/>
-      <c r="M184" s="15"/>
-      <c r="N184" s="15"/>
-      <c r="O184" s="15"/>
-      <c r="P184" s="15"/>
-      <c r="Q184" s="15"/>
-      <c r="R184" s="15"/>
-      <c r="S184" s="15"/>
       <c r="T184" s="5"/>
     </row>
     <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185" s="4"/>
-      <c r="B185" s="15"/>
-      <c r="C185" s="15"/>
-      <c r="D185" s="15"/>
-      <c r="E185" s="15"/>
-      <c r="F185" s="15"/>
-      <c r="G185" s="15"/>
-      <c r="H185" s="15"/>
-      <c r="I185" s="15"/>
-      <c r="J185" s="15"/>
-      <c r="K185" s="15"/>
-      <c r="L185" s="15"/>
-      <c r="M185" s="15"/>
-      <c r="N185" s="15"/>
-      <c r="O185" s="15"/>
-      <c r="P185" s="15"/>
-      <c r="Q185" s="15"/>
-      <c r="R185" s="15"/>
-      <c r="S185" s="15"/>
       <c r="T185" s="5"/>
     </row>
     <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" s="4"/>
-      <c r="B186" s="15"/>
-      <c r="C186" s="15"/>
-      <c r="D186" s="15"/>
-      <c r="E186" s="15"/>
-      <c r="F186" s="15"/>
-      <c r="G186" s="15"/>
-      <c r="H186" s="15"/>
-      <c r="I186" s="15"/>
-      <c r="J186" s="15"/>
-      <c r="K186" s="15"/>
-      <c r="L186" s="15"/>
-      <c r="M186" s="15"/>
-      <c r="N186" s="15"/>
-      <c r="O186" s="15"/>
-      <c r="P186" s="15"/>
-      <c r="Q186" s="15"/>
-      <c r="R186" s="15"/>
-      <c r="S186" s="15"/>
       <c r="T186" s="5"/>
     </row>
     <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" s="4"/>
-      <c r="B187" s="15"/>
-      <c r="C187" s="15"/>
-      <c r="D187" s="15"/>
-      <c r="E187" s="15"/>
-      <c r="F187" s="15"/>
-      <c r="G187" s="15"/>
-      <c r="H187" s="15"/>
-      <c r="I187" s="15"/>
-      <c r="J187" s="15"/>
-      <c r="K187" s="15"/>
-      <c r="L187" s="15"/>
-      <c r="M187" s="15"/>
-      <c r="N187" s="15"/>
-      <c r="O187" s="15"/>
-      <c r="P187" s="15"/>
-      <c r="Q187" s="15"/>
-      <c r="R187" s="15"/>
-      <c r="S187" s="15"/>
       <c r="T187" s="5"/>
     </row>
     <row r="188" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A188" s="4"/>
-      <c r="B188" s="15"/>
-      <c r="C188" s="15"/>
-      <c r="D188" s="15"/>
-      <c r="E188" s="15"/>
-      <c r="F188" s="15"/>
-      <c r="G188" s="15"/>
-      <c r="H188" s="15"/>
-      <c r="I188" s="15"/>
-      <c r="J188" s="15"/>
-      <c r="K188" s="15"/>
-      <c r="L188" s="15"/>
-      <c r="M188" s="15"/>
-      <c r="N188" s="15"/>
-      <c r="O188" s="15"/>
-      <c r="P188" s="15"/>
-      <c r="Q188" s="15"/>
-      <c r="R188" s="15"/>
-      <c r="S188" s="15"/>
       <c r="T188" s="5"/>
     </row>
     <row r="189" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A189" s="4"/>
-      <c r="B189" s="15"/>
-      <c r="C189" s="15"/>
-      <c r="D189" s="15"/>
-      <c r="E189" s="15"/>
-      <c r="F189" s="15"/>
-      <c r="G189" s="15"/>
-      <c r="H189" s="15"/>
-      <c r="I189" s="15"/>
-      <c r="J189" s="15"/>
-      <c r="K189" s="15"/>
-      <c r="L189" s="15"/>
-      <c r="M189" s="15"/>
-      <c r="N189" s="15"/>
-      <c r="O189" s="15"/>
-      <c r="P189" s="15"/>
-      <c r="Q189" s="15"/>
-      <c r="R189" s="15"/>
-      <c r="S189" s="15"/>
       <c r="T189" s="5"/>
     </row>
     <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" s="4"/>
-      <c r="B190" s="15"/>
-      <c r="C190" s="15"/>
-      <c r="D190" s="15"/>
-      <c r="E190" s="15"/>
-      <c r="F190" s="15"/>
-      <c r="G190" s="15"/>
-      <c r="H190" s="15"/>
-      <c r="I190" s="15"/>
-      <c r="J190" s="15"/>
-      <c r="K190" s="15"/>
-      <c r="L190" s="15"/>
-      <c r="M190" s="15"/>
-      <c r="N190" s="15"/>
-      <c r="O190" s="15"/>
-      <c r="P190" s="15"/>
-      <c r="Q190" s="15"/>
-      <c r="R190" s="15"/>
-      <c r="S190" s="15"/>
       <c r="T190" s="5"/>
     </row>
     <row r="191" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
-      <c r="B191" s="15"/>
-      <c r="C191" s="15"/>
-      <c r="D191" s="15"/>
-      <c r="E191" s="15"/>
-      <c r="F191" s="15"/>
-      <c r="G191" s="15"/>
-      <c r="H191" s="15"/>
-      <c r="I191" s="15"/>
-      <c r="J191" s="15"/>
-      <c r="K191" s="15"/>
-      <c r="L191" s="15"/>
-      <c r="M191" s="15"/>
-      <c r="N191" s="15"/>
-      <c r="O191" s="15"/>
-      <c r="P191" s="15"/>
-      <c r="Q191" s="15"/>
-      <c r="R191" s="15"/>
-      <c r="S191" s="15"/>
       <c r="T191" s="5"/>
     </row>
     <row r="192" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A192" s="4"/>
-      <c r="B192" s="15"/>
-      <c r="C192" s="15"/>
-      <c r="D192" s="15"/>
-      <c r="E192" s="15"/>
-      <c r="F192" s="15"/>
-      <c r="G192" s="15"/>
-      <c r="H192" s="15"/>
-      <c r="I192" s="15"/>
-      <c r="J192" s="15"/>
-      <c r="K192" s="15"/>
-      <c r="L192" s="15"/>
-      <c r="M192" s="15"/>
-      <c r="N192" s="15"/>
-      <c r="O192" s="15"/>
-      <c r="P192" s="15"/>
-      <c r="Q192" s="15"/>
-      <c r="R192" s="15"/>
-      <c r="S192" s="15"/>
       <c r="T192" s="5"/>
     </row>
     <row r="193" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A193" s="4"/>
-      <c r="B193" s="15"/>
-      <c r="C193" s="15"/>
-      <c r="D193" s="15"/>
-      <c r="E193" s="15"/>
-      <c r="F193" s="15"/>
-      <c r="G193" s="15"/>
-      <c r="H193" s="15"/>
-      <c r="I193" s="15"/>
-      <c r="J193" s="15"/>
-      <c r="K193" s="15"/>
-      <c r="L193" s="15"/>
-      <c r="M193" s="15"/>
-      <c r="N193" s="15"/>
-      <c r="O193" s="15"/>
-      <c r="P193" s="15"/>
-      <c r="Q193" s="15"/>
-      <c r="R193" s="15"/>
-      <c r="S193" s="15"/>
       <c r="T193" s="5"/>
     </row>
     <row r="194" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
-      <c r="B194" s="15"/>
-      <c r="C194" s="15"/>
-      <c r="D194" s="15"/>
-      <c r="E194" s="15"/>
-      <c r="F194" s="15"/>
-      <c r="G194" s="15"/>
-      <c r="H194" s="15"/>
-      <c r="I194" s="15"/>
-      <c r="J194" s="15"/>
-      <c r="K194" s="15"/>
-      <c r="L194" s="15"/>
-      <c r="M194" s="15"/>
-      <c r="N194" s="15"/>
-      <c r="O194" s="15"/>
-      <c r="P194" s="15"/>
-      <c r="Q194" s="15"/>
-      <c r="R194" s="15"/>
-      <c r="S194" s="15"/>
       <c r="T194" s="5"/>
     </row>
     <row r="195" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A195" s="4"/>
-      <c r="B195" s="15"/>
-      <c r="C195" s="15"/>
-      <c r="D195" s="15"/>
-      <c r="E195" s="15"/>
-      <c r="F195" s="15"/>
-      <c r="G195" s="15"/>
-      <c r="H195" s="15"/>
-      <c r="I195" s="15"/>
-      <c r="J195" s="15"/>
-      <c r="K195" s="15"/>
-      <c r="L195" s="15"/>
-      <c r="M195" s="15"/>
-      <c r="N195" s="15"/>
-      <c r="O195" s="15"/>
-      <c r="P195" s="15"/>
-      <c r="Q195" s="15"/>
-      <c r="R195" s="15"/>
-      <c r="S195" s="15"/>
       <c r="T195" s="5"/>
     </row>
     <row r="196" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A196" s="4"/>
-      <c r="B196" s="15"/>
-      <c r="C196" s="15"/>
-      <c r="D196" s="15"/>
-      <c r="E196" s="15"/>
-      <c r="F196" s="15"/>
-      <c r="G196" s="15"/>
-      <c r="H196" s="15"/>
-      <c r="I196" s="15"/>
-      <c r="J196" s="15"/>
-      <c r="K196" s="15"/>
-      <c r="L196" s="15"/>
-      <c r="M196" s="15"/>
-      <c r="N196" s="15"/>
-      <c r="O196" s="15"/>
-      <c r="P196" s="15"/>
-      <c r="Q196" s="15"/>
-      <c r="R196" s="15"/>
-      <c r="S196" s="15"/>
       <c r="T196" s="5"/>
     </row>
     <row r="197" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A197" s="4"/>
-      <c r="B197" s="15"/>
-      <c r="C197" s="15"/>
-      <c r="D197" s="15"/>
-      <c r="E197" s="15"/>
-      <c r="F197" s="15"/>
-      <c r="G197" s="15"/>
-      <c r="H197" s="15"/>
-      <c r="I197" s="15"/>
-      <c r="J197" s="15"/>
-      <c r="K197" s="15"/>
-      <c r="L197" s="15"/>
-      <c r="M197" s="15"/>
-      <c r="N197" s="15"/>
-      <c r="O197" s="15"/>
-      <c r="P197" s="15"/>
-      <c r="Q197" s="15"/>
-      <c r="R197" s="15"/>
-      <c r="S197" s="15"/>
       <c r="T197" s="5"/>
     </row>
     <row r="198" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A198" s="4"/>
-      <c r="B198" s="15"/>
-      <c r="C198" s="15"/>
-      <c r="D198" s="15"/>
-      <c r="E198" s="15"/>
-      <c r="F198" s="15"/>
-      <c r="G198" s="15"/>
-      <c r="H198" s="15"/>
-      <c r="I198" s="15"/>
-      <c r="J198" s="15"/>
-      <c r="K198" s="15"/>
-      <c r="L198" s="15"/>
-      <c r="M198" s="15"/>
-      <c r="N198" s="15"/>
-      <c r="O198" s="15"/>
-      <c r="P198" s="15"/>
-      <c r="Q198" s="15"/>
-      <c r="R198" s="15"/>
-      <c r="S198" s="15"/>
       <c r="T198" s="5"/>
     </row>
     <row r="199" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A199" s="4"/>
-      <c r="B199" s="15"/>
-      <c r="C199" s="15"/>
-      <c r="D199" s="15"/>
-      <c r="E199" s="15"/>
-      <c r="F199" s="15"/>
-      <c r="G199" s="15"/>
-      <c r="H199" s="15"/>
-      <c r="I199" s="15"/>
-      <c r="J199" s="15"/>
-      <c r="K199" s="15"/>
-      <c r="L199" s="15"/>
-      <c r="M199" s="15"/>
-      <c r="N199" s="15"/>
-      <c r="O199" s="15"/>
-      <c r="P199" s="15"/>
-      <c r="Q199" s="15"/>
-      <c r="R199" s="15"/>
-      <c r="S199" s="15"/>
       <c r="T199" s="5"/>
     </row>
     <row r="200" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A200" s="4"/>
-      <c r="B200" s="15"/>
-      <c r="C200" s="15"/>
-      <c r="D200" s="15"/>
-      <c r="E200" s="15"/>
-      <c r="F200" s="15"/>
-      <c r="G200" s="15"/>
-      <c r="H200" s="15"/>
-      <c r="I200" s="15"/>
-      <c r="J200" s="15"/>
-      <c r="K200" s="15"/>
-      <c r="L200" s="15"/>
-      <c r="M200" s="15"/>
-      <c r="N200" s="15"/>
-      <c r="O200" s="15"/>
-      <c r="P200" s="15"/>
-      <c r="Q200" s="15"/>
-      <c r="R200" s="15"/>
-      <c r="S200" s="15"/>
       <c r="T200" s="5"/>
     </row>
     <row r="201" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A201" s="6"/>
-      <c r="B201" s="7"/>
-      <c r="C201" s="7"/>
-      <c r="D201" s="7"/>
-      <c r="E201" s="7"/>
-      <c r="F201" s="7"/>
-      <c r="G201" s="7"/>
-      <c r="H201" s="7"/>
-      <c r="I201" s="7"/>
-      <c r="J201" s="7"/>
-      <c r="K201" s="7"/>
-      <c r="L201" s="7"/>
-      <c r="M201" s="7"/>
-      <c r="N201" s="7"/>
-      <c r="O201" s="7"/>
-      <c r="P201" s="7"/>
-      <c r="Q201" s="7"/>
-      <c r="R201" s="7"/>
-      <c r="S201" s="7"/>
-      <c r="T201" s="8"/>
+      <c r="A201" s="4"/>
+      <c r="T201" s="5"/>
+    </row>
+    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A202" s="4"/>
+      <c r="T202" s="5"/>
+    </row>
+    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A203" s="4"/>
+      <c r="T203" s="5"/>
+    </row>
+    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A204" s="4"/>
+      <c r="T204" s="5"/>
+    </row>
+    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A205" s="4"/>
+      <c r="T205" s="5"/>
+    </row>
+    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A206" s="4"/>
+      <c r="T206" s="5"/>
+    </row>
+    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A207" s="4"/>
+      <c r="T207" s="5"/>
+    </row>
+    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A208" s="4"/>
+      <c r="T208" s="5"/>
+    </row>
+    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A209" s="4"/>
+      <c r="T209" s="5"/>
+    </row>
+    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A210" s="4"/>
+      <c r="T210" s="5"/>
+    </row>
+    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A211" s="4"/>
+      <c r="T211" s="5"/>
+    </row>
+    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A212" s="4"/>
+      <c r="T212" s="5"/>
+    </row>
+    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A213" s="4"/>
+      <c r="T213" s="5"/>
+    </row>
+    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A214" s="4"/>
+      <c r="T214" s="5"/>
+    </row>
+    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A215" s="4"/>
+      <c r="T215" s="5"/>
+    </row>
+    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A216" s="4"/>
+      <c r="T216" s="5"/>
+    </row>
+    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A217" s="4"/>
+      <c r="T217" s="5"/>
+    </row>
+    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A218" s="4"/>
+      <c r="T218" s="5"/>
+    </row>
+    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A219" s="4"/>
+      <c r="T219" s="5"/>
+    </row>
+    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A220" s="6"/>
+      <c r="B220" s="7"/>
+      <c r="C220" s="7"/>
+      <c r="D220" s="7"/>
+      <c r="E220" s="7"/>
+      <c r="F220" s="7"/>
+      <c r="G220" s="7"/>
+      <c r="H220" s="7"/>
+      <c r="I220" s="7"/>
+      <c r="J220" s="7"/>
+      <c r="K220" s="7"/>
+      <c r="L220" s="7"/>
+      <c r="M220" s="7"/>
+      <c r="N220" s="7"/>
+      <c r="O220" s="7"/>
+      <c r="P220" s="7"/>
+      <c r="Q220" s="7"/>
+      <c r="R220" s="7"/>
+      <c r="S220" s="7"/>
+      <c r="T220" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" location="'Authenticating REST API users'!A1" display="Authenticating REST API users" xr:uid="{63E64539-8FCE-4D4A-963E-BA3157E6A3B1}"/>
+    <hyperlink ref="B20" location="'Authenticating REST API users'!A1" display="Authenticating REST API users" xr:uid="{63E64539-8FCE-4D4A-963E-BA3157E6A3B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D428107F-8F68-4104-B464-7070A60175B7}">
+  <dimension ref="A2:T158"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="D8" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="D9" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="D10" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="D11" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="D12" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="D13" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="3"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="5"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="5"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="5"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="5"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="5"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="5"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="5"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="5"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="5"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="5"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="5"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="5"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="5"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="5"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="5"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="5"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="5"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="5"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="5"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="5"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="5"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="5"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="18"/>
+      <c r="S40" s="18"/>
+      <c r="T40" s="5"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="5"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="5"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="18"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="5"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="18"/>
+      <c r="R44" s="18"/>
+      <c r="S44" s="18"/>
+      <c r="T44" s="5"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="18"/>
+      <c r="R45" s="18"/>
+      <c r="S45" s="18"/>
+      <c r="T45" s="5"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="18"/>
+      <c r="R46" s="18"/>
+      <c r="S46" s="18"/>
+      <c r="T46" s="5"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="18"/>
+      <c r="P47" s="18"/>
+      <c r="Q47" s="18"/>
+      <c r="R47" s="18"/>
+      <c r="S47" s="18"/>
+      <c r="T47" s="5"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="18"/>
+      <c r="Q48" s="18"/>
+      <c r="R48" s="18"/>
+      <c r="S48" s="18"/>
+      <c r="T48" s="5"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="18"/>
+      <c r="R49" s="18"/>
+      <c r="S49" s="18"/>
+      <c r="T49" s="5"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="18"/>
+      <c r="R50" s="18"/>
+      <c r="S50" s="18"/>
+      <c r="T50" s="5"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="18"/>
+      <c r="R51" s="18"/>
+      <c r="S51" s="18"/>
+      <c r="T51" s="5"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="18"/>
+      <c r="O52" s="18"/>
+      <c r="P52" s="18"/>
+      <c r="Q52" s="18"/>
+      <c r="R52" s="18"/>
+      <c r="S52" s="18"/>
+      <c r="T52" s="5"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="18"/>
+      <c r="Q53" s="18"/>
+      <c r="R53" s="18"/>
+      <c r="S53" s="18"/>
+      <c r="T53" s="5"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="18"/>
+      <c r="Q54" s="18"/>
+      <c r="R54" s="18"/>
+      <c r="S54" s="18"/>
+      <c r="T54" s="5"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="18"/>
+      <c r="Q55" s="18"/>
+      <c r="R55" s="18"/>
+      <c r="S55" s="18"/>
+      <c r="T55" s="5"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="18"/>
+      <c r="Q56" s="18"/>
+      <c r="R56" s="18"/>
+      <c r="S56" s="18"/>
+      <c r="T56" s="5"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="18"/>
+      <c r="O57" s="18"/>
+      <c r="P57" s="18"/>
+      <c r="Q57" s="18"/>
+      <c r="R57" s="18"/>
+      <c r="S57" s="18"/>
+      <c r="T57" s="5"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="18"/>
+      <c r="R58" s="18"/>
+      <c r="S58" s="18"/>
+      <c r="T58" s="5"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="18"/>
+      <c r="O59" s="18"/>
+      <c r="P59" s="18"/>
+      <c r="Q59" s="18"/>
+      <c r="R59" s="18"/>
+      <c r="S59" s="18"/>
+      <c r="T59" s="5"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="18"/>
+      <c r="N60" s="18"/>
+      <c r="O60" s="18"/>
+      <c r="P60" s="18"/>
+      <c r="Q60" s="18"/>
+      <c r="R60" s="18"/>
+      <c r="S60" s="18"/>
+      <c r="T60" s="5"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="18"/>
+      <c r="N61" s="18"/>
+      <c r="O61" s="18"/>
+      <c r="P61" s="18"/>
+      <c r="Q61" s="18"/>
+      <c r="R61" s="18"/>
+      <c r="S61" s="18"/>
+      <c r="T61" s="5"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="18"/>
+      <c r="N62" s="18"/>
+      <c r="O62" s="18"/>
+      <c r="P62" s="18"/>
+      <c r="Q62" s="18"/>
+      <c r="R62" s="18"/>
+      <c r="S62" s="18"/>
+      <c r="T62" s="5"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="18"/>
+      <c r="O63" s="18"/>
+      <c r="P63" s="18"/>
+      <c r="Q63" s="18"/>
+      <c r="R63" s="18"/>
+      <c r="S63" s="18"/>
+      <c r="T63" s="5"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="18"/>
+      <c r="M64" s="18"/>
+      <c r="N64" s="18"/>
+      <c r="O64" s="18"/>
+      <c r="P64" s="18"/>
+      <c r="Q64" s="18"/>
+      <c r="R64" s="18"/>
+      <c r="S64" s="18"/>
+      <c r="T64" s="5"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="18"/>
+      <c r="N65" s="18"/>
+      <c r="O65" s="18"/>
+      <c r="P65" s="18"/>
+      <c r="Q65" s="18"/>
+      <c r="R65" s="18"/>
+      <c r="S65" s="18"/>
+      <c r="T65" s="5"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="18"/>
+      <c r="N66" s="18"/>
+      <c r="O66" s="18"/>
+      <c r="P66" s="18"/>
+      <c r="Q66" s="18"/>
+      <c r="R66" s="18"/>
+      <c r="S66" s="18"/>
+      <c r="T66" s="5"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="18"/>
+      <c r="M67" s="18"/>
+      <c r="N67" s="18"/>
+      <c r="O67" s="18"/>
+      <c r="P67" s="18"/>
+      <c r="Q67" s="18"/>
+      <c r="R67" s="18"/>
+      <c r="S67" s="18"/>
+      <c r="T67" s="5"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="18"/>
+      <c r="M68" s="18"/>
+      <c r="N68" s="18"/>
+      <c r="O68" s="18"/>
+      <c r="P68" s="18"/>
+      <c r="Q68" s="18"/>
+      <c r="R68" s="18"/>
+      <c r="S68" s="18"/>
+      <c r="T68" s="5"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="18"/>
+      <c r="M69" s="18"/>
+      <c r="N69" s="18"/>
+      <c r="O69" s="18"/>
+      <c r="P69" s="18"/>
+      <c r="Q69" s="18"/>
+      <c r="R69" s="18"/>
+      <c r="S69" s="18"/>
+      <c r="T69" s="5"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="18"/>
+      <c r="L70" s="18"/>
+      <c r="M70" s="18"/>
+      <c r="N70" s="18"/>
+      <c r="O70" s="18"/>
+      <c r="P70" s="18"/>
+      <c r="Q70" s="18"/>
+      <c r="R70" s="18"/>
+      <c r="S70" s="18"/>
+      <c r="T70" s="5"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="18"/>
+      <c r="M71" s="18"/>
+      <c r="N71" s="18"/>
+      <c r="O71" s="18"/>
+      <c r="P71" s="18"/>
+      <c r="Q71" s="18"/>
+      <c r="R71" s="18"/>
+      <c r="S71" s="18"/>
+      <c r="T71" s="5"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="18"/>
+      <c r="K72" s="18"/>
+      <c r="L72" s="18"/>
+      <c r="M72" s="18"/>
+      <c r="N72" s="18"/>
+      <c r="O72" s="18"/>
+      <c r="P72" s="18"/>
+      <c r="Q72" s="18"/>
+      <c r="R72" s="18"/>
+      <c r="S72" s="18"/>
+      <c r="T72" s="5"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="18"/>
+      <c r="L73" s="18"/>
+      <c r="M73" s="18"/>
+      <c r="N73" s="18"/>
+      <c r="O73" s="18"/>
+      <c r="P73" s="18"/>
+      <c r="Q73" s="18"/>
+      <c r="R73" s="18"/>
+      <c r="S73" s="18"/>
+      <c r="T73" s="5"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="18"/>
+      <c r="L74" s="18"/>
+      <c r="M74" s="18"/>
+      <c r="N74" s="18"/>
+      <c r="O74" s="18"/>
+      <c r="P74" s="18"/>
+      <c r="Q74" s="18"/>
+      <c r="R74" s="18"/>
+      <c r="S74" s="18"/>
+      <c r="T74" s="5"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="18"/>
+      <c r="K75" s="18"/>
+      <c r="L75" s="18"/>
+      <c r="M75" s="18"/>
+      <c r="N75" s="18"/>
+      <c r="O75" s="18"/>
+      <c r="P75" s="18"/>
+      <c r="Q75" s="18"/>
+      <c r="R75" s="18"/>
+      <c r="S75" s="18"/>
+      <c r="T75" s="5"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="18"/>
+      <c r="K76" s="18"/>
+      <c r="L76" s="18"/>
+      <c r="M76" s="18"/>
+      <c r="N76" s="18"/>
+      <c r="O76" s="18"/>
+      <c r="P76" s="18"/>
+      <c r="Q76" s="18"/>
+      <c r="R76" s="18"/>
+      <c r="S76" s="18"/>
+      <c r="T76" s="5"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18"/>
+      <c r="J77" s="18"/>
+      <c r="K77" s="18"/>
+      <c r="L77" s="18"/>
+      <c r="M77" s="18"/>
+      <c r="N77" s="18"/>
+      <c r="O77" s="18"/>
+      <c r="P77" s="18"/>
+      <c r="Q77" s="18"/>
+      <c r="R77" s="18"/>
+      <c r="S77" s="18"/>
+      <c r="T77" s="5"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
+      <c r="J78" s="18"/>
+      <c r="K78" s="18"/>
+      <c r="L78" s="18"/>
+      <c r="M78" s="18"/>
+      <c r="N78" s="18"/>
+      <c r="O78" s="18"/>
+      <c r="P78" s="18"/>
+      <c r="Q78" s="18"/>
+      <c r="R78" s="18"/>
+      <c r="S78" s="18"/>
+      <c r="T78" s="5"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" s="4"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="18"/>
+      <c r="K79" s="18"/>
+      <c r="L79" s="18"/>
+      <c r="M79" s="18"/>
+      <c r="N79" s="18"/>
+      <c r="O79" s="18"/>
+      <c r="P79" s="18"/>
+      <c r="Q79" s="18"/>
+      <c r="R79" s="18"/>
+      <c r="S79" s="18"/>
+      <c r="T79" s="5"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="18"/>
+      <c r="L80" s="18"/>
+      <c r="M80" s="18"/>
+      <c r="N80" s="18"/>
+      <c r="O80" s="18"/>
+      <c r="P80" s="18"/>
+      <c r="Q80" s="18"/>
+      <c r="R80" s="18"/>
+      <c r="S80" s="18"/>
+      <c r="T80" s="5"/>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="18"/>
+      <c r="L81" s="18"/>
+      <c r="M81" s="18"/>
+      <c r="N81" s="18"/>
+      <c r="O81" s="18"/>
+      <c r="P81" s="18"/>
+      <c r="Q81" s="18"/>
+      <c r="R81" s="18"/>
+      <c r="S81" s="18"/>
+      <c r="T81" s="5"/>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="18"/>
+      <c r="L82" s="18"/>
+      <c r="M82" s="18"/>
+      <c r="N82" s="18"/>
+      <c r="O82" s="18"/>
+      <c r="P82" s="18"/>
+      <c r="Q82" s="18"/>
+      <c r="R82" s="18"/>
+      <c r="S82" s="18"/>
+      <c r="T82" s="5"/>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="18"/>
+      <c r="L83" s="18"/>
+      <c r="M83" s="18"/>
+      <c r="N83" s="18"/>
+      <c r="O83" s="18"/>
+      <c r="P83" s="18"/>
+      <c r="Q83" s="18"/>
+      <c r="R83" s="18"/>
+      <c r="S83" s="18"/>
+      <c r="T83" s="5"/>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84" s="6"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="7"/>
+      <c r="P84" s="7"/>
+      <c r="Q84" s="7"/>
+      <c r="R84" s="7"/>
+      <c r="S84" s="7"/>
+      <c r="T84" s="8"/>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="2"/>
+      <c r="S87" s="2"/>
+      <c r="T87" s="3"/>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+      <c r="B88" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="18"/>
+      <c r="M88" s="18"/>
+      <c r="N88" s="18"/>
+      <c r="O88" s="18"/>
+      <c r="P88" s="18"/>
+      <c r="Q88" s="18"/>
+      <c r="R88" s="18"/>
+      <c r="S88" s="18"/>
+      <c r="T88" s="5"/>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="18"/>
+      <c r="J89" s="18"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="18"/>
+      <c r="M89" s="18"/>
+      <c r="N89" s="18"/>
+      <c r="O89" s="18"/>
+      <c r="P89" s="18"/>
+      <c r="Q89" s="18"/>
+      <c r="R89" s="18"/>
+      <c r="S89" s="18"/>
+      <c r="T89" s="5"/>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="18"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="18"/>
+      <c r="M90" s="18"/>
+      <c r="N90" s="18"/>
+      <c r="O90" s="18"/>
+      <c r="P90" s="18"/>
+      <c r="Q90" s="18"/>
+      <c r="R90" s="18"/>
+      <c r="S90" s="18"/>
+      <c r="T90" s="5"/>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="18"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="18"/>
+      <c r="J91" s="18"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="18"/>
+      <c r="M91" s="18"/>
+      <c r="N91" s="18"/>
+      <c r="O91" s="18"/>
+      <c r="P91" s="18"/>
+      <c r="Q91" s="18"/>
+      <c r="R91" s="18"/>
+      <c r="S91" s="18"/>
+      <c r="T91" s="5"/>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
+      <c r="J92" s="18"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="18"/>
+      <c r="M92" s="18"/>
+      <c r="N92" s="18"/>
+      <c r="O92" s="18"/>
+      <c r="P92" s="18"/>
+      <c r="Q92" s="18"/>
+      <c r="R92" s="18"/>
+      <c r="S92" s="18"/>
+      <c r="T92" s="5"/>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="18"/>
+      <c r="J93" s="18"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="18"/>
+      <c r="M93" s="18"/>
+      <c r="N93" s="18"/>
+      <c r="O93" s="18"/>
+      <c r="P93" s="18"/>
+      <c r="Q93" s="18"/>
+      <c r="R93" s="18"/>
+      <c r="S93" s="18"/>
+      <c r="T93" s="5"/>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="18"/>
+      <c r="J94" s="18"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="18"/>
+      <c r="M94" s="18"/>
+      <c r="N94" s="18"/>
+      <c r="O94" s="18"/>
+      <c r="P94" s="18"/>
+      <c r="Q94" s="18"/>
+      <c r="R94" s="18"/>
+      <c r="S94" s="18"/>
+      <c r="T94" s="5"/>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="18"/>
+      <c r="I95" s="18"/>
+      <c r="J95" s="18"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="18"/>
+      <c r="M95" s="18"/>
+      <c r="N95" s="18"/>
+      <c r="O95" s="18"/>
+      <c r="P95" s="18"/>
+      <c r="Q95" s="18"/>
+      <c r="R95" s="18"/>
+      <c r="S95" s="18"/>
+      <c r="T95" s="5"/>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="18"/>
+      <c r="J96" s="18"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="18"/>
+      <c r="M96" s="18"/>
+      <c r="N96" s="18"/>
+      <c r="O96" s="18"/>
+      <c r="P96" s="18"/>
+      <c r="Q96" s="18"/>
+      <c r="R96" s="18"/>
+      <c r="S96" s="18"/>
+      <c r="T96" s="5"/>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+      <c r="B97" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="8"/>
+      <c r="L97" s="18"/>
+      <c r="M97" s="18"/>
+      <c r="N97" s="18"/>
+      <c r="O97" s="18"/>
+      <c r="P97" s="18"/>
+      <c r="Q97" s="18"/>
+      <c r="R97" s="18"/>
+      <c r="S97" s="18"/>
+      <c r="T97" s="5"/>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
+      <c r="I98" s="18"/>
+      <c r="J98" s="18"/>
+      <c r="K98" s="18"/>
+      <c r="L98" s="18"/>
+      <c r="M98" s="18"/>
+      <c r="N98" s="18"/>
+      <c r="O98" s="18"/>
+      <c r="P98" s="18"/>
+      <c r="Q98" s="18"/>
+      <c r="R98" s="18"/>
+      <c r="S98" s="18"/>
+      <c r="T98" s="5"/>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="18"/>
+      <c r="I99" s="18"/>
+      <c r="J99" s="18"/>
+      <c r="K99" s="18"/>
+      <c r="L99" s="18"/>
+      <c r="M99" s="18"/>
+      <c r="N99" s="18"/>
+      <c r="O99" s="18"/>
+      <c r="P99" s="18"/>
+      <c r="Q99" s="18"/>
+      <c r="R99" s="18"/>
+      <c r="S99" s="18"/>
+      <c r="T99" s="5"/>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+      <c r="B100" s="18"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="18"/>
+      <c r="I100" s="18"/>
+      <c r="J100" s="18"/>
+      <c r="K100" s="18"/>
+      <c r="L100" s="18"/>
+      <c r="M100" s="18"/>
+      <c r="N100" s="18"/>
+      <c r="O100" s="18"/>
+      <c r="P100" s="18"/>
+      <c r="Q100" s="18"/>
+      <c r="R100" s="18"/>
+      <c r="S100" s="18"/>
+      <c r="T100" s="5"/>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A101" s="4"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="18"/>
+      <c r="I101" s="18"/>
+      <c r="J101" s="18"/>
+      <c r="K101" s="18"/>
+      <c r="L101" s="18"/>
+      <c r="M101" s="18"/>
+      <c r="N101" s="18"/>
+      <c r="O101" s="18"/>
+      <c r="P101" s="18"/>
+      <c r="Q101" s="18"/>
+      <c r="R101" s="18"/>
+      <c r="S101" s="18"/>
+      <c r="T101" s="5"/>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
+      <c r="B102" s="18"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="18"/>
+      <c r="H102" s="18"/>
+      <c r="I102" s="18"/>
+      <c r="J102" s="18"/>
+      <c r="K102" s="18"/>
+      <c r="L102" s="18"/>
+      <c r="M102" s="18"/>
+      <c r="N102" s="18"/>
+      <c r="O102" s="18"/>
+      <c r="P102" s="18"/>
+      <c r="Q102" s="18"/>
+      <c r="R102" s="18"/>
+      <c r="S102" s="18"/>
+      <c r="T102" s="5"/>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+      <c r="B103" s="18"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="18"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="18"/>
+      <c r="H103" s="18"/>
+      <c r="I103" s="18"/>
+      <c r="J103" s="18"/>
+      <c r="K103" s="18"/>
+      <c r="L103" s="18"/>
+      <c r="M103" s="18"/>
+      <c r="N103" s="18"/>
+      <c r="O103" s="18"/>
+      <c r="P103" s="18"/>
+      <c r="Q103" s="18"/>
+      <c r="R103" s="18"/>
+      <c r="S103" s="18"/>
+      <c r="T103" s="5"/>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+      <c r="B104" s="18"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="18"/>
+      <c r="E104" s="18"/>
+      <c r="F104" s="18"/>
+      <c r="G104" s="18"/>
+      <c r="H104" s="18"/>
+      <c r="I104" s="18"/>
+      <c r="J104" s="18"/>
+      <c r="K104" s="18"/>
+      <c r="L104" s="18"/>
+      <c r="M104" s="18"/>
+      <c r="N104" s="18"/>
+      <c r="O104" s="18"/>
+      <c r="P104" s="18"/>
+      <c r="Q104" s="18"/>
+      <c r="R104" s="18"/>
+      <c r="S104" s="18"/>
+      <c r="T104" s="5"/>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="18"/>
+      <c r="H105" s="18"/>
+      <c r="I105" s="18"/>
+      <c r="J105" s="18"/>
+      <c r="K105" s="18"/>
+      <c r="L105" s="18"/>
+      <c r="M105" s="18"/>
+      <c r="N105" s="18"/>
+      <c r="O105" s="18"/>
+      <c r="P105" s="18"/>
+      <c r="Q105" s="18"/>
+      <c r="R105" s="18"/>
+      <c r="S105" s="18"/>
+      <c r="T105" s="5"/>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A106" s="4"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="18"/>
+      <c r="H106" s="18"/>
+      <c r="I106" s="18"/>
+      <c r="J106" s="18"/>
+      <c r="K106" s="18"/>
+      <c r="L106" s="18"/>
+      <c r="M106" s="18"/>
+      <c r="N106" s="18"/>
+      <c r="O106" s="18"/>
+      <c r="P106" s="18"/>
+      <c r="Q106" s="18"/>
+      <c r="R106" s="18"/>
+      <c r="S106" s="18"/>
+      <c r="T106" s="5"/>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A107" s="4"/>
+      <c r="B107" s="18"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="18"/>
+      <c r="F107" s="18"/>
+      <c r="G107" s="18"/>
+      <c r="H107" s="18"/>
+      <c r="I107" s="18"/>
+      <c r="J107" s="18"/>
+      <c r="K107" s="18"/>
+      <c r="L107" s="18"/>
+      <c r="M107" s="18"/>
+      <c r="N107" s="18"/>
+      <c r="O107" s="18"/>
+      <c r="P107" s="18"/>
+      <c r="Q107" s="18"/>
+      <c r="R107" s="18"/>
+      <c r="S107" s="18"/>
+      <c r="T107" s="5"/>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A108" s="4"/>
+      <c r="B108" s="18"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="18"/>
+      <c r="H108" s="18"/>
+      <c r="I108" s="18"/>
+      <c r="J108" s="18"/>
+      <c r="K108" s="18"/>
+      <c r="L108" s="18"/>
+      <c r="M108" s="18"/>
+      <c r="N108" s="18"/>
+      <c r="O108" s="18"/>
+      <c r="P108" s="18"/>
+      <c r="Q108" s="18"/>
+      <c r="R108" s="18"/>
+      <c r="S108" s="18"/>
+      <c r="T108" s="5"/>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A109" s="4"/>
+      <c r="B109" s="18"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="18"/>
+      <c r="H109" s="18"/>
+      <c r="I109" s="18"/>
+      <c r="J109" s="18"/>
+      <c r="K109" s="18"/>
+      <c r="L109" s="18"/>
+      <c r="M109" s="18"/>
+      <c r="N109" s="18"/>
+      <c r="O109" s="18"/>
+      <c r="P109" s="18"/>
+      <c r="Q109" s="18"/>
+      <c r="R109" s="18"/>
+      <c r="S109" s="18"/>
+      <c r="T109" s="5"/>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A110" s="4"/>
+      <c r="B110" s="18"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="18"/>
+      <c r="H110" s="18"/>
+      <c r="I110" s="18"/>
+      <c r="J110" s="18"/>
+      <c r="K110" s="18"/>
+      <c r="L110" s="18"/>
+      <c r="M110" s="18"/>
+      <c r="N110" s="18"/>
+      <c r="O110" s="18"/>
+      <c r="P110" s="18"/>
+      <c r="Q110" s="18"/>
+      <c r="R110" s="18"/>
+      <c r="S110" s="18"/>
+      <c r="T110" s="5"/>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A111" s="4"/>
+      <c r="B111" s="18"/>
+      <c r="C111" s="18"/>
+      <c r="D111" s="18"/>
+      <c r="E111" s="18"/>
+      <c r="F111" s="18"/>
+      <c r="G111" s="18"/>
+      <c r="H111" s="18"/>
+      <c r="I111" s="18"/>
+      <c r="J111" s="18"/>
+      <c r="K111" s="18"/>
+      <c r="L111" s="18"/>
+      <c r="M111" s="18"/>
+      <c r="N111" s="18"/>
+      <c r="O111" s="18"/>
+      <c r="P111" s="18"/>
+      <c r="Q111" s="18"/>
+      <c r="R111" s="18"/>
+      <c r="S111" s="18"/>
+      <c r="T111" s="5"/>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A112" s="4"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="18"/>
+      <c r="I112" s="18"/>
+      <c r="J112" s="18"/>
+      <c r="K112" s="18"/>
+      <c r="L112" s="18"/>
+      <c r="M112" s="18"/>
+      <c r="N112" s="18"/>
+      <c r="O112" s="18"/>
+      <c r="P112" s="18"/>
+      <c r="Q112" s="18"/>
+      <c r="R112" s="18"/>
+      <c r="S112" s="18"/>
+      <c r="T112" s="5"/>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A113" s="4"/>
+      <c r="B113" s="18"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="18"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="18"/>
+      <c r="G113" s="18"/>
+      <c r="H113" s="18"/>
+      <c r="I113" s="18"/>
+      <c r="J113" s="18"/>
+      <c r="K113" s="18"/>
+      <c r="L113" s="18"/>
+      <c r="M113" s="18"/>
+      <c r="N113" s="18"/>
+      <c r="O113" s="18"/>
+      <c r="P113" s="18"/>
+      <c r="Q113" s="18"/>
+      <c r="R113" s="18"/>
+      <c r="S113" s="18"/>
+      <c r="T113" s="5"/>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A114" s="4"/>
+      <c r="B114" s="18"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="18"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="18"/>
+      <c r="H114" s="18"/>
+      <c r="I114" s="18"/>
+      <c r="J114" s="18"/>
+      <c r="K114" s="18"/>
+      <c r="L114" s="18"/>
+      <c r="M114" s="18"/>
+      <c r="N114" s="18"/>
+      <c r="O114" s="18"/>
+      <c r="P114" s="18"/>
+      <c r="Q114" s="18"/>
+      <c r="R114" s="18"/>
+      <c r="S114" s="18"/>
+      <c r="T114" s="5"/>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A115" s="4"/>
+      <c r="B115" s="18"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="18"/>
+      <c r="H115" s="18"/>
+      <c r="I115" s="18"/>
+      <c r="J115" s="18"/>
+      <c r="K115" s="18"/>
+      <c r="L115" s="18"/>
+      <c r="M115" s="18"/>
+      <c r="N115" s="18"/>
+      <c r="O115" s="18"/>
+      <c r="P115" s="18"/>
+      <c r="Q115" s="18"/>
+      <c r="R115" s="18"/>
+      <c r="S115" s="18"/>
+      <c r="T115" s="5"/>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A116" s="4"/>
+      <c r="B116" s="18"/>
+      <c r="C116" s="18"/>
+      <c r="D116" s="18"/>
+      <c r="E116" s="18"/>
+      <c r="F116" s="18"/>
+      <c r="G116" s="18"/>
+      <c r="H116" s="18"/>
+      <c r="I116" s="18"/>
+      <c r="J116" s="18"/>
+      <c r="K116" s="18"/>
+      <c r="L116" s="18"/>
+      <c r="M116" s="18"/>
+      <c r="N116" s="18"/>
+      <c r="O116" s="18"/>
+      <c r="P116" s="18"/>
+      <c r="Q116" s="18"/>
+      <c r="R116" s="18"/>
+      <c r="S116" s="18"/>
+      <c r="T116" s="5"/>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A117" s="4"/>
+      <c r="B117" s="18"/>
+      <c r="C117" s="18"/>
+      <c r="D117" s="18"/>
+      <c r="E117" s="18"/>
+      <c r="F117" s="18"/>
+      <c r="G117" s="18"/>
+      <c r="H117" s="18"/>
+      <c r="I117" s="18"/>
+      <c r="J117" s="18"/>
+      <c r="K117" s="18"/>
+      <c r="L117" s="18"/>
+      <c r="M117" s="18"/>
+      <c r="N117" s="18"/>
+      <c r="O117" s="18"/>
+      <c r="P117" s="18"/>
+      <c r="Q117" s="18"/>
+      <c r="R117" s="18"/>
+      <c r="S117" s="18"/>
+      <c r="T117" s="5"/>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A118" s="4"/>
+      <c r="B118" s="18"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="18"/>
+      <c r="F118" s="18"/>
+      <c r="G118" s="18"/>
+      <c r="H118" s="18"/>
+      <c r="I118" s="18"/>
+      <c r="J118" s="18"/>
+      <c r="K118" s="18"/>
+      <c r="L118" s="18"/>
+      <c r="M118" s="18"/>
+      <c r="N118" s="18"/>
+      <c r="O118" s="18"/>
+      <c r="P118" s="18"/>
+      <c r="Q118" s="18"/>
+      <c r="R118" s="18"/>
+      <c r="S118" s="18"/>
+      <c r="T118" s="5"/>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A119" s="4"/>
+      <c r="B119" s="18"/>
+      <c r="C119" s="18"/>
+      <c r="D119" s="18"/>
+      <c r="E119" s="18"/>
+      <c r="F119" s="18"/>
+      <c r="G119" s="18"/>
+      <c r="H119" s="18"/>
+      <c r="I119" s="18"/>
+      <c r="J119" s="18"/>
+      <c r="K119" s="18"/>
+      <c r="L119" s="18"/>
+      <c r="M119" s="18"/>
+      <c r="N119" s="18"/>
+      <c r="O119" s="18"/>
+      <c r="P119" s="18"/>
+      <c r="Q119" s="18"/>
+      <c r="R119" s="18"/>
+      <c r="S119" s="18"/>
+      <c r="T119" s="5"/>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A120" s="4"/>
+      <c r="B120" s="18"/>
+      <c r="C120" s="18"/>
+      <c r="D120" s="18"/>
+      <c r="E120" s="18"/>
+      <c r="F120" s="18"/>
+      <c r="G120" s="18"/>
+      <c r="H120" s="18"/>
+      <c r="I120" s="18"/>
+      <c r="J120" s="18"/>
+      <c r="K120" s="18"/>
+      <c r="L120" s="18"/>
+      <c r="M120" s="18"/>
+      <c r="N120" s="18"/>
+      <c r="O120" s="18"/>
+      <c r="P120" s="18"/>
+      <c r="Q120" s="18"/>
+      <c r="R120" s="18"/>
+      <c r="S120" s="18"/>
+      <c r="T120" s="5"/>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A121" s="4"/>
+      <c r="B121" s="18"/>
+      <c r="C121" s="18"/>
+      <c r="D121" s="18"/>
+      <c r="E121" s="18"/>
+      <c r="F121" s="18"/>
+      <c r="G121" s="18"/>
+      <c r="H121" s="18"/>
+      <c r="I121" s="18"/>
+      <c r="J121" s="18"/>
+      <c r="K121" s="18"/>
+      <c r="L121" s="18"/>
+      <c r="M121" s="18"/>
+      <c r="N121" s="18"/>
+      <c r="O121" s="18"/>
+      <c r="P121" s="18"/>
+      <c r="Q121" s="18"/>
+      <c r="R121" s="18"/>
+      <c r="S121" s="18"/>
+      <c r="T121" s="5"/>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A122" s="4"/>
+      <c r="B122" s="18"/>
+      <c r="C122" s="18"/>
+      <c r="D122" s="18"/>
+      <c r="E122" s="18"/>
+      <c r="F122" s="18"/>
+      <c r="G122" s="18"/>
+      <c r="H122" s="18"/>
+      <c r="I122" s="18"/>
+      <c r="J122" s="18"/>
+      <c r="K122" s="18"/>
+      <c r="L122" s="18"/>
+      <c r="M122" s="18"/>
+      <c r="N122" s="18"/>
+      <c r="O122" s="18"/>
+      <c r="P122" s="18"/>
+      <c r="Q122" s="18"/>
+      <c r="R122" s="18"/>
+      <c r="S122" s="18"/>
+      <c r="T122" s="5"/>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A123" s="4"/>
+      <c r="B123" s="18"/>
+      <c r="C123" s="18"/>
+      <c r="D123" s="18"/>
+      <c r="E123" s="18"/>
+      <c r="F123" s="18"/>
+      <c r="G123" s="18"/>
+      <c r="H123" s="18"/>
+      <c r="I123" s="18"/>
+      <c r="J123" s="18"/>
+      <c r="K123" s="18"/>
+      <c r="L123" s="18"/>
+      <c r="M123" s="18"/>
+      <c r="N123" s="18"/>
+      <c r="O123" s="18"/>
+      <c r="P123" s="18"/>
+      <c r="Q123" s="18"/>
+      <c r="R123" s="18"/>
+      <c r="S123" s="18"/>
+      <c r="T123" s="5"/>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A124" s="4"/>
+      <c r="B124" s="18"/>
+      <c r="C124" s="18"/>
+      <c r="D124" s="18"/>
+      <c r="E124" s="18"/>
+      <c r="F124" s="18"/>
+      <c r="G124" s="18"/>
+      <c r="H124" s="18"/>
+      <c r="I124" s="18"/>
+      <c r="J124" s="18"/>
+      <c r="K124" s="18"/>
+      <c r="L124" s="18"/>
+      <c r="M124" s="18"/>
+      <c r="N124" s="18"/>
+      <c r="O124" s="18"/>
+      <c r="P124" s="18"/>
+      <c r="Q124" s="18"/>
+      <c r="R124" s="18"/>
+      <c r="S124" s="18"/>
+      <c r="T124" s="5"/>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A125" s="4"/>
+      <c r="B125" s="18"/>
+      <c r="C125" s="18"/>
+      <c r="D125" s="18"/>
+      <c r="E125" s="18"/>
+      <c r="F125" s="18"/>
+      <c r="G125" s="18"/>
+      <c r="H125" s="18"/>
+      <c r="I125" s="18"/>
+      <c r="J125" s="18"/>
+      <c r="K125" s="18"/>
+      <c r="L125" s="18"/>
+      <c r="M125" s="18"/>
+      <c r="N125" s="18"/>
+      <c r="O125" s="18"/>
+      <c r="P125" s="18"/>
+      <c r="Q125" s="18"/>
+      <c r="R125" s="18"/>
+      <c r="S125" s="18"/>
+      <c r="T125" s="5"/>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A126" s="4"/>
+      <c r="B126" s="18"/>
+      <c r="C126" s="18"/>
+      <c r="D126" s="18"/>
+      <c r="E126" s="18"/>
+      <c r="F126" s="18"/>
+      <c r="G126" s="18"/>
+      <c r="H126" s="18"/>
+      <c r="I126" s="18"/>
+      <c r="J126" s="18"/>
+      <c r="K126" s="18"/>
+      <c r="L126" s="18"/>
+      <c r="M126" s="18"/>
+      <c r="N126" s="18"/>
+      <c r="O126" s="18"/>
+      <c r="P126" s="18"/>
+      <c r="Q126" s="18"/>
+      <c r="R126" s="18"/>
+      <c r="S126" s="18"/>
+      <c r="T126" s="5"/>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A127" s="4"/>
+      <c r="B127" s="18"/>
+      <c r="C127" s="18"/>
+      <c r="D127" s="18"/>
+      <c r="E127" s="18"/>
+      <c r="F127" s="18"/>
+      <c r="G127" s="18"/>
+      <c r="H127" s="18"/>
+      <c r="I127" s="18"/>
+      <c r="J127" s="18"/>
+      <c r="K127" s="18"/>
+      <c r="L127" s="18"/>
+      <c r="M127" s="18"/>
+      <c r="N127" s="18"/>
+      <c r="O127" s="18"/>
+      <c r="P127" s="18"/>
+      <c r="Q127" s="18"/>
+      <c r="R127" s="18"/>
+      <c r="S127" s="18"/>
+      <c r="T127" s="5"/>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A128" s="4"/>
+      <c r="B128" s="18"/>
+      <c r="C128" s="18"/>
+      <c r="D128" s="18"/>
+      <c r="E128" s="18"/>
+      <c r="F128" s="18"/>
+      <c r="G128" s="18"/>
+      <c r="H128" s="18"/>
+      <c r="I128" s="18"/>
+      <c r="J128" s="18"/>
+      <c r="K128" s="18"/>
+      <c r="L128" s="18"/>
+      <c r="M128" s="18"/>
+      <c r="N128" s="18"/>
+      <c r="O128" s="18"/>
+      <c r="P128" s="18"/>
+      <c r="Q128" s="18"/>
+      <c r="R128" s="18"/>
+      <c r="S128" s="18"/>
+      <c r="T128" s="5"/>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A129" s="4"/>
+      <c r="B129" s="18"/>
+      <c r="C129" s="18"/>
+      <c r="D129" s="18"/>
+      <c r="E129" s="18"/>
+      <c r="F129" s="18"/>
+      <c r="G129" s="18"/>
+      <c r="H129" s="18"/>
+      <c r="I129" s="18"/>
+      <c r="J129" s="18"/>
+      <c r="K129" s="18"/>
+      <c r="L129" s="18"/>
+      <c r="M129" s="18"/>
+      <c r="N129" s="18"/>
+      <c r="O129" s="18"/>
+      <c r="P129" s="18"/>
+      <c r="Q129" s="18"/>
+      <c r="R129" s="18"/>
+      <c r="S129" s="18"/>
+      <c r="T129" s="5"/>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A130" s="4"/>
+      <c r="B130" s="18"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="18"/>
+      <c r="E130" s="18"/>
+      <c r="F130" s="18"/>
+      <c r="G130" s="18"/>
+      <c r="H130" s="18"/>
+      <c r="I130" s="18"/>
+      <c r="J130" s="18"/>
+      <c r="K130" s="18"/>
+      <c r="L130" s="18"/>
+      <c r="M130" s="18"/>
+      <c r="N130" s="18"/>
+      <c r="O130" s="18"/>
+      <c r="P130" s="18"/>
+      <c r="Q130" s="18"/>
+      <c r="R130" s="18"/>
+      <c r="S130" s="18"/>
+      <c r="T130" s="5"/>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A131" s="4"/>
+      <c r="B131" s="18"/>
+      <c r="C131" s="18"/>
+      <c r="D131" s="18"/>
+      <c r="E131" s="18"/>
+      <c r="F131" s="18"/>
+      <c r="G131" s="18"/>
+      <c r="H131" s="18"/>
+      <c r="I131" s="18"/>
+      <c r="J131" s="18"/>
+      <c r="K131" s="18"/>
+      <c r="L131" s="18"/>
+      <c r="M131" s="18"/>
+      <c r="N131" s="18"/>
+      <c r="O131" s="18"/>
+      <c r="P131" s="18"/>
+      <c r="Q131" s="18"/>
+      <c r="R131" s="18"/>
+      <c r="S131" s="18"/>
+      <c r="T131" s="5"/>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A132" s="4"/>
+      <c r="B132" s="18"/>
+      <c r="C132" s="18"/>
+      <c r="D132" s="18"/>
+      <c r="E132" s="18"/>
+      <c r="F132" s="18"/>
+      <c r="G132" s="18"/>
+      <c r="H132" s="18"/>
+      <c r="I132" s="18"/>
+      <c r="J132" s="18"/>
+      <c r="K132" s="18"/>
+      <c r="L132" s="18"/>
+      <c r="M132" s="18"/>
+      <c r="N132" s="18"/>
+      <c r="O132" s="18"/>
+      <c r="P132" s="18"/>
+      <c r="Q132" s="18"/>
+      <c r="R132" s="18"/>
+      <c r="S132" s="18"/>
+      <c r="T132" s="5"/>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A133" s="4"/>
+      <c r="B133" s="18"/>
+      <c r="C133" s="18"/>
+      <c r="D133" s="18"/>
+      <c r="E133" s="18"/>
+      <c r="F133" s="18"/>
+      <c r="G133" s="18"/>
+      <c r="H133" s="18"/>
+      <c r="I133" s="18"/>
+      <c r="J133" s="18"/>
+      <c r="K133" s="18"/>
+      <c r="L133" s="18"/>
+      <c r="M133" s="18"/>
+      <c r="N133" s="18"/>
+      <c r="O133" s="18"/>
+      <c r="P133" s="18"/>
+      <c r="Q133" s="18"/>
+      <c r="R133" s="18"/>
+      <c r="S133" s="18"/>
+      <c r="T133" s="5"/>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A134" s="4"/>
+      <c r="B134" s="18"/>
+      <c r="C134" s="18"/>
+      <c r="D134" s="18"/>
+      <c r="E134" s="18"/>
+      <c r="F134" s="18"/>
+      <c r="G134" s="18"/>
+      <c r="H134" s="18"/>
+      <c r="I134" s="18"/>
+      <c r="J134" s="18"/>
+      <c r="K134" s="18"/>
+      <c r="L134" s="18"/>
+      <c r="M134" s="18"/>
+      <c r="N134" s="18"/>
+      <c r="O134" s="18"/>
+      <c r="P134" s="18"/>
+      <c r="Q134" s="18"/>
+      <c r="R134" s="18"/>
+      <c r="S134" s="18"/>
+      <c r="T134" s="5"/>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A135" s="4"/>
+      <c r="B135" s="18"/>
+      <c r="C135" s="18"/>
+      <c r="D135" s="18"/>
+      <c r="E135" s="18"/>
+      <c r="F135" s="18"/>
+      <c r="G135" s="18"/>
+      <c r="H135" s="18"/>
+      <c r="I135" s="18"/>
+      <c r="J135" s="18"/>
+      <c r="K135" s="18"/>
+      <c r="L135" s="18"/>
+      <c r="M135" s="18"/>
+      <c r="N135" s="18"/>
+      <c r="O135" s="18"/>
+      <c r="P135" s="18"/>
+      <c r="Q135" s="18"/>
+      <c r="R135" s="18"/>
+      <c r="S135" s="18"/>
+      <c r="T135" s="5"/>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A136" s="4"/>
+      <c r="B136" s="18"/>
+      <c r="C136" s="18"/>
+      <c r="D136" s="18"/>
+      <c r="E136" s="18"/>
+      <c r="F136" s="18"/>
+      <c r="G136" s="18"/>
+      <c r="H136" s="18"/>
+      <c r="I136" s="18"/>
+      <c r="J136" s="18"/>
+      <c r="K136" s="18"/>
+      <c r="L136" s="18"/>
+      <c r="M136" s="18"/>
+      <c r="N136" s="18"/>
+      <c r="O136" s="18"/>
+      <c r="P136" s="18"/>
+      <c r="Q136" s="18"/>
+      <c r="R136" s="18"/>
+      <c r="S136" s="18"/>
+      <c r="T136" s="5"/>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A137" s="4"/>
+      <c r="B137" s="18"/>
+      <c r="C137" s="18"/>
+      <c r="D137" s="18"/>
+      <c r="E137" s="18"/>
+      <c r="F137" s="18"/>
+      <c r="G137" s="18"/>
+      <c r="H137" s="18"/>
+      <c r="I137" s="18"/>
+      <c r="J137" s="18"/>
+      <c r="K137" s="18"/>
+      <c r="L137" s="18"/>
+      <c r="M137" s="18"/>
+      <c r="N137" s="18"/>
+      <c r="O137" s="18"/>
+      <c r="P137" s="18"/>
+      <c r="Q137" s="18"/>
+      <c r="R137" s="18"/>
+      <c r="S137" s="18"/>
+      <c r="T137" s="5"/>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A138" s="4"/>
+      <c r="B138" s="18"/>
+      <c r="C138" s="18"/>
+      <c r="D138" s="18"/>
+      <c r="E138" s="18"/>
+      <c r="F138" s="18"/>
+      <c r="G138" s="18"/>
+      <c r="H138" s="18"/>
+      <c r="I138" s="18"/>
+      <c r="J138" s="18"/>
+      <c r="K138" s="18"/>
+      <c r="L138" s="18"/>
+      <c r="M138" s="18"/>
+      <c r="N138" s="18"/>
+      <c r="O138" s="18"/>
+      <c r="P138" s="18"/>
+      <c r="Q138" s="18"/>
+      <c r="R138" s="18"/>
+      <c r="S138" s="18"/>
+      <c r="T138" s="5"/>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A139" s="4"/>
+      <c r="B139" s="18"/>
+      <c r="C139" s="18"/>
+      <c r="D139" s="18"/>
+      <c r="E139" s="18"/>
+      <c r="F139" s="18"/>
+      <c r="G139" s="18"/>
+      <c r="H139" s="18"/>
+      <c r="I139" s="18"/>
+      <c r="J139" s="18"/>
+      <c r="K139" s="18"/>
+      <c r="L139" s="18"/>
+      <c r="M139" s="18"/>
+      <c r="N139" s="18"/>
+      <c r="O139" s="18"/>
+      <c r="P139" s="18"/>
+      <c r="Q139" s="18"/>
+      <c r="R139" s="18"/>
+      <c r="S139" s="18"/>
+      <c r="T139" s="5"/>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A140" s="4"/>
+      <c r="B140" s="18"/>
+      <c r="C140" s="18"/>
+      <c r="D140" s="18"/>
+      <c r="E140" s="18"/>
+      <c r="F140" s="18"/>
+      <c r="G140" s="18"/>
+      <c r="H140" s="18"/>
+      <c r="I140" s="18"/>
+      <c r="J140" s="18"/>
+      <c r="K140" s="18"/>
+      <c r="L140" s="18"/>
+      <c r="M140" s="18"/>
+      <c r="N140" s="18"/>
+      <c r="O140" s="18"/>
+      <c r="P140" s="18"/>
+      <c r="Q140" s="18"/>
+      <c r="R140" s="18"/>
+      <c r="S140" s="18"/>
+      <c r="T140" s="5"/>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A141" s="4"/>
+      <c r="B141" s="18"/>
+      <c r="C141" s="18"/>
+      <c r="D141" s="18"/>
+      <c r="E141" s="18"/>
+      <c r="F141" s="18"/>
+      <c r="G141" s="18"/>
+      <c r="H141" s="18"/>
+      <c r="I141" s="18"/>
+      <c r="J141" s="18"/>
+      <c r="K141" s="18"/>
+      <c r="L141" s="18"/>
+      <c r="M141" s="18"/>
+      <c r="N141" s="18"/>
+      <c r="O141" s="18"/>
+      <c r="P141" s="18"/>
+      <c r="Q141" s="18"/>
+      <c r="R141" s="18"/>
+      <c r="S141" s="18"/>
+      <c r="T141" s="5"/>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A142" s="4"/>
+      <c r="B142" s="18"/>
+      <c r="C142" s="18"/>
+      <c r="D142" s="18"/>
+      <c r="E142" s="18"/>
+      <c r="F142" s="18"/>
+      <c r="G142" s="18"/>
+      <c r="H142" s="18"/>
+      <c r="I142" s="18"/>
+      <c r="J142" s="18"/>
+      <c r="K142" s="18"/>
+      <c r="L142" s="18"/>
+      <c r="M142" s="18"/>
+      <c r="N142" s="18"/>
+      <c r="O142" s="18"/>
+      <c r="P142" s="18"/>
+      <c r="Q142" s="18"/>
+      <c r="R142" s="18"/>
+      <c r="S142" s="18"/>
+      <c r="T142" s="5"/>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A143" s="4"/>
+      <c r="B143" s="18"/>
+      <c r="C143" s="18"/>
+      <c r="D143" s="18"/>
+      <c r="E143" s="18"/>
+      <c r="F143" s="18"/>
+      <c r="G143" s="18"/>
+      <c r="H143" s="18"/>
+      <c r="I143" s="18"/>
+      <c r="J143" s="18"/>
+      <c r="K143" s="18"/>
+      <c r="L143" s="18"/>
+      <c r="M143" s="18"/>
+      <c r="N143" s="18"/>
+      <c r="O143" s="18"/>
+      <c r="P143" s="18"/>
+      <c r="Q143" s="18"/>
+      <c r="R143" s="18"/>
+      <c r="S143" s="18"/>
+      <c r="T143" s="5"/>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A144" s="4"/>
+      <c r="B144" s="18"/>
+      <c r="C144" s="18"/>
+      <c r="D144" s="18"/>
+      <c r="E144" s="18"/>
+      <c r="F144" s="18"/>
+      <c r="G144" s="18"/>
+      <c r="H144" s="18"/>
+      <c r="I144" s="18"/>
+      <c r="J144" s="18"/>
+      <c r="K144" s="18"/>
+      <c r="L144" s="18"/>
+      <c r="M144" s="18"/>
+      <c r="N144" s="18"/>
+      <c r="O144" s="18"/>
+      <c r="P144" s="18"/>
+      <c r="Q144" s="18"/>
+      <c r="R144" s="18"/>
+      <c r="S144" s="18"/>
+      <c r="T144" s="5"/>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A145" s="4"/>
+      <c r="B145" s="18"/>
+      <c r="C145" s="18"/>
+      <c r="D145" s="18"/>
+      <c r="E145" s="18"/>
+      <c r="F145" s="18"/>
+      <c r="G145" s="18"/>
+      <c r="H145" s="18"/>
+      <c r="I145" s="18"/>
+      <c r="J145" s="18"/>
+      <c r="K145" s="18"/>
+      <c r="L145" s="18"/>
+      <c r="M145" s="18"/>
+      <c r="N145" s="18"/>
+      <c r="O145" s="18"/>
+      <c r="P145" s="18"/>
+      <c r="Q145" s="18"/>
+      <c r="R145" s="18"/>
+      <c r="S145" s="18"/>
+      <c r="T145" s="5"/>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A146" s="4"/>
+      <c r="B146" s="18"/>
+      <c r="C146" s="18"/>
+      <c r="D146" s="18"/>
+      <c r="E146" s="18"/>
+      <c r="F146" s="18"/>
+      <c r="G146" s="18"/>
+      <c r="H146" s="18"/>
+      <c r="I146" s="18"/>
+      <c r="J146" s="18"/>
+      <c r="K146" s="18"/>
+      <c r="L146" s="18"/>
+      <c r="M146" s="18"/>
+      <c r="N146" s="18"/>
+      <c r="O146" s="18"/>
+      <c r="P146" s="18"/>
+      <c r="Q146" s="18"/>
+      <c r="R146" s="18"/>
+      <c r="S146" s="18"/>
+      <c r="T146" s="5"/>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A147" s="4"/>
+      <c r="B147" s="18"/>
+      <c r="C147" s="18"/>
+      <c r="D147" s="18"/>
+      <c r="E147" s="18"/>
+      <c r="F147" s="18"/>
+      <c r="G147" s="18"/>
+      <c r="H147" s="18"/>
+      <c r="I147" s="18"/>
+      <c r="J147" s="18"/>
+      <c r="K147" s="18"/>
+      <c r="L147" s="18"/>
+      <c r="M147" s="18"/>
+      <c r="N147" s="18"/>
+      <c r="O147" s="18"/>
+      <c r="P147" s="18"/>
+      <c r="Q147" s="18"/>
+      <c r="R147" s="18"/>
+      <c r="S147" s="18"/>
+      <c r="T147" s="5"/>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A148" s="4"/>
+      <c r="B148" s="18"/>
+      <c r="C148" s="18"/>
+      <c r="D148" s="18"/>
+      <c r="E148" s="18"/>
+      <c r="F148" s="18"/>
+      <c r="G148" s="18"/>
+      <c r="H148" s="18"/>
+      <c r="I148" s="18"/>
+      <c r="J148" s="18"/>
+      <c r="K148" s="18"/>
+      <c r="L148" s="18"/>
+      <c r="M148" s="18"/>
+      <c r="N148" s="18"/>
+      <c r="O148" s="18"/>
+      <c r="P148" s="18"/>
+      <c r="Q148" s="18"/>
+      <c r="R148" s="18"/>
+      <c r="S148" s="18"/>
+      <c r="T148" s="5"/>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A149" s="4"/>
+      <c r="B149" s="18"/>
+      <c r="C149" s="18"/>
+      <c r="D149" s="18"/>
+      <c r="E149" s="18"/>
+      <c r="F149" s="18"/>
+      <c r="G149" s="18"/>
+      <c r="H149" s="18"/>
+      <c r="I149" s="18"/>
+      <c r="J149" s="18"/>
+      <c r="K149" s="18"/>
+      <c r="L149" s="18"/>
+      <c r="M149" s="18"/>
+      <c r="N149" s="18"/>
+      <c r="O149" s="18"/>
+      <c r="P149" s="18"/>
+      <c r="Q149" s="18"/>
+      <c r="R149" s="18"/>
+      <c r="S149" s="18"/>
+      <c r="T149" s="5"/>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A150" s="4"/>
+      <c r="B150" s="18"/>
+      <c r="C150" s="18"/>
+      <c r="D150" s="18"/>
+      <c r="E150" s="18"/>
+      <c r="F150" s="18"/>
+      <c r="G150" s="18"/>
+      <c r="H150" s="18"/>
+      <c r="I150" s="18"/>
+      <c r="J150" s="18"/>
+      <c r="K150" s="18"/>
+      <c r="L150" s="18"/>
+      <c r="M150" s="18"/>
+      <c r="N150" s="18"/>
+      <c r="O150" s="18"/>
+      <c r="P150" s="18"/>
+      <c r="Q150" s="18"/>
+      <c r="R150" s="18"/>
+      <c r="S150" s="18"/>
+      <c r="T150" s="5"/>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A151" s="4"/>
+      <c r="B151" s="18"/>
+      <c r="C151" s="18"/>
+      <c r="D151" s="18"/>
+      <c r="E151" s="18"/>
+      <c r="F151" s="18"/>
+      <c r="G151" s="18"/>
+      <c r="H151" s="18"/>
+      <c r="I151" s="18"/>
+      <c r="J151" s="18"/>
+      <c r="K151" s="18"/>
+      <c r="L151" s="18"/>
+      <c r="M151" s="18"/>
+      <c r="N151" s="18"/>
+      <c r="O151" s="18"/>
+      <c r="P151" s="18"/>
+      <c r="Q151" s="18"/>
+      <c r="R151" s="18"/>
+      <c r="S151" s="18"/>
+      <c r="T151" s="5"/>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A152" s="4"/>
+      <c r="B152" s="18"/>
+      <c r="C152" s="18"/>
+      <c r="D152" s="18"/>
+      <c r="E152" s="18"/>
+      <c r="F152" s="18"/>
+      <c r="G152" s="18"/>
+      <c r="H152" s="18"/>
+      <c r="I152" s="18"/>
+      <c r="J152" s="18"/>
+      <c r="K152" s="18"/>
+      <c r="L152" s="18"/>
+      <c r="M152" s="18"/>
+      <c r="N152" s="18"/>
+      <c r="O152" s="18"/>
+      <c r="P152" s="18"/>
+      <c r="Q152" s="18"/>
+      <c r="R152" s="18"/>
+      <c r="S152" s="18"/>
+      <c r="T152" s="5"/>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A153" s="4"/>
+      <c r="B153" s="18"/>
+      <c r="C153" s="18"/>
+      <c r="D153" s="18"/>
+      <c r="E153" s="18"/>
+      <c r="F153" s="18"/>
+      <c r="G153" s="18"/>
+      <c r="H153" s="18"/>
+      <c r="I153" s="18"/>
+      <c r="J153" s="18"/>
+      <c r="K153" s="18"/>
+      <c r="L153" s="18"/>
+      <c r="M153" s="18"/>
+      <c r="N153" s="18"/>
+      <c r="O153" s="18"/>
+      <c r="P153" s="18"/>
+      <c r="Q153" s="18"/>
+      <c r="R153" s="18"/>
+      <c r="S153" s="18"/>
+      <c r="T153" s="5"/>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A154" s="4"/>
+      <c r="B154" s="18"/>
+      <c r="C154" s="18"/>
+      <c r="D154" s="18"/>
+      <c r="E154" s="18"/>
+      <c r="F154" s="18"/>
+      <c r="G154" s="18"/>
+      <c r="H154" s="18"/>
+      <c r="I154" s="18"/>
+      <c r="J154" s="18"/>
+      <c r="K154" s="18"/>
+      <c r="L154" s="18"/>
+      <c r="M154" s="18"/>
+      <c r="N154" s="18"/>
+      <c r="O154" s="18"/>
+      <c r="P154" s="18"/>
+      <c r="Q154" s="18"/>
+      <c r="R154" s="18"/>
+      <c r="S154" s="18"/>
+      <c r="T154" s="5"/>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A155" s="4"/>
+      <c r="B155" s="18"/>
+      <c r="C155" s="18"/>
+      <c r="D155" s="18"/>
+      <c r="E155" s="18"/>
+      <c r="F155" s="18"/>
+      <c r="G155" s="18"/>
+      <c r="H155" s="18"/>
+      <c r="I155" s="18"/>
+      <c r="J155" s="18"/>
+      <c r="K155" s="18"/>
+      <c r="L155" s="18"/>
+      <c r="M155" s="18"/>
+      <c r="N155" s="18"/>
+      <c r="O155" s="18"/>
+      <c r="P155" s="18"/>
+      <c r="Q155" s="18"/>
+      <c r="R155" s="18"/>
+      <c r="S155" s="18"/>
+      <c r="T155" s="5"/>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A156" s="4"/>
+      <c r="B156" s="18"/>
+      <c r="C156" s="18"/>
+      <c r="D156" s="18"/>
+      <c r="E156" s="18"/>
+      <c r="F156" s="18"/>
+      <c r="G156" s="18"/>
+      <c r="H156" s="18"/>
+      <c r="I156" s="18"/>
+      <c r="J156" s="18"/>
+      <c r="K156" s="18"/>
+      <c r="L156" s="18"/>
+      <c r="M156" s="18"/>
+      <c r="N156" s="18"/>
+      <c r="O156" s="18"/>
+      <c r="P156" s="18"/>
+      <c r="Q156" s="18"/>
+      <c r="R156" s="18"/>
+      <c r="S156" s="18"/>
+      <c r="T156" s="5"/>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A157" s="4"/>
+      <c r="B157" s="18"/>
+      <c r="C157" s="18"/>
+      <c r="D157" s="18"/>
+      <c r="E157" s="18"/>
+      <c r="F157" s="18"/>
+      <c r="G157" s="18"/>
+      <c r="H157" s="18"/>
+      <c r="I157" s="18"/>
+      <c r="J157" s="18"/>
+      <c r="K157" s="18"/>
+      <c r="L157" s="18"/>
+      <c r="M157" s="18"/>
+      <c r="N157" s="18"/>
+      <c r="O157" s="18"/>
+      <c r="P157" s="18"/>
+      <c r="Q157" s="18"/>
+      <c r="R157" s="18"/>
+      <c r="S157" s="18"/>
+      <c r="T157" s="5"/>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A158" s="6"/>
+      <c r="B158" s="7"/>
+      <c r="C158" s="7"/>
+      <c r="D158" s="7"/>
+      <c r="E158" s="7"/>
+      <c r="F158" s="7"/>
+      <c r="G158" s="7"/>
+      <c r="H158" s="7"/>
+      <c r="I158" s="7"/>
+      <c r="J158" s="7"/>
+      <c r="K158" s="7"/>
+      <c r="L158" s="7"/>
+      <c r="M158" s="7"/>
+      <c r="N158" s="7"/>
+      <c r="O158" s="7"/>
+      <c r="P158" s="7"/>
+      <c r="Q158" s="7"/>
+      <c r="R158" s="7"/>
+      <c r="S158" s="7"/>
+      <c r="T158" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/3.REST-API.xlsx
+++ b/me/3.REST-API.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\salesforce-integration-with-external-systems\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAB1E40-F37C-4AA4-A330-FB0A4847F46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249DFFB7-07AE-4D11-9D57-CBC5BDE30490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use Postman to call a REST API" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Authenticating REST API users" sheetId="3" r:id="rId3"/>
     <sheet name="Execute a SOQL Query" sheetId="4" r:id="rId4"/>
     <sheet name="Create a record" sheetId="5" r:id="rId5"/>
+    <sheet name="Creating a Custom REST API" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="103">
   <si>
     <t>https://www.postman.com/salesforce-developers/workspace/salesforce-developers/request/12721794-dadc3f1a-71b3-4431-a958-fa00c4731b6f</t>
   </si>
@@ -267,12 +268,174 @@
   <si>
     <t xml:space="preserve">    &lt;School__c&gt;a0B5g00000tpvmvEAA&lt;/School__c&gt;</t>
   </si>
+  <si>
+    <t>4.CustomRESTService.txt</t>
+  </si>
+  <si>
+    <t>4.StudentInformationService.txt</t>
+  </si>
+  <si>
+    <t>salesforce-integration-with-external-systems\3.REST-API\4.StudentInformationService.txt</t>
+  </si>
+  <si>
+    <t>@RestResource(urlMapping='/studentsInfo/*')</t>
+  </si>
+  <si>
+    <t>global class StudentInformationService</t>
+  </si>
+  <si>
+    <t>  global class StudentInfo</t>
+  </si>
+  <si>
+    <t>  {</t>
+  </si>
+  <si>
+    <t>      String studentName{get;set;}</t>
+  </si>
+  <si>
+    <t>      String studentAddress{get;set;}</t>
+  </si>
+  <si>
+    <t>      String studentPhone{get;set;}</t>
+  </si>
+  <si>
+    <t>      String schoolName{get;set;}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>  }</t>
+  </si>
+  <si>
+    <t>  @httpGet</t>
+  </si>
+  <si>
+    <t>  global static StudentInfo getStudent()</t>
+  </si>
+  <si>
+    <t>      RestRequest request=RestContext.Request;</t>
+  </si>
+  <si>
+    <t>        String studentId= request.requestURI.substring(request.RequestURI.lastIndexOf('/')+1);</t>
+  </si>
+  <si>
+    <t>        student__c student=[select id,Name,Address__c,student_name__c,phone_number__c,school__r.Name from Student__c where id=:studentId];</t>
+  </si>
+  <si>
+    <t>         StudentInfo stdInfo=new StudentInfo();</t>
+  </si>
+  <si>
+    <t>         stdInfo.studentName=student.student_name__c;</t>
+  </si>
+  <si>
+    <t>         stdInfo.studentAddress=student.Address__c;</t>
+  </si>
+  <si>
+    <t>         stdInfo.studentPhone=student.phone_number__c;</t>
+  </si>
+  <si>
+    <t>         stdInfo.schoolName=student.school__r.Name;</t>
+  </si>
+  <si>
+    <t>         </t>
+  </si>
+  <si>
+    <t>         return stdInfo;</t>
+  </si>
+  <si>
+    <t>Khi call api có dạng url là /studentsInfo/* thì Apex Class này sẽ được thực thi</t>
+  </si>
+  <si>
+    <t>request method là get</t>
+  </si>
+  <si>
+    <t>Định nghĩa các trường response trả về thông tin của student</t>
+  </si>
+  <si>
+    <t>Trả về thông tin là đối tượng của class StudentInfo instance</t>
+  </si>
+  <si>
+    <t>Trả về đối tượng Request</t>
+  </si>
+  <si>
+    <t>salesforce-integration-with-external-systems\3.REST-API\4.CustomRESTService.txt</t>
+  </si>
+  <si>
+    <r>
+      <t>https://training-quang-dev-ed.develop.my.salesforce.com/services/apexrest/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>studentsInfo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a0A5g000006OQuHEAW</t>
+    </r>
+  </si>
+  <si>
+    <t>Cố tình call api trên bằng phương thức Post</t>
+  </si>
+  <si>
+    <t>url không đúng</t>
+  </si>
+  <si>
+    <r>
+      <t>https://training-quang-dev-ed.develop.my.salesforce.com/services/apexrest/studentsInfo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uuu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/a0A5g000006OQuHEAW</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,6 +454,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -421,10 +591,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2701,6 +2871,434 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{682D19BC-10D2-E8F3-BC89-7104C1CA20FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447800" y="4543425"/>
+          <a:ext cx="9525" cy="1990725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>69994</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{755B1167-F89C-B049-6F90-D5DDC1C48660}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="9410700"/>
+          <a:ext cx="11220450" cy="5708794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2CD28E6-E4E6-AE88-B647-670D41D0030B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2486025" y="3962400"/>
+          <a:ext cx="2838450" cy="11934825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>351252</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>94961</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8F84069-E905-890E-EF6C-09240F72A267}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="16449675"/>
+          <a:ext cx="9380952" cy="2314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>63230</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7684C6E-94B9-6502-3D8D-CC2F727265FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="23698200"/>
+          <a:ext cx="11239500" cy="5702030"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>141646</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>142649</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D49882AE-333E-DF42-7CF2-691CD735E2F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="19097625"/>
+          <a:ext cx="9828571" cy="1809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB7A3057-9A6F-7B4C-C7F3-31AF8FBFB915}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5781675" y="15973425"/>
+          <a:ext cx="400050" cy="7829550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>141650</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>113727</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E5DF69A-4998-9380-04B2-BEAC85111FF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="27727275"/>
+          <a:ext cx="9800000" cy="4580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>179756</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>94677</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F615E2D-BB24-2C4B-2A53-7C8C83C9E2EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790575" y="33232725"/>
+          <a:ext cx="9752381" cy="4580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4608,20 +5206,6 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-    </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>46</v>
@@ -4989,14 +5573,14 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
-      <c r="C7" s="17" t="s">
+      <c r="C7" t="s">
         <v>40</v>
       </c>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
-      <c r="D8" s="17" t="s">
+      <c r="D8" t="s">
         <v>41</v>
       </c>
       <c r="H8" s="5"/>
@@ -5074,31 +5658,13 @@
       <c r="T15" s="3"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
       <c r="T16" s="5"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
         <v>47</v>
       </c>
@@ -5113,16 +5679,10 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
       <c r="T17" s="5"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -5135,34 +5695,10 @@
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="8"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
       <c r="T18" s="5"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
+      <c r="A19" s="4"/>
       <c r="T19" s="5"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -5520,27 +6056,9 @@
       <c r="T89" s="3"/>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A90" s="19" t="s">
+      <c r="A90" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="18"/>
-      <c r="I90" s="18"/>
-      <c r="J90" s="18"/>
-      <c r="K90" s="18"/>
-      <c r="L90" s="18"/>
-      <c r="M90" s="18"/>
-      <c r="N90" s="18"/>
-      <c r="O90" s="18"/>
-      <c r="P90" s="18"/>
-      <c r="Q90" s="18"/>
-      <c r="R90" s="18"/>
-      <c r="S90" s="18"/>
       <c r="T90" s="5"/>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
@@ -5564,7 +6082,7 @@
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
-      <c r="B92" s="20"/>
+      <c r="B92" s="17"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
@@ -5870,27 +6388,9 @@
       <c r="T157" s="3"/>
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A158" s="19" t="s">
+      <c r="A158" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B158" s="18"/>
-      <c r="C158" s="18"/>
-      <c r="D158" s="18"/>
-      <c r="E158" s="18"/>
-      <c r="F158" s="18"/>
-      <c r="G158" s="18"/>
-      <c r="H158" s="18"/>
-      <c r="I158" s="18"/>
-      <c r="J158" s="18"/>
-      <c r="K158" s="18"/>
-      <c r="L158" s="18"/>
-      <c r="M158" s="18"/>
-      <c r="N158" s="18"/>
-      <c r="O158" s="18"/>
-      <c r="P158" s="18"/>
-      <c r="Q158" s="18"/>
-      <c r="R158" s="18"/>
-      <c r="S158" s="18"/>
       <c r="T158" s="5"/>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.25">
@@ -5913,7 +6413,7 @@
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
-      <c r="B160" s="20"/>
+      <c r="B160" s="17"/>
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
@@ -6198,8 +6698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D428107F-8F68-4104-B464-7070A60175B7}">
   <dimension ref="A2:T158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6234,35 +6734,35 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
-      <c r="C7" s="17" t="s">
+      <c r="C7" t="s">
         <v>40</v>
       </c>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
-      <c r="D8" s="17" t="s">
+      <c r="D8" t="s">
         <v>41</v>
       </c>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
-      <c r="D9" s="17" t="s">
+      <c r="D9" t="s">
         <v>43</v>
       </c>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
-      <c r="D10" s="17" t="s">
+      <c r="D10" t="s">
         <v>44</v>
       </c>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
-      <c r="D11" s="17" t="s">
+      <c r="D11" t="s">
         <v>45</v>
       </c>
       <c r="H11" s="5"/>
@@ -6328,36 +6828,12 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
       <c r="T18" s="5"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
       <c r="T19" s="5"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -6365,23 +6841,7 @@
       <c r="B20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
       <c r="T20" s="5"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -6389,23 +6849,7 @@
       <c r="B21" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
       <c r="T21" s="5"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -6413,23 +6857,7 @@
       <c r="B22" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
       <c r="T22" s="5"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -6437,23 +6865,7 @@
       <c r="B23" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
       <c r="T23" s="5"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -6470,1312 +6882,242 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="8"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
       <c r="T24" s="5"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
       <c r="T25" s="5"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
       <c r="T26" s="5"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
       <c r="T27" s="5"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
       <c r="T28" s="5"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
       <c r="T29" s="5"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
       <c r="T30" s="5"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
       <c r="T31" s="5"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
       <c r="T32" s="5"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
       <c r="T33" s="5"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="18"/>
       <c r="T34" s="5"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="18"/>
-      <c r="P35" s="18"/>
-      <c r="Q35" s="18"/>
-      <c r="R35" s="18"/>
-      <c r="S35" s="18"/>
       <c r="T35" s="5"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
       <c r="T36" s="5"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
       <c r="T37" s="5"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
       <c r="T38" s="5"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
       <c r="T39" s="5"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
       <c r="T40" s="5"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="18"/>
       <c r="T41" s="5"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18"/>
-      <c r="O42" s="18"/>
-      <c r="P42" s="18"/>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="18"/>
-      <c r="S42" s="18"/>
       <c r="T42" s="5"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="18"/>
-      <c r="O43" s="18"/>
-      <c r="P43" s="18"/>
-      <c r="Q43" s="18"/>
-      <c r="R43" s="18"/>
-      <c r="S43" s="18"/>
       <c r="T43" s="5"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="18"/>
-      <c r="O44" s="18"/>
-      <c r="P44" s="18"/>
-      <c r="Q44" s="18"/>
-      <c r="R44" s="18"/>
-      <c r="S44" s="18"/>
       <c r="T44" s="5"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="18"/>
-      <c r="O45" s="18"/>
-      <c r="P45" s="18"/>
-      <c r="Q45" s="18"/>
-      <c r="R45" s="18"/>
-      <c r="S45" s="18"/>
       <c r="T45" s="5"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="18"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="18"/>
-      <c r="O46" s="18"/>
-      <c r="P46" s="18"/>
-      <c r="Q46" s="18"/>
-      <c r="R46" s="18"/>
-      <c r="S46" s="18"/>
       <c r="T46" s="5"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="18"/>
-      <c r="O47" s="18"/>
-      <c r="P47" s="18"/>
-      <c r="Q47" s="18"/>
-      <c r="R47" s="18"/>
-      <c r="S47" s="18"/>
       <c r="T47" s="5"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="18"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="18"/>
-      <c r="O48" s="18"/>
-      <c r="P48" s="18"/>
-      <c r="Q48" s="18"/>
-      <c r="R48" s="18"/>
-      <c r="S48" s="18"/>
       <c r="T48" s="5"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="18"/>
-      <c r="O49" s="18"/>
-      <c r="P49" s="18"/>
-      <c r="Q49" s="18"/>
-      <c r="R49" s="18"/>
-      <c r="S49" s="18"/>
       <c r="T49" s="5"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="18"/>
-      <c r="O50" s="18"/>
-      <c r="P50" s="18"/>
-      <c r="Q50" s="18"/>
-      <c r="R50" s="18"/>
-      <c r="S50" s="18"/>
       <c r="T50" s="5"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="18"/>
-      <c r="O51" s="18"/>
-      <c r="P51" s="18"/>
-      <c r="Q51" s="18"/>
-      <c r="R51" s="18"/>
-      <c r="S51" s="18"/>
       <c r="T51" s="5"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="18"/>
-      <c r="O52" s="18"/>
-      <c r="P52" s="18"/>
-      <c r="Q52" s="18"/>
-      <c r="R52" s="18"/>
-      <c r="S52" s="18"/>
       <c r="T52" s="5"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="18"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="18"/>
-      <c r="O53" s="18"/>
-      <c r="P53" s="18"/>
-      <c r="Q53" s="18"/>
-      <c r="R53" s="18"/>
-      <c r="S53" s="18"/>
       <c r="T53" s="5"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="18"/>
-      <c r="O54" s="18"/>
-      <c r="P54" s="18"/>
-      <c r="Q54" s="18"/>
-      <c r="R54" s="18"/>
-      <c r="S54" s="18"/>
       <c r="T54" s="5"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="18"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="18"/>
-      <c r="O55" s="18"/>
-      <c r="P55" s="18"/>
-      <c r="Q55" s="18"/>
-      <c r="R55" s="18"/>
-      <c r="S55" s="18"/>
       <c r="T55" s="5"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="18"/>
-      <c r="O56" s="18"/>
-      <c r="P56" s="18"/>
-      <c r="Q56" s="18"/>
-      <c r="R56" s="18"/>
-      <c r="S56" s="18"/>
       <c r="T56" s="5"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="18"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="18"/>
-      <c r="O57" s="18"/>
-      <c r="P57" s="18"/>
-      <c r="Q57" s="18"/>
-      <c r="R57" s="18"/>
-      <c r="S57" s="18"/>
       <c r="T57" s="5"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="18"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="18"/>
-      <c r="O58" s="18"/>
-      <c r="P58" s="18"/>
-      <c r="Q58" s="18"/>
-      <c r="R58" s="18"/>
-      <c r="S58" s="18"/>
       <c r="T58" s="5"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="18"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="18"/>
-      <c r="O59" s="18"/>
-      <c r="P59" s="18"/>
-      <c r="Q59" s="18"/>
-      <c r="R59" s="18"/>
-      <c r="S59" s="18"/>
       <c r="T59" s="5"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
-      <c r="L60" s="18"/>
-      <c r="M60" s="18"/>
-      <c r="N60" s="18"/>
-      <c r="O60" s="18"/>
-      <c r="P60" s="18"/>
-      <c r="Q60" s="18"/>
-      <c r="R60" s="18"/>
-      <c r="S60" s="18"/>
       <c r="T60" s="5"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
-      <c r="K61" s="18"/>
-      <c r="L61" s="18"/>
-      <c r="M61" s="18"/>
-      <c r="N61" s="18"/>
-      <c r="O61" s="18"/>
-      <c r="P61" s="18"/>
-      <c r="Q61" s="18"/>
-      <c r="R61" s="18"/>
-      <c r="S61" s="18"/>
       <c r="T61" s="5"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18"/>
-      <c r="K62" s="18"/>
-      <c r="L62" s="18"/>
-      <c r="M62" s="18"/>
-      <c r="N62" s="18"/>
-      <c r="O62" s="18"/>
-      <c r="P62" s="18"/>
-      <c r="Q62" s="18"/>
-      <c r="R62" s="18"/>
-      <c r="S62" s="18"/>
       <c r="T62" s="5"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18"/>
-      <c r="L63" s="18"/>
-      <c r="M63" s="18"/>
-      <c r="N63" s="18"/>
-      <c r="O63" s="18"/>
-      <c r="P63" s="18"/>
-      <c r="Q63" s="18"/>
-      <c r="R63" s="18"/>
-      <c r="S63" s="18"/>
       <c r="T63" s="5"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="18"/>
-      <c r="L64" s="18"/>
-      <c r="M64" s="18"/>
-      <c r="N64" s="18"/>
-      <c r="O64" s="18"/>
-      <c r="P64" s="18"/>
-      <c r="Q64" s="18"/>
-      <c r="R64" s="18"/>
-      <c r="S64" s="18"/>
       <c r="T64" s="5"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="18"/>
-      <c r="L65" s="18"/>
-      <c r="M65" s="18"/>
-      <c r="N65" s="18"/>
-      <c r="O65" s="18"/>
-      <c r="P65" s="18"/>
-      <c r="Q65" s="18"/>
-      <c r="R65" s="18"/>
-      <c r="S65" s="18"/>
       <c r="T65" s="5"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="18"/>
-      <c r="L66" s="18"/>
-      <c r="M66" s="18"/>
-      <c r="N66" s="18"/>
-      <c r="O66" s="18"/>
-      <c r="P66" s="18"/>
-      <c r="Q66" s="18"/>
-      <c r="R66" s="18"/>
-      <c r="S66" s="18"/>
       <c r="T66" s="5"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="18"/>
-      <c r="L67" s="18"/>
-      <c r="M67" s="18"/>
-      <c r="N67" s="18"/>
-      <c r="O67" s="18"/>
-      <c r="P67" s="18"/>
-      <c r="Q67" s="18"/>
-      <c r="R67" s="18"/>
-      <c r="S67" s="18"/>
       <c r="T67" s="5"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="18"/>
-      <c r="L68" s="18"/>
-      <c r="M68" s="18"/>
-      <c r="N68" s="18"/>
-      <c r="O68" s="18"/>
-      <c r="P68" s="18"/>
-      <c r="Q68" s="18"/>
-      <c r="R68" s="18"/>
-      <c r="S68" s="18"/>
       <c r="T68" s="5"/>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="18"/>
-      <c r="L69" s="18"/>
-      <c r="M69" s="18"/>
-      <c r="N69" s="18"/>
-      <c r="O69" s="18"/>
-      <c r="P69" s="18"/>
-      <c r="Q69" s="18"/>
-      <c r="R69" s="18"/>
-      <c r="S69" s="18"/>
       <c r="T69" s="5"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="18"/>
-      <c r="L70" s="18"/>
-      <c r="M70" s="18"/>
-      <c r="N70" s="18"/>
-      <c r="O70" s="18"/>
-      <c r="P70" s="18"/>
-      <c r="Q70" s="18"/>
-      <c r="R70" s="18"/>
-      <c r="S70" s="18"/>
       <c r="T70" s="5"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="18"/>
-      <c r="L71" s="18"/>
-      <c r="M71" s="18"/>
-      <c r="N71" s="18"/>
-      <c r="O71" s="18"/>
-      <c r="P71" s="18"/>
-      <c r="Q71" s="18"/>
-      <c r="R71" s="18"/>
-      <c r="S71" s="18"/>
       <c r="T71" s="5"/>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="18"/>
-      <c r="L72" s="18"/>
-      <c r="M72" s="18"/>
-      <c r="N72" s="18"/>
-      <c r="O72" s="18"/>
-      <c r="P72" s="18"/>
-      <c r="Q72" s="18"/>
-      <c r="R72" s="18"/>
-      <c r="S72" s="18"/>
       <c r="T72" s="5"/>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="18"/>
-      <c r="K73" s="18"/>
-      <c r="L73" s="18"/>
-      <c r="M73" s="18"/>
-      <c r="N73" s="18"/>
-      <c r="O73" s="18"/>
-      <c r="P73" s="18"/>
-      <c r="Q73" s="18"/>
-      <c r="R73" s="18"/>
-      <c r="S73" s="18"/>
       <c r="T73" s="5"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="18"/>
-      <c r="L74" s="18"/>
-      <c r="M74" s="18"/>
-      <c r="N74" s="18"/>
-      <c r="O74" s="18"/>
-      <c r="P74" s="18"/>
-      <c r="Q74" s="18"/>
-      <c r="R74" s="18"/>
-      <c r="S74" s="18"/>
       <c r="T74" s="5"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="18"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="18"/>
-      <c r="K75" s="18"/>
-      <c r="L75" s="18"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="18"/>
-      <c r="O75" s="18"/>
-      <c r="P75" s="18"/>
-      <c r="Q75" s="18"/>
-      <c r="R75" s="18"/>
-      <c r="S75" s="18"/>
       <c r="T75" s="5"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
-      <c r="J76" s="18"/>
-      <c r="K76" s="18"/>
-      <c r="L76" s="18"/>
-      <c r="M76" s="18"/>
-      <c r="N76" s="18"/>
-      <c r="O76" s="18"/>
-      <c r="P76" s="18"/>
-      <c r="Q76" s="18"/>
-      <c r="R76" s="18"/>
-      <c r="S76" s="18"/>
       <c r="T76" s="5"/>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="18"/>
-      <c r="I77" s="18"/>
-      <c r="J77" s="18"/>
-      <c r="K77" s="18"/>
-      <c r="L77" s="18"/>
-      <c r="M77" s="18"/>
-      <c r="N77" s="18"/>
-      <c r="O77" s="18"/>
-      <c r="P77" s="18"/>
-      <c r="Q77" s="18"/>
-      <c r="R77" s="18"/>
-      <c r="S77" s="18"/>
       <c r="T77" s="5"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="18"/>
-      <c r="I78" s="18"/>
-      <c r="J78" s="18"/>
-      <c r="K78" s="18"/>
-      <c r="L78" s="18"/>
-      <c r="M78" s="18"/>
-      <c r="N78" s="18"/>
-      <c r="O78" s="18"/>
-      <c r="P78" s="18"/>
-      <c r="Q78" s="18"/>
-      <c r="R78" s="18"/>
-      <c r="S78" s="18"/>
       <c r="T78" s="5"/>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18"/>
-      <c r="K79" s="18"/>
-      <c r="L79" s="18"/>
-      <c r="M79" s="18"/>
-      <c r="N79" s="18"/>
-      <c r="O79" s="18"/>
-      <c r="P79" s="18"/>
-      <c r="Q79" s="18"/>
-      <c r="R79" s="18"/>
-      <c r="S79" s="18"/>
       <c r="T79" s="5"/>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="18"/>
-      <c r="L80" s="18"/>
-      <c r="M80" s="18"/>
-      <c r="N80" s="18"/>
-      <c r="O80" s="18"/>
-      <c r="P80" s="18"/>
-      <c r="Q80" s="18"/>
-      <c r="R80" s="18"/>
-      <c r="S80" s="18"/>
       <c r="T80" s="5"/>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="18"/>
-      <c r="L81" s="18"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="18"/>
-      <c r="O81" s="18"/>
-      <c r="P81" s="18"/>
-      <c r="Q81" s="18"/>
-      <c r="R81" s="18"/>
-      <c r="S81" s="18"/>
       <c r="T81" s="5"/>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="18"/>
-      <c r="I82" s="18"/>
-      <c r="J82" s="18"/>
-      <c r="K82" s="18"/>
-      <c r="L82" s="18"/>
-      <c r="M82" s="18"/>
-      <c r="N82" s="18"/>
-      <c r="O82" s="18"/>
-      <c r="P82" s="18"/>
-      <c r="Q82" s="18"/>
-      <c r="R82" s="18"/>
-      <c r="S82" s="18"/>
       <c r="T82" s="5"/>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="18"/>
-      <c r="J83" s="18"/>
-      <c r="K83" s="18"/>
-      <c r="L83" s="18"/>
-      <c r="M83" s="18"/>
-      <c r="N83" s="18"/>
-      <c r="O83" s="18"/>
-      <c r="P83" s="18"/>
-      <c r="Q83" s="18"/>
-      <c r="R83" s="18"/>
-      <c r="S83" s="18"/>
       <c r="T83" s="5"/>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
@@ -7838,36 +7180,12 @@
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
       <c r="K88" s="3"/>
-      <c r="L88" s="18"/>
-      <c r="M88" s="18"/>
-      <c r="N88" s="18"/>
-      <c r="O88" s="18"/>
-      <c r="P88" s="18"/>
-      <c r="Q88" s="18"/>
-      <c r="R88" s="18"/>
-      <c r="S88" s="18"/>
       <c r="T88" s="5"/>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18"/>
-      <c r="H89" s="18"/>
-      <c r="I89" s="18"/>
-      <c r="J89" s="18"/>
       <c r="K89" s="5"/>
-      <c r="L89" s="18"/>
-      <c r="M89" s="18"/>
-      <c r="N89" s="18"/>
-      <c r="O89" s="18"/>
-      <c r="P89" s="18"/>
-      <c r="Q89" s="18"/>
-      <c r="R89" s="18"/>
-      <c r="S89" s="18"/>
       <c r="T89" s="5"/>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
@@ -7875,23 +7193,7 @@
       <c r="B90" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="18"/>
-      <c r="I90" s="18"/>
-      <c r="J90" s="18"/>
       <c r="K90" s="5"/>
-      <c r="L90" s="18"/>
-      <c r="M90" s="18"/>
-      <c r="N90" s="18"/>
-      <c r="O90" s="18"/>
-      <c r="P90" s="18"/>
-      <c r="Q90" s="18"/>
-      <c r="R90" s="18"/>
-      <c r="S90" s="18"/>
       <c r="T90" s="5"/>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
@@ -7899,23 +7201,7 @@
       <c r="B91" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="18"/>
-      <c r="H91" s="18"/>
-      <c r="I91" s="18"/>
-      <c r="J91" s="18"/>
       <c r="K91" s="5"/>
-      <c r="L91" s="18"/>
-      <c r="M91" s="18"/>
-      <c r="N91" s="18"/>
-      <c r="O91" s="18"/>
-      <c r="P91" s="18"/>
-      <c r="Q91" s="18"/>
-      <c r="R91" s="18"/>
-      <c r="S91" s="18"/>
       <c r="T91" s="5"/>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
@@ -7923,23 +7209,7 @@
       <c r="B92" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="18"/>
-      <c r="I92" s="18"/>
-      <c r="J92" s="18"/>
       <c r="K92" s="5"/>
-      <c r="L92" s="18"/>
-      <c r="M92" s="18"/>
-      <c r="N92" s="18"/>
-      <c r="O92" s="18"/>
-      <c r="P92" s="18"/>
-      <c r="Q92" s="18"/>
-      <c r="R92" s="18"/>
-      <c r="S92" s="18"/>
       <c r="T92" s="5"/>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
@@ -7947,23 +7217,7 @@
       <c r="B93" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="18"/>
-      <c r="H93" s="18"/>
-      <c r="I93" s="18"/>
-      <c r="J93" s="18"/>
       <c r="K93" s="5"/>
-      <c r="L93" s="18"/>
-      <c r="M93" s="18"/>
-      <c r="N93" s="18"/>
-      <c r="O93" s="18"/>
-      <c r="P93" s="18"/>
-      <c r="Q93" s="18"/>
-      <c r="R93" s="18"/>
-      <c r="S93" s="18"/>
       <c r="T93" s="5"/>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
@@ -7971,23 +7225,7 @@
       <c r="B94" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="18"/>
-      <c r="H94" s="18"/>
-      <c r="I94" s="18"/>
-      <c r="J94" s="18"/>
       <c r="K94" s="5"/>
-      <c r="L94" s="18"/>
-      <c r="M94" s="18"/>
-      <c r="N94" s="18"/>
-      <c r="O94" s="18"/>
-      <c r="P94" s="18"/>
-      <c r="Q94" s="18"/>
-      <c r="R94" s="18"/>
-      <c r="S94" s="18"/>
       <c r="T94" s="5"/>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
@@ -7995,45 +7233,13 @@
       <c r="B95" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C95" s="18"/>
-      <c r="D95" s="18"/>
-      <c r="E95" s="18"/>
-      <c r="F95" s="18"/>
-      <c r="G95" s="18"/>
-      <c r="H95" s="18"/>
-      <c r="I95" s="18"/>
-      <c r="J95" s="18"/>
       <c r="K95" s="5"/>
-      <c r="L95" s="18"/>
-      <c r="M95" s="18"/>
-      <c r="N95" s="18"/>
-      <c r="O95" s="18"/>
-      <c r="P95" s="18"/>
-      <c r="Q95" s="18"/>
-      <c r="R95" s="18"/>
-      <c r="S95" s="18"/>
       <c r="T95" s="5"/>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="18"/>
-      <c r="H96" s="18"/>
-      <c r="I96" s="18"/>
-      <c r="J96" s="18"/>
       <c r="K96" s="5"/>
-      <c r="L96" s="18"/>
-      <c r="M96" s="18"/>
-      <c r="N96" s="18"/>
-      <c r="O96" s="18"/>
-      <c r="P96" s="18"/>
-      <c r="Q96" s="18"/>
-      <c r="R96" s="18"/>
-      <c r="S96" s="18"/>
       <c r="T96" s="5"/>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
@@ -8050,1334 +7256,246 @@
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
       <c r="K97" s="8"/>
-      <c r="L97" s="18"/>
-      <c r="M97" s="18"/>
-      <c r="N97" s="18"/>
-      <c r="O97" s="18"/>
-      <c r="P97" s="18"/>
-      <c r="Q97" s="18"/>
-      <c r="R97" s="18"/>
-      <c r="S97" s="18"/>
       <c r="T97" s="5"/>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
-      <c r="B98" s="18"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="18"/>
-      <c r="H98" s="18"/>
-      <c r="I98" s="18"/>
-      <c r="J98" s="18"/>
-      <c r="K98" s="18"/>
-      <c r="L98" s="18"/>
-      <c r="M98" s="18"/>
-      <c r="N98" s="18"/>
-      <c r="O98" s="18"/>
-      <c r="P98" s="18"/>
-      <c r="Q98" s="18"/>
-      <c r="R98" s="18"/>
-      <c r="S98" s="18"/>
       <c r="T98" s="5"/>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
-      <c r="B99" s="18"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18"/>
-      <c r="H99" s="18"/>
-      <c r="I99" s="18"/>
-      <c r="J99" s="18"/>
-      <c r="K99" s="18"/>
-      <c r="L99" s="18"/>
-      <c r="M99" s="18"/>
-      <c r="N99" s="18"/>
-      <c r="O99" s="18"/>
-      <c r="P99" s="18"/>
-      <c r="Q99" s="18"/>
-      <c r="R99" s="18"/>
-      <c r="S99" s="18"/>
       <c r="T99" s="5"/>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
-      <c r="B100" s="18"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="18"/>
-      <c r="E100" s="18"/>
-      <c r="F100" s="18"/>
-      <c r="G100" s="18"/>
-      <c r="H100" s="18"/>
-      <c r="I100" s="18"/>
-      <c r="J100" s="18"/>
-      <c r="K100" s="18"/>
-      <c r="L100" s="18"/>
-      <c r="M100" s="18"/>
-      <c r="N100" s="18"/>
-      <c r="O100" s="18"/>
-      <c r="P100" s="18"/>
-      <c r="Q100" s="18"/>
-      <c r="R100" s="18"/>
-      <c r="S100" s="18"/>
       <c r="T100" s="5"/>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
-      <c r="B101" s="18"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="18"/>
-      <c r="F101" s="18"/>
-      <c r="G101" s="18"/>
-      <c r="H101" s="18"/>
-      <c r="I101" s="18"/>
-      <c r="J101" s="18"/>
-      <c r="K101" s="18"/>
-      <c r="L101" s="18"/>
-      <c r="M101" s="18"/>
-      <c r="N101" s="18"/>
-      <c r="O101" s="18"/>
-      <c r="P101" s="18"/>
-      <c r="Q101" s="18"/>
-      <c r="R101" s="18"/>
-      <c r="S101" s="18"/>
       <c r="T101" s="5"/>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
-      <c r="B102" s="18"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="18"/>
-      <c r="F102" s="18"/>
-      <c r="G102" s="18"/>
-      <c r="H102" s="18"/>
-      <c r="I102" s="18"/>
-      <c r="J102" s="18"/>
-      <c r="K102" s="18"/>
-      <c r="L102" s="18"/>
-      <c r="M102" s="18"/>
-      <c r="N102" s="18"/>
-      <c r="O102" s="18"/>
-      <c r="P102" s="18"/>
-      <c r="Q102" s="18"/>
-      <c r="R102" s="18"/>
-      <c r="S102" s="18"/>
       <c r="T102" s="5"/>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
-      <c r="B103" s="18"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="18"/>
-      <c r="F103" s="18"/>
-      <c r="G103" s="18"/>
-      <c r="H103" s="18"/>
-      <c r="I103" s="18"/>
-      <c r="J103" s="18"/>
-      <c r="K103" s="18"/>
-      <c r="L103" s="18"/>
-      <c r="M103" s="18"/>
-      <c r="N103" s="18"/>
-      <c r="O103" s="18"/>
-      <c r="P103" s="18"/>
-      <c r="Q103" s="18"/>
-      <c r="R103" s="18"/>
-      <c r="S103" s="18"/>
       <c r="T103" s="5"/>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
-      <c r="B104" s="18"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="18"/>
-      <c r="E104" s="18"/>
-      <c r="F104" s="18"/>
-      <c r="G104" s="18"/>
-      <c r="H104" s="18"/>
-      <c r="I104" s="18"/>
-      <c r="J104" s="18"/>
-      <c r="K104" s="18"/>
-      <c r="L104" s="18"/>
-      <c r="M104" s="18"/>
-      <c r="N104" s="18"/>
-      <c r="O104" s="18"/>
-      <c r="P104" s="18"/>
-      <c r="Q104" s="18"/>
-      <c r="R104" s="18"/>
-      <c r="S104" s="18"/>
       <c r="T104" s="5"/>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
-      <c r="B105" s="18"/>
-      <c r="C105" s="18"/>
-      <c r="D105" s="18"/>
-      <c r="E105" s="18"/>
-      <c r="F105" s="18"/>
-      <c r="G105" s="18"/>
-      <c r="H105" s="18"/>
-      <c r="I105" s="18"/>
-      <c r="J105" s="18"/>
-      <c r="K105" s="18"/>
-      <c r="L105" s="18"/>
-      <c r="M105" s="18"/>
-      <c r="N105" s="18"/>
-      <c r="O105" s="18"/>
-      <c r="P105" s="18"/>
-      <c r="Q105" s="18"/>
-      <c r="R105" s="18"/>
-      <c r="S105" s="18"/>
       <c r="T105" s="5"/>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
-      <c r="B106" s="18"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="18"/>
-      <c r="F106" s="18"/>
-      <c r="G106" s="18"/>
-      <c r="H106" s="18"/>
-      <c r="I106" s="18"/>
-      <c r="J106" s="18"/>
-      <c r="K106" s="18"/>
-      <c r="L106" s="18"/>
-      <c r="M106" s="18"/>
-      <c r="N106" s="18"/>
-      <c r="O106" s="18"/>
-      <c r="P106" s="18"/>
-      <c r="Q106" s="18"/>
-      <c r="R106" s="18"/>
-      <c r="S106" s="18"/>
       <c r="T106" s="5"/>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
-      <c r="B107" s="18"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="18"/>
-      <c r="E107" s="18"/>
-      <c r="F107" s="18"/>
-      <c r="G107" s="18"/>
-      <c r="H107" s="18"/>
-      <c r="I107" s="18"/>
-      <c r="J107" s="18"/>
-      <c r="K107" s="18"/>
-      <c r="L107" s="18"/>
-      <c r="M107" s="18"/>
-      <c r="N107" s="18"/>
-      <c r="O107" s="18"/>
-      <c r="P107" s="18"/>
-      <c r="Q107" s="18"/>
-      <c r="R107" s="18"/>
-      <c r="S107" s="18"/>
       <c r="T107" s="5"/>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
-      <c r="B108" s="18"/>
-      <c r="C108" s="18"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="18"/>
-      <c r="F108" s="18"/>
-      <c r="G108" s="18"/>
-      <c r="H108" s="18"/>
-      <c r="I108" s="18"/>
-      <c r="J108" s="18"/>
-      <c r="K108" s="18"/>
-      <c r="L108" s="18"/>
-      <c r="M108" s="18"/>
-      <c r="N108" s="18"/>
-      <c r="O108" s="18"/>
-      <c r="P108" s="18"/>
-      <c r="Q108" s="18"/>
-      <c r="R108" s="18"/>
-      <c r="S108" s="18"/>
       <c r="T108" s="5"/>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
-      <c r="B109" s="18"/>
-      <c r="C109" s="18"/>
-      <c r="D109" s="18"/>
-      <c r="E109" s="18"/>
-      <c r="F109" s="18"/>
-      <c r="G109" s="18"/>
-      <c r="H109" s="18"/>
-      <c r="I109" s="18"/>
-      <c r="J109" s="18"/>
-      <c r="K109" s="18"/>
-      <c r="L109" s="18"/>
-      <c r="M109" s="18"/>
-      <c r="N109" s="18"/>
-      <c r="O109" s="18"/>
-      <c r="P109" s="18"/>
-      <c r="Q109" s="18"/>
-      <c r="R109" s="18"/>
-      <c r="S109" s="18"/>
       <c r="T109" s="5"/>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
-      <c r="B110" s="18"/>
-      <c r="C110" s="18"/>
-      <c r="D110" s="18"/>
-      <c r="E110" s="18"/>
-      <c r="F110" s="18"/>
-      <c r="G110" s="18"/>
-      <c r="H110" s="18"/>
-      <c r="I110" s="18"/>
-      <c r="J110" s="18"/>
-      <c r="K110" s="18"/>
-      <c r="L110" s="18"/>
-      <c r="M110" s="18"/>
-      <c r="N110" s="18"/>
-      <c r="O110" s="18"/>
-      <c r="P110" s="18"/>
-      <c r="Q110" s="18"/>
-      <c r="R110" s="18"/>
-      <c r="S110" s="18"/>
       <c r="T110" s="5"/>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
-      <c r="B111" s="18"/>
-      <c r="C111" s="18"/>
-      <c r="D111" s="18"/>
-      <c r="E111" s="18"/>
-      <c r="F111" s="18"/>
-      <c r="G111" s="18"/>
-      <c r="H111" s="18"/>
-      <c r="I111" s="18"/>
-      <c r="J111" s="18"/>
-      <c r="K111" s="18"/>
-      <c r="L111" s="18"/>
-      <c r="M111" s="18"/>
-      <c r="N111" s="18"/>
-      <c r="O111" s="18"/>
-      <c r="P111" s="18"/>
-      <c r="Q111" s="18"/>
-      <c r="R111" s="18"/>
-      <c r="S111" s="18"/>
       <c r="T111" s="5"/>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
-      <c r="B112" s="18"/>
-      <c r="C112" s="18"/>
-      <c r="D112" s="18"/>
-      <c r="E112" s="18"/>
-      <c r="F112" s="18"/>
-      <c r="G112" s="18"/>
-      <c r="H112" s="18"/>
-      <c r="I112" s="18"/>
-      <c r="J112" s="18"/>
-      <c r="K112" s="18"/>
-      <c r="L112" s="18"/>
-      <c r="M112" s="18"/>
-      <c r="N112" s="18"/>
-      <c r="O112" s="18"/>
-      <c r="P112" s="18"/>
-      <c r="Q112" s="18"/>
-      <c r="R112" s="18"/>
-      <c r="S112" s="18"/>
       <c r="T112" s="5"/>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
-      <c r="B113" s="18"/>
-      <c r="C113" s="18"/>
-      <c r="D113" s="18"/>
-      <c r="E113" s="18"/>
-      <c r="F113" s="18"/>
-      <c r="G113" s="18"/>
-      <c r="H113" s="18"/>
-      <c r="I113" s="18"/>
-      <c r="J113" s="18"/>
-      <c r="K113" s="18"/>
-      <c r="L113" s="18"/>
-      <c r="M113" s="18"/>
-      <c r="N113" s="18"/>
-      <c r="O113" s="18"/>
-      <c r="P113" s="18"/>
-      <c r="Q113" s="18"/>
-      <c r="R113" s="18"/>
-      <c r="S113" s="18"/>
       <c r="T113" s="5"/>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
-      <c r="B114" s="18"/>
-      <c r="C114" s="18"/>
-      <c r="D114" s="18"/>
-      <c r="E114" s="18"/>
-      <c r="F114" s="18"/>
-      <c r="G114" s="18"/>
-      <c r="H114" s="18"/>
-      <c r="I114" s="18"/>
-      <c r="J114" s="18"/>
-      <c r="K114" s="18"/>
-      <c r="L114" s="18"/>
-      <c r="M114" s="18"/>
-      <c r="N114" s="18"/>
-      <c r="O114" s="18"/>
-      <c r="P114" s="18"/>
-      <c r="Q114" s="18"/>
-      <c r="R114" s="18"/>
-      <c r="S114" s="18"/>
       <c r="T114" s="5"/>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
-      <c r="B115" s="18"/>
-      <c r="C115" s="18"/>
-      <c r="D115" s="18"/>
-      <c r="E115" s="18"/>
-      <c r="F115" s="18"/>
-      <c r="G115" s="18"/>
-      <c r="H115" s="18"/>
-      <c r="I115" s="18"/>
-      <c r="J115" s="18"/>
-      <c r="K115" s="18"/>
-      <c r="L115" s="18"/>
-      <c r="M115" s="18"/>
-      <c r="N115" s="18"/>
-      <c r="O115" s="18"/>
-      <c r="P115" s="18"/>
-      <c r="Q115" s="18"/>
-      <c r="R115" s="18"/>
-      <c r="S115" s="18"/>
       <c r="T115" s="5"/>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
-      <c r="B116" s="18"/>
-      <c r="C116" s="18"/>
-      <c r="D116" s="18"/>
-      <c r="E116" s="18"/>
-      <c r="F116" s="18"/>
-      <c r="G116" s="18"/>
-      <c r="H116" s="18"/>
-      <c r="I116" s="18"/>
-      <c r="J116" s="18"/>
-      <c r="K116" s="18"/>
-      <c r="L116" s="18"/>
-      <c r="M116" s="18"/>
-      <c r="N116" s="18"/>
-      <c r="O116" s="18"/>
-      <c r="P116" s="18"/>
-      <c r="Q116" s="18"/>
-      <c r="R116" s="18"/>
-      <c r="S116" s="18"/>
       <c r="T116" s="5"/>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
-      <c r="B117" s="18"/>
-      <c r="C117" s="18"/>
-      <c r="D117" s="18"/>
-      <c r="E117" s="18"/>
-      <c r="F117" s="18"/>
-      <c r="G117" s="18"/>
-      <c r="H117" s="18"/>
-      <c r="I117" s="18"/>
-      <c r="J117" s="18"/>
-      <c r="K117" s="18"/>
-      <c r="L117" s="18"/>
-      <c r="M117" s="18"/>
-      <c r="N117" s="18"/>
-      <c r="O117" s="18"/>
-      <c r="P117" s="18"/>
-      <c r="Q117" s="18"/>
-      <c r="R117" s="18"/>
-      <c r="S117" s="18"/>
       <c r="T117" s="5"/>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
-      <c r="B118" s="18"/>
-      <c r="C118" s="18"/>
-      <c r="D118" s="18"/>
-      <c r="E118" s="18"/>
-      <c r="F118" s="18"/>
-      <c r="G118" s="18"/>
-      <c r="H118" s="18"/>
-      <c r="I118" s="18"/>
-      <c r="J118" s="18"/>
-      <c r="K118" s="18"/>
-      <c r="L118" s="18"/>
-      <c r="M118" s="18"/>
-      <c r="N118" s="18"/>
-      <c r="O118" s="18"/>
-      <c r="P118" s="18"/>
-      <c r="Q118" s="18"/>
-      <c r="R118" s="18"/>
-      <c r="S118" s="18"/>
       <c r="T118" s="5"/>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
-      <c r="B119" s="18"/>
-      <c r="C119" s="18"/>
-      <c r="D119" s="18"/>
-      <c r="E119" s="18"/>
-      <c r="F119" s="18"/>
-      <c r="G119" s="18"/>
-      <c r="H119" s="18"/>
-      <c r="I119" s="18"/>
-      <c r="J119" s="18"/>
-      <c r="K119" s="18"/>
-      <c r="L119" s="18"/>
-      <c r="M119" s="18"/>
-      <c r="N119" s="18"/>
-      <c r="O119" s="18"/>
-      <c r="P119" s="18"/>
-      <c r="Q119" s="18"/>
-      <c r="R119" s="18"/>
-      <c r="S119" s="18"/>
       <c r="T119" s="5"/>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
-      <c r="B120" s="18"/>
-      <c r="C120" s="18"/>
-      <c r="D120" s="18"/>
-      <c r="E120" s="18"/>
-      <c r="F120" s="18"/>
-      <c r="G120" s="18"/>
-      <c r="H120" s="18"/>
-      <c r="I120" s="18"/>
-      <c r="J120" s="18"/>
-      <c r="K120" s="18"/>
-      <c r="L120" s="18"/>
-      <c r="M120" s="18"/>
-      <c r="N120" s="18"/>
-      <c r="O120" s="18"/>
-      <c r="P120" s="18"/>
-      <c r="Q120" s="18"/>
-      <c r="R120" s="18"/>
-      <c r="S120" s="18"/>
       <c r="T120" s="5"/>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
-      <c r="B121" s="18"/>
-      <c r="C121" s="18"/>
-      <c r="D121" s="18"/>
-      <c r="E121" s="18"/>
-      <c r="F121" s="18"/>
-      <c r="G121" s="18"/>
-      <c r="H121" s="18"/>
-      <c r="I121" s="18"/>
-      <c r="J121" s="18"/>
-      <c r="K121" s="18"/>
-      <c r="L121" s="18"/>
-      <c r="M121" s="18"/>
-      <c r="N121" s="18"/>
-      <c r="O121" s="18"/>
-      <c r="P121" s="18"/>
-      <c r="Q121" s="18"/>
-      <c r="R121" s="18"/>
-      <c r="S121" s="18"/>
       <c r="T121" s="5"/>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
-      <c r="B122" s="18"/>
-      <c r="C122" s="18"/>
-      <c r="D122" s="18"/>
-      <c r="E122" s="18"/>
-      <c r="F122" s="18"/>
-      <c r="G122" s="18"/>
-      <c r="H122" s="18"/>
-      <c r="I122" s="18"/>
-      <c r="J122" s="18"/>
-      <c r="K122" s="18"/>
-      <c r="L122" s="18"/>
-      <c r="M122" s="18"/>
-      <c r="N122" s="18"/>
-      <c r="O122" s="18"/>
-      <c r="P122" s="18"/>
-      <c r="Q122" s="18"/>
-      <c r="R122" s="18"/>
-      <c r="S122" s="18"/>
       <c r="T122" s="5"/>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
-      <c r="B123" s="18"/>
-      <c r="C123" s="18"/>
-      <c r="D123" s="18"/>
-      <c r="E123" s="18"/>
-      <c r="F123" s="18"/>
-      <c r="G123" s="18"/>
-      <c r="H123" s="18"/>
-      <c r="I123" s="18"/>
-      <c r="J123" s="18"/>
-      <c r="K123" s="18"/>
-      <c r="L123" s="18"/>
-      <c r="M123" s="18"/>
-      <c r="N123" s="18"/>
-      <c r="O123" s="18"/>
-      <c r="P123" s="18"/>
-      <c r="Q123" s="18"/>
-      <c r="R123" s="18"/>
-      <c r="S123" s="18"/>
       <c r="T123" s="5"/>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
-      <c r="B124" s="18"/>
-      <c r="C124" s="18"/>
-      <c r="D124" s="18"/>
-      <c r="E124" s="18"/>
-      <c r="F124" s="18"/>
-      <c r="G124" s="18"/>
-      <c r="H124" s="18"/>
-      <c r="I124" s="18"/>
-      <c r="J124" s="18"/>
-      <c r="K124" s="18"/>
-      <c r="L124" s="18"/>
-      <c r="M124" s="18"/>
-      <c r="N124" s="18"/>
-      <c r="O124" s="18"/>
-      <c r="P124" s="18"/>
-      <c r="Q124" s="18"/>
-      <c r="R124" s="18"/>
-      <c r="S124" s="18"/>
       <c r="T124" s="5"/>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
-      <c r="B125" s="18"/>
-      <c r="C125" s="18"/>
-      <c r="D125" s="18"/>
-      <c r="E125" s="18"/>
-      <c r="F125" s="18"/>
-      <c r="G125" s="18"/>
-      <c r="H125" s="18"/>
-      <c r="I125" s="18"/>
-      <c r="J125" s="18"/>
-      <c r="K125" s="18"/>
-      <c r="L125" s="18"/>
-      <c r="M125" s="18"/>
-      <c r="N125" s="18"/>
-      <c r="O125" s="18"/>
-      <c r="P125" s="18"/>
-      <c r="Q125" s="18"/>
-      <c r="R125" s="18"/>
-      <c r="S125" s="18"/>
       <c r="T125" s="5"/>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
-      <c r="B126" s="18"/>
-      <c r="C126" s="18"/>
-      <c r="D126" s="18"/>
-      <c r="E126" s="18"/>
-      <c r="F126" s="18"/>
-      <c r="G126" s="18"/>
-      <c r="H126" s="18"/>
-      <c r="I126" s="18"/>
-      <c r="J126" s="18"/>
-      <c r="K126" s="18"/>
-      <c r="L126" s="18"/>
-      <c r="M126" s="18"/>
-      <c r="N126" s="18"/>
-      <c r="O126" s="18"/>
-      <c r="P126" s="18"/>
-      <c r="Q126" s="18"/>
-      <c r="R126" s="18"/>
-      <c r="S126" s="18"/>
       <c r="T126" s="5"/>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
-      <c r="B127" s="18"/>
-      <c r="C127" s="18"/>
-      <c r="D127" s="18"/>
-      <c r="E127" s="18"/>
-      <c r="F127" s="18"/>
-      <c r="G127" s="18"/>
-      <c r="H127" s="18"/>
-      <c r="I127" s="18"/>
-      <c r="J127" s="18"/>
-      <c r="K127" s="18"/>
-      <c r="L127" s="18"/>
-      <c r="M127" s="18"/>
-      <c r="N127" s="18"/>
-      <c r="O127" s="18"/>
-      <c r="P127" s="18"/>
-      <c r="Q127" s="18"/>
-      <c r="R127" s="18"/>
-      <c r="S127" s="18"/>
       <c r="T127" s="5"/>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
-      <c r="B128" s="18"/>
-      <c r="C128" s="18"/>
-      <c r="D128" s="18"/>
-      <c r="E128" s="18"/>
-      <c r="F128" s="18"/>
-      <c r="G128" s="18"/>
-      <c r="H128" s="18"/>
-      <c r="I128" s="18"/>
-      <c r="J128" s="18"/>
-      <c r="K128" s="18"/>
-      <c r="L128" s="18"/>
-      <c r="M128" s="18"/>
-      <c r="N128" s="18"/>
-      <c r="O128" s="18"/>
-      <c r="P128" s="18"/>
-      <c r="Q128" s="18"/>
-      <c r="R128" s="18"/>
-      <c r="S128" s="18"/>
       <c r="T128" s="5"/>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
-      <c r="B129" s="18"/>
-      <c r="C129" s="18"/>
-      <c r="D129" s="18"/>
-      <c r="E129" s="18"/>
-      <c r="F129" s="18"/>
-      <c r="G129" s="18"/>
-      <c r="H129" s="18"/>
-      <c r="I129" s="18"/>
-      <c r="J129" s="18"/>
-      <c r="K129" s="18"/>
-      <c r="L129" s="18"/>
-      <c r="M129" s="18"/>
-      <c r="N129" s="18"/>
-      <c r="O129" s="18"/>
-      <c r="P129" s="18"/>
-      <c r="Q129" s="18"/>
-      <c r="R129" s="18"/>
-      <c r="S129" s="18"/>
       <c r="T129" s="5"/>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
-      <c r="B130" s="18"/>
-      <c r="C130" s="18"/>
-      <c r="D130" s="18"/>
-      <c r="E130" s="18"/>
-      <c r="F130" s="18"/>
-      <c r="G130" s="18"/>
-      <c r="H130" s="18"/>
-      <c r="I130" s="18"/>
-      <c r="J130" s="18"/>
-      <c r="K130" s="18"/>
-      <c r="L130" s="18"/>
-      <c r="M130" s="18"/>
-      <c r="N130" s="18"/>
-      <c r="O130" s="18"/>
-      <c r="P130" s="18"/>
-      <c r="Q130" s="18"/>
-      <c r="R130" s="18"/>
-      <c r="S130" s="18"/>
       <c r="T130" s="5"/>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
-      <c r="B131" s="18"/>
-      <c r="C131" s="18"/>
-      <c r="D131" s="18"/>
-      <c r="E131" s="18"/>
-      <c r="F131" s="18"/>
-      <c r="G131" s="18"/>
-      <c r="H131" s="18"/>
-      <c r="I131" s="18"/>
-      <c r="J131" s="18"/>
-      <c r="K131" s="18"/>
-      <c r="L131" s="18"/>
-      <c r="M131" s="18"/>
-      <c r="N131" s="18"/>
-      <c r="O131" s="18"/>
-      <c r="P131" s="18"/>
-      <c r="Q131" s="18"/>
-      <c r="R131" s="18"/>
-      <c r="S131" s="18"/>
       <c r="T131" s="5"/>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
-      <c r="B132" s="18"/>
-      <c r="C132" s="18"/>
-      <c r="D132" s="18"/>
-      <c r="E132" s="18"/>
-      <c r="F132" s="18"/>
-      <c r="G132" s="18"/>
-      <c r="H132" s="18"/>
-      <c r="I132" s="18"/>
-      <c r="J132" s="18"/>
-      <c r="K132" s="18"/>
-      <c r="L132" s="18"/>
-      <c r="M132" s="18"/>
-      <c r="N132" s="18"/>
-      <c r="O132" s="18"/>
-      <c r="P132" s="18"/>
-      <c r="Q132" s="18"/>
-      <c r="R132" s="18"/>
-      <c r="S132" s="18"/>
       <c r="T132" s="5"/>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
-      <c r="B133" s="18"/>
-      <c r="C133" s="18"/>
-      <c r="D133" s="18"/>
-      <c r="E133" s="18"/>
-      <c r="F133" s="18"/>
-      <c r="G133" s="18"/>
-      <c r="H133" s="18"/>
-      <c r="I133" s="18"/>
-      <c r="J133" s="18"/>
-      <c r="K133" s="18"/>
-      <c r="L133" s="18"/>
-      <c r="M133" s="18"/>
-      <c r="N133" s="18"/>
-      <c r="O133" s="18"/>
-      <c r="P133" s="18"/>
-      <c r="Q133" s="18"/>
-      <c r="R133" s="18"/>
-      <c r="S133" s="18"/>
       <c r="T133" s="5"/>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
-      <c r="B134" s="18"/>
-      <c r="C134" s="18"/>
-      <c r="D134" s="18"/>
-      <c r="E134" s="18"/>
-      <c r="F134" s="18"/>
-      <c r="G134" s="18"/>
-      <c r="H134" s="18"/>
-      <c r="I134" s="18"/>
-      <c r="J134" s="18"/>
-      <c r="K134" s="18"/>
-      <c r="L134" s="18"/>
-      <c r="M134" s="18"/>
-      <c r="N134" s="18"/>
-      <c r="O134" s="18"/>
-      <c r="P134" s="18"/>
-      <c r="Q134" s="18"/>
-      <c r="R134" s="18"/>
-      <c r="S134" s="18"/>
       <c r="T134" s="5"/>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
-      <c r="B135" s="18"/>
-      <c r="C135" s="18"/>
-      <c r="D135" s="18"/>
-      <c r="E135" s="18"/>
-      <c r="F135" s="18"/>
-      <c r="G135" s="18"/>
-      <c r="H135" s="18"/>
-      <c r="I135" s="18"/>
-      <c r="J135" s="18"/>
-      <c r="K135" s="18"/>
-      <c r="L135" s="18"/>
-      <c r="M135" s="18"/>
-      <c r="N135" s="18"/>
-      <c r="O135" s="18"/>
-      <c r="P135" s="18"/>
-      <c r="Q135" s="18"/>
-      <c r="R135" s="18"/>
-      <c r="S135" s="18"/>
       <c r="T135" s="5"/>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
-      <c r="B136" s="18"/>
-      <c r="C136" s="18"/>
-      <c r="D136" s="18"/>
-      <c r="E136" s="18"/>
-      <c r="F136" s="18"/>
-      <c r="G136" s="18"/>
-      <c r="H136" s="18"/>
-      <c r="I136" s="18"/>
-      <c r="J136" s="18"/>
-      <c r="K136" s="18"/>
-      <c r="L136" s="18"/>
-      <c r="M136" s="18"/>
-      <c r="N136" s="18"/>
-      <c r="O136" s="18"/>
-      <c r="P136" s="18"/>
-      <c r="Q136" s="18"/>
-      <c r="R136" s="18"/>
-      <c r="S136" s="18"/>
       <c r="T136" s="5"/>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
-      <c r="B137" s="18"/>
-      <c r="C137" s="18"/>
-      <c r="D137" s="18"/>
-      <c r="E137" s="18"/>
-      <c r="F137" s="18"/>
-      <c r="G137" s="18"/>
-      <c r="H137" s="18"/>
-      <c r="I137" s="18"/>
-      <c r="J137" s="18"/>
-      <c r="K137" s="18"/>
-      <c r="L137" s="18"/>
-      <c r="M137" s="18"/>
-      <c r="N137" s="18"/>
-      <c r="O137" s="18"/>
-      <c r="P137" s="18"/>
-      <c r="Q137" s="18"/>
-      <c r="R137" s="18"/>
-      <c r="S137" s="18"/>
       <c r="T137" s="5"/>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
-      <c r="B138" s="18"/>
-      <c r="C138" s="18"/>
-      <c r="D138" s="18"/>
-      <c r="E138" s="18"/>
-      <c r="F138" s="18"/>
-      <c r="G138" s="18"/>
-      <c r="H138" s="18"/>
-      <c r="I138" s="18"/>
-      <c r="J138" s="18"/>
-      <c r="K138" s="18"/>
-      <c r="L138" s="18"/>
-      <c r="M138" s="18"/>
-      <c r="N138" s="18"/>
-      <c r="O138" s="18"/>
-      <c r="P138" s="18"/>
-      <c r="Q138" s="18"/>
-      <c r="R138" s="18"/>
-      <c r="S138" s="18"/>
       <c r="T138" s="5"/>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
-      <c r="B139" s="18"/>
-      <c r="C139" s="18"/>
-      <c r="D139" s="18"/>
-      <c r="E139" s="18"/>
-      <c r="F139" s="18"/>
-      <c r="G139" s="18"/>
-      <c r="H139" s="18"/>
-      <c r="I139" s="18"/>
-      <c r="J139" s="18"/>
-      <c r="K139" s="18"/>
-      <c r="L139" s="18"/>
-      <c r="M139" s="18"/>
-      <c r="N139" s="18"/>
-      <c r="O139" s="18"/>
-      <c r="P139" s="18"/>
-      <c r="Q139" s="18"/>
-      <c r="R139" s="18"/>
-      <c r="S139" s="18"/>
       <c r="T139" s="5"/>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
-      <c r="B140" s="18"/>
-      <c r="C140" s="18"/>
-      <c r="D140" s="18"/>
-      <c r="E140" s="18"/>
-      <c r="F140" s="18"/>
-      <c r="G140" s="18"/>
-      <c r="H140" s="18"/>
-      <c r="I140" s="18"/>
-      <c r="J140" s="18"/>
-      <c r="K140" s="18"/>
-      <c r="L140" s="18"/>
-      <c r="M140" s="18"/>
-      <c r="N140" s="18"/>
-      <c r="O140" s="18"/>
-      <c r="P140" s="18"/>
-      <c r="Q140" s="18"/>
-      <c r="R140" s="18"/>
-      <c r="S140" s="18"/>
       <c r="T140" s="5"/>
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
-      <c r="B141" s="18"/>
-      <c r="C141" s="18"/>
-      <c r="D141" s="18"/>
-      <c r="E141" s="18"/>
-      <c r="F141" s="18"/>
-      <c r="G141" s="18"/>
-      <c r="H141" s="18"/>
-      <c r="I141" s="18"/>
-      <c r="J141" s="18"/>
-      <c r="K141" s="18"/>
-      <c r="L141" s="18"/>
-      <c r="M141" s="18"/>
-      <c r="N141" s="18"/>
-      <c r="O141" s="18"/>
-      <c r="P141" s="18"/>
-      <c r="Q141" s="18"/>
-      <c r="R141" s="18"/>
-      <c r="S141" s="18"/>
       <c r="T141" s="5"/>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
-      <c r="B142" s="18"/>
-      <c r="C142" s="18"/>
-      <c r="D142" s="18"/>
-      <c r="E142" s="18"/>
-      <c r="F142" s="18"/>
-      <c r="G142" s="18"/>
-      <c r="H142" s="18"/>
-      <c r="I142" s="18"/>
-      <c r="J142" s="18"/>
-      <c r="K142" s="18"/>
-      <c r="L142" s="18"/>
-      <c r="M142" s="18"/>
-      <c r="N142" s="18"/>
-      <c r="O142" s="18"/>
-      <c r="P142" s="18"/>
-      <c r="Q142" s="18"/>
-      <c r="R142" s="18"/>
-      <c r="S142" s="18"/>
       <c r="T142" s="5"/>
     </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
-      <c r="B143" s="18"/>
-      <c r="C143" s="18"/>
-      <c r="D143" s="18"/>
-      <c r="E143" s="18"/>
-      <c r="F143" s="18"/>
-      <c r="G143" s="18"/>
-      <c r="H143" s="18"/>
-      <c r="I143" s="18"/>
-      <c r="J143" s="18"/>
-      <c r="K143" s="18"/>
-      <c r="L143" s="18"/>
-      <c r="M143" s="18"/>
-      <c r="N143" s="18"/>
-      <c r="O143" s="18"/>
-      <c r="P143" s="18"/>
-      <c r="Q143" s="18"/>
-      <c r="R143" s="18"/>
-      <c r="S143" s="18"/>
       <c r="T143" s="5"/>
     </row>
     <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
-      <c r="B144" s="18"/>
-      <c r="C144" s="18"/>
-      <c r="D144" s="18"/>
-      <c r="E144" s="18"/>
-      <c r="F144" s="18"/>
-      <c r="G144" s="18"/>
-      <c r="H144" s="18"/>
-      <c r="I144" s="18"/>
-      <c r="J144" s="18"/>
-      <c r="K144" s="18"/>
-      <c r="L144" s="18"/>
-      <c r="M144" s="18"/>
-      <c r="N144" s="18"/>
-      <c r="O144" s="18"/>
-      <c r="P144" s="18"/>
-      <c r="Q144" s="18"/>
-      <c r="R144" s="18"/>
-      <c r="S144" s="18"/>
       <c r="T144" s="5"/>
     </row>
     <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
-      <c r="B145" s="18"/>
-      <c r="C145" s="18"/>
-      <c r="D145" s="18"/>
-      <c r="E145" s="18"/>
-      <c r="F145" s="18"/>
-      <c r="G145" s="18"/>
-      <c r="H145" s="18"/>
-      <c r="I145" s="18"/>
-      <c r="J145" s="18"/>
-      <c r="K145" s="18"/>
-      <c r="L145" s="18"/>
-      <c r="M145" s="18"/>
-      <c r="N145" s="18"/>
-      <c r="O145" s="18"/>
-      <c r="P145" s="18"/>
-      <c r="Q145" s="18"/>
-      <c r="R145" s="18"/>
-      <c r="S145" s="18"/>
       <c r="T145" s="5"/>
     </row>
     <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
-      <c r="B146" s="18"/>
-      <c r="C146" s="18"/>
-      <c r="D146" s="18"/>
-      <c r="E146" s="18"/>
-      <c r="F146" s="18"/>
-      <c r="G146" s="18"/>
-      <c r="H146" s="18"/>
-      <c r="I146" s="18"/>
-      <c r="J146" s="18"/>
-      <c r="K146" s="18"/>
-      <c r="L146" s="18"/>
-      <c r="M146" s="18"/>
-      <c r="N146" s="18"/>
-      <c r="O146" s="18"/>
-      <c r="P146" s="18"/>
-      <c r="Q146" s="18"/>
-      <c r="R146" s="18"/>
-      <c r="S146" s="18"/>
       <c r="T146" s="5"/>
     </row>
     <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
-      <c r="B147" s="18"/>
-      <c r="C147" s="18"/>
-      <c r="D147" s="18"/>
-      <c r="E147" s="18"/>
-      <c r="F147" s="18"/>
-      <c r="G147" s="18"/>
-      <c r="H147" s="18"/>
-      <c r="I147" s="18"/>
-      <c r="J147" s="18"/>
-      <c r="K147" s="18"/>
-      <c r="L147" s="18"/>
-      <c r="M147" s="18"/>
-      <c r="N147" s="18"/>
-      <c r="O147" s="18"/>
-      <c r="P147" s="18"/>
-      <c r="Q147" s="18"/>
-      <c r="R147" s="18"/>
-      <c r="S147" s="18"/>
       <c r="T147" s="5"/>
     </row>
     <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
-      <c r="B148" s="18"/>
-      <c r="C148" s="18"/>
-      <c r="D148" s="18"/>
-      <c r="E148" s="18"/>
-      <c r="F148" s="18"/>
-      <c r="G148" s="18"/>
-      <c r="H148" s="18"/>
-      <c r="I148" s="18"/>
-      <c r="J148" s="18"/>
-      <c r="K148" s="18"/>
-      <c r="L148" s="18"/>
-      <c r="M148" s="18"/>
-      <c r="N148" s="18"/>
-      <c r="O148" s="18"/>
-      <c r="P148" s="18"/>
-      <c r="Q148" s="18"/>
-      <c r="R148" s="18"/>
-      <c r="S148" s="18"/>
       <c r="T148" s="5"/>
     </row>
     <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
-      <c r="B149" s="18"/>
-      <c r="C149" s="18"/>
-      <c r="D149" s="18"/>
-      <c r="E149" s="18"/>
-      <c r="F149" s="18"/>
-      <c r="G149" s="18"/>
-      <c r="H149" s="18"/>
-      <c r="I149" s="18"/>
-      <c r="J149" s="18"/>
-      <c r="K149" s="18"/>
-      <c r="L149" s="18"/>
-      <c r="M149" s="18"/>
-      <c r="N149" s="18"/>
-      <c r="O149" s="18"/>
-      <c r="P149" s="18"/>
-      <c r="Q149" s="18"/>
-      <c r="R149" s="18"/>
-      <c r="S149" s="18"/>
       <c r="T149" s="5"/>
     </row>
     <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
-      <c r="B150" s="18"/>
-      <c r="C150" s="18"/>
-      <c r="D150" s="18"/>
-      <c r="E150" s="18"/>
-      <c r="F150" s="18"/>
-      <c r="G150" s="18"/>
-      <c r="H150" s="18"/>
-      <c r="I150" s="18"/>
-      <c r="J150" s="18"/>
-      <c r="K150" s="18"/>
-      <c r="L150" s="18"/>
-      <c r="M150" s="18"/>
-      <c r="N150" s="18"/>
-      <c r="O150" s="18"/>
-      <c r="P150" s="18"/>
-      <c r="Q150" s="18"/>
-      <c r="R150" s="18"/>
-      <c r="S150" s="18"/>
       <c r="T150" s="5"/>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
-      <c r="B151" s="18"/>
-      <c r="C151" s="18"/>
-      <c r="D151" s="18"/>
-      <c r="E151" s="18"/>
-      <c r="F151" s="18"/>
-      <c r="G151" s="18"/>
-      <c r="H151" s="18"/>
-      <c r="I151" s="18"/>
-      <c r="J151" s="18"/>
-      <c r="K151" s="18"/>
-      <c r="L151" s="18"/>
-      <c r="M151" s="18"/>
-      <c r="N151" s="18"/>
-      <c r="O151" s="18"/>
-      <c r="P151" s="18"/>
-      <c r="Q151" s="18"/>
-      <c r="R151" s="18"/>
-      <c r="S151" s="18"/>
       <c r="T151" s="5"/>
     </row>
     <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
-      <c r="B152" s="18"/>
-      <c r="C152" s="18"/>
-      <c r="D152" s="18"/>
-      <c r="E152" s="18"/>
-      <c r="F152" s="18"/>
-      <c r="G152" s="18"/>
-      <c r="H152" s="18"/>
-      <c r="I152" s="18"/>
-      <c r="J152" s="18"/>
-      <c r="K152" s="18"/>
-      <c r="L152" s="18"/>
-      <c r="M152" s="18"/>
-      <c r="N152" s="18"/>
-      <c r="O152" s="18"/>
-      <c r="P152" s="18"/>
-      <c r="Q152" s="18"/>
-      <c r="R152" s="18"/>
-      <c r="S152" s="18"/>
       <c r="T152" s="5"/>
     </row>
     <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
-      <c r="B153" s="18"/>
-      <c r="C153" s="18"/>
-      <c r="D153" s="18"/>
-      <c r="E153" s="18"/>
-      <c r="F153" s="18"/>
-      <c r="G153" s="18"/>
-      <c r="H153" s="18"/>
-      <c r="I153" s="18"/>
-      <c r="J153" s="18"/>
-      <c r="K153" s="18"/>
-      <c r="L153" s="18"/>
-      <c r="M153" s="18"/>
-      <c r="N153" s="18"/>
-      <c r="O153" s="18"/>
-      <c r="P153" s="18"/>
-      <c r="Q153" s="18"/>
-      <c r="R153" s="18"/>
-      <c r="S153" s="18"/>
       <c r="T153" s="5"/>
     </row>
     <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
-      <c r="B154" s="18"/>
-      <c r="C154" s="18"/>
-      <c r="D154" s="18"/>
-      <c r="E154" s="18"/>
-      <c r="F154" s="18"/>
-      <c r="G154" s="18"/>
-      <c r="H154" s="18"/>
-      <c r="I154" s="18"/>
-      <c r="J154" s="18"/>
-      <c r="K154" s="18"/>
-      <c r="L154" s="18"/>
-      <c r="M154" s="18"/>
-      <c r="N154" s="18"/>
-      <c r="O154" s="18"/>
-      <c r="P154" s="18"/>
-      <c r="Q154" s="18"/>
-      <c r="R154" s="18"/>
-      <c r="S154" s="18"/>
       <c r="T154" s="5"/>
     </row>
     <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
-      <c r="B155" s="18"/>
-      <c r="C155" s="18"/>
-      <c r="D155" s="18"/>
-      <c r="E155" s="18"/>
-      <c r="F155" s="18"/>
-      <c r="G155" s="18"/>
-      <c r="H155" s="18"/>
-      <c r="I155" s="18"/>
-      <c r="J155" s="18"/>
-      <c r="K155" s="18"/>
-      <c r="L155" s="18"/>
-      <c r="M155" s="18"/>
-      <c r="N155" s="18"/>
-      <c r="O155" s="18"/>
-      <c r="P155" s="18"/>
-      <c r="Q155" s="18"/>
-      <c r="R155" s="18"/>
-      <c r="S155" s="18"/>
       <c r="T155" s="5"/>
     </row>
     <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" s="4"/>
-      <c r="B156" s="18"/>
-      <c r="C156" s="18"/>
-      <c r="D156" s="18"/>
-      <c r="E156" s="18"/>
-      <c r="F156" s="18"/>
-      <c r="G156" s="18"/>
-      <c r="H156" s="18"/>
-      <c r="I156" s="18"/>
-      <c r="J156" s="18"/>
-      <c r="K156" s="18"/>
-      <c r="L156" s="18"/>
-      <c r="M156" s="18"/>
-      <c r="N156" s="18"/>
-      <c r="O156" s="18"/>
-      <c r="P156" s="18"/>
-      <c r="Q156" s="18"/>
-      <c r="R156" s="18"/>
-      <c r="S156" s="18"/>
       <c r="T156" s="5"/>
     </row>
     <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
-      <c r="B157" s="18"/>
-      <c r="C157" s="18"/>
-      <c r="D157" s="18"/>
-      <c r="E157" s="18"/>
-      <c r="F157" s="18"/>
-      <c r="G157" s="18"/>
-      <c r="H157" s="18"/>
-      <c r="I157" s="18"/>
-      <c r="J157" s="18"/>
-      <c r="K157" s="18"/>
-      <c r="L157" s="18"/>
-      <c r="M157" s="18"/>
-      <c r="N157" s="18"/>
-      <c r="O157" s="18"/>
-      <c r="P157" s="18"/>
-      <c r="Q157" s="18"/>
-      <c r="R157" s="18"/>
-      <c r="S157" s="18"/>
       <c r="T157" s="5"/>
     </row>
     <row r="158" spans="1:20" x14ac:dyDescent="0.25">
@@ -9406,4 +7524,3923 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E46FBC17-7678-4E2A-8D78-028511AE2889}">
+  <dimension ref="A5:T199"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="A202" sqref="A202"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="D13" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="D14" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="D15" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="D16" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="3"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="R21" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="S21" s="19"/>
+      <c r="T21" s="5"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="5"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="5"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="R24" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="S24" s="19"/>
+      <c r="T24" s="5"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="5"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="5"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="5"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="5"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="5"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="5"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="5"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="5"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="5"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="R34" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="S34" s="19"/>
+      <c r="T34" s="5"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="S35" s="19"/>
+      <c r="T35" s="5"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="5"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="R37" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="S37" s="19"/>
+      <c r="T37" s="5"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="5"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="5"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="5"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="5"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="5"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="5"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="5"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="5"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="19"/>
+      <c r="T46" s="5"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19"/>
+      <c r="S47" s="19"/>
+      <c r="T47" s="5"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="19"/>
+      <c r="T48" s="5"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="5"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="5"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
+      <c r="T51" s="5"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="19"/>
+      <c r="S52" s="19"/>
+      <c r="T52" s="5"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="19"/>
+      <c r="R53" s="19"/>
+      <c r="S53" s="19"/>
+      <c r="T53" s="5"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="19"/>
+      <c r="S54" s="19"/>
+      <c r="T54" s="5"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="19"/>
+      <c r="S55" s="19"/>
+      <c r="T55" s="5"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19"/>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="19"/>
+      <c r="S56" s="19"/>
+      <c r="T56" s="5"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
+      <c r="P57" s="19"/>
+      <c r="Q57" s="19"/>
+      <c r="R57" s="19"/>
+      <c r="S57" s="19"/>
+      <c r="T57" s="5"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="19"/>
+      <c r="P58" s="19"/>
+      <c r="Q58" s="19"/>
+      <c r="R58" s="19"/>
+      <c r="S58" s="19"/>
+      <c r="T58" s="5"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="19"/>
+      <c r="T59" s="5"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="19"/>
+      <c r="P60" s="19"/>
+      <c r="Q60" s="19"/>
+      <c r="R60" s="19"/>
+      <c r="S60" s="19"/>
+      <c r="T60" s="5"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="19"/>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="19"/>
+      <c r="R61" s="19"/>
+      <c r="S61" s="19"/>
+      <c r="T61" s="5"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="19"/>
+      <c r="P62" s="19"/>
+      <c r="Q62" s="19"/>
+      <c r="R62" s="19"/>
+      <c r="S62" s="19"/>
+      <c r="T62" s="5"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
+      <c r="O63" s="19"/>
+      <c r="P63" s="19"/>
+      <c r="Q63" s="19"/>
+      <c r="R63" s="19"/>
+      <c r="S63" s="19"/>
+      <c r="T63" s="5"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="19"/>
+      <c r="O64" s="19"/>
+      <c r="P64" s="19"/>
+      <c r="Q64" s="19"/>
+      <c r="R64" s="19"/>
+      <c r="S64" s="19"/>
+      <c r="T64" s="5"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="19"/>
+      <c r="O65" s="19"/>
+      <c r="P65" s="19"/>
+      <c r="Q65" s="19"/>
+      <c r="R65" s="19"/>
+      <c r="S65" s="19"/>
+      <c r="T65" s="5"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="19"/>
+      <c r="O66" s="19"/>
+      <c r="P66" s="19"/>
+      <c r="Q66" s="19"/>
+      <c r="R66" s="19"/>
+      <c r="S66" s="19"/>
+      <c r="T66" s="5"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="19"/>
+      <c r="O67" s="19"/>
+      <c r="P67" s="19"/>
+      <c r="Q67" s="19"/>
+      <c r="R67" s="19"/>
+      <c r="S67" s="19"/>
+      <c r="T67" s="5"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="19"/>
+      <c r="N68" s="19"/>
+      <c r="O68" s="19"/>
+      <c r="P68" s="19"/>
+      <c r="Q68" s="19"/>
+      <c r="R68" s="19"/>
+      <c r="S68" s="19"/>
+      <c r="T68" s="5"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="19"/>
+      <c r="M69" s="19"/>
+      <c r="N69" s="19"/>
+      <c r="O69" s="19"/>
+      <c r="P69" s="19"/>
+      <c r="Q69" s="19"/>
+      <c r="R69" s="19"/>
+      <c r="S69" s="19"/>
+      <c r="T69" s="5"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="19"/>
+      <c r="M70" s="19"/>
+      <c r="N70" s="19"/>
+      <c r="O70" s="19"/>
+      <c r="P70" s="19"/>
+      <c r="Q70" s="19"/>
+      <c r="R70" s="19"/>
+      <c r="S70" s="19"/>
+      <c r="T70" s="5"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="19"/>
+      <c r="L71" s="19"/>
+      <c r="M71" s="19"/>
+      <c r="N71" s="19"/>
+      <c r="O71" s="19"/>
+      <c r="P71" s="19"/>
+      <c r="Q71" s="19"/>
+      <c r="R71" s="19"/>
+      <c r="S71" s="19"/>
+      <c r="T71" s="5"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="19"/>
+      <c r="O72" s="19"/>
+      <c r="P72" s="19"/>
+      <c r="Q72" s="19"/>
+      <c r="R72" s="19"/>
+      <c r="S72" s="19"/>
+      <c r="T72" s="5"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="19"/>
+      <c r="K73" s="19"/>
+      <c r="L73" s="19"/>
+      <c r="M73" s="19"/>
+      <c r="N73" s="19"/>
+      <c r="O73" s="19"/>
+      <c r="P73" s="19"/>
+      <c r="Q73" s="19"/>
+      <c r="R73" s="19"/>
+      <c r="S73" s="19"/>
+      <c r="T73" s="5"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="19"/>
+      <c r="K74" s="19"/>
+      <c r="L74" s="19"/>
+      <c r="M74" s="19"/>
+      <c r="N74" s="19"/>
+      <c r="O74" s="19"/>
+      <c r="P74" s="19"/>
+      <c r="Q74" s="19"/>
+      <c r="R74" s="19"/>
+      <c r="S74" s="19"/>
+      <c r="T74" s="5"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="19"/>
+      <c r="K75" s="19"/>
+      <c r="L75" s="19"/>
+      <c r="M75" s="19"/>
+      <c r="N75" s="19"/>
+      <c r="O75" s="19"/>
+      <c r="P75" s="19"/>
+      <c r="Q75" s="19"/>
+      <c r="R75" s="19"/>
+      <c r="S75" s="19"/>
+      <c r="T75" s="5"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="19"/>
+      <c r="K76" s="19"/>
+      <c r="L76" s="19"/>
+      <c r="M76" s="19"/>
+      <c r="N76" s="19"/>
+      <c r="O76" s="19"/>
+      <c r="P76" s="19"/>
+      <c r="Q76" s="19"/>
+      <c r="R76" s="19"/>
+      <c r="S76" s="19"/>
+      <c r="T76" s="5"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="19"/>
+      <c r="M77" s="19"/>
+      <c r="N77" s="19"/>
+      <c r="O77" s="19"/>
+      <c r="P77" s="19"/>
+      <c r="Q77" s="19"/>
+      <c r="R77" s="19"/>
+      <c r="S77" s="19"/>
+      <c r="T77" s="5"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="19"/>
+      <c r="K78" s="19"/>
+      <c r="L78" s="19"/>
+      <c r="M78" s="19"/>
+      <c r="N78" s="19"/>
+      <c r="O78" s="19"/>
+      <c r="P78" s="19"/>
+      <c r="Q78" s="19"/>
+      <c r="R78" s="19"/>
+      <c r="S78" s="19"/>
+      <c r="T78" s="5"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" s="4"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="19"/>
+      <c r="K79" s="19"/>
+      <c r="L79" s="19"/>
+      <c r="M79" s="19"/>
+      <c r="N79" s="19"/>
+      <c r="O79" s="19"/>
+      <c r="P79" s="19"/>
+      <c r="Q79" s="19"/>
+      <c r="R79" s="19"/>
+      <c r="S79" s="19"/>
+      <c r="T79" s="5"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A80" s="6"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="7"/>
+      <c r="P80" s="7"/>
+      <c r="Q80" s="7"/>
+      <c r="R80" s="7"/>
+      <c r="S80" s="7"/>
+      <c r="T80" s="8"/>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="3"/>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="19"/>
+      <c r="O84" s="19"/>
+      <c r="P84" s="19"/>
+      <c r="Q84" s="19"/>
+      <c r="R84" s="19"/>
+      <c r="S84" s="19"/>
+      <c r="T84" s="5"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="8"/>
+      <c r="N85" s="19"/>
+      <c r="O85" s="19"/>
+      <c r="P85" s="19"/>
+      <c r="Q85" s="19"/>
+      <c r="R85" s="19"/>
+      <c r="S85" s="19"/>
+      <c r="T85" s="5"/>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="19"/>
+      <c r="K86" s="19"/>
+      <c r="L86" s="19"/>
+      <c r="M86" s="19"/>
+      <c r="N86" s="19"/>
+      <c r="O86" s="19"/>
+      <c r="P86" s="19"/>
+      <c r="Q86" s="19"/>
+      <c r="R86" s="19"/>
+      <c r="S86" s="19"/>
+      <c r="T86" s="5"/>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="19"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="19"/>
+      <c r="K87" s="19"/>
+      <c r="L87" s="19"/>
+      <c r="M87" s="19"/>
+      <c r="N87" s="19"/>
+      <c r="O87" s="19"/>
+      <c r="P87" s="19"/>
+      <c r="Q87" s="19"/>
+      <c r="R87" s="19"/>
+      <c r="S87" s="19"/>
+      <c r="T87" s="5"/>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="19"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="19"/>
+      <c r="K88" s="19"/>
+      <c r="L88" s="19"/>
+      <c r="M88" s="19"/>
+      <c r="N88" s="19"/>
+      <c r="O88" s="19"/>
+      <c r="P88" s="19"/>
+      <c r="Q88" s="19"/>
+      <c r="R88" s="19"/>
+      <c r="S88" s="19"/>
+      <c r="T88" s="5"/>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="19"/>
+      <c r="K89" s="19"/>
+      <c r="L89" s="19"/>
+      <c r="M89" s="19"/>
+      <c r="N89" s="19"/>
+      <c r="O89" s="19"/>
+      <c r="P89" s="19"/>
+      <c r="Q89" s="19"/>
+      <c r="R89" s="19"/>
+      <c r="S89" s="19"/>
+      <c r="T89" s="5"/>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="19"/>
+      <c r="I90" s="19"/>
+      <c r="J90" s="19"/>
+      <c r="K90" s="19"/>
+      <c r="L90" s="19"/>
+      <c r="M90" s="19"/>
+      <c r="N90" s="19"/>
+      <c r="O90" s="19"/>
+      <c r="P90" s="19"/>
+      <c r="Q90" s="19"/>
+      <c r="R90" s="19"/>
+      <c r="S90" s="19"/>
+      <c r="T90" s="5"/>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="19"/>
+      <c r="I91" s="19"/>
+      <c r="J91" s="19"/>
+      <c r="K91" s="19"/>
+      <c r="L91" s="19"/>
+      <c r="M91" s="19"/>
+      <c r="N91" s="19"/>
+      <c r="O91" s="19"/>
+      <c r="P91" s="19"/>
+      <c r="Q91" s="19"/>
+      <c r="R91" s="19"/>
+      <c r="S91" s="19"/>
+      <c r="T91" s="5"/>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="19"/>
+      <c r="I92" s="19"/>
+      <c r="J92" s="19"/>
+      <c r="K92" s="19"/>
+      <c r="L92" s="19"/>
+      <c r="M92" s="19"/>
+      <c r="N92" s="19"/>
+      <c r="O92" s="19"/>
+      <c r="P92" s="19"/>
+      <c r="Q92" s="19"/>
+      <c r="R92" s="19"/>
+      <c r="S92" s="19"/>
+      <c r="T92" s="5"/>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="19"/>
+      <c r="H93" s="19"/>
+      <c r="I93" s="19"/>
+      <c r="J93" s="19"/>
+      <c r="K93" s="19"/>
+      <c r="L93" s="19"/>
+      <c r="M93" s="19"/>
+      <c r="N93" s="19"/>
+      <c r="O93" s="19"/>
+      <c r="P93" s="19"/>
+      <c r="Q93" s="19"/>
+      <c r="R93" s="19"/>
+      <c r="S93" s="19"/>
+      <c r="T93" s="5"/>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="19"/>
+      <c r="I94" s="19"/>
+      <c r="J94" s="19"/>
+      <c r="K94" s="19"/>
+      <c r="L94" s="19"/>
+      <c r="M94" s="19"/>
+      <c r="N94" s="19"/>
+      <c r="O94" s="19"/>
+      <c r="P94" s="19"/>
+      <c r="Q94" s="19"/>
+      <c r="R94" s="19"/>
+      <c r="S94" s="19"/>
+      <c r="T94" s="5"/>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="19"/>
+      <c r="H95" s="19"/>
+      <c r="I95" s="19"/>
+      <c r="J95" s="19"/>
+      <c r="K95" s="19"/>
+      <c r="L95" s="19"/>
+      <c r="M95" s="19"/>
+      <c r="N95" s="19"/>
+      <c r="O95" s="19"/>
+      <c r="P95" s="19"/>
+      <c r="Q95" s="19"/>
+      <c r="R95" s="19"/>
+      <c r="S95" s="19"/>
+      <c r="T95" s="5"/>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="19"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="19"/>
+      <c r="K96" s="19"/>
+      <c r="L96" s="19"/>
+      <c r="M96" s="19"/>
+      <c r="N96" s="19"/>
+      <c r="O96" s="19"/>
+      <c r="P96" s="19"/>
+      <c r="Q96" s="19"/>
+      <c r="R96" s="19"/>
+      <c r="S96" s="19"/>
+      <c r="T96" s="5"/>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+      <c r="B97" s="19"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="19"/>
+      <c r="I97" s="19"/>
+      <c r="J97" s="19"/>
+      <c r="K97" s="19"/>
+      <c r="L97" s="19"/>
+      <c r="M97" s="19"/>
+      <c r="N97" s="19"/>
+      <c r="O97" s="19"/>
+      <c r="P97" s="19"/>
+      <c r="Q97" s="19"/>
+      <c r="R97" s="19"/>
+      <c r="S97" s="19"/>
+      <c r="T97" s="5"/>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+      <c r="B98" s="19"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
+      <c r="G98" s="19"/>
+      <c r="H98" s="19"/>
+      <c r="I98" s="19"/>
+      <c r="J98" s="19"/>
+      <c r="K98" s="19"/>
+      <c r="L98" s="19"/>
+      <c r="M98" s="19"/>
+      <c r="N98" s="19"/>
+      <c r="O98" s="19"/>
+      <c r="P98" s="19"/>
+      <c r="Q98" s="19"/>
+      <c r="R98" s="19"/>
+      <c r="S98" s="19"/>
+      <c r="T98" s="5"/>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="19"/>
+      <c r="H99" s="19"/>
+      <c r="I99" s="19"/>
+      <c r="J99" s="19"/>
+      <c r="K99" s="19"/>
+      <c r="L99" s="19"/>
+      <c r="M99" s="19"/>
+      <c r="N99" s="19"/>
+      <c r="O99" s="19"/>
+      <c r="P99" s="19"/>
+      <c r="Q99" s="19"/>
+      <c r="R99" s="19"/>
+      <c r="S99" s="19"/>
+      <c r="T99" s="5"/>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="19"/>
+      <c r="G100" s="19"/>
+      <c r="H100" s="19"/>
+      <c r="I100" s="19"/>
+      <c r="J100" s="19"/>
+      <c r="K100" s="19"/>
+      <c r="L100" s="19"/>
+      <c r="M100" s="19"/>
+      <c r="N100" s="19"/>
+      <c r="O100" s="19"/>
+      <c r="P100" s="19"/>
+      <c r="Q100" s="19"/>
+      <c r="R100" s="19"/>
+      <c r="S100" s="19"/>
+      <c r="T100" s="5"/>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A101" s="4"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="19"/>
+      <c r="G101" s="19"/>
+      <c r="H101" s="19"/>
+      <c r="I101" s="19"/>
+      <c r="J101" s="19"/>
+      <c r="K101" s="19"/>
+      <c r="L101" s="19"/>
+      <c r="M101" s="19"/>
+      <c r="N101" s="19"/>
+      <c r="O101" s="19"/>
+      <c r="P101" s="19"/>
+      <c r="Q101" s="19"/>
+      <c r="R101" s="19"/>
+      <c r="S101" s="19"/>
+      <c r="T101" s="5"/>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
+      <c r="B102" s="19"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="19"/>
+      <c r="H102" s="19"/>
+      <c r="I102" s="19"/>
+      <c r="J102" s="19"/>
+      <c r="K102" s="19"/>
+      <c r="L102" s="19"/>
+      <c r="M102" s="19"/>
+      <c r="N102" s="19"/>
+      <c r="O102" s="19"/>
+      <c r="P102" s="19"/>
+      <c r="Q102" s="19"/>
+      <c r="R102" s="19"/>
+      <c r="S102" s="19"/>
+      <c r="T102" s="5"/>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="19"/>
+      <c r="G103" s="19"/>
+      <c r="H103" s="19"/>
+      <c r="I103" s="19"/>
+      <c r="J103" s="19"/>
+      <c r="K103" s="19"/>
+      <c r="L103" s="19"/>
+      <c r="M103" s="19"/>
+      <c r="N103" s="19"/>
+      <c r="O103" s="19"/>
+      <c r="P103" s="19"/>
+      <c r="Q103" s="19"/>
+      <c r="R103" s="19"/>
+      <c r="S103" s="19"/>
+      <c r="T103" s="5"/>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+      <c r="B104" s="19"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="19"/>
+      <c r="G104" s="19"/>
+      <c r="H104" s="19"/>
+      <c r="I104" s="19"/>
+      <c r="J104" s="19"/>
+      <c r="K104" s="19"/>
+      <c r="L104" s="19"/>
+      <c r="M104" s="19"/>
+      <c r="N104" s="19"/>
+      <c r="O104" s="19"/>
+      <c r="P104" s="19"/>
+      <c r="Q104" s="19"/>
+      <c r="R104" s="19"/>
+      <c r="S104" s="19"/>
+      <c r="T104" s="5"/>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="19"/>
+      <c r="G105" s="19"/>
+      <c r="H105" s="19"/>
+      <c r="I105" s="19"/>
+      <c r="J105" s="19"/>
+      <c r="K105" s="19"/>
+      <c r="L105" s="19"/>
+      <c r="M105" s="19"/>
+      <c r="N105" s="19"/>
+      <c r="O105" s="19"/>
+      <c r="P105" s="19"/>
+      <c r="Q105" s="19"/>
+      <c r="R105" s="19"/>
+      <c r="S105" s="19"/>
+      <c r="T105" s="5"/>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A106" s="4"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="19"/>
+      <c r="H106" s="19"/>
+      <c r="I106" s="19"/>
+      <c r="J106" s="19"/>
+      <c r="K106" s="19"/>
+      <c r="L106" s="19"/>
+      <c r="M106" s="19"/>
+      <c r="N106" s="19"/>
+      <c r="O106" s="19"/>
+      <c r="P106" s="19"/>
+      <c r="Q106" s="19"/>
+      <c r="R106" s="19"/>
+      <c r="S106" s="19"/>
+      <c r="T106" s="5"/>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A107" s="4"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="19"/>
+      <c r="G107" s="19"/>
+      <c r="H107" s="19"/>
+      <c r="I107" s="19"/>
+      <c r="J107" s="19"/>
+      <c r="K107" s="19"/>
+      <c r="L107" s="19"/>
+      <c r="M107" s="19"/>
+      <c r="N107" s="19"/>
+      <c r="O107" s="19"/>
+      <c r="P107" s="19"/>
+      <c r="Q107" s="19"/>
+      <c r="R107" s="19"/>
+      <c r="S107" s="19"/>
+      <c r="T107" s="5"/>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A108" s="4"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="19"/>
+      <c r="G108" s="19"/>
+      <c r="H108" s="19"/>
+      <c r="I108" s="19"/>
+      <c r="J108" s="19"/>
+      <c r="K108" s="19"/>
+      <c r="L108" s="19"/>
+      <c r="M108" s="19"/>
+      <c r="N108" s="19"/>
+      <c r="O108" s="19"/>
+      <c r="P108" s="19"/>
+      <c r="Q108" s="19"/>
+      <c r="R108" s="19"/>
+      <c r="S108" s="19"/>
+      <c r="T108" s="5"/>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A109" s="4"/>
+      <c r="B109" s="19"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="19"/>
+      <c r="G109" s="19"/>
+      <c r="H109" s="19"/>
+      <c r="I109" s="19"/>
+      <c r="J109" s="19"/>
+      <c r="K109" s="19"/>
+      <c r="L109" s="19"/>
+      <c r="M109" s="19"/>
+      <c r="N109" s="19"/>
+      <c r="O109" s="19"/>
+      <c r="P109" s="19"/>
+      <c r="Q109" s="19"/>
+      <c r="R109" s="19"/>
+      <c r="S109" s="19"/>
+      <c r="T109" s="5"/>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A110" s="4"/>
+      <c r="B110" s="19"/>
+      <c r="C110" s="19"/>
+      <c r="D110" s="19"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="19"/>
+      <c r="G110" s="19"/>
+      <c r="H110" s="19"/>
+      <c r="I110" s="19"/>
+      <c r="J110" s="19"/>
+      <c r="K110" s="19"/>
+      <c r="L110" s="19"/>
+      <c r="M110" s="19"/>
+      <c r="N110" s="19"/>
+      <c r="O110" s="19"/>
+      <c r="P110" s="19"/>
+      <c r="Q110" s="19"/>
+      <c r="R110" s="19"/>
+      <c r="S110" s="19"/>
+      <c r="T110" s="5"/>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A111" s="4"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="19"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="19"/>
+      <c r="G111" s="19"/>
+      <c r="H111" s="19"/>
+      <c r="I111" s="19"/>
+      <c r="J111" s="19"/>
+      <c r="K111" s="19"/>
+      <c r="L111" s="19"/>
+      <c r="M111" s="19"/>
+      <c r="N111" s="19"/>
+      <c r="O111" s="19"/>
+      <c r="P111" s="19"/>
+      <c r="Q111" s="19"/>
+      <c r="R111" s="19"/>
+      <c r="S111" s="19"/>
+      <c r="T111" s="5"/>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A112" s="4"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="19"/>
+      <c r="D112" s="19"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="19"/>
+      <c r="G112" s="19"/>
+      <c r="H112" s="19"/>
+      <c r="I112" s="19"/>
+      <c r="J112" s="19"/>
+      <c r="K112" s="19"/>
+      <c r="L112" s="19"/>
+      <c r="M112" s="19"/>
+      <c r="N112" s="19"/>
+      <c r="O112" s="19"/>
+      <c r="P112" s="19"/>
+      <c r="Q112" s="19"/>
+      <c r="R112" s="19"/>
+      <c r="S112" s="19"/>
+      <c r="T112" s="5"/>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A113" s="4"/>
+      <c r="B113" s="19"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="19"/>
+      <c r="G113" s="19"/>
+      <c r="H113" s="19"/>
+      <c r="I113" s="19"/>
+      <c r="J113" s="19"/>
+      <c r="K113" s="19"/>
+      <c r="L113" s="19"/>
+      <c r="M113" s="19"/>
+      <c r="N113" s="19"/>
+      <c r="O113" s="19"/>
+      <c r="P113" s="19"/>
+      <c r="Q113" s="19"/>
+      <c r="R113" s="19"/>
+      <c r="S113" s="19"/>
+      <c r="T113" s="5"/>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A114" s="4"/>
+      <c r="B114" s="19"/>
+      <c r="C114" s="19"/>
+      <c r="D114" s="19"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="19"/>
+      <c r="G114" s="19"/>
+      <c r="H114" s="19"/>
+      <c r="I114" s="19"/>
+      <c r="J114" s="19"/>
+      <c r="K114" s="19"/>
+      <c r="L114" s="19"/>
+      <c r="M114" s="19"/>
+      <c r="N114" s="19"/>
+      <c r="O114" s="19"/>
+      <c r="P114" s="19"/>
+      <c r="Q114" s="19"/>
+      <c r="R114" s="19"/>
+      <c r="S114" s="19"/>
+      <c r="T114" s="5"/>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A115" s="4"/>
+      <c r="B115" s="19"/>
+      <c r="C115" s="19"/>
+      <c r="D115" s="19"/>
+      <c r="E115" s="19"/>
+      <c r="F115" s="19"/>
+      <c r="G115" s="19"/>
+      <c r="H115" s="19"/>
+      <c r="I115" s="19"/>
+      <c r="J115" s="19"/>
+      <c r="K115" s="19"/>
+      <c r="L115" s="19"/>
+      <c r="M115" s="19"/>
+      <c r="N115" s="19"/>
+      <c r="O115" s="19"/>
+      <c r="P115" s="19"/>
+      <c r="Q115" s="19"/>
+      <c r="R115" s="19"/>
+      <c r="S115" s="19"/>
+      <c r="T115" s="5"/>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A116" s="4"/>
+      <c r="B116" s="19"/>
+      <c r="C116" s="19"/>
+      <c r="D116" s="19"/>
+      <c r="E116" s="19"/>
+      <c r="F116" s="19"/>
+      <c r="G116" s="19"/>
+      <c r="H116" s="19"/>
+      <c r="I116" s="19"/>
+      <c r="J116" s="19"/>
+      <c r="K116" s="19"/>
+      <c r="L116" s="19"/>
+      <c r="M116" s="19"/>
+      <c r="N116" s="19"/>
+      <c r="O116" s="19"/>
+      <c r="P116" s="19"/>
+      <c r="Q116" s="19"/>
+      <c r="R116" s="19"/>
+      <c r="S116" s="19"/>
+      <c r="T116" s="5"/>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A117" s="4"/>
+      <c r="B117" s="19"/>
+      <c r="C117" s="19"/>
+      <c r="D117" s="19"/>
+      <c r="E117" s="19"/>
+      <c r="F117" s="19"/>
+      <c r="G117" s="19"/>
+      <c r="H117" s="19"/>
+      <c r="I117" s="19"/>
+      <c r="J117" s="19"/>
+      <c r="K117" s="19"/>
+      <c r="L117" s="19"/>
+      <c r="M117" s="19"/>
+      <c r="N117" s="19"/>
+      <c r="O117" s="19"/>
+      <c r="P117" s="19"/>
+      <c r="Q117" s="19"/>
+      <c r="R117" s="19"/>
+      <c r="S117" s="19"/>
+      <c r="T117" s="5"/>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A118" s="4"/>
+      <c r="B118" s="19"/>
+      <c r="C118" s="19"/>
+      <c r="D118" s="19"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="19"/>
+      <c r="G118" s="19"/>
+      <c r="H118" s="19"/>
+      <c r="I118" s="19"/>
+      <c r="J118" s="19"/>
+      <c r="K118" s="19"/>
+      <c r="L118" s="19"/>
+      <c r="M118" s="19"/>
+      <c r="N118" s="19"/>
+      <c r="O118" s="19"/>
+      <c r="P118" s="19"/>
+      <c r="Q118" s="19"/>
+      <c r="R118" s="19"/>
+      <c r="S118" s="19"/>
+      <c r="T118" s="5"/>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A119" s="4"/>
+      <c r="B119" s="19"/>
+      <c r="C119" s="19"/>
+      <c r="D119" s="19"/>
+      <c r="E119" s="19"/>
+      <c r="F119" s="19"/>
+      <c r="G119" s="19"/>
+      <c r="H119" s="19"/>
+      <c r="I119" s="19"/>
+      <c r="J119" s="19"/>
+      <c r="K119" s="19"/>
+      <c r="L119" s="19"/>
+      <c r="M119" s="19"/>
+      <c r="N119" s="19"/>
+      <c r="O119" s="19"/>
+      <c r="P119" s="19"/>
+      <c r="Q119" s="19"/>
+      <c r="R119" s="19"/>
+      <c r="S119" s="19"/>
+      <c r="T119" s="5"/>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A120" s="4"/>
+      <c r="B120" s="19"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="19"/>
+      <c r="E120" s="19"/>
+      <c r="F120" s="19"/>
+      <c r="G120" s="19"/>
+      <c r="H120" s="19"/>
+      <c r="I120" s="19"/>
+      <c r="J120" s="19"/>
+      <c r="K120" s="19"/>
+      <c r="L120" s="19"/>
+      <c r="M120" s="19"/>
+      <c r="N120" s="19"/>
+      <c r="O120" s="19"/>
+      <c r="P120" s="19"/>
+      <c r="Q120" s="19"/>
+      <c r="R120" s="19"/>
+      <c r="S120" s="19"/>
+      <c r="T120" s="5"/>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A121" s="4"/>
+      <c r="B121" s="19"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="19"/>
+      <c r="E121" s="19"/>
+      <c r="F121" s="19"/>
+      <c r="G121" s="19"/>
+      <c r="H121" s="19"/>
+      <c r="I121" s="19"/>
+      <c r="J121" s="19"/>
+      <c r="K121" s="19"/>
+      <c r="L121" s="19"/>
+      <c r="M121" s="19"/>
+      <c r="N121" s="19"/>
+      <c r="O121" s="19"/>
+      <c r="P121" s="19"/>
+      <c r="Q121" s="19"/>
+      <c r="R121" s="19"/>
+      <c r="S121" s="19"/>
+      <c r="T121" s="5"/>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A122" s="4"/>
+      <c r="B122" s="19"/>
+      <c r="C122" s="19"/>
+      <c r="D122" s="19"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="19"/>
+      <c r="G122" s="19"/>
+      <c r="H122" s="19"/>
+      <c r="I122" s="19"/>
+      <c r="J122" s="19"/>
+      <c r="K122" s="19"/>
+      <c r="L122" s="19"/>
+      <c r="M122" s="19"/>
+      <c r="N122" s="19"/>
+      <c r="O122" s="19"/>
+      <c r="P122" s="19"/>
+      <c r="Q122" s="19"/>
+      <c r="R122" s="19"/>
+      <c r="S122" s="19"/>
+      <c r="T122" s="5"/>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A123" s="4"/>
+      <c r="B123" s="19"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="19"/>
+      <c r="E123" s="19"/>
+      <c r="F123" s="19"/>
+      <c r="G123" s="19"/>
+      <c r="H123" s="19"/>
+      <c r="I123" s="19"/>
+      <c r="J123" s="19"/>
+      <c r="K123" s="19"/>
+      <c r="L123" s="19"/>
+      <c r="M123" s="19"/>
+      <c r="N123" s="19"/>
+      <c r="O123" s="19"/>
+      <c r="P123" s="19"/>
+      <c r="Q123" s="19"/>
+      <c r="R123" s="19"/>
+      <c r="S123" s="19"/>
+      <c r="T123" s="5"/>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A124" s="4"/>
+      <c r="B124" s="19"/>
+      <c r="C124" s="19"/>
+      <c r="D124" s="19"/>
+      <c r="E124" s="19"/>
+      <c r="F124" s="19"/>
+      <c r="G124" s="19"/>
+      <c r="H124" s="19"/>
+      <c r="I124" s="19"/>
+      <c r="J124" s="19"/>
+      <c r="K124" s="19"/>
+      <c r="L124" s="19"/>
+      <c r="M124" s="19"/>
+      <c r="N124" s="19"/>
+      <c r="O124" s="19"/>
+      <c r="P124" s="19"/>
+      <c r="Q124" s="19"/>
+      <c r="R124" s="19"/>
+      <c r="S124" s="19"/>
+      <c r="T124" s="5"/>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A125" s="4"/>
+      <c r="B125" s="19"/>
+      <c r="C125" s="19"/>
+      <c r="D125" s="19"/>
+      <c r="E125" s="19"/>
+      <c r="F125" s="19"/>
+      <c r="G125" s="19"/>
+      <c r="H125" s="19"/>
+      <c r="I125" s="19"/>
+      <c r="J125" s="19"/>
+      <c r="K125" s="19"/>
+      <c r="L125" s="19"/>
+      <c r="M125" s="19"/>
+      <c r="N125" s="19"/>
+      <c r="O125" s="19"/>
+      <c r="P125" s="19"/>
+      <c r="Q125" s="19"/>
+      <c r="R125" s="19"/>
+      <c r="S125" s="19"/>
+      <c r="T125" s="5"/>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A126" s="4"/>
+      <c r="B126" s="19"/>
+      <c r="C126" s="19"/>
+      <c r="D126" s="19"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="19"/>
+      <c r="G126" s="19"/>
+      <c r="H126" s="19"/>
+      <c r="I126" s="19"/>
+      <c r="J126" s="19"/>
+      <c r="K126" s="19"/>
+      <c r="L126" s="19"/>
+      <c r="M126" s="19"/>
+      <c r="N126" s="19"/>
+      <c r="O126" s="19"/>
+      <c r="P126" s="19"/>
+      <c r="Q126" s="19"/>
+      <c r="R126" s="19"/>
+      <c r="S126" s="19"/>
+      <c r="T126" s="5"/>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A127" s="4"/>
+      <c r="B127" s="19"/>
+      <c r="C127" s="19"/>
+      <c r="D127" s="19"/>
+      <c r="E127" s="19"/>
+      <c r="F127" s="19"/>
+      <c r="G127" s="19"/>
+      <c r="H127" s="19"/>
+      <c r="I127" s="19"/>
+      <c r="J127" s="19"/>
+      <c r="K127" s="19"/>
+      <c r="L127" s="19"/>
+      <c r="M127" s="19"/>
+      <c r="N127" s="19"/>
+      <c r="O127" s="19"/>
+      <c r="P127" s="19"/>
+      <c r="Q127" s="19"/>
+      <c r="R127" s="19"/>
+      <c r="S127" s="19"/>
+      <c r="T127" s="5"/>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A128" s="4"/>
+      <c r="B128" s="19"/>
+      <c r="C128" s="19"/>
+      <c r="D128" s="19"/>
+      <c r="E128" s="19"/>
+      <c r="F128" s="19"/>
+      <c r="G128" s="19"/>
+      <c r="H128" s="19"/>
+      <c r="I128" s="19"/>
+      <c r="J128" s="19"/>
+      <c r="K128" s="19"/>
+      <c r="L128" s="19"/>
+      <c r="M128" s="19"/>
+      <c r="N128" s="19"/>
+      <c r="O128" s="19"/>
+      <c r="P128" s="19"/>
+      <c r="Q128" s="19"/>
+      <c r="R128" s="19"/>
+      <c r="S128" s="19"/>
+      <c r="T128" s="5"/>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A129" s="4"/>
+      <c r="B129" s="19"/>
+      <c r="C129" s="19"/>
+      <c r="D129" s="19"/>
+      <c r="E129" s="19"/>
+      <c r="F129" s="19"/>
+      <c r="G129" s="19"/>
+      <c r="H129" s="19"/>
+      <c r="I129" s="19"/>
+      <c r="J129" s="19"/>
+      <c r="K129" s="19"/>
+      <c r="L129" s="19"/>
+      <c r="M129" s="19"/>
+      <c r="N129" s="19"/>
+      <c r="O129" s="19"/>
+      <c r="P129" s="19"/>
+      <c r="Q129" s="19"/>
+      <c r="R129" s="19"/>
+      <c r="S129" s="19"/>
+      <c r="T129" s="5"/>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A130" s="4"/>
+      <c r="B130" s="19"/>
+      <c r="C130" s="19"/>
+      <c r="D130" s="19"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="19"/>
+      <c r="G130" s="19"/>
+      <c r="H130" s="19"/>
+      <c r="I130" s="19"/>
+      <c r="J130" s="19"/>
+      <c r="K130" s="19"/>
+      <c r="L130" s="19"/>
+      <c r="M130" s="19"/>
+      <c r="N130" s="19"/>
+      <c r="O130" s="19"/>
+      <c r="P130" s="19"/>
+      <c r="Q130" s="19"/>
+      <c r="R130" s="19"/>
+      <c r="S130" s="19"/>
+      <c r="T130" s="5"/>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A131" s="4"/>
+      <c r="B131" s="19"/>
+      <c r="C131" s="19"/>
+      <c r="D131" s="19"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="19"/>
+      <c r="G131" s="19"/>
+      <c r="H131" s="19"/>
+      <c r="I131" s="19"/>
+      <c r="J131" s="19"/>
+      <c r="K131" s="19"/>
+      <c r="L131" s="19"/>
+      <c r="M131" s="19"/>
+      <c r="N131" s="19"/>
+      <c r="O131" s="19"/>
+      <c r="P131" s="19"/>
+      <c r="Q131" s="19"/>
+      <c r="R131" s="19"/>
+      <c r="S131" s="19"/>
+      <c r="T131" s="5"/>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A132" s="4"/>
+      <c r="B132" s="19"/>
+      <c r="C132" s="19"/>
+      <c r="D132" s="19"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="19"/>
+      <c r="G132" s="19"/>
+      <c r="H132" s="19"/>
+      <c r="I132" s="19"/>
+      <c r="J132" s="19"/>
+      <c r="K132" s="19"/>
+      <c r="L132" s="19"/>
+      <c r="M132" s="19"/>
+      <c r="N132" s="19"/>
+      <c r="O132" s="19"/>
+      <c r="P132" s="19"/>
+      <c r="Q132" s="19"/>
+      <c r="R132" s="19"/>
+      <c r="S132" s="19"/>
+      <c r="T132" s="5"/>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A133" s="4"/>
+      <c r="B133" s="19"/>
+      <c r="C133" s="19"/>
+      <c r="D133" s="19"/>
+      <c r="E133" s="19"/>
+      <c r="F133" s="19"/>
+      <c r="G133" s="19"/>
+      <c r="H133" s="19"/>
+      <c r="I133" s="19"/>
+      <c r="J133" s="19"/>
+      <c r="K133" s="19"/>
+      <c r="L133" s="19"/>
+      <c r="M133" s="19"/>
+      <c r="N133" s="19"/>
+      <c r="O133" s="19"/>
+      <c r="P133" s="19"/>
+      <c r="Q133" s="19"/>
+      <c r="R133" s="19"/>
+      <c r="S133" s="19"/>
+      <c r="T133" s="5"/>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A134" s="4"/>
+      <c r="B134" s="19"/>
+      <c r="C134" s="19"/>
+      <c r="D134" s="19"/>
+      <c r="E134" s="19"/>
+      <c r="F134" s="19"/>
+      <c r="G134" s="19"/>
+      <c r="H134" s="19"/>
+      <c r="I134" s="19"/>
+      <c r="J134" s="19"/>
+      <c r="K134" s="19"/>
+      <c r="L134" s="19"/>
+      <c r="M134" s="19"/>
+      <c r="N134" s="19"/>
+      <c r="O134" s="19"/>
+      <c r="P134" s="19"/>
+      <c r="Q134" s="19"/>
+      <c r="R134" s="19"/>
+      <c r="S134" s="19"/>
+      <c r="T134" s="5"/>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A135" s="4"/>
+      <c r="B135" s="19"/>
+      <c r="C135" s="19"/>
+      <c r="D135" s="19"/>
+      <c r="E135" s="19"/>
+      <c r="F135" s="19"/>
+      <c r="G135" s="19"/>
+      <c r="H135" s="19"/>
+      <c r="I135" s="19"/>
+      <c r="J135" s="19"/>
+      <c r="K135" s="19"/>
+      <c r="L135" s="19"/>
+      <c r="M135" s="19"/>
+      <c r="N135" s="19"/>
+      <c r="O135" s="19"/>
+      <c r="P135" s="19"/>
+      <c r="Q135" s="19"/>
+      <c r="R135" s="19"/>
+      <c r="S135" s="19"/>
+      <c r="T135" s="5"/>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A136" s="4"/>
+      <c r="B136" s="19"/>
+      <c r="C136" s="19"/>
+      <c r="D136" s="19"/>
+      <c r="E136" s="19"/>
+      <c r="F136" s="19"/>
+      <c r="G136" s="19"/>
+      <c r="H136" s="19"/>
+      <c r="I136" s="19"/>
+      <c r="J136" s="19"/>
+      <c r="K136" s="19"/>
+      <c r="L136" s="19"/>
+      <c r="M136" s="19"/>
+      <c r="N136" s="19"/>
+      <c r="O136" s="19"/>
+      <c r="P136" s="19"/>
+      <c r="Q136" s="19"/>
+      <c r="R136" s="19"/>
+      <c r="S136" s="19"/>
+      <c r="T136" s="5"/>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A137" s="4"/>
+      <c r="B137" s="19"/>
+      <c r="C137" s="19"/>
+      <c r="D137" s="19"/>
+      <c r="E137" s="19"/>
+      <c r="F137" s="19"/>
+      <c r="G137" s="19"/>
+      <c r="H137" s="19"/>
+      <c r="I137" s="19"/>
+      <c r="J137" s="19"/>
+      <c r="K137" s="19"/>
+      <c r="L137" s="19"/>
+      <c r="M137" s="19"/>
+      <c r="N137" s="19"/>
+      <c r="O137" s="19"/>
+      <c r="P137" s="19"/>
+      <c r="Q137" s="19"/>
+      <c r="R137" s="19"/>
+      <c r="S137" s="19"/>
+      <c r="T137" s="5"/>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A138" s="4"/>
+      <c r="B138" s="19"/>
+      <c r="C138" s="19"/>
+      <c r="D138" s="19"/>
+      <c r="E138" s="19"/>
+      <c r="F138" s="19"/>
+      <c r="G138" s="19"/>
+      <c r="H138" s="19"/>
+      <c r="I138" s="19"/>
+      <c r="J138" s="19"/>
+      <c r="K138" s="19"/>
+      <c r="L138" s="19"/>
+      <c r="M138" s="19"/>
+      <c r="N138" s="19"/>
+      <c r="O138" s="19"/>
+      <c r="P138" s="19"/>
+      <c r="Q138" s="19"/>
+      <c r="R138" s="19"/>
+      <c r="S138" s="19"/>
+      <c r="T138" s="5"/>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A139" s="4"/>
+      <c r="B139" s="19"/>
+      <c r="C139" s="19"/>
+      <c r="D139" s="19"/>
+      <c r="E139" s="19"/>
+      <c r="F139" s="19"/>
+      <c r="G139" s="19"/>
+      <c r="H139" s="19"/>
+      <c r="I139" s="19"/>
+      <c r="J139" s="19"/>
+      <c r="K139" s="19"/>
+      <c r="L139" s="19"/>
+      <c r="M139" s="19"/>
+      <c r="N139" s="19"/>
+      <c r="O139" s="19"/>
+      <c r="P139" s="19"/>
+      <c r="Q139" s="19"/>
+      <c r="R139" s="19"/>
+      <c r="S139" s="19"/>
+      <c r="T139" s="5"/>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A140" s="4"/>
+      <c r="B140" s="19"/>
+      <c r="C140" s="19"/>
+      <c r="D140" s="19"/>
+      <c r="E140" s="19"/>
+      <c r="F140" s="19"/>
+      <c r="G140" s="19"/>
+      <c r="H140" s="19"/>
+      <c r="I140" s="19"/>
+      <c r="J140" s="19"/>
+      <c r="K140" s="19"/>
+      <c r="L140" s="19"/>
+      <c r="M140" s="19"/>
+      <c r="N140" s="19"/>
+      <c r="O140" s="19"/>
+      <c r="P140" s="19"/>
+      <c r="Q140" s="19"/>
+      <c r="R140" s="19"/>
+      <c r="S140" s="19"/>
+      <c r="T140" s="5"/>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A141" s="4"/>
+      <c r="B141" s="19"/>
+      <c r="C141" s="19"/>
+      <c r="D141" s="19"/>
+      <c r="E141" s="19"/>
+      <c r="F141" s="19"/>
+      <c r="G141" s="19"/>
+      <c r="H141" s="19"/>
+      <c r="I141" s="19"/>
+      <c r="J141" s="19"/>
+      <c r="K141" s="19"/>
+      <c r="L141" s="19"/>
+      <c r="M141" s="19"/>
+      <c r="N141" s="19"/>
+      <c r="O141" s="19"/>
+      <c r="P141" s="19"/>
+      <c r="Q141" s="19"/>
+      <c r="R141" s="19"/>
+      <c r="S141" s="19"/>
+      <c r="T141" s="5"/>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A142" s="6"/>
+      <c r="B142" s="7"/>
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="7"/>
+      <c r="G142" s="7"/>
+      <c r="H142" s="7"/>
+      <c r="I142" s="7"/>
+      <c r="J142" s="7"/>
+      <c r="K142" s="7"/>
+      <c r="L142" s="7"/>
+      <c r="M142" s="7"/>
+      <c r="N142" s="7"/>
+      <c r="O142" s="7"/>
+      <c r="P142" s="7"/>
+      <c r="Q142" s="7"/>
+      <c r="R142" s="7"/>
+      <c r="S142" s="7"/>
+      <c r="T142" s="8"/>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A145" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2"/>
+      <c r="K145" s="2"/>
+      <c r="L145" s="2"/>
+      <c r="M145" s="2"/>
+      <c r="N145" s="2"/>
+      <c r="O145" s="2"/>
+      <c r="P145" s="2"/>
+      <c r="Q145" s="2"/>
+      <c r="R145" s="3"/>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A146" s="4"/>
+      <c r="B146" s="19"/>
+      <c r="C146" s="19"/>
+      <c r="D146" s="19"/>
+      <c r="E146" s="19"/>
+      <c r="F146" s="19"/>
+      <c r="G146" s="19"/>
+      <c r="H146" s="19"/>
+      <c r="I146" s="19"/>
+      <c r="J146" s="19"/>
+      <c r="K146" s="19"/>
+      <c r="L146" s="19"/>
+      <c r="M146" s="19"/>
+      <c r="N146" s="19"/>
+      <c r="O146" s="19"/>
+      <c r="P146" s="19"/>
+      <c r="Q146" s="19"/>
+      <c r="R146" s="5"/>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A147" s="4"/>
+      <c r="B147" s="19"/>
+      <c r="C147" s="19"/>
+      <c r="D147" s="19"/>
+      <c r="E147" s="19"/>
+      <c r="F147" s="19"/>
+      <c r="G147" s="19"/>
+      <c r="H147" s="19"/>
+      <c r="I147" s="19"/>
+      <c r="J147" s="19"/>
+      <c r="K147" s="19"/>
+      <c r="L147" s="19"/>
+      <c r="M147" s="19"/>
+      <c r="N147" s="19"/>
+      <c r="O147" s="19"/>
+      <c r="P147" s="19"/>
+      <c r="Q147" s="19"/>
+      <c r="R147" s="5"/>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A148" s="4"/>
+      <c r="B148" s="19"/>
+      <c r="C148" s="19"/>
+      <c r="D148" s="19"/>
+      <c r="E148" s="19"/>
+      <c r="F148" s="19"/>
+      <c r="G148" s="19"/>
+      <c r="H148" s="19"/>
+      <c r="I148" s="19"/>
+      <c r="J148" s="19"/>
+      <c r="K148" s="19"/>
+      <c r="L148" s="19"/>
+      <c r="M148" s="19"/>
+      <c r="N148" s="19"/>
+      <c r="O148" s="19"/>
+      <c r="P148" s="19"/>
+      <c r="Q148" s="19"/>
+      <c r="R148" s="5"/>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A149" s="4"/>
+      <c r="B149" s="19"/>
+      <c r="C149" s="19"/>
+      <c r="D149" s="19"/>
+      <c r="E149" s="19"/>
+      <c r="F149" s="19"/>
+      <c r="G149" s="19"/>
+      <c r="H149" s="19"/>
+      <c r="I149" s="19"/>
+      <c r="J149" s="19"/>
+      <c r="K149" s="19"/>
+      <c r="L149" s="19"/>
+      <c r="M149" s="19"/>
+      <c r="N149" s="19"/>
+      <c r="O149" s="19"/>
+      <c r="P149" s="19"/>
+      <c r="Q149" s="19"/>
+      <c r="R149" s="5"/>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A150" s="4"/>
+      <c r="B150" s="19"/>
+      <c r="C150" s="19"/>
+      <c r="D150" s="19"/>
+      <c r="E150" s="19"/>
+      <c r="F150" s="19"/>
+      <c r="G150" s="19"/>
+      <c r="H150" s="19"/>
+      <c r="I150" s="19"/>
+      <c r="J150" s="19"/>
+      <c r="K150" s="19"/>
+      <c r="L150" s="19"/>
+      <c r="M150" s="19"/>
+      <c r="N150" s="19"/>
+      <c r="O150" s="19"/>
+      <c r="P150" s="19"/>
+      <c r="Q150" s="19"/>
+      <c r="R150" s="5"/>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A151" s="4"/>
+      <c r="B151" s="19"/>
+      <c r="C151" s="19"/>
+      <c r="D151" s="19"/>
+      <c r="E151" s="19"/>
+      <c r="F151" s="19"/>
+      <c r="G151" s="19"/>
+      <c r="H151" s="19"/>
+      <c r="I151" s="19"/>
+      <c r="J151" s="19"/>
+      <c r="K151" s="19"/>
+      <c r="L151" s="19"/>
+      <c r="M151" s="19"/>
+      <c r="N151" s="19"/>
+      <c r="O151" s="19"/>
+      <c r="P151" s="19"/>
+      <c r="Q151" s="19"/>
+      <c r="R151" s="5"/>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A152" s="4"/>
+      <c r="B152" s="19"/>
+      <c r="C152" s="19"/>
+      <c r="D152" s="19"/>
+      <c r="E152" s="19"/>
+      <c r="F152" s="19"/>
+      <c r="G152" s="19"/>
+      <c r="H152" s="19"/>
+      <c r="I152" s="19"/>
+      <c r="J152" s="19"/>
+      <c r="K152" s="19"/>
+      <c r="L152" s="19"/>
+      <c r="M152" s="19"/>
+      <c r="N152" s="19"/>
+      <c r="O152" s="19"/>
+      <c r="P152" s="19"/>
+      <c r="Q152" s="19"/>
+      <c r="R152" s="5"/>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A153" s="4"/>
+      <c r="B153" s="19"/>
+      <c r="C153" s="19"/>
+      <c r="D153" s="19"/>
+      <c r="E153" s="19"/>
+      <c r="F153" s="19"/>
+      <c r="G153" s="19"/>
+      <c r="H153" s="19"/>
+      <c r="I153" s="19"/>
+      <c r="J153" s="19"/>
+      <c r="K153" s="19"/>
+      <c r="L153" s="19"/>
+      <c r="M153" s="19"/>
+      <c r="N153" s="19"/>
+      <c r="O153" s="19"/>
+      <c r="P153" s="19"/>
+      <c r="Q153" s="19"/>
+      <c r="R153" s="5"/>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A154" s="4"/>
+      <c r="B154" s="19"/>
+      <c r="C154" s="19"/>
+      <c r="D154" s="19"/>
+      <c r="E154" s="19"/>
+      <c r="F154" s="19"/>
+      <c r="G154" s="19"/>
+      <c r="H154" s="19"/>
+      <c r="I154" s="19"/>
+      <c r="J154" s="19"/>
+      <c r="K154" s="19"/>
+      <c r="L154" s="19"/>
+      <c r="M154" s="19"/>
+      <c r="N154" s="19"/>
+      <c r="O154" s="19"/>
+      <c r="P154" s="19"/>
+      <c r="Q154" s="19"/>
+      <c r="R154" s="5"/>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A155" s="4"/>
+      <c r="B155" s="19"/>
+      <c r="C155" s="19"/>
+      <c r="D155" s="19"/>
+      <c r="E155" s="19"/>
+      <c r="F155" s="19"/>
+      <c r="G155" s="19"/>
+      <c r="H155" s="19"/>
+      <c r="I155" s="19"/>
+      <c r="J155" s="19"/>
+      <c r="K155" s="19"/>
+      <c r="L155" s="19"/>
+      <c r="M155" s="19"/>
+      <c r="N155" s="19"/>
+      <c r="O155" s="19"/>
+      <c r="P155" s="19"/>
+      <c r="Q155" s="19"/>
+      <c r="R155" s="5"/>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A156" s="4"/>
+      <c r="B156" s="19"/>
+      <c r="C156" s="19"/>
+      <c r="D156" s="19"/>
+      <c r="E156" s="19"/>
+      <c r="F156" s="19"/>
+      <c r="G156" s="19"/>
+      <c r="H156" s="19"/>
+      <c r="I156" s="19"/>
+      <c r="J156" s="19"/>
+      <c r="K156" s="19"/>
+      <c r="L156" s="19"/>
+      <c r="M156" s="19"/>
+      <c r="N156" s="19"/>
+      <c r="O156" s="19"/>
+      <c r="P156" s="19"/>
+      <c r="Q156" s="19"/>
+      <c r="R156" s="5"/>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A157" s="4"/>
+      <c r="B157" s="19"/>
+      <c r="C157" s="19"/>
+      <c r="D157" s="19"/>
+      <c r="E157" s="19"/>
+      <c r="F157" s="19"/>
+      <c r="G157" s="19"/>
+      <c r="H157" s="19"/>
+      <c r="I157" s="19"/>
+      <c r="J157" s="19"/>
+      <c r="K157" s="19"/>
+      <c r="L157" s="19"/>
+      <c r="M157" s="19"/>
+      <c r="N157" s="19"/>
+      <c r="O157" s="19"/>
+      <c r="P157" s="19"/>
+      <c r="Q157" s="19"/>
+      <c r="R157" s="5"/>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A158" s="4"/>
+      <c r="B158" s="19"/>
+      <c r="C158" s="19"/>
+      <c r="D158" s="19"/>
+      <c r="E158" s="19"/>
+      <c r="F158" s="19"/>
+      <c r="G158" s="19"/>
+      <c r="H158" s="19"/>
+      <c r="I158" s="19"/>
+      <c r="J158" s="19"/>
+      <c r="K158" s="19"/>
+      <c r="L158" s="19"/>
+      <c r="M158" s="19"/>
+      <c r="N158" s="19"/>
+      <c r="O158" s="19"/>
+      <c r="P158" s="19"/>
+      <c r="Q158" s="19"/>
+      <c r="R158" s="5"/>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A159" s="4"/>
+      <c r="B159" s="19"/>
+      <c r="C159" s="19"/>
+      <c r="D159" s="19"/>
+      <c r="E159" s="19"/>
+      <c r="F159" s="19"/>
+      <c r="G159" s="19"/>
+      <c r="H159" s="19"/>
+      <c r="I159" s="19"/>
+      <c r="J159" s="19"/>
+      <c r="K159" s="19"/>
+      <c r="L159" s="19"/>
+      <c r="M159" s="19"/>
+      <c r="N159" s="19"/>
+      <c r="O159" s="19"/>
+      <c r="P159" s="19"/>
+      <c r="Q159" s="19"/>
+      <c r="R159" s="5"/>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A160" s="4"/>
+      <c r="B160" s="19"/>
+      <c r="C160" s="19"/>
+      <c r="D160" s="19"/>
+      <c r="E160" s="19"/>
+      <c r="F160" s="19"/>
+      <c r="G160" s="19"/>
+      <c r="H160" s="19"/>
+      <c r="I160" s="19"/>
+      <c r="J160" s="19"/>
+      <c r="K160" s="19"/>
+      <c r="L160" s="19"/>
+      <c r="M160" s="19"/>
+      <c r="N160" s="19"/>
+      <c r="O160" s="19"/>
+      <c r="P160" s="19"/>
+      <c r="Q160" s="19"/>
+      <c r="R160" s="5"/>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A161" s="4"/>
+      <c r="B161" s="19"/>
+      <c r="C161" s="19"/>
+      <c r="D161" s="19"/>
+      <c r="E161" s="19"/>
+      <c r="F161" s="19"/>
+      <c r="G161" s="19"/>
+      <c r="H161" s="19"/>
+      <c r="I161" s="19"/>
+      <c r="J161" s="19"/>
+      <c r="K161" s="19"/>
+      <c r="L161" s="19"/>
+      <c r="M161" s="19"/>
+      <c r="N161" s="19"/>
+      <c r="O161" s="19"/>
+      <c r="P161" s="19"/>
+      <c r="Q161" s="19"/>
+      <c r="R161" s="5"/>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A162" s="4"/>
+      <c r="B162" s="19"/>
+      <c r="C162" s="19"/>
+      <c r="D162" s="19"/>
+      <c r="E162" s="19"/>
+      <c r="F162" s="19"/>
+      <c r="G162" s="19"/>
+      <c r="H162" s="19"/>
+      <c r="I162" s="19"/>
+      <c r="J162" s="19"/>
+      <c r="K162" s="19"/>
+      <c r="L162" s="19"/>
+      <c r="M162" s="19"/>
+      <c r="N162" s="19"/>
+      <c r="O162" s="19"/>
+      <c r="P162" s="19"/>
+      <c r="Q162" s="19"/>
+      <c r="R162" s="5"/>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A163" s="4"/>
+      <c r="B163" s="19"/>
+      <c r="C163" s="19"/>
+      <c r="D163" s="19"/>
+      <c r="E163" s="19"/>
+      <c r="F163" s="19"/>
+      <c r="G163" s="19"/>
+      <c r="H163" s="19"/>
+      <c r="I163" s="19"/>
+      <c r="J163" s="19"/>
+      <c r="K163" s="19"/>
+      <c r="L163" s="19"/>
+      <c r="M163" s="19"/>
+      <c r="N163" s="19"/>
+      <c r="O163" s="19"/>
+      <c r="P163" s="19"/>
+      <c r="Q163" s="19"/>
+      <c r="R163" s="5"/>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A164" s="4"/>
+      <c r="B164" s="19"/>
+      <c r="C164" s="19"/>
+      <c r="D164" s="19"/>
+      <c r="E164" s="19"/>
+      <c r="F164" s="19"/>
+      <c r="G164" s="19"/>
+      <c r="H164" s="19"/>
+      <c r="I164" s="19"/>
+      <c r="J164" s="19"/>
+      <c r="K164" s="19"/>
+      <c r="L164" s="19"/>
+      <c r="M164" s="19"/>
+      <c r="N164" s="19"/>
+      <c r="O164" s="19"/>
+      <c r="P164" s="19"/>
+      <c r="Q164" s="19"/>
+      <c r="R164" s="5"/>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A165" s="4"/>
+      <c r="B165" s="19"/>
+      <c r="C165" s="19"/>
+      <c r="D165" s="19"/>
+      <c r="E165" s="19"/>
+      <c r="F165" s="19"/>
+      <c r="G165" s="19"/>
+      <c r="H165" s="19"/>
+      <c r="I165" s="19"/>
+      <c r="J165" s="19"/>
+      <c r="K165" s="19"/>
+      <c r="L165" s="19"/>
+      <c r="M165" s="19"/>
+      <c r="N165" s="19"/>
+      <c r="O165" s="19"/>
+      <c r="P165" s="19"/>
+      <c r="Q165" s="19"/>
+      <c r="R165" s="5"/>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A166" s="4"/>
+      <c r="B166" s="19"/>
+      <c r="C166" s="19"/>
+      <c r="D166" s="19"/>
+      <c r="E166" s="19"/>
+      <c r="F166" s="19"/>
+      <c r="G166" s="19"/>
+      <c r="H166" s="19"/>
+      <c r="I166" s="19"/>
+      <c r="J166" s="19"/>
+      <c r="K166" s="19"/>
+      <c r="L166" s="19"/>
+      <c r="M166" s="19"/>
+      <c r="N166" s="19"/>
+      <c r="O166" s="19"/>
+      <c r="P166" s="19"/>
+      <c r="Q166" s="19"/>
+      <c r="R166" s="5"/>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A167" s="4"/>
+      <c r="B167" s="19"/>
+      <c r="C167" s="19"/>
+      <c r="D167" s="19"/>
+      <c r="E167" s="19"/>
+      <c r="F167" s="19"/>
+      <c r="G167" s="19"/>
+      <c r="H167" s="19"/>
+      <c r="I167" s="19"/>
+      <c r="J167" s="19"/>
+      <c r="K167" s="19"/>
+      <c r="L167" s="19"/>
+      <c r="M167" s="19"/>
+      <c r="N167" s="19"/>
+      <c r="O167" s="19"/>
+      <c r="P167" s="19"/>
+      <c r="Q167" s="19"/>
+      <c r="R167" s="5"/>
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A168" s="4"/>
+      <c r="B168" s="19"/>
+      <c r="C168" s="19"/>
+      <c r="D168" s="19"/>
+      <c r="E168" s="19"/>
+      <c r="F168" s="19"/>
+      <c r="G168" s="19"/>
+      <c r="H168" s="19"/>
+      <c r="I168" s="19"/>
+      <c r="J168" s="19"/>
+      <c r="K168" s="19"/>
+      <c r="L168" s="19"/>
+      <c r="M168" s="19"/>
+      <c r="N168" s="19"/>
+      <c r="O168" s="19"/>
+      <c r="P168" s="19"/>
+      <c r="Q168" s="19"/>
+      <c r="R168" s="5"/>
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A169" s="4"/>
+      <c r="B169" s="19"/>
+      <c r="C169" s="19"/>
+      <c r="D169" s="19"/>
+      <c r="E169" s="19"/>
+      <c r="F169" s="19"/>
+      <c r="G169" s="19"/>
+      <c r="H169" s="19"/>
+      <c r="I169" s="19"/>
+      <c r="J169" s="19"/>
+      <c r="K169" s="19"/>
+      <c r="L169" s="19"/>
+      <c r="M169" s="19"/>
+      <c r="N169" s="19"/>
+      <c r="O169" s="19"/>
+      <c r="P169" s="19"/>
+      <c r="Q169" s="19"/>
+      <c r="R169" s="5"/>
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A170" s="6"/>
+      <c r="B170" s="7"/>
+      <c r="C170" s="7"/>
+      <c r="D170" s="7"/>
+      <c r="E170" s="7"/>
+      <c r="F170" s="7"/>
+      <c r="G170" s="7"/>
+      <c r="H170" s="7"/>
+      <c r="I170" s="7"/>
+      <c r="J170" s="7"/>
+      <c r="K170" s="7"/>
+      <c r="L170" s="7"/>
+      <c r="M170" s="7"/>
+      <c r="N170" s="7"/>
+      <c r="O170" s="7"/>
+      <c r="P170" s="7"/>
+      <c r="Q170" s="7"/>
+      <c r="R170" s="8"/>
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A173" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
+      <c r="H173" s="2"/>
+      <c r="I173" s="2"/>
+      <c r="J173" s="2"/>
+      <c r="K173" s="2"/>
+      <c r="L173" s="2"/>
+      <c r="M173" s="2"/>
+      <c r="N173" s="2"/>
+      <c r="O173" s="2"/>
+      <c r="P173" s="2"/>
+      <c r="Q173" s="2"/>
+      <c r="R173" s="3"/>
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A174" s="4"/>
+      <c r="B174" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C174" s="19"/>
+      <c r="D174" s="19"/>
+      <c r="E174" s="19"/>
+      <c r="F174" s="19"/>
+      <c r="G174" s="19"/>
+      <c r="H174" s="19"/>
+      <c r="I174" s="19"/>
+      <c r="J174" s="19"/>
+      <c r="K174" s="19"/>
+      <c r="L174" s="19"/>
+      <c r="M174" s="19"/>
+      <c r="N174" s="19"/>
+      <c r="O174" s="19"/>
+      <c r="P174" s="19"/>
+      <c r="Q174" s="19"/>
+      <c r="R174" s="5"/>
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A175" s="4"/>
+      <c r="B175" s="19"/>
+      <c r="C175" s="19"/>
+      <c r="D175" s="19"/>
+      <c r="E175" s="19"/>
+      <c r="F175" s="19"/>
+      <c r="G175" s="19"/>
+      <c r="H175" s="19"/>
+      <c r="I175" s="19"/>
+      <c r="J175" s="19"/>
+      <c r="K175" s="19"/>
+      <c r="L175" s="19"/>
+      <c r="M175" s="19"/>
+      <c r="N175" s="19"/>
+      <c r="O175" s="19"/>
+      <c r="P175" s="19"/>
+      <c r="Q175" s="19"/>
+      <c r="R175" s="5"/>
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A176" s="4"/>
+      <c r="B176" s="19"/>
+      <c r="C176" s="19"/>
+      <c r="D176" s="19"/>
+      <c r="E176" s="19"/>
+      <c r="F176" s="19"/>
+      <c r="G176" s="19"/>
+      <c r="H176" s="19"/>
+      <c r="I176" s="19"/>
+      <c r="J176" s="19"/>
+      <c r="K176" s="19"/>
+      <c r="L176" s="19"/>
+      <c r="M176" s="19"/>
+      <c r="N176" s="19"/>
+      <c r="O176" s="19"/>
+      <c r="P176" s="19"/>
+      <c r="Q176" s="19"/>
+      <c r="R176" s="5"/>
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A177" s="4"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="19"/>
+      <c r="D177" s="19"/>
+      <c r="E177" s="19"/>
+      <c r="F177" s="19"/>
+      <c r="G177" s="19"/>
+      <c r="H177" s="19"/>
+      <c r="I177" s="19"/>
+      <c r="J177" s="19"/>
+      <c r="K177" s="19"/>
+      <c r="L177" s="19"/>
+      <c r="M177" s="19"/>
+      <c r="N177" s="19"/>
+      <c r="O177" s="19"/>
+      <c r="P177" s="19"/>
+      <c r="Q177" s="19"/>
+      <c r="R177" s="5"/>
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A178" s="4"/>
+      <c r="B178" s="19"/>
+      <c r="C178" s="19"/>
+      <c r="D178" s="19"/>
+      <c r="E178" s="19"/>
+      <c r="F178" s="19"/>
+      <c r="G178" s="19"/>
+      <c r="H178" s="19"/>
+      <c r="I178" s="19"/>
+      <c r="J178" s="19"/>
+      <c r="K178" s="19"/>
+      <c r="L178" s="19"/>
+      <c r="M178" s="19"/>
+      <c r="N178" s="19"/>
+      <c r="O178" s="19"/>
+      <c r="P178" s="19"/>
+      <c r="Q178" s="19"/>
+      <c r="R178" s="5"/>
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A179" s="4"/>
+      <c r="B179" s="19"/>
+      <c r="C179" s="19"/>
+      <c r="D179" s="19"/>
+      <c r="E179" s="19"/>
+      <c r="F179" s="19"/>
+      <c r="G179" s="19"/>
+      <c r="H179" s="19"/>
+      <c r="I179" s="19"/>
+      <c r="J179" s="19"/>
+      <c r="K179" s="19"/>
+      <c r="L179" s="19"/>
+      <c r="M179" s="19"/>
+      <c r="N179" s="19"/>
+      <c r="O179" s="19"/>
+      <c r="P179" s="19"/>
+      <c r="Q179" s="19"/>
+      <c r="R179" s="5"/>
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A180" s="4"/>
+      <c r="B180" s="19"/>
+      <c r="C180" s="19"/>
+      <c r="D180" s="19"/>
+      <c r="E180" s="19"/>
+      <c r="F180" s="19"/>
+      <c r="G180" s="19"/>
+      <c r="H180" s="19"/>
+      <c r="I180" s="19"/>
+      <c r="J180" s="19"/>
+      <c r="K180" s="19"/>
+      <c r="L180" s="19"/>
+      <c r="M180" s="19"/>
+      <c r="N180" s="19"/>
+      <c r="O180" s="19"/>
+      <c r="P180" s="19"/>
+      <c r="Q180" s="19"/>
+      <c r="R180" s="5"/>
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A181" s="4"/>
+      <c r="B181" s="19"/>
+      <c r="C181" s="19"/>
+      <c r="D181" s="19"/>
+      <c r="E181" s="19"/>
+      <c r="F181" s="19"/>
+      <c r="G181" s="19"/>
+      <c r="H181" s="19"/>
+      <c r="I181" s="19"/>
+      <c r="J181" s="19"/>
+      <c r="K181" s="19"/>
+      <c r="L181" s="19"/>
+      <c r="M181" s="19"/>
+      <c r="N181" s="19"/>
+      <c r="O181" s="19"/>
+      <c r="P181" s="19"/>
+      <c r="Q181" s="19"/>
+      <c r="R181" s="5"/>
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A182" s="4"/>
+      <c r="B182" s="19"/>
+      <c r="C182" s="19"/>
+      <c r="D182" s="19"/>
+      <c r="E182" s="19"/>
+      <c r="F182" s="19"/>
+      <c r="G182" s="19"/>
+      <c r="H182" s="19"/>
+      <c r="I182" s="19"/>
+      <c r="J182" s="19"/>
+      <c r="K182" s="19"/>
+      <c r="L182" s="19"/>
+      <c r="M182" s="19"/>
+      <c r="N182" s="19"/>
+      <c r="O182" s="19"/>
+      <c r="P182" s="19"/>
+      <c r="Q182" s="19"/>
+      <c r="R182" s="5"/>
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A183" s="4"/>
+      <c r="B183" s="19"/>
+      <c r="C183" s="19"/>
+      <c r="D183" s="19"/>
+      <c r="E183" s="19"/>
+      <c r="F183" s="19"/>
+      <c r="G183" s="19"/>
+      <c r="H183" s="19"/>
+      <c r="I183" s="19"/>
+      <c r="J183" s="19"/>
+      <c r="K183" s="19"/>
+      <c r="L183" s="19"/>
+      <c r="M183" s="19"/>
+      <c r="N183" s="19"/>
+      <c r="O183" s="19"/>
+      <c r="P183" s="19"/>
+      <c r="Q183" s="19"/>
+      <c r="R183" s="5"/>
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A184" s="4"/>
+      <c r="B184" s="19"/>
+      <c r="C184" s="19"/>
+      <c r="D184" s="19"/>
+      <c r="E184" s="19"/>
+      <c r="F184" s="19"/>
+      <c r="G184" s="19"/>
+      <c r="H184" s="19"/>
+      <c r="I184" s="19"/>
+      <c r="J184" s="19"/>
+      <c r="K184" s="19"/>
+      <c r="L184" s="19"/>
+      <c r="M184" s="19"/>
+      <c r="N184" s="19"/>
+      <c r="O184" s="19"/>
+      <c r="P184" s="19"/>
+      <c r="Q184" s="19"/>
+      <c r="R184" s="5"/>
+    </row>
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A185" s="4"/>
+      <c r="B185" s="19"/>
+      <c r="C185" s="19"/>
+      <c r="D185" s="19"/>
+      <c r="E185" s="19"/>
+      <c r="F185" s="19"/>
+      <c r="G185" s="19"/>
+      <c r="H185" s="19"/>
+      <c r="I185" s="19"/>
+      <c r="J185" s="19"/>
+      <c r="K185" s="19"/>
+      <c r="L185" s="19"/>
+      <c r="M185" s="19"/>
+      <c r="N185" s="19"/>
+      <c r="O185" s="19"/>
+      <c r="P185" s="19"/>
+      <c r="Q185" s="19"/>
+      <c r="R185" s="5"/>
+    </row>
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A186" s="4"/>
+      <c r="B186" s="19"/>
+      <c r="C186" s="19"/>
+      <c r="D186" s="19"/>
+      <c r="E186" s="19"/>
+      <c r="F186" s="19"/>
+      <c r="G186" s="19"/>
+      <c r="H186" s="19"/>
+      <c r="I186" s="19"/>
+      <c r="J186" s="19"/>
+      <c r="K186" s="19"/>
+      <c r="L186" s="19"/>
+      <c r="M186" s="19"/>
+      <c r="N186" s="19"/>
+      <c r="O186" s="19"/>
+      <c r="P186" s="19"/>
+      <c r="Q186" s="19"/>
+      <c r="R186" s="5"/>
+    </row>
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A187" s="4"/>
+      <c r="B187" s="19"/>
+      <c r="C187" s="19"/>
+      <c r="D187" s="19"/>
+      <c r="E187" s="19"/>
+      <c r="F187" s="19"/>
+      <c r="G187" s="19"/>
+      <c r="H187" s="19"/>
+      <c r="I187" s="19"/>
+      <c r="J187" s="19"/>
+      <c r="K187" s="19"/>
+      <c r="L187" s="19"/>
+      <c r="M187" s="19"/>
+      <c r="N187" s="19"/>
+      <c r="O187" s="19"/>
+      <c r="P187" s="19"/>
+      <c r="Q187" s="19"/>
+      <c r="R187" s="5"/>
+    </row>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A188" s="4"/>
+      <c r="B188" s="19"/>
+      <c r="C188" s="19"/>
+      <c r="D188" s="19"/>
+      <c r="E188" s="19"/>
+      <c r="F188" s="19"/>
+      <c r="G188" s="19"/>
+      <c r="H188" s="19"/>
+      <c r="I188" s="19"/>
+      <c r="J188" s="19"/>
+      <c r="K188" s="19"/>
+      <c r="L188" s="19"/>
+      <c r="M188" s="19"/>
+      <c r="N188" s="19"/>
+      <c r="O188" s="19"/>
+      <c r="P188" s="19"/>
+      <c r="Q188" s="19"/>
+      <c r="R188" s="5"/>
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A189" s="4"/>
+      <c r="B189" s="19"/>
+      <c r="C189" s="19"/>
+      <c r="D189" s="19"/>
+      <c r="E189" s="19"/>
+      <c r="F189" s="19"/>
+      <c r="G189" s="19"/>
+      <c r="H189" s="19"/>
+      <c r="I189" s="19"/>
+      <c r="J189" s="19"/>
+      <c r="K189" s="19"/>
+      <c r="L189" s="19"/>
+      <c r="M189" s="19"/>
+      <c r="N189" s="19"/>
+      <c r="O189" s="19"/>
+      <c r="P189" s="19"/>
+      <c r="Q189" s="19"/>
+      <c r="R189" s="5"/>
+    </row>
+    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A190" s="4"/>
+      <c r="B190" s="19"/>
+      <c r="C190" s="19"/>
+      <c r="D190" s="19"/>
+      <c r="E190" s="19"/>
+      <c r="F190" s="19"/>
+      <c r="G190" s="19"/>
+      <c r="H190" s="19"/>
+      <c r="I190" s="19"/>
+      <c r="J190" s="19"/>
+      <c r="K190" s="19"/>
+      <c r="L190" s="19"/>
+      <c r="M190" s="19"/>
+      <c r="N190" s="19"/>
+      <c r="O190" s="19"/>
+      <c r="P190" s="19"/>
+      <c r="Q190" s="19"/>
+      <c r="R190" s="5"/>
+    </row>
+    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A191" s="4"/>
+      <c r="B191" s="19"/>
+      <c r="C191" s="19"/>
+      <c r="D191" s="19"/>
+      <c r="E191" s="19"/>
+      <c r="F191" s="19"/>
+      <c r="G191" s="19"/>
+      <c r="H191" s="19"/>
+      <c r="I191" s="19"/>
+      <c r="J191" s="19"/>
+      <c r="K191" s="19"/>
+      <c r="L191" s="19"/>
+      <c r="M191" s="19"/>
+      <c r="N191" s="19"/>
+      <c r="O191" s="19"/>
+      <c r="P191" s="19"/>
+      <c r="Q191" s="19"/>
+      <c r="R191" s="5"/>
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A192" s="4"/>
+      <c r="B192" s="19"/>
+      <c r="C192" s="19"/>
+      <c r="D192" s="19"/>
+      <c r="E192" s="19"/>
+      <c r="F192" s="19"/>
+      <c r="G192" s="19"/>
+      <c r="H192" s="19"/>
+      <c r="I192" s="19"/>
+      <c r="J192" s="19"/>
+      <c r="K192" s="19"/>
+      <c r="L192" s="19"/>
+      <c r="M192" s="19"/>
+      <c r="N192" s="19"/>
+      <c r="O192" s="19"/>
+      <c r="P192" s="19"/>
+      <c r="Q192" s="19"/>
+      <c r="R192" s="5"/>
+    </row>
+    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A193" s="4"/>
+      <c r="B193" s="19"/>
+      <c r="C193" s="19"/>
+      <c r="D193" s="19"/>
+      <c r="E193" s="19"/>
+      <c r="F193" s="19"/>
+      <c r="G193" s="19"/>
+      <c r="H193" s="19"/>
+      <c r="I193" s="19"/>
+      <c r="J193" s="19"/>
+      <c r="K193" s="19"/>
+      <c r="L193" s="19"/>
+      <c r="M193" s="19"/>
+      <c r="N193" s="19"/>
+      <c r="O193" s="19"/>
+      <c r="P193" s="19"/>
+      <c r="Q193" s="19"/>
+      <c r="R193" s="5"/>
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A194" s="4"/>
+      <c r="B194" s="19"/>
+      <c r="C194" s="19"/>
+      <c r="D194" s="19"/>
+      <c r="E194" s="19"/>
+      <c r="F194" s="19"/>
+      <c r="G194" s="19"/>
+      <c r="H194" s="19"/>
+      <c r="I194" s="19"/>
+      <c r="J194" s="19"/>
+      <c r="K194" s="19"/>
+      <c r="L194" s="19"/>
+      <c r="M194" s="19"/>
+      <c r="N194" s="19"/>
+      <c r="O194" s="19"/>
+      <c r="P194" s="19"/>
+      <c r="Q194" s="19"/>
+      <c r="R194" s="5"/>
+    </row>
+    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A195" s="4"/>
+      <c r="B195" s="19"/>
+      <c r="C195" s="19"/>
+      <c r="D195" s="19"/>
+      <c r="E195" s="19"/>
+      <c r="F195" s="19"/>
+      <c r="G195" s="19"/>
+      <c r="H195" s="19"/>
+      <c r="I195" s="19"/>
+      <c r="J195" s="19"/>
+      <c r="K195" s="19"/>
+      <c r="L195" s="19"/>
+      <c r="M195" s="19"/>
+      <c r="N195" s="19"/>
+      <c r="O195" s="19"/>
+      <c r="P195" s="19"/>
+      <c r="Q195" s="19"/>
+      <c r="R195" s="5"/>
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A196" s="4"/>
+      <c r="B196" s="19"/>
+      <c r="C196" s="19"/>
+      <c r="D196" s="19"/>
+      <c r="E196" s="19"/>
+      <c r="F196" s="19"/>
+      <c r="G196" s="19"/>
+      <c r="H196" s="19"/>
+      <c r="I196" s="19"/>
+      <c r="J196" s="19"/>
+      <c r="K196" s="19"/>
+      <c r="L196" s="19"/>
+      <c r="M196" s="19"/>
+      <c r="N196" s="19"/>
+      <c r="O196" s="19"/>
+      <c r="P196" s="19"/>
+      <c r="Q196" s="19"/>
+      <c r="R196" s="5"/>
+    </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A197" s="4"/>
+      <c r="B197" s="19"/>
+      <c r="C197" s="19"/>
+      <c r="D197" s="19"/>
+      <c r="E197" s="19"/>
+      <c r="F197" s="19"/>
+      <c r="G197" s="19"/>
+      <c r="H197" s="19"/>
+      <c r="I197" s="19"/>
+      <c r="J197" s="19"/>
+      <c r="K197" s="19"/>
+      <c r="L197" s="19"/>
+      <c r="M197" s="19"/>
+      <c r="N197" s="19"/>
+      <c r="O197" s="19"/>
+      <c r="P197" s="19"/>
+      <c r="Q197" s="19"/>
+      <c r="R197" s="5"/>
+    </row>
+    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A198" s="4"/>
+      <c r="B198" s="19"/>
+      <c r="C198" s="19"/>
+      <c r="D198" s="19"/>
+      <c r="E198" s="19"/>
+      <c r="F198" s="19"/>
+      <c r="G198" s="19"/>
+      <c r="H198" s="19"/>
+      <c r="I198" s="19"/>
+      <c r="J198" s="19"/>
+      <c r="K198" s="19"/>
+      <c r="L198" s="19"/>
+      <c r="M198" s="19"/>
+      <c r="N198" s="19"/>
+      <c r="O198" s="19"/>
+      <c r="P198" s="19"/>
+      <c r="Q198" s="19"/>
+      <c r="R198" s="5"/>
+    </row>
+    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A199" s="6"/>
+      <c r="B199" s="7"/>
+      <c r="C199" s="7"/>
+      <c r="D199" s="7"/>
+      <c r="E199" s="7"/>
+      <c r="F199" s="7"/>
+      <c r="G199" s="7"/>
+      <c r="H199" s="7"/>
+      <c r="I199" s="7"/>
+      <c r="J199" s="7"/>
+      <c r="K199" s="7"/>
+      <c r="L199" s="7"/>
+      <c r="M199" s="7"/>
+      <c r="N199" s="7"/>
+      <c r="O199" s="7"/>
+      <c r="P199" s="7"/>
+      <c r="Q199" s="7"/>
+      <c r="R199" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/3.REST-API.xlsx
+++ b/me/3.REST-API.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\salesforce-integration-with-external-systems\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249DFFB7-07AE-4D11-9D57-CBC5BDE30490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD79A3F-5F05-4025-BE66-94D0A1D03F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use Postman to call a REST API" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Execute a SOQL Query" sheetId="4" r:id="rId4"/>
     <sheet name="Create a record" sheetId="5" r:id="rId5"/>
     <sheet name="Creating a Custom REST API" sheetId="6" r:id="rId6"/>
+    <sheet name="Create Nested Records" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="150">
   <si>
     <t>https://www.postman.com/salesforce-developers/workspace/salesforce-developers/request/12721794-dadc3f1a-71b3-4431-a958-fa00c4731b6f</t>
   </si>
@@ -429,6 +430,147 @@
       </rPr>
       <t>/a0A5g000006OQuHEAW</t>
     </r>
+  </si>
+  <si>
+    <t>POST: https://training-quang-dev-ed.develop.my.salesforce.com/services/data/v55.0/composite/tree/Account/</t>
+  </si>
+  <si>
+    <t>Content-Type</t>
+  </si>
+  <si>
+    <t>application/json</t>
+  </si>
+  <si>
+    <t>"records" :[{</t>
+  </si>
+  <si>
+    <t>    "attributes" : {"type" : "Account", "referenceId" : "ref1"},</t>
+  </si>
+  <si>
+    <t>    "name" : "SampleAccount1",</t>
+  </si>
+  <si>
+    <t>    "phone" : "1234567890",</t>
+  </si>
+  <si>
+    <t>    "website" : "www.salesforce.com",</t>
+  </si>
+  <si>
+    <t>    "numberOfEmployees" : "100",</t>
+  </si>
+  <si>
+    <t>    "industry" : "Banking",</t>
+  </si>
+  <si>
+    <t>    "Contacts" : {</t>
+  </si>
+  <si>
+    <t>      "records" : [{</t>
+  </si>
+  <si>
+    <t>         "attributes" : {"type" : "Contact", "referenceId" : "ref2"},</t>
+  </si>
+  <si>
+    <t>         "lastname" : "Smith",</t>
+  </si>
+  <si>
+    <t>         "Title" : "President",</t>
+  </si>
+  <si>
+    <t>         "email" : "sample@salesforce.com"</t>
+  </si>
+  <si>
+    <t>         },{</t>
+  </si>
+  <si>
+    <t>         "attributes" : {"type" : "Contact", "referenceId" : "ref3"},</t>
+  </si>
+  <si>
+    <t>         "lastname" : "Evans",</t>
+  </si>
+  <si>
+    <t>         "title" : "Vice President",</t>
+  </si>
+  <si>
+    <t>         }]</t>
+  </si>
+  <si>
+    <t>      }</t>
+  </si>
+  <si>
+    <t>    },{</t>
+  </si>
+  <si>
+    <t>    "attributes" : {"type" : "Account", "referenceId" : "ref4"},</t>
+  </si>
+  <si>
+    <t>    "name" : "SampleAccount2",</t>
+  </si>
+  <si>
+    <t>    "numberOfEmployees" : "52000",</t>
+  </si>
+  <si>
+    <t>    "childAccounts" : {</t>
+  </si>
+  <si>
+    <t>        "attributes" : {"type" : "Account", "referenceId" : "ref5"},</t>
+  </si>
+  <si>
+    <t>        "name" : "SampleChildAccount1",</t>
+  </si>
+  <si>
+    <t>        "phone" : "1234567890",</t>
+  </si>
+  <si>
+    <t>        "website" : "www.salesforce.com",</t>
+  </si>
+  <si>
+    <t>        "numberOfEmployees" : "100",</t>
+  </si>
+  <si>
+    <t>        "industry" : "Banking"</t>
+  </si>
+  <si>
+    <t>        }]</t>
+  </si>
+  <si>
+    <t>      },</t>
+  </si>
+  <si>
+    <t>        "attributes" : {"type" : "Contact", "referenceId" : "ref6"},</t>
+  </si>
+  <si>
+    <t>        "lastname" : "Jones",</t>
+  </si>
+  <si>
+    <t>        "title" : "President",</t>
+  </si>
+  <si>
+    <t>        "email" : "sample@salesforce.com"</t>
+  </si>
+  <si>
+    <t>  }]</t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>Check browser</t>
+  </si>
+  <si>
+    <t>SampleChildAccount1</t>
+  </si>
+  <si>
+    <t>SampleAccount2 Account</t>
+  </si>
+  <si>
+    <t>Smith, Evans Contact</t>
+  </si>
+  <si>
+    <t>Jones Contact</t>
   </si>
 </sst>
 </file>
@@ -480,7 +622,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -568,12 +710,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -592,9 +771,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3299,6 +3481,416 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>332202</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104529</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A673D378-049D-AA3E-41CB-86A560010B6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="609600"/>
+          <a:ext cx="9380952" cy="1971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>456014</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>37867</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4239FF67-D4EA-2D94-385E-D64280BD85D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="3505200"/>
+          <a:ext cx="9485714" cy="1866667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>313150</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>85064</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B58F60C-8306-09C8-D9A3-ED9E5B0A709F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="15373350"/>
+          <a:ext cx="9400000" cy="5285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>465538</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>132651</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5C45CC8-E736-1043-EF29-CFBFBEDA51C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="21402675"/>
+          <a:ext cx="9495238" cy="5590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>340178</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>94451</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C895254-ABBB-AD1E-745B-FA12F99A198E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="707571" y="27898726"/>
+          <a:ext cx="10654393" cy="5342725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>176893</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D56C0F96-2174-42C3-64F9-6D0808D634E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="789214" y="6803571"/>
+          <a:ext cx="598715" cy="20859750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>136073</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>394608</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>98451</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ECD428A-9565-EF70-5727-BFD162A37AC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="748394" y="33990642"/>
+          <a:ext cx="10668000" cy="3255309"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>100854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>81554</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11661269-F3B8-D927-B909-55F08A662BB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="728383" y="38010354"/>
+          <a:ext cx="10488706" cy="3028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>78443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>91289</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF4B3BF0-2403-A294-FB27-6B6E6D66FB37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="661147" y="41797943"/>
+          <a:ext cx="10611971" cy="3060846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7530,8 +8122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E46FBC17-7678-4E2A-8D78-028511AE2889}">
   <dimension ref="A5:T199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7596,14 +8188,14 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
-      <c r="D13" s="18" t="s">
+      <c r="D13" t="s">
         <v>52</v>
       </c>
       <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
-      <c r="D14" s="18" t="s">
+      <c r="D14" t="s">
         <v>53</v>
       </c>
       <c r="H14" s="5"/>
@@ -7674,13 +8266,12 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="3"/>
-      <c r="Q21" s="19" t="s">
+      <c r="Q21" t="s">
         <v>30</v>
       </c>
-      <c r="R21" s="19" t="s">
+      <c r="R21" t="s">
         <v>93</v>
       </c>
-      <c r="S21" s="19"/>
       <c r="T21" s="5"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -7688,23 +8279,7 @@
       <c r="B22" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
       <c r="P22" s="5"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
       <c r="T22" s="5"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -7712,23 +8287,7 @@
       <c r="B23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
       <c r="P23" s="5"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
       <c r="T23" s="5"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -7736,27 +8295,13 @@
       <c r="B24" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
       <c r="P24" s="5"/>
-      <c r="Q24" s="19" t="s">
+      <c r="Q24" t="s">
         <v>30</v>
       </c>
-      <c r="R24" s="19" t="s">
+      <c r="R24" t="s">
         <v>95</v>
       </c>
-      <c r="S24" s="19"/>
       <c r="T24" s="5"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -7764,23 +8309,7 @@
       <c r="B25" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
       <c r="P25" s="5"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
       <c r="T25" s="5"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -7788,23 +8317,7 @@
       <c r="B26" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
       <c r="P26" s="5"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
       <c r="T26" s="5"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -7812,23 +8325,7 @@
       <c r="B27" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
       <c r="P27" s="5"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
       <c r="T27" s="5"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -7836,23 +8333,7 @@
       <c r="B28" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
       <c r="P28" s="5"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
       <c r="T28" s="5"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -7860,23 +8341,7 @@
       <c r="B29" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
       <c r="P29" s="5"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
       <c r="T29" s="5"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -7884,23 +8349,7 @@
       <c r="B30" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
       <c r="P30" s="5"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
       <c r="T30" s="5"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -7908,23 +8357,7 @@
       <c r="B31" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
       <c r="P31" s="5"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
       <c r="T31" s="5"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -7932,23 +8365,7 @@
       <c r="B32" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
       <c r="P32" s="5"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
       <c r="T32" s="5"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
@@ -7956,23 +8373,7 @@
       <c r="B33" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
       <c r="P33" s="5"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
       <c r="T33" s="5"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -7980,27 +8381,13 @@
       <c r="B34" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
       <c r="P34" s="5"/>
-      <c r="Q34" s="19" t="s">
+      <c r="Q34" t="s">
         <v>30</v>
       </c>
-      <c r="R34" s="19" t="s">
+      <c r="R34" t="s">
         <v>94</v>
       </c>
-      <c r="S34" s="19"/>
       <c r="T34" s="5"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -8008,25 +8395,10 @@
       <c r="B35" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
       <c r="P35" s="5"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19" t="s">
+      <c r="R35" t="s">
         <v>96</v>
       </c>
-      <c r="S35" s="19"/>
       <c r="T35" s="5"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
@@ -8034,23 +8406,7 @@
       <c r="B36" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
       <c r="P36" s="5"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
       <c r="T36" s="5"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
@@ -8058,27 +8414,13 @@
       <c r="B37" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
       <c r="P37" s="5"/>
-      <c r="Q37" s="19" t="s">
+      <c r="Q37" t="s">
         <v>30</v>
       </c>
-      <c r="R37" s="19" t="s">
+      <c r="R37" t="s">
         <v>97</v>
       </c>
-      <c r="S37" s="19"/>
       <c r="T37" s="5"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
@@ -8086,23 +8428,7 @@
       <c r="B38" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
       <c r="P38" s="5"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
       <c r="T38" s="5"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
@@ -8110,23 +8436,7 @@
       <c r="B39" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
       <c r="P39" s="5"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
       <c r="T39" s="5"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
@@ -8134,23 +8444,7 @@
       <c r="B40" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
       <c r="P40" s="5"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="19"/>
-      <c r="S40" s="19"/>
       <c r="T40" s="5"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
@@ -8158,23 +8452,7 @@
       <c r="B41" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
       <c r="P41" s="5"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="19"/>
-      <c r="S41" s="19"/>
       <c r="T41" s="5"/>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
@@ -8182,23 +8460,7 @@
       <c r="B42" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
       <c r="P42" s="5"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="19"/>
-      <c r="S42" s="19"/>
       <c r="T42" s="5"/>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
@@ -8206,23 +8468,7 @@
       <c r="B43" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
       <c r="P43" s="5"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="19"/>
-      <c r="S43" s="19"/>
       <c r="T43" s="5"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
@@ -8230,23 +8476,7 @@
       <c r="B44" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="19"/>
       <c r="P44" s="5"/>
-      <c r="Q44" s="19"/>
-      <c r="R44" s="19"/>
-      <c r="S44" s="19"/>
       <c r="T44" s="5"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
@@ -8254,23 +8484,7 @@
       <c r="B45" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="19"/>
       <c r="P45" s="5"/>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="19"/>
-      <c r="S45" s="19"/>
       <c r="T45" s="5"/>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
@@ -8278,23 +8492,7 @@
       <c r="B46" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="19"/>
       <c r="P46" s="5"/>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="19"/>
-      <c r="S46" s="19"/>
       <c r="T46" s="5"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
@@ -8302,23 +8500,7 @@
       <c r="B47" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19"/>
-      <c r="O47" s="19"/>
       <c r="P47" s="5"/>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="19"/>
-      <c r="S47" s="19"/>
       <c r="T47" s="5"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
@@ -8340,691 +8522,130 @@
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
       <c r="P48" s="8"/>
-      <c r="Q48" s="19"/>
-      <c r="R48" s="19"/>
-      <c r="S48" s="19"/>
       <c r="T48" s="5"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="19"/>
-      <c r="S49" s="19"/>
       <c r="T49" s="5"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="19"/>
-      <c r="R50" s="19"/>
-      <c r="S50" s="19"/>
       <c r="T50" s="5"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="19"/>
-      <c r="P51" s="19"/>
-      <c r="Q51" s="19"/>
-      <c r="R51" s="19"/>
-      <c r="S51" s="19"/>
       <c r="T51" s="5"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-      <c r="M52" s="19"/>
-      <c r="N52" s="19"/>
-      <c r="O52" s="19"/>
-      <c r="P52" s="19"/>
-      <c r="Q52" s="19"/>
-      <c r="R52" s="19"/>
-      <c r="S52" s="19"/>
       <c r="T52" s="5"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="19"/>
-      <c r="R53" s="19"/>
-      <c r="S53" s="19"/>
       <c r="T53" s="5"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="19"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="19"/>
-      <c r="P54" s="19"/>
-      <c r="Q54" s="19"/>
-      <c r="R54" s="19"/>
-      <c r="S54" s="19"/>
       <c r="T54" s="5"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="19"/>
-      <c r="P55" s="19"/>
-      <c r="Q55" s="19"/>
-      <c r="R55" s="19"/>
-      <c r="S55" s="19"/>
       <c r="T55" s="5"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="19"/>
-      <c r="M56" s="19"/>
-      <c r="N56" s="19"/>
-      <c r="O56" s="19"/>
-      <c r="P56" s="19"/>
-      <c r="Q56" s="19"/>
-      <c r="R56" s="19"/>
-      <c r="S56" s="19"/>
       <c r="T56" s="5"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
-      <c r="M57" s="19"/>
-      <c r="N57" s="19"/>
-      <c r="O57" s="19"/>
-      <c r="P57" s="19"/>
-      <c r="Q57" s="19"/>
-      <c r="R57" s="19"/>
-      <c r="S57" s="19"/>
       <c r="T57" s="5"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
-      <c r="O58" s="19"/>
-      <c r="P58" s="19"/>
-      <c r="Q58" s="19"/>
-      <c r="R58" s="19"/>
-      <c r="S58" s="19"/>
       <c r="T58" s="5"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="19"/>
-      <c r="P59" s="19"/>
-      <c r="Q59" s="19"/>
-      <c r="R59" s="19"/>
-      <c r="S59" s="19"/>
       <c r="T59" s="5"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="19"/>
-      <c r="M60" s="19"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="19"/>
-      <c r="P60" s="19"/>
-      <c r="Q60" s="19"/>
-      <c r="R60" s="19"/>
-      <c r="S60" s="19"/>
       <c r="T60" s="5"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="19"/>
-      <c r="N61" s="19"/>
-      <c r="O61" s="19"/>
-      <c r="P61" s="19"/>
-      <c r="Q61" s="19"/>
-      <c r="R61" s="19"/>
-      <c r="S61" s="19"/>
       <c r="T61" s="5"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="19"/>
-      <c r="N62" s="19"/>
-      <c r="O62" s="19"/>
-      <c r="P62" s="19"/>
-      <c r="Q62" s="19"/>
-      <c r="R62" s="19"/>
-      <c r="S62" s="19"/>
       <c r="T62" s="5"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="19"/>
-      <c r="M63" s="19"/>
-      <c r="N63" s="19"/>
-      <c r="O63" s="19"/>
-      <c r="P63" s="19"/>
-      <c r="Q63" s="19"/>
-      <c r="R63" s="19"/>
-      <c r="S63" s="19"/>
       <c r="T63" s="5"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="19"/>
-      <c r="L64" s="19"/>
-      <c r="M64" s="19"/>
-      <c r="N64" s="19"/>
-      <c r="O64" s="19"/>
-      <c r="P64" s="19"/>
-      <c r="Q64" s="19"/>
-      <c r="R64" s="19"/>
-      <c r="S64" s="19"/>
       <c r="T64" s="5"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="19"/>
-      <c r="K65" s="19"/>
-      <c r="L65" s="19"/>
-      <c r="M65" s="19"/>
-      <c r="N65" s="19"/>
-      <c r="O65" s="19"/>
-      <c r="P65" s="19"/>
-      <c r="Q65" s="19"/>
-      <c r="R65" s="19"/>
-      <c r="S65" s="19"/>
       <c r="T65" s="5"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="19"/>
-      <c r="K66" s="19"/>
-      <c r="L66" s="19"/>
-      <c r="M66" s="19"/>
-      <c r="N66" s="19"/>
-      <c r="O66" s="19"/>
-      <c r="P66" s="19"/>
-      <c r="Q66" s="19"/>
-      <c r="R66" s="19"/>
-      <c r="S66" s="19"/>
       <c r="T66" s="5"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="19"/>
-      <c r="K67" s="19"/>
-      <c r="L67" s="19"/>
-      <c r="M67" s="19"/>
-      <c r="N67" s="19"/>
-      <c r="O67" s="19"/>
-      <c r="P67" s="19"/>
-      <c r="Q67" s="19"/>
-      <c r="R67" s="19"/>
-      <c r="S67" s="19"/>
       <c r="T67" s="5"/>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="19"/>
-      <c r="L68" s="19"/>
-      <c r="M68" s="19"/>
-      <c r="N68" s="19"/>
-      <c r="O68" s="19"/>
-      <c r="P68" s="19"/>
-      <c r="Q68" s="19"/>
-      <c r="R68" s="19"/>
-      <c r="S68" s="19"/>
       <c r="T68" s="5"/>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="19"/>
-      <c r="K69" s="19"/>
-      <c r="L69" s="19"/>
-      <c r="M69" s="19"/>
-      <c r="N69" s="19"/>
-      <c r="O69" s="19"/>
-      <c r="P69" s="19"/>
-      <c r="Q69" s="19"/>
-      <c r="R69" s="19"/>
-      <c r="S69" s="19"/>
       <c r="T69" s="5"/>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="19"/>
-      <c r="K70" s="19"/>
-      <c r="L70" s="19"/>
-      <c r="M70" s="19"/>
-      <c r="N70" s="19"/>
-      <c r="O70" s="19"/>
-      <c r="P70" s="19"/>
-      <c r="Q70" s="19"/>
-      <c r="R70" s="19"/>
-      <c r="S70" s="19"/>
       <c r="T70" s="5"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="19"/>
-      <c r="K71" s="19"/>
-      <c r="L71" s="19"/>
-      <c r="M71" s="19"/>
-      <c r="N71" s="19"/>
-      <c r="O71" s="19"/>
-      <c r="P71" s="19"/>
-      <c r="Q71" s="19"/>
-      <c r="R71" s="19"/>
-      <c r="S71" s="19"/>
       <c r="T71" s="5"/>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="19"/>
-      <c r="K72" s="19"/>
-      <c r="L72" s="19"/>
-      <c r="M72" s="19"/>
-      <c r="N72" s="19"/>
-      <c r="O72" s="19"/>
-      <c r="P72" s="19"/>
-      <c r="Q72" s="19"/>
-      <c r="R72" s="19"/>
-      <c r="S72" s="19"/>
       <c r="T72" s="5"/>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="19"/>
-      <c r="K73" s="19"/>
-      <c r="L73" s="19"/>
-      <c r="M73" s="19"/>
-      <c r="N73" s="19"/>
-      <c r="O73" s="19"/>
-      <c r="P73" s="19"/>
-      <c r="Q73" s="19"/>
-      <c r="R73" s="19"/>
-      <c r="S73" s="19"/>
       <c r="T73" s="5"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="19"/>
-      <c r="K74" s="19"/>
-      <c r="L74" s="19"/>
-      <c r="M74" s="19"/>
-      <c r="N74" s="19"/>
-      <c r="O74" s="19"/>
-      <c r="P74" s="19"/>
-      <c r="Q74" s="19"/>
-      <c r="R74" s="19"/>
-      <c r="S74" s="19"/>
       <c r="T74" s="5"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="19"/>
-      <c r="K75" s="19"/>
-      <c r="L75" s="19"/>
-      <c r="M75" s="19"/>
-      <c r="N75" s="19"/>
-      <c r="O75" s="19"/>
-      <c r="P75" s="19"/>
-      <c r="Q75" s="19"/>
-      <c r="R75" s="19"/>
-      <c r="S75" s="19"/>
       <c r="T75" s="5"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="19"/>
-      <c r="K76" s="19"/>
-      <c r="L76" s="19"/>
-      <c r="M76" s="19"/>
-      <c r="N76" s="19"/>
-      <c r="O76" s="19"/>
-      <c r="P76" s="19"/>
-      <c r="Q76" s="19"/>
-      <c r="R76" s="19"/>
-      <c r="S76" s="19"/>
       <c r="T76" s="5"/>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="19"/>
-      <c r="K77" s="19"/>
-      <c r="L77" s="19"/>
-      <c r="M77" s="19"/>
-      <c r="N77" s="19"/>
-      <c r="O77" s="19"/>
-      <c r="P77" s="19"/>
-      <c r="Q77" s="19"/>
-      <c r="R77" s="19"/>
-      <c r="S77" s="19"/>
       <c r="T77" s="5"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="19"/>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="19"/>
-      <c r="K78" s="19"/>
-      <c r="L78" s="19"/>
-      <c r="M78" s="19"/>
-      <c r="N78" s="19"/>
-      <c r="O78" s="19"/>
-      <c r="P78" s="19"/>
-      <c r="Q78" s="19"/>
-      <c r="R78" s="19"/>
-      <c r="S78" s="19"/>
       <c r="T78" s="5"/>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="19"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="19"/>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="19"/>
-      <c r="K79" s="19"/>
-      <c r="L79" s="19"/>
-      <c r="M79" s="19"/>
-      <c r="N79" s="19"/>
-      <c r="O79" s="19"/>
-      <c r="P79" s="19"/>
-      <c r="Q79" s="19"/>
-      <c r="R79" s="19"/>
-      <c r="S79" s="19"/>
       <c r="T79" s="5"/>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
@@ -9089,12 +8710,6 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
       <c r="M84" s="3"/>
-      <c r="N84" s="19"/>
-      <c r="O84" s="19"/>
-      <c r="P84" s="19"/>
-      <c r="Q84" s="19"/>
-      <c r="R84" s="19"/>
-      <c r="S84" s="19"/>
       <c r="T84" s="5"/>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
@@ -9111,1244 +8726,230 @@
       <c r="K85" s="7"/>
       <c r="L85" s="7"/>
       <c r="M85" s="8"/>
-      <c r="N85" s="19"/>
-      <c r="O85" s="19"/>
-      <c r="P85" s="19"/>
-      <c r="Q85" s="19"/>
-      <c r="R85" s="19"/>
-      <c r="S85" s="19"/>
       <c r="T85" s="5"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="19"/>
-      <c r="K86" s="19"/>
-      <c r="L86" s="19"/>
-      <c r="M86" s="19"/>
-      <c r="N86" s="19"/>
-      <c r="O86" s="19"/>
-      <c r="P86" s="19"/>
-      <c r="Q86" s="19"/>
-      <c r="R86" s="19"/>
-      <c r="S86" s="19"/>
       <c r="T86" s="5"/>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="19"/>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="19"/>
-      <c r="K87" s="19"/>
-      <c r="L87" s="19"/>
-      <c r="M87" s="19"/>
-      <c r="N87" s="19"/>
-      <c r="O87" s="19"/>
-      <c r="P87" s="19"/>
-      <c r="Q87" s="19"/>
-      <c r="R87" s="19"/>
-      <c r="S87" s="19"/>
       <c r="T87" s="5"/>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
-      <c r="B88" s="19"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="19"/>
-      <c r="K88" s="19"/>
-      <c r="L88" s="19"/>
-      <c r="M88" s="19"/>
-      <c r="N88" s="19"/>
-      <c r="O88" s="19"/>
-      <c r="P88" s="19"/>
-      <c r="Q88" s="19"/>
-      <c r="R88" s="19"/>
-      <c r="S88" s="19"/>
       <c r="T88" s="5"/>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="19"/>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="19"/>
-      <c r="K89" s="19"/>
-      <c r="L89" s="19"/>
-      <c r="M89" s="19"/>
-      <c r="N89" s="19"/>
-      <c r="O89" s="19"/>
-      <c r="P89" s="19"/>
-      <c r="Q89" s="19"/>
-      <c r="R89" s="19"/>
-      <c r="S89" s="19"/>
       <c r="T89" s="5"/>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="19"/>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="19"/>
-      <c r="K90" s="19"/>
-      <c r="L90" s="19"/>
-      <c r="M90" s="19"/>
-      <c r="N90" s="19"/>
-      <c r="O90" s="19"/>
-      <c r="P90" s="19"/>
-      <c r="Q90" s="19"/>
-      <c r="R90" s="19"/>
-      <c r="S90" s="19"/>
       <c r="T90" s="5"/>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="19"/>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="19"/>
-      <c r="K91" s="19"/>
-      <c r="L91" s="19"/>
-      <c r="M91" s="19"/>
-      <c r="N91" s="19"/>
-      <c r="O91" s="19"/>
-      <c r="P91" s="19"/>
-      <c r="Q91" s="19"/>
-      <c r="R91" s="19"/>
-      <c r="S91" s="19"/>
       <c r="T91" s="5"/>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
-      <c r="B92" s="19"/>
-      <c r="C92" s="19"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="19"/>
-      <c r="F92" s="19"/>
-      <c r="G92" s="19"/>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="19"/>
-      <c r="K92" s="19"/>
-      <c r="L92" s="19"/>
-      <c r="M92" s="19"/>
-      <c r="N92" s="19"/>
-      <c r="O92" s="19"/>
-      <c r="P92" s="19"/>
-      <c r="Q92" s="19"/>
-      <c r="R92" s="19"/>
-      <c r="S92" s="19"/>
       <c r="T92" s="5"/>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
-      <c r="B93" s="19"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="19"/>
-      <c r="E93" s="19"/>
-      <c r="F93" s="19"/>
-      <c r="G93" s="19"/>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="19"/>
-      <c r="K93" s="19"/>
-      <c r="L93" s="19"/>
-      <c r="M93" s="19"/>
-      <c r="N93" s="19"/>
-      <c r="O93" s="19"/>
-      <c r="P93" s="19"/>
-      <c r="Q93" s="19"/>
-      <c r="R93" s="19"/>
-      <c r="S93" s="19"/>
       <c r="T93" s="5"/>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
-      <c r="B94" s="19"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="19"/>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="19"/>
-      <c r="K94" s="19"/>
-      <c r="L94" s="19"/>
-      <c r="M94" s="19"/>
-      <c r="N94" s="19"/>
-      <c r="O94" s="19"/>
-      <c r="P94" s="19"/>
-      <c r="Q94" s="19"/>
-      <c r="R94" s="19"/>
-      <c r="S94" s="19"/>
       <c r="T94" s="5"/>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
-      <c r="B95" s="19"/>
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="19"/>
-      <c r="F95" s="19"/>
-      <c r="G95" s="19"/>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="19"/>
-      <c r="K95" s="19"/>
-      <c r="L95" s="19"/>
-      <c r="M95" s="19"/>
-      <c r="N95" s="19"/>
-      <c r="O95" s="19"/>
-      <c r="P95" s="19"/>
-      <c r="Q95" s="19"/>
-      <c r="R95" s="19"/>
-      <c r="S95" s="19"/>
       <c r="T95" s="5"/>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
-      <c r="B96" s="19"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="19"/>
-      <c r="E96" s="19"/>
-      <c r="F96" s="19"/>
-      <c r="G96" s="19"/>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="19"/>
-      <c r="K96" s="19"/>
-      <c r="L96" s="19"/>
-      <c r="M96" s="19"/>
-      <c r="N96" s="19"/>
-      <c r="O96" s="19"/>
-      <c r="P96" s="19"/>
-      <c r="Q96" s="19"/>
-      <c r="R96" s="19"/>
-      <c r="S96" s="19"/>
       <c r="T96" s="5"/>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
-      <c r="B97" s="19"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
-      <c r="E97" s="19"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="19"/>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="19"/>
-      <c r="K97" s="19"/>
-      <c r="L97" s="19"/>
-      <c r="M97" s="19"/>
-      <c r="N97" s="19"/>
-      <c r="O97" s="19"/>
-      <c r="P97" s="19"/>
-      <c r="Q97" s="19"/>
-      <c r="R97" s="19"/>
-      <c r="S97" s="19"/>
       <c r="T97" s="5"/>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
-      <c r="B98" s="19"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="19"/>
-      <c r="E98" s="19"/>
-      <c r="F98" s="19"/>
-      <c r="G98" s="19"/>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="19"/>
-      <c r="K98" s="19"/>
-      <c r="L98" s="19"/>
-      <c r="M98" s="19"/>
-      <c r="N98" s="19"/>
-      <c r="O98" s="19"/>
-      <c r="P98" s="19"/>
-      <c r="Q98" s="19"/>
-      <c r="R98" s="19"/>
-      <c r="S98" s="19"/>
       <c r="T98" s="5"/>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
-      <c r="B99" s="19"/>
-      <c r="C99" s="19"/>
-      <c r="D99" s="19"/>
-      <c r="E99" s="19"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="19"/>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="19"/>
-      <c r="K99" s="19"/>
-      <c r="L99" s="19"/>
-      <c r="M99" s="19"/>
-      <c r="N99" s="19"/>
-      <c r="O99" s="19"/>
-      <c r="P99" s="19"/>
-      <c r="Q99" s="19"/>
-      <c r="R99" s="19"/>
-      <c r="S99" s="19"/>
       <c r="T99" s="5"/>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
-      <c r="B100" s="19"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="19"/>
-      <c r="E100" s="19"/>
-      <c r="F100" s="19"/>
-      <c r="G100" s="19"/>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="19"/>
-      <c r="K100" s="19"/>
-      <c r="L100" s="19"/>
-      <c r="M100" s="19"/>
-      <c r="N100" s="19"/>
-      <c r="O100" s="19"/>
-      <c r="P100" s="19"/>
-      <c r="Q100" s="19"/>
-      <c r="R100" s="19"/>
-      <c r="S100" s="19"/>
       <c r="T100" s="5"/>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="19"/>
-      <c r="F101" s="19"/>
-      <c r="G101" s="19"/>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="19"/>
-      <c r="K101" s="19"/>
-      <c r="L101" s="19"/>
-      <c r="M101" s="19"/>
-      <c r="N101" s="19"/>
-      <c r="O101" s="19"/>
-      <c r="P101" s="19"/>
-      <c r="Q101" s="19"/>
-      <c r="R101" s="19"/>
-      <c r="S101" s="19"/>
       <c r="T101" s="5"/>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
-      <c r="B102" s="19"/>
-      <c r="C102" s="19"/>
-      <c r="D102" s="19"/>
-      <c r="E102" s="19"/>
-      <c r="F102" s="19"/>
-      <c r="G102" s="19"/>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="19"/>
-      <c r="K102" s="19"/>
-      <c r="L102" s="19"/>
-      <c r="M102" s="19"/>
-      <c r="N102" s="19"/>
-      <c r="O102" s="19"/>
-      <c r="P102" s="19"/>
-      <c r="Q102" s="19"/>
-      <c r="R102" s="19"/>
-      <c r="S102" s="19"/>
       <c r="T102" s="5"/>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
-      <c r="B103" s="19"/>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
-      <c r="E103" s="19"/>
-      <c r="F103" s="19"/>
-      <c r="G103" s="19"/>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="19"/>
-      <c r="K103" s="19"/>
-      <c r="L103" s="19"/>
-      <c r="M103" s="19"/>
-      <c r="N103" s="19"/>
-      <c r="O103" s="19"/>
-      <c r="P103" s="19"/>
-      <c r="Q103" s="19"/>
-      <c r="R103" s="19"/>
-      <c r="S103" s="19"/>
       <c r="T103" s="5"/>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
-      <c r="B104" s="19"/>
-      <c r="C104" s="19"/>
-      <c r="D104" s="19"/>
-      <c r="E104" s="19"/>
-      <c r="F104" s="19"/>
-      <c r="G104" s="19"/>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="19"/>
-      <c r="K104" s="19"/>
-      <c r="L104" s="19"/>
-      <c r="M104" s="19"/>
-      <c r="N104" s="19"/>
-      <c r="O104" s="19"/>
-      <c r="P104" s="19"/>
-      <c r="Q104" s="19"/>
-      <c r="R104" s="19"/>
-      <c r="S104" s="19"/>
       <c r="T104" s="5"/>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
-      <c r="B105" s="19"/>
-      <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
-      <c r="E105" s="19"/>
-      <c r="F105" s="19"/>
-      <c r="G105" s="19"/>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="19"/>
-      <c r="K105" s="19"/>
-      <c r="L105" s="19"/>
-      <c r="M105" s="19"/>
-      <c r="N105" s="19"/>
-      <c r="O105" s="19"/>
-      <c r="P105" s="19"/>
-      <c r="Q105" s="19"/>
-      <c r="R105" s="19"/>
-      <c r="S105" s="19"/>
       <c r="T105" s="5"/>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
-      <c r="B106" s="19"/>
-      <c r="C106" s="19"/>
-      <c r="D106" s="19"/>
-      <c r="E106" s="19"/>
-      <c r="F106" s="19"/>
-      <c r="G106" s="19"/>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="19"/>
-      <c r="K106" s="19"/>
-      <c r="L106" s="19"/>
-      <c r="M106" s="19"/>
-      <c r="N106" s="19"/>
-      <c r="O106" s="19"/>
-      <c r="P106" s="19"/>
-      <c r="Q106" s="19"/>
-      <c r="R106" s="19"/>
-      <c r="S106" s="19"/>
       <c r="T106" s="5"/>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
-      <c r="B107" s="19"/>
-      <c r="C107" s="19"/>
-      <c r="D107" s="19"/>
-      <c r="E107" s="19"/>
-      <c r="F107" s="19"/>
-      <c r="G107" s="19"/>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="19"/>
-      <c r="K107" s="19"/>
-      <c r="L107" s="19"/>
-      <c r="M107" s="19"/>
-      <c r="N107" s="19"/>
-      <c r="O107" s="19"/>
-      <c r="P107" s="19"/>
-      <c r="Q107" s="19"/>
-      <c r="R107" s="19"/>
-      <c r="S107" s="19"/>
       <c r="T107" s="5"/>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
-      <c r="B108" s="19"/>
-      <c r="C108" s="19"/>
-      <c r="D108" s="19"/>
-      <c r="E108" s="19"/>
-      <c r="F108" s="19"/>
-      <c r="G108" s="19"/>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="19"/>
-      <c r="K108" s="19"/>
-      <c r="L108" s="19"/>
-      <c r="M108" s="19"/>
-      <c r="N108" s="19"/>
-      <c r="O108" s="19"/>
-      <c r="P108" s="19"/>
-      <c r="Q108" s="19"/>
-      <c r="R108" s="19"/>
-      <c r="S108" s="19"/>
       <c r="T108" s="5"/>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
-      <c r="B109" s="19"/>
-      <c r="C109" s="19"/>
-      <c r="D109" s="19"/>
-      <c r="E109" s="19"/>
-      <c r="F109" s="19"/>
-      <c r="G109" s="19"/>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="19"/>
-      <c r="K109" s="19"/>
-      <c r="L109" s="19"/>
-      <c r="M109" s="19"/>
-      <c r="N109" s="19"/>
-      <c r="O109" s="19"/>
-      <c r="P109" s="19"/>
-      <c r="Q109" s="19"/>
-      <c r="R109" s="19"/>
-      <c r="S109" s="19"/>
       <c r="T109" s="5"/>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
-      <c r="B110" s="19"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="19"/>
-      <c r="E110" s="19"/>
-      <c r="F110" s="19"/>
-      <c r="G110" s="19"/>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="19"/>
-      <c r="K110" s="19"/>
-      <c r="L110" s="19"/>
-      <c r="M110" s="19"/>
-      <c r="N110" s="19"/>
-      <c r="O110" s="19"/>
-      <c r="P110" s="19"/>
-      <c r="Q110" s="19"/>
-      <c r="R110" s="19"/>
-      <c r="S110" s="19"/>
       <c r="T110" s="5"/>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
-      <c r="B111" s="19"/>
-      <c r="C111" s="19"/>
-      <c r="D111" s="19"/>
-      <c r="E111" s="19"/>
-      <c r="F111" s="19"/>
-      <c r="G111" s="19"/>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="19"/>
-      <c r="K111" s="19"/>
-      <c r="L111" s="19"/>
-      <c r="M111" s="19"/>
-      <c r="N111" s="19"/>
-      <c r="O111" s="19"/>
-      <c r="P111" s="19"/>
-      <c r="Q111" s="19"/>
-      <c r="R111" s="19"/>
-      <c r="S111" s="19"/>
       <c r="T111" s="5"/>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
-      <c r="B112" s="19"/>
-      <c r="C112" s="19"/>
-      <c r="D112" s="19"/>
-      <c r="E112" s="19"/>
-      <c r="F112" s="19"/>
-      <c r="G112" s="19"/>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="19"/>
-      <c r="K112" s="19"/>
-      <c r="L112" s="19"/>
-      <c r="M112" s="19"/>
-      <c r="N112" s="19"/>
-      <c r="O112" s="19"/>
-      <c r="P112" s="19"/>
-      <c r="Q112" s="19"/>
-      <c r="R112" s="19"/>
-      <c r="S112" s="19"/>
       <c r="T112" s="5"/>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
-      <c r="B113" s="19"/>
-      <c r="C113" s="19"/>
-      <c r="D113" s="19"/>
-      <c r="E113" s="19"/>
-      <c r="F113" s="19"/>
-      <c r="G113" s="19"/>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="19"/>
-      <c r="K113" s="19"/>
-      <c r="L113" s="19"/>
-      <c r="M113" s="19"/>
-      <c r="N113" s="19"/>
-      <c r="O113" s="19"/>
-      <c r="P113" s="19"/>
-      <c r="Q113" s="19"/>
-      <c r="R113" s="19"/>
-      <c r="S113" s="19"/>
       <c r="T113" s="5"/>
     </row>
     <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
-      <c r="B114" s="19"/>
-      <c r="C114" s="19"/>
-      <c r="D114" s="19"/>
-      <c r="E114" s="19"/>
-      <c r="F114" s="19"/>
-      <c r="G114" s="19"/>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="19"/>
-      <c r="K114" s="19"/>
-      <c r="L114" s="19"/>
-      <c r="M114" s="19"/>
-      <c r="N114" s="19"/>
-      <c r="O114" s="19"/>
-      <c r="P114" s="19"/>
-      <c r="Q114" s="19"/>
-      <c r="R114" s="19"/>
-      <c r="S114" s="19"/>
       <c r="T114" s="5"/>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
-      <c r="B115" s="19"/>
-      <c r="C115" s="19"/>
-      <c r="D115" s="19"/>
-      <c r="E115" s="19"/>
-      <c r="F115" s="19"/>
-      <c r="G115" s="19"/>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="19"/>
-      <c r="K115" s="19"/>
-      <c r="L115" s="19"/>
-      <c r="M115" s="19"/>
-      <c r="N115" s="19"/>
-      <c r="O115" s="19"/>
-      <c r="P115" s="19"/>
-      <c r="Q115" s="19"/>
-      <c r="R115" s="19"/>
-      <c r="S115" s="19"/>
       <c r="T115" s="5"/>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
-      <c r="B116" s="19"/>
-      <c r="C116" s="19"/>
-      <c r="D116" s="19"/>
-      <c r="E116" s="19"/>
-      <c r="F116" s="19"/>
-      <c r="G116" s="19"/>
-      <c r="H116" s="19"/>
-      <c r="I116" s="19"/>
-      <c r="J116" s="19"/>
-      <c r="K116" s="19"/>
-      <c r="L116" s="19"/>
-      <c r="M116" s="19"/>
-      <c r="N116" s="19"/>
-      <c r="O116" s="19"/>
-      <c r="P116" s="19"/>
-      <c r="Q116" s="19"/>
-      <c r="R116" s="19"/>
-      <c r="S116" s="19"/>
       <c r="T116" s="5"/>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
-      <c r="B117" s="19"/>
-      <c r="C117" s="19"/>
-      <c r="D117" s="19"/>
-      <c r="E117" s="19"/>
-      <c r="F117" s="19"/>
-      <c r="G117" s="19"/>
-      <c r="H117" s="19"/>
-      <c r="I117" s="19"/>
-      <c r="J117" s="19"/>
-      <c r="K117" s="19"/>
-      <c r="L117" s="19"/>
-      <c r="M117" s="19"/>
-      <c r="N117" s="19"/>
-      <c r="O117" s="19"/>
-      <c r="P117" s="19"/>
-      <c r="Q117" s="19"/>
-      <c r="R117" s="19"/>
-      <c r="S117" s="19"/>
       <c r="T117" s="5"/>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
-      <c r="B118" s="19"/>
-      <c r="C118" s="19"/>
-      <c r="D118" s="19"/>
-      <c r="E118" s="19"/>
-      <c r="F118" s="19"/>
-      <c r="G118" s="19"/>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="19"/>
-      <c r="K118" s="19"/>
-      <c r="L118" s="19"/>
-      <c r="M118" s="19"/>
-      <c r="N118" s="19"/>
-      <c r="O118" s="19"/>
-      <c r="P118" s="19"/>
-      <c r="Q118" s="19"/>
-      <c r="R118" s="19"/>
-      <c r="S118" s="19"/>
       <c r="T118" s="5"/>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
-      <c r="B119" s="19"/>
-      <c r="C119" s="19"/>
-      <c r="D119" s="19"/>
-      <c r="E119" s="19"/>
-      <c r="F119" s="19"/>
-      <c r="G119" s="19"/>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="19"/>
-      <c r="K119" s="19"/>
-      <c r="L119" s="19"/>
-      <c r="M119" s="19"/>
-      <c r="N119" s="19"/>
-      <c r="O119" s="19"/>
-      <c r="P119" s="19"/>
-      <c r="Q119" s="19"/>
-      <c r="R119" s="19"/>
-      <c r="S119" s="19"/>
       <c r="T119" s="5"/>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
-      <c r="B120" s="19"/>
-      <c r="C120" s="19"/>
-      <c r="D120" s="19"/>
-      <c r="E120" s="19"/>
-      <c r="F120" s="19"/>
-      <c r="G120" s="19"/>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
-      <c r="J120" s="19"/>
-      <c r="K120" s="19"/>
-      <c r="L120" s="19"/>
-      <c r="M120" s="19"/>
-      <c r="N120" s="19"/>
-      <c r="O120" s="19"/>
-      <c r="P120" s="19"/>
-      <c r="Q120" s="19"/>
-      <c r="R120" s="19"/>
-      <c r="S120" s="19"/>
       <c r="T120" s="5"/>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
-      <c r="B121" s="19"/>
-      <c r="C121" s="19"/>
-      <c r="D121" s="19"/>
-      <c r="E121" s="19"/>
-      <c r="F121" s="19"/>
-      <c r="G121" s="19"/>
-      <c r="H121" s="19"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="19"/>
-      <c r="K121" s="19"/>
-      <c r="L121" s="19"/>
-      <c r="M121" s="19"/>
-      <c r="N121" s="19"/>
-      <c r="O121" s="19"/>
-      <c r="P121" s="19"/>
-      <c r="Q121" s="19"/>
-      <c r="R121" s="19"/>
-      <c r="S121" s="19"/>
       <c r="T121" s="5"/>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
-      <c r="B122" s="19"/>
-      <c r="C122" s="19"/>
-      <c r="D122" s="19"/>
-      <c r="E122" s="19"/>
-      <c r="F122" s="19"/>
-      <c r="G122" s="19"/>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="19"/>
-      <c r="K122" s="19"/>
-      <c r="L122" s="19"/>
-      <c r="M122" s="19"/>
-      <c r="N122" s="19"/>
-      <c r="O122" s="19"/>
-      <c r="P122" s="19"/>
-      <c r="Q122" s="19"/>
-      <c r="R122" s="19"/>
-      <c r="S122" s="19"/>
       <c r="T122" s="5"/>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
-      <c r="B123" s="19"/>
-      <c r="C123" s="19"/>
-      <c r="D123" s="19"/>
-      <c r="E123" s="19"/>
-      <c r="F123" s="19"/>
-      <c r="G123" s="19"/>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
-      <c r="J123" s="19"/>
-      <c r="K123" s="19"/>
-      <c r="L123" s="19"/>
-      <c r="M123" s="19"/>
-      <c r="N123" s="19"/>
-      <c r="O123" s="19"/>
-      <c r="P123" s="19"/>
-      <c r="Q123" s="19"/>
-      <c r="R123" s="19"/>
-      <c r="S123" s="19"/>
       <c r="T123" s="5"/>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
-      <c r="B124" s="19"/>
-      <c r="C124" s="19"/>
-      <c r="D124" s="19"/>
-      <c r="E124" s="19"/>
-      <c r="F124" s="19"/>
-      <c r="G124" s="19"/>
-      <c r="H124" s="19"/>
-      <c r="I124" s="19"/>
-      <c r="J124" s="19"/>
-      <c r="K124" s="19"/>
-      <c r="L124" s="19"/>
-      <c r="M124" s="19"/>
-      <c r="N124" s="19"/>
-      <c r="O124" s="19"/>
-      <c r="P124" s="19"/>
-      <c r="Q124" s="19"/>
-      <c r="R124" s="19"/>
-      <c r="S124" s="19"/>
       <c r="T124" s="5"/>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
-      <c r="B125" s="19"/>
-      <c r="C125" s="19"/>
-      <c r="D125" s="19"/>
-      <c r="E125" s="19"/>
-      <c r="F125" s="19"/>
-      <c r="G125" s="19"/>
-      <c r="H125" s="19"/>
-      <c r="I125" s="19"/>
-      <c r="J125" s="19"/>
-      <c r="K125" s="19"/>
-      <c r="L125" s="19"/>
-      <c r="M125" s="19"/>
-      <c r="N125" s="19"/>
-      <c r="O125" s="19"/>
-      <c r="P125" s="19"/>
-      <c r="Q125" s="19"/>
-      <c r="R125" s="19"/>
-      <c r="S125" s="19"/>
       <c r="T125" s="5"/>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
-      <c r="B126" s="19"/>
-      <c r="C126" s="19"/>
-      <c r="D126" s="19"/>
-      <c r="E126" s="19"/>
-      <c r="F126" s="19"/>
-      <c r="G126" s="19"/>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="19"/>
-      <c r="K126" s="19"/>
-      <c r="L126" s="19"/>
-      <c r="M126" s="19"/>
-      <c r="N126" s="19"/>
-      <c r="O126" s="19"/>
-      <c r="P126" s="19"/>
-      <c r="Q126" s="19"/>
-      <c r="R126" s="19"/>
-      <c r="S126" s="19"/>
       <c r="T126" s="5"/>
     </row>
     <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
-      <c r="B127" s="19"/>
-      <c r="C127" s="19"/>
-      <c r="D127" s="19"/>
-      <c r="E127" s="19"/>
-      <c r="F127" s="19"/>
-      <c r="G127" s="19"/>
-      <c r="H127" s="19"/>
-      <c r="I127" s="19"/>
-      <c r="J127" s="19"/>
-      <c r="K127" s="19"/>
-      <c r="L127" s="19"/>
-      <c r="M127" s="19"/>
-      <c r="N127" s="19"/>
-      <c r="O127" s="19"/>
-      <c r="P127" s="19"/>
-      <c r="Q127" s="19"/>
-      <c r="R127" s="19"/>
-      <c r="S127" s="19"/>
       <c r="T127" s="5"/>
     </row>
     <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
-      <c r="B128" s="19"/>
-      <c r="C128" s="19"/>
-      <c r="D128" s="19"/>
-      <c r="E128" s="19"/>
-      <c r="F128" s="19"/>
-      <c r="G128" s="19"/>
-      <c r="H128" s="19"/>
-      <c r="I128" s="19"/>
-      <c r="J128" s="19"/>
-      <c r="K128" s="19"/>
-      <c r="L128" s="19"/>
-      <c r="M128" s="19"/>
-      <c r="N128" s="19"/>
-      <c r="O128" s="19"/>
-      <c r="P128" s="19"/>
-      <c r="Q128" s="19"/>
-      <c r="R128" s="19"/>
-      <c r="S128" s="19"/>
       <c r="T128" s="5"/>
     </row>
     <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
-      <c r="B129" s="19"/>
-      <c r="C129" s="19"/>
-      <c r="D129" s="19"/>
-      <c r="E129" s="19"/>
-      <c r="F129" s="19"/>
-      <c r="G129" s="19"/>
-      <c r="H129" s="19"/>
-      <c r="I129" s="19"/>
-      <c r="J129" s="19"/>
-      <c r="K129" s="19"/>
-      <c r="L129" s="19"/>
-      <c r="M129" s="19"/>
-      <c r="N129" s="19"/>
-      <c r="O129" s="19"/>
-      <c r="P129" s="19"/>
-      <c r="Q129" s="19"/>
-      <c r="R129" s="19"/>
-      <c r="S129" s="19"/>
       <c r="T129" s="5"/>
     </row>
     <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
-      <c r="B130" s="19"/>
-      <c r="C130" s="19"/>
-      <c r="D130" s="19"/>
-      <c r="E130" s="19"/>
-      <c r="F130" s="19"/>
-      <c r="G130" s="19"/>
-      <c r="H130" s="19"/>
-      <c r="I130" s="19"/>
-      <c r="J130" s="19"/>
-      <c r="K130" s="19"/>
-      <c r="L130" s="19"/>
-      <c r="M130" s="19"/>
-      <c r="N130" s="19"/>
-      <c r="O130" s="19"/>
-      <c r="P130" s="19"/>
-      <c r="Q130" s="19"/>
-      <c r="R130" s="19"/>
-      <c r="S130" s="19"/>
       <c r="T130" s="5"/>
     </row>
     <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
-      <c r="B131" s="19"/>
-      <c r="C131" s="19"/>
-      <c r="D131" s="19"/>
-      <c r="E131" s="19"/>
-      <c r="F131" s="19"/>
-      <c r="G131" s="19"/>
-      <c r="H131" s="19"/>
-      <c r="I131" s="19"/>
-      <c r="J131" s="19"/>
-      <c r="K131" s="19"/>
-      <c r="L131" s="19"/>
-      <c r="M131" s="19"/>
-      <c r="N131" s="19"/>
-      <c r="O131" s="19"/>
-      <c r="P131" s="19"/>
-      <c r="Q131" s="19"/>
-      <c r="R131" s="19"/>
-      <c r="S131" s="19"/>
       <c r="T131" s="5"/>
     </row>
     <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
-      <c r="B132" s="19"/>
-      <c r="C132" s="19"/>
-      <c r="D132" s="19"/>
-      <c r="E132" s="19"/>
-      <c r="F132" s="19"/>
-      <c r="G132" s="19"/>
-      <c r="H132" s="19"/>
-      <c r="I132" s="19"/>
-      <c r="J132" s="19"/>
-      <c r="K132" s="19"/>
-      <c r="L132" s="19"/>
-      <c r="M132" s="19"/>
-      <c r="N132" s="19"/>
-      <c r="O132" s="19"/>
-      <c r="P132" s="19"/>
-      <c r="Q132" s="19"/>
-      <c r="R132" s="19"/>
-      <c r="S132" s="19"/>
       <c r="T132" s="5"/>
     </row>
     <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
-      <c r="B133" s="19"/>
-      <c r="C133" s="19"/>
-      <c r="D133" s="19"/>
-      <c r="E133" s="19"/>
-      <c r="F133" s="19"/>
-      <c r="G133" s="19"/>
-      <c r="H133" s="19"/>
-      <c r="I133" s="19"/>
-      <c r="J133" s="19"/>
-      <c r="K133" s="19"/>
-      <c r="L133" s="19"/>
-      <c r="M133" s="19"/>
-      <c r="N133" s="19"/>
-      <c r="O133" s="19"/>
-      <c r="P133" s="19"/>
-      <c r="Q133" s="19"/>
-      <c r="R133" s="19"/>
-      <c r="S133" s="19"/>
       <c r="T133" s="5"/>
     </row>
     <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
-      <c r="B134" s="19"/>
-      <c r="C134" s="19"/>
-      <c r="D134" s="19"/>
-      <c r="E134" s="19"/>
-      <c r="F134" s="19"/>
-      <c r="G134" s="19"/>
-      <c r="H134" s="19"/>
-      <c r="I134" s="19"/>
-      <c r="J134" s="19"/>
-      <c r="K134" s="19"/>
-      <c r="L134" s="19"/>
-      <c r="M134" s="19"/>
-      <c r="N134" s="19"/>
-      <c r="O134" s="19"/>
-      <c r="P134" s="19"/>
-      <c r="Q134" s="19"/>
-      <c r="R134" s="19"/>
-      <c r="S134" s="19"/>
       <c r="T134" s="5"/>
     </row>
     <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
-      <c r="B135" s="19"/>
-      <c r="C135" s="19"/>
-      <c r="D135" s="19"/>
-      <c r="E135" s="19"/>
-      <c r="F135" s="19"/>
-      <c r="G135" s="19"/>
-      <c r="H135" s="19"/>
-      <c r="I135" s="19"/>
-      <c r="J135" s="19"/>
-      <c r="K135" s="19"/>
-      <c r="L135" s="19"/>
-      <c r="M135" s="19"/>
-      <c r="N135" s="19"/>
-      <c r="O135" s="19"/>
-      <c r="P135" s="19"/>
-      <c r="Q135" s="19"/>
-      <c r="R135" s="19"/>
-      <c r="S135" s="19"/>
       <c r="T135" s="5"/>
     </row>
     <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
-      <c r="B136" s="19"/>
-      <c r="C136" s="19"/>
-      <c r="D136" s="19"/>
-      <c r="E136" s="19"/>
-      <c r="F136" s="19"/>
-      <c r="G136" s="19"/>
-      <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
-      <c r="J136" s="19"/>
-      <c r="K136" s="19"/>
-      <c r="L136" s="19"/>
-      <c r="M136" s="19"/>
-      <c r="N136" s="19"/>
-      <c r="O136" s="19"/>
-      <c r="P136" s="19"/>
-      <c r="Q136" s="19"/>
-      <c r="R136" s="19"/>
-      <c r="S136" s="19"/>
       <c r="T136" s="5"/>
     </row>
     <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
-      <c r="B137" s="19"/>
-      <c r="C137" s="19"/>
-      <c r="D137" s="19"/>
-      <c r="E137" s="19"/>
-      <c r="F137" s="19"/>
-      <c r="G137" s="19"/>
-      <c r="H137" s="19"/>
-      <c r="I137" s="19"/>
-      <c r="J137" s="19"/>
-      <c r="K137" s="19"/>
-      <c r="L137" s="19"/>
-      <c r="M137" s="19"/>
-      <c r="N137" s="19"/>
-      <c r="O137" s="19"/>
-      <c r="P137" s="19"/>
-      <c r="Q137" s="19"/>
-      <c r="R137" s="19"/>
-      <c r="S137" s="19"/>
       <c r="T137" s="5"/>
     </row>
     <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
-      <c r="B138" s="19"/>
-      <c r="C138" s="19"/>
-      <c r="D138" s="19"/>
-      <c r="E138" s="19"/>
-      <c r="F138" s="19"/>
-      <c r="G138" s="19"/>
-      <c r="H138" s="19"/>
-      <c r="I138" s="19"/>
-      <c r="J138" s="19"/>
-      <c r="K138" s="19"/>
-      <c r="L138" s="19"/>
-      <c r="M138" s="19"/>
-      <c r="N138" s="19"/>
-      <c r="O138" s="19"/>
-      <c r="P138" s="19"/>
-      <c r="Q138" s="19"/>
-      <c r="R138" s="19"/>
-      <c r="S138" s="19"/>
       <c r="T138" s="5"/>
     </row>
     <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
-      <c r="B139" s="19"/>
-      <c r="C139" s="19"/>
-      <c r="D139" s="19"/>
-      <c r="E139" s="19"/>
-      <c r="F139" s="19"/>
-      <c r="G139" s="19"/>
-      <c r="H139" s="19"/>
-      <c r="I139" s="19"/>
-      <c r="J139" s="19"/>
-      <c r="K139" s="19"/>
-      <c r="L139" s="19"/>
-      <c r="M139" s="19"/>
-      <c r="N139" s="19"/>
-      <c r="O139" s="19"/>
-      <c r="P139" s="19"/>
-      <c r="Q139" s="19"/>
-      <c r="R139" s="19"/>
-      <c r="S139" s="19"/>
       <c r="T139" s="5"/>
     </row>
     <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
-      <c r="B140" s="19"/>
-      <c r="C140" s="19"/>
-      <c r="D140" s="19"/>
-      <c r="E140" s="19"/>
-      <c r="F140" s="19"/>
-      <c r="G140" s="19"/>
-      <c r="H140" s="19"/>
-      <c r="I140" s="19"/>
-      <c r="J140" s="19"/>
-      <c r="K140" s="19"/>
-      <c r="L140" s="19"/>
-      <c r="M140" s="19"/>
-      <c r="N140" s="19"/>
-      <c r="O140" s="19"/>
-      <c r="P140" s="19"/>
-      <c r="Q140" s="19"/>
-      <c r="R140" s="19"/>
-      <c r="S140" s="19"/>
       <c r="T140" s="5"/>
     </row>
     <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
-      <c r="B141" s="19"/>
-      <c r="C141" s="19"/>
-      <c r="D141" s="19"/>
-      <c r="E141" s="19"/>
-      <c r="F141" s="19"/>
-      <c r="G141" s="19"/>
-      <c r="H141" s="19"/>
-      <c r="I141" s="19"/>
-      <c r="J141" s="19"/>
-      <c r="K141" s="19"/>
-      <c r="L141" s="19"/>
-      <c r="M141" s="19"/>
-      <c r="N141" s="19"/>
-      <c r="O141" s="19"/>
-      <c r="P141" s="19"/>
-      <c r="Q141" s="19"/>
-      <c r="R141" s="19"/>
-      <c r="S141" s="19"/>
       <c r="T141" s="5"/>
     </row>
     <row r="142" spans="1:20" x14ac:dyDescent="0.25">
@@ -10397,482 +8998,98 @@
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
-      <c r="B146" s="19"/>
-      <c r="C146" s="19"/>
-      <c r="D146" s="19"/>
-      <c r="E146" s="19"/>
-      <c r="F146" s="19"/>
-      <c r="G146" s="19"/>
-      <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
-      <c r="J146" s="19"/>
-      <c r="K146" s="19"/>
-      <c r="L146" s="19"/>
-      <c r="M146" s="19"/>
-      <c r="N146" s="19"/>
-      <c r="O146" s="19"/>
-      <c r="P146" s="19"/>
-      <c r="Q146" s="19"/>
       <c r="R146" s="5"/>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
-      <c r="B147" s="19"/>
-      <c r="C147" s="19"/>
-      <c r="D147" s="19"/>
-      <c r="E147" s="19"/>
-      <c r="F147" s="19"/>
-      <c r="G147" s="19"/>
-      <c r="H147" s="19"/>
-      <c r="I147" s="19"/>
-      <c r="J147" s="19"/>
-      <c r="K147" s="19"/>
-      <c r="L147" s="19"/>
-      <c r="M147" s="19"/>
-      <c r="N147" s="19"/>
-      <c r="O147" s="19"/>
-      <c r="P147" s="19"/>
-      <c r="Q147" s="19"/>
       <c r="R147" s="5"/>
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
-      <c r="B148" s="19"/>
-      <c r="C148" s="19"/>
-      <c r="D148" s="19"/>
-      <c r="E148" s="19"/>
-      <c r="F148" s="19"/>
-      <c r="G148" s="19"/>
-      <c r="H148" s="19"/>
-      <c r="I148" s="19"/>
-      <c r="J148" s="19"/>
-      <c r="K148" s="19"/>
-      <c r="L148" s="19"/>
-      <c r="M148" s="19"/>
-      <c r="N148" s="19"/>
-      <c r="O148" s="19"/>
-      <c r="P148" s="19"/>
-      <c r="Q148" s="19"/>
       <c r="R148" s="5"/>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
-      <c r="B149" s="19"/>
-      <c r="C149" s="19"/>
-      <c r="D149" s="19"/>
-      <c r="E149" s="19"/>
-      <c r="F149" s="19"/>
-      <c r="G149" s="19"/>
-      <c r="H149" s="19"/>
-      <c r="I149" s="19"/>
-      <c r="J149" s="19"/>
-      <c r="K149" s="19"/>
-      <c r="L149" s="19"/>
-      <c r="M149" s="19"/>
-      <c r="N149" s="19"/>
-      <c r="O149" s="19"/>
-      <c r="P149" s="19"/>
-      <c r="Q149" s="19"/>
       <c r="R149" s="5"/>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
-      <c r="B150" s="19"/>
-      <c r="C150" s="19"/>
-      <c r="D150" s="19"/>
-      <c r="E150" s="19"/>
-      <c r="F150" s="19"/>
-      <c r="G150" s="19"/>
-      <c r="H150" s="19"/>
-      <c r="I150" s="19"/>
-      <c r="J150" s="19"/>
-      <c r="K150" s="19"/>
-      <c r="L150" s="19"/>
-      <c r="M150" s="19"/>
-      <c r="N150" s="19"/>
-      <c r="O150" s="19"/>
-      <c r="P150" s="19"/>
-      <c r="Q150" s="19"/>
       <c r="R150" s="5"/>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
-      <c r="B151" s="19"/>
-      <c r="C151" s="19"/>
-      <c r="D151" s="19"/>
-      <c r="E151" s="19"/>
-      <c r="F151" s="19"/>
-      <c r="G151" s="19"/>
-      <c r="H151" s="19"/>
-      <c r="I151" s="19"/>
-      <c r="J151" s="19"/>
-      <c r="K151" s="19"/>
-      <c r="L151" s="19"/>
-      <c r="M151" s="19"/>
-      <c r="N151" s="19"/>
-      <c r="O151" s="19"/>
-      <c r="P151" s="19"/>
-      <c r="Q151" s="19"/>
       <c r="R151" s="5"/>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
-      <c r="B152" s="19"/>
-      <c r="C152" s="19"/>
-      <c r="D152" s="19"/>
-      <c r="E152" s="19"/>
-      <c r="F152" s="19"/>
-      <c r="G152" s="19"/>
-      <c r="H152" s="19"/>
-      <c r="I152" s="19"/>
-      <c r="J152" s="19"/>
-      <c r="K152" s="19"/>
-      <c r="L152" s="19"/>
-      <c r="M152" s="19"/>
-      <c r="N152" s="19"/>
-      <c r="O152" s="19"/>
-      <c r="P152" s="19"/>
-      <c r="Q152" s="19"/>
       <c r="R152" s="5"/>
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
-      <c r="B153" s="19"/>
-      <c r="C153" s="19"/>
-      <c r="D153" s="19"/>
-      <c r="E153" s="19"/>
-      <c r="F153" s="19"/>
-      <c r="G153" s="19"/>
-      <c r="H153" s="19"/>
-      <c r="I153" s="19"/>
-      <c r="J153" s="19"/>
-      <c r="K153" s="19"/>
-      <c r="L153" s="19"/>
-      <c r="M153" s="19"/>
-      <c r="N153" s="19"/>
-      <c r="O153" s="19"/>
-      <c r="P153" s="19"/>
-      <c r="Q153" s="19"/>
       <c r="R153" s="5"/>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
-      <c r="B154" s="19"/>
-      <c r="C154" s="19"/>
-      <c r="D154" s="19"/>
-      <c r="E154" s="19"/>
-      <c r="F154" s="19"/>
-      <c r="G154" s="19"/>
-      <c r="H154" s="19"/>
-      <c r="I154" s="19"/>
-      <c r="J154" s="19"/>
-      <c r="K154" s="19"/>
-      <c r="L154" s="19"/>
-      <c r="M154" s="19"/>
-      <c r="N154" s="19"/>
-      <c r="O154" s="19"/>
-      <c r="P154" s="19"/>
-      <c r="Q154" s="19"/>
       <c r="R154" s="5"/>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
-      <c r="B155" s="19"/>
-      <c r="C155" s="19"/>
-      <c r="D155" s="19"/>
-      <c r="E155" s="19"/>
-      <c r="F155" s="19"/>
-      <c r="G155" s="19"/>
-      <c r="H155" s="19"/>
-      <c r="I155" s="19"/>
-      <c r="J155" s="19"/>
-      <c r="K155" s="19"/>
-      <c r="L155" s="19"/>
-      <c r="M155" s="19"/>
-      <c r="N155" s="19"/>
-      <c r="O155" s="19"/>
-      <c r="P155" s="19"/>
-      <c r="Q155" s="19"/>
       <c r="R155" s="5"/>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" s="4"/>
-      <c r="B156" s="19"/>
-      <c r="C156" s="19"/>
-      <c r="D156" s="19"/>
-      <c r="E156" s="19"/>
-      <c r="F156" s="19"/>
-      <c r="G156" s="19"/>
-      <c r="H156" s="19"/>
-      <c r="I156" s="19"/>
-      <c r="J156" s="19"/>
-      <c r="K156" s="19"/>
-      <c r="L156" s="19"/>
-      <c r="M156" s="19"/>
-      <c r="N156" s="19"/>
-      <c r="O156" s="19"/>
-      <c r="P156" s="19"/>
-      <c r="Q156" s="19"/>
       <c r="R156" s="5"/>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
-      <c r="B157" s="19"/>
-      <c r="C157" s="19"/>
-      <c r="D157" s="19"/>
-      <c r="E157" s="19"/>
-      <c r="F157" s="19"/>
-      <c r="G157" s="19"/>
-      <c r="H157" s="19"/>
-      <c r="I157" s="19"/>
-      <c r="J157" s="19"/>
-      <c r="K157" s="19"/>
-      <c r="L157" s="19"/>
-      <c r="M157" s="19"/>
-      <c r="N157" s="19"/>
-      <c r="O157" s="19"/>
-      <c r="P157" s="19"/>
-      <c r="Q157" s="19"/>
       <c r="R157" s="5"/>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
-      <c r="B158" s="19"/>
-      <c r="C158" s="19"/>
-      <c r="D158" s="19"/>
-      <c r="E158" s="19"/>
-      <c r="F158" s="19"/>
-      <c r="G158" s="19"/>
-      <c r="H158" s="19"/>
-      <c r="I158" s="19"/>
-      <c r="J158" s="19"/>
-      <c r="K158" s="19"/>
-      <c r="L158" s="19"/>
-      <c r="M158" s="19"/>
-      <c r="N158" s="19"/>
-      <c r="O158" s="19"/>
-      <c r="P158" s="19"/>
-      <c r="Q158" s="19"/>
       <c r="R158" s="5"/>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
-      <c r="B159" s="19"/>
-      <c r="C159" s="19"/>
-      <c r="D159" s="19"/>
-      <c r="E159" s="19"/>
-      <c r="F159" s="19"/>
-      <c r="G159" s="19"/>
-      <c r="H159" s="19"/>
-      <c r="I159" s="19"/>
-      <c r="J159" s="19"/>
-      <c r="K159" s="19"/>
-      <c r="L159" s="19"/>
-      <c r="M159" s="19"/>
-      <c r="N159" s="19"/>
-      <c r="O159" s="19"/>
-      <c r="P159" s="19"/>
-      <c r="Q159" s="19"/>
       <c r="R159" s="5"/>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
-      <c r="B160" s="19"/>
-      <c r="C160" s="19"/>
-      <c r="D160" s="19"/>
-      <c r="E160" s="19"/>
-      <c r="F160" s="19"/>
-      <c r="G160" s="19"/>
-      <c r="H160" s="19"/>
-      <c r="I160" s="19"/>
-      <c r="J160" s="19"/>
-      <c r="K160" s="19"/>
-      <c r="L160" s="19"/>
-      <c r="M160" s="19"/>
-      <c r="N160" s="19"/>
-      <c r="O160" s="19"/>
-      <c r="P160" s="19"/>
-      <c r="Q160" s="19"/>
       <c r="R160" s="5"/>
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
-      <c r="B161" s="19"/>
-      <c r="C161" s="19"/>
-      <c r="D161" s="19"/>
-      <c r="E161" s="19"/>
-      <c r="F161" s="19"/>
-      <c r="G161" s="19"/>
-      <c r="H161" s="19"/>
-      <c r="I161" s="19"/>
-      <c r="J161" s="19"/>
-      <c r="K161" s="19"/>
-      <c r="L161" s="19"/>
-      <c r="M161" s="19"/>
-      <c r="N161" s="19"/>
-      <c r="O161" s="19"/>
-      <c r="P161" s="19"/>
-      <c r="Q161" s="19"/>
       <c r="R161" s="5"/>
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
-      <c r="B162" s="19"/>
-      <c r="C162" s="19"/>
-      <c r="D162" s="19"/>
-      <c r="E162" s="19"/>
-      <c r="F162" s="19"/>
-      <c r="G162" s="19"/>
-      <c r="H162" s="19"/>
-      <c r="I162" s="19"/>
-      <c r="J162" s="19"/>
-      <c r="K162" s="19"/>
-      <c r="L162" s="19"/>
-      <c r="M162" s="19"/>
-      <c r="N162" s="19"/>
-      <c r="O162" s="19"/>
-      <c r="P162" s="19"/>
-      <c r="Q162" s="19"/>
       <c r="R162" s="5"/>
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
-      <c r="B163" s="19"/>
-      <c r="C163" s="19"/>
-      <c r="D163" s="19"/>
-      <c r="E163" s="19"/>
-      <c r="F163" s="19"/>
-      <c r="G163" s="19"/>
-      <c r="H163" s="19"/>
-      <c r="I163" s="19"/>
-      <c r="J163" s="19"/>
-      <c r="K163" s="19"/>
-      <c r="L163" s="19"/>
-      <c r="M163" s="19"/>
-      <c r="N163" s="19"/>
-      <c r="O163" s="19"/>
-      <c r="P163" s="19"/>
-      <c r="Q163" s="19"/>
       <c r="R163" s="5"/>
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
-      <c r="B164" s="19"/>
-      <c r="C164" s="19"/>
-      <c r="D164" s="19"/>
-      <c r="E164" s="19"/>
-      <c r="F164" s="19"/>
-      <c r="G164" s="19"/>
-      <c r="H164" s="19"/>
-      <c r="I164" s="19"/>
-      <c r="J164" s="19"/>
-      <c r="K164" s="19"/>
-      <c r="L164" s="19"/>
-      <c r="M164" s="19"/>
-      <c r="N164" s="19"/>
-      <c r="O164" s="19"/>
-      <c r="P164" s="19"/>
-      <c r="Q164" s="19"/>
       <c r="R164" s="5"/>
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
-      <c r="B165" s="19"/>
-      <c r="C165" s="19"/>
-      <c r="D165" s="19"/>
-      <c r="E165" s="19"/>
-      <c r="F165" s="19"/>
-      <c r="G165" s="19"/>
-      <c r="H165" s="19"/>
-      <c r="I165" s="19"/>
-      <c r="J165" s="19"/>
-      <c r="K165" s="19"/>
-      <c r="L165" s="19"/>
-      <c r="M165" s="19"/>
-      <c r="N165" s="19"/>
-      <c r="O165" s="19"/>
-      <c r="P165" s="19"/>
-      <c r="Q165" s="19"/>
       <c r="R165" s="5"/>
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" s="4"/>
-      <c r="B166" s="19"/>
-      <c r="C166" s="19"/>
-      <c r="D166" s="19"/>
-      <c r="E166" s="19"/>
-      <c r="F166" s="19"/>
-      <c r="G166" s="19"/>
-      <c r="H166" s="19"/>
-      <c r="I166" s="19"/>
-      <c r="J166" s="19"/>
-      <c r="K166" s="19"/>
-      <c r="L166" s="19"/>
-      <c r="M166" s="19"/>
-      <c r="N166" s="19"/>
-      <c r="O166" s="19"/>
-      <c r="P166" s="19"/>
-      <c r="Q166" s="19"/>
       <c r="R166" s="5"/>
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
-      <c r="B167" s="19"/>
-      <c r="C167" s="19"/>
-      <c r="D167" s="19"/>
-      <c r="E167" s="19"/>
-      <c r="F167" s="19"/>
-      <c r="G167" s="19"/>
-      <c r="H167" s="19"/>
-      <c r="I167" s="19"/>
-      <c r="J167" s="19"/>
-      <c r="K167" s="19"/>
-      <c r="L167" s="19"/>
-      <c r="M167" s="19"/>
-      <c r="N167" s="19"/>
-      <c r="O167" s="19"/>
-      <c r="P167" s="19"/>
-      <c r="Q167" s="19"/>
       <c r="R167" s="5"/>
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
-      <c r="B168" s="19"/>
-      <c r="C168" s="19"/>
-      <c r="D168" s="19"/>
-      <c r="E168" s="19"/>
-      <c r="F168" s="19"/>
-      <c r="G168" s="19"/>
-      <c r="H168" s="19"/>
-      <c r="I168" s="19"/>
-      <c r="J168" s="19"/>
-      <c r="K168" s="19"/>
-      <c r="L168" s="19"/>
-      <c r="M168" s="19"/>
-      <c r="N168" s="19"/>
-      <c r="O168" s="19"/>
-      <c r="P168" s="19"/>
-      <c r="Q168" s="19"/>
       <c r="R168" s="5"/>
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" s="4"/>
-      <c r="B169" s="19"/>
-      <c r="C169" s="19"/>
-      <c r="D169" s="19"/>
-      <c r="E169" s="19"/>
-      <c r="F169" s="19"/>
-      <c r="G169" s="19"/>
-      <c r="H169" s="19"/>
-      <c r="I169" s="19"/>
-      <c r="J169" s="19"/>
-      <c r="K169" s="19"/>
-      <c r="L169" s="19"/>
-      <c r="M169" s="19"/>
-      <c r="N169" s="19"/>
-      <c r="O169" s="19"/>
-      <c r="P169" s="19"/>
-      <c r="Q169" s="19"/>
       <c r="R169" s="5"/>
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.25">
@@ -10919,504 +9136,105 @@
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" s="4"/>
-      <c r="B174" s="20" t="s">
+      <c r="B174" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C174" s="19"/>
-      <c r="D174" s="19"/>
-      <c r="E174" s="19"/>
-      <c r="F174" s="19"/>
-      <c r="G174" s="19"/>
-      <c r="H174" s="19"/>
-      <c r="I174" s="19"/>
-      <c r="J174" s="19"/>
-      <c r="K174" s="19"/>
-      <c r="L174" s="19"/>
-      <c r="M174" s="19"/>
-      <c r="N174" s="19"/>
-      <c r="O174" s="19"/>
-      <c r="P174" s="19"/>
-      <c r="Q174" s="19"/>
       <c r="R174" s="5"/>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
-      <c r="B175" s="19"/>
-      <c r="C175" s="19"/>
-      <c r="D175" s="19"/>
-      <c r="E175" s="19"/>
-      <c r="F175" s="19"/>
-      <c r="G175" s="19"/>
-      <c r="H175" s="19"/>
-      <c r="I175" s="19"/>
-      <c r="J175" s="19"/>
-      <c r="K175" s="19"/>
-      <c r="L175" s="19"/>
-      <c r="M175" s="19"/>
-      <c r="N175" s="19"/>
-      <c r="O175" s="19"/>
-      <c r="P175" s="19"/>
-      <c r="Q175" s="19"/>
       <c r="R175" s="5"/>
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
-      <c r="B176" s="19"/>
-      <c r="C176" s="19"/>
-      <c r="D176" s="19"/>
-      <c r="E176" s="19"/>
-      <c r="F176" s="19"/>
-      <c r="G176" s="19"/>
-      <c r="H176" s="19"/>
-      <c r="I176" s="19"/>
-      <c r="J176" s="19"/>
-      <c r="K176" s="19"/>
-      <c r="L176" s="19"/>
-      <c r="M176" s="19"/>
-      <c r="N176" s="19"/>
-      <c r="O176" s="19"/>
-      <c r="P176" s="19"/>
-      <c r="Q176" s="19"/>
       <c r="R176" s="5"/>
     </row>
     <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
-      <c r="B177" s="19"/>
-      <c r="C177" s="19"/>
-      <c r="D177" s="19"/>
-      <c r="E177" s="19"/>
-      <c r="F177" s="19"/>
-      <c r="G177" s="19"/>
-      <c r="H177" s="19"/>
-      <c r="I177" s="19"/>
-      <c r="J177" s="19"/>
-      <c r="K177" s="19"/>
-      <c r="L177" s="19"/>
-      <c r="M177" s="19"/>
-      <c r="N177" s="19"/>
-      <c r="O177" s="19"/>
-      <c r="P177" s="19"/>
-      <c r="Q177" s="19"/>
       <c r="R177" s="5"/>
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
-      <c r="B178" s="19"/>
-      <c r="C178" s="19"/>
-      <c r="D178" s="19"/>
-      <c r="E178" s="19"/>
-      <c r="F178" s="19"/>
-      <c r="G178" s="19"/>
-      <c r="H178" s="19"/>
-      <c r="I178" s="19"/>
-      <c r="J178" s="19"/>
-      <c r="K178" s="19"/>
-      <c r="L178" s="19"/>
-      <c r="M178" s="19"/>
-      <c r="N178" s="19"/>
-      <c r="O178" s="19"/>
-      <c r="P178" s="19"/>
-      <c r="Q178" s="19"/>
       <c r="R178" s="5"/>
     </row>
     <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
-      <c r="B179" s="19"/>
-      <c r="C179" s="19"/>
-      <c r="D179" s="19"/>
-      <c r="E179" s="19"/>
-      <c r="F179" s="19"/>
-      <c r="G179" s="19"/>
-      <c r="H179" s="19"/>
-      <c r="I179" s="19"/>
-      <c r="J179" s="19"/>
-      <c r="K179" s="19"/>
-      <c r="L179" s="19"/>
-      <c r="M179" s="19"/>
-      <c r="N179" s="19"/>
-      <c r="O179" s="19"/>
-      <c r="P179" s="19"/>
-      <c r="Q179" s="19"/>
       <c r="R179" s="5"/>
     </row>
     <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
-      <c r="B180" s="19"/>
-      <c r="C180" s="19"/>
-      <c r="D180" s="19"/>
-      <c r="E180" s="19"/>
-      <c r="F180" s="19"/>
-      <c r="G180" s="19"/>
-      <c r="H180" s="19"/>
-      <c r="I180" s="19"/>
-      <c r="J180" s="19"/>
-      <c r="K180" s="19"/>
-      <c r="L180" s="19"/>
-      <c r="M180" s="19"/>
-      <c r="N180" s="19"/>
-      <c r="O180" s="19"/>
-      <c r="P180" s="19"/>
-      <c r="Q180" s="19"/>
       <c r="R180" s="5"/>
     </row>
     <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" s="4"/>
-      <c r="B181" s="19"/>
-      <c r="C181" s="19"/>
-      <c r="D181" s="19"/>
-      <c r="E181" s="19"/>
-      <c r="F181" s="19"/>
-      <c r="G181" s="19"/>
-      <c r="H181" s="19"/>
-      <c r="I181" s="19"/>
-      <c r="J181" s="19"/>
-      <c r="K181" s="19"/>
-      <c r="L181" s="19"/>
-      <c r="M181" s="19"/>
-      <c r="N181" s="19"/>
-      <c r="O181" s="19"/>
-      <c r="P181" s="19"/>
-      <c r="Q181" s="19"/>
       <c r="R181" s="5"/>
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" s="4"/>
-      <c r="B182" s="19"/>
-      <c r="C182" s="19"/>
-      <c r="D182" s="19"/>
-      <c r="E182" s="19"/>
-      <c r="F182" s="19"/>
-      <c r="G182" s="19"/>
-      <c r="H182" s="19"/>
-      <c r="I182" s="19"/>
-      <c r="J182" s="19"/>
-      <c r="K182" s="19"/>
-      <c r="L182" s="19"/>
-      <c r="M182" s="19"/>
-      <c r="N182" s="19"/>
-      <c r="O182" s="19"/>
-      <c r="P182" s="19"/>
-      <c r="Q182" s="19"/>
       <c r="R182" s="5"/>
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" s="4"/>
-      <c r="B183" s="19"/>
-      <c r="C183" s="19"/>
-      <c r="D183" s="19"/>
-      <c r="E183" s="19"/>
-      <c r="F183" s="19"/>
-      <c r="G183" s="19"/>
-      <c r="H183" s="19"/>
-      <c r="I183" s="19"/>
-      <c r="J183" s="19"/>
-      <c r="K183" s="19"/>
-      <c r="L183" s="19"/>
-      <c r="M183" s="19"/>
-      <c r="N183" s="19"/>
-      <c r="O183" s="19"/>
-      <c r="P183" s="19"/>
-      <c r="Q183" s="19"/>
       <c r="R183" s="5"/>
     </row>
     <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" s="4"/>
-      <c r="B184" s="19"/>
-      <c r="C184" s="19"/>
-      <c r="D184" s="19"/>
-      <c r="E184" s="19"/>
-      <c r="F184" s="19"/>
-      <c r="G184" s="19"/>
-      <c r="H184" s="19"/>
-      <c r="I184" s="19"/>
-      <c r="J184" s="19"/>
-      <c r="K184" s="19"/>
-      <c r="L184" s="19"/>
-      <c r="M184" s="19"/>
-      <c r="N184" s="19"/>
-      <c r="O184" s="19"/>
-      <c r="P184" s="19"/>
-      <c r="Q184" s="19"/>
       <c r="R184" s="5"/>
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" s="4"/>
-      <c r="B185" s="19"/>
-      <c r="C185" s="19"/>
-      <c r="D185" s="19"/>
-      <c r="E185" s="19"/>
-      <c r="F185" s="19"/>
-      <c r="G185" s="19"/>
-      <c r="H185" s="19"/>
-      <c r="I185" s="19"/>
-      <c r="J185" s="19"/>
-      <c r="K185" s="19"/>
-      <c r="L185" s="19"/>
-      <c r="M185" s="19"/>
-      <c r="N185" s="19"/>
-      <c r="O185" s="19"/>
-      <c r="P185" s="19"/>
-      <c r="Q185" s="19"/>
       <c r="R185" s="5"/>
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" s="4"/>
-      <c r="B186" s="19"/>
-      <c r="C186" s="19"/>
-      <c r="D186" s="19"/>
-      <c r="E186" s="19"/>
-      <c r="F186" s="19"/>
-      <c r="G186" s="19"/>
-      <c r="H186" s="19"/>
-      <c r="I186" s="19"/>
-      <c r="J186" s="19"/>
-      <c r="K186" s="19"/>
-      <c r="L186" s="19"/>
-      <c r="M186" s="19"/>
-      <c r="N186" s="19"/>
-      <c r="O186" s="19"/>
-      <c r="P186" s="19"/>
-      <c r="Q186" s="19"/>
       <c r="R186" s="5"/>
     </row>
     <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" s="4"/>
-      <c r="B187" s="19"/>
-      <c r="C187" s="19"/>
-      <c r="D187" s="19"/>
-      <c r="E187" s="19"/>
-      <c r="F187" s="19"/>
-      <c r="G187" s="19"/>
-      <c r="H187" s="19"/>
-      <c r="I187" s="19"/>
-      <c r="J187" s="19"/>
-      <c r="K187" s="19"/>
-      <c r="L187" s="19"/>
-      <c r="M187" s="19"/>
-      <c r="N187" s="19"/>
-      <c r="O187" s="19"/>
-      <c r="P187" s="19"/>
-      <c r="Q187" s="19"/>
       <c r="R187" s="5"/>
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" s="4"/>
-      <c r="B188" s="19"/>
-      <c r="C188" s="19"/>
-      <c r="D188" s="19"/>
-      <c r="E188" s="19"/>
-      <c r="F188" s="19"/>
-      <c r="G188" s="19"/>
-      <c r="H188" s="19"/>
-      <c r="I188" s="19"/>
-      <c r="J188" s="19"/>
-      <c r="K188" s="19"/>
-      <c r="L188" s="19"/>
-      <c r="M188" s="19"/>
-      <c r="N188" s="19"/>
-      <c r="O188" s="19"/>
-      <c r="P188" s="19"/>
-      <c r="Q188" s="19"/>
       <c r="R188" s="5"/>
     </row>
     <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" s="4"/>
-      <c r="B189" s="19"/>
-      <c r="C189" s="19"/>
-      <c r="D189" s="19"/>
-      <c r="E189" s="19"/>
-      <c r="F189" s="19"/>
-      <c r="G189" s="19"/>
-      <c r="H189" s="19"/>
-      <c r="I189" s="19"/>
-      <c r="J189" s="19"/>
-      <c r="K189" s="19"/>
-      <c r="L189" s="19"/>
-      <c r="M189" s="19"/>
-      <c r="N189" s="19"/>
-      <c r="O189" s="19"/>
-      <c r="P189" s="19"/>
-      <c r="Q189" s="19"/>
       <c r="R189" s="5"/>
     </row>
     <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" s="4"/>
-      <c r="B190" s="19"/>
-      <c r="C190" s="19"/>
-      <c r="D190" s="19"/>
-      <c r="E190" s="19"/>
-      <c r="F190" s="19"/>
-      <c r="G190" s="19"/>
-      <c r="H190" s="19"/>
-      <c r="I190" s="19"/>
-      <c r="J190" s="19"/>
-      <c r="K190" s="19"/>
-      <c r="L190" s="19"/>
-      <c r="M190" s="19"/>
-      <c r="N190" s="19"/>
-      <c r="O190" s="19"/>
-      <c r="P190" s="19"/>
-      <c r="Q190" s="19"/>
       <c r="R190" s="5"/>
     </row>
     <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
-      <c r="B191" s="19"/>
-      <c r="C191" s="19"/>
-      <c r="D191" s="19"/>
-      <c r="E191" s="19"/>
-      <c r="F191" s="19"/>
-      <c r="G191" s="19"/>
-      <c r="H191" s="19"/>
-      <c r="I191" s="19"/>
-      <c r="J191" s="19"/>
-      <c r="K191" s="19"/>
-      <c r="L191" s="19"/>
-      <c r="M191" s="19"/>
-      <c r="N191" s="19"/>
-      <c r="O191" s="19"/>
-      <c r="P191" s="19"/>
-      <c r="Q191" s="19"/>
       <c r="R191" s="5"/>
     </row>
     <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192" s="4"/>
-      <c r="B192" s="19"/>
-      <c r="C192" s="19"/>
-      <c r="D192" s="19"/>
-      <c r="E192" s="19"/>
-      <c r="F192" s="19"/>
-      <c r="G192" s="19"/>
-      <c r="H192" s="19"/>
-      <c r="I192" s="19"/>
-      <c r="J192" s="19"/>
-      <c r="K192" s="19"/>
-      <c r="L192" s="19"/>
-      <c r="M192" s="19"/>
-      <c r="N192" s="19"/>
-      <c r="O192" s="19"/>
-      <c r="P192" s="19"/>
-      <c r="Q192" s="19"/>
       <c r="R192" s="5"/>
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193" s="4"/>
-      <c r="B193" s="19"/>
-      <c r="C193" s="19"/>
-      <c r="D193" s="19"/>
-      <c r="E193" s="19"/>
-      <c r="F193" s="19"/>
-      <c r="G193" s="19"/>
-      <c r="H193" s="19"/>
-      <c r="I193" s="19"/>
-      <c r="J193" s="19"/>
-      <c r="K193" s="19"/>
-      <c r="L193" s="19"/>
-      <c r="M193" s="19"/>
-      <c r="N193" s="19"/>
-      <c r="O193" s="19"/>
-      <c r="P193" s="19"/>
-      <c r="Q193" s="19"/>
       <c r="R193" s="5"/>
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
-      <c r="B194" s="19"/>
-      <c r="C194" s="19"/>
-      <c r="D194" s="19"/>
-      <c r="E194" s="19"/>
-      <c r="F194" s="19"/>
-      <c r="G194" s="19"/>
-      <c r="H194" s="19"/>
-      <c r="I194" s="19"/>
-      <c r="J194" s="19"/>
-      <c r="K194" s="19"/>
-      <c r="L194" s="19"/>
-      <c r="M194" s="19"/>
-      <c r="N194" s="19"/>
-      <c r="O194" s="19"/>
-      <c r="P194" s="19"/>
-      <c r="Q194" s="19"/>
       <c r="R194" s="5"/>
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195" s="4"/>
-      <c r="B195" s="19"/>
-      <c r="C195" s="19"/>
-      <c r="D195" s="19"/>
-      <c r="E195" s="19"/>
-      <c r="F195" s="19"/>
-      <c r="G195" s="19"/>
-      <c r="H195" s="19"/>
-      <c r="I195" s="19"/>
-      <c r="J195" s="19"/>
-      <c r="K195" s="19"/>
-      <c r="L195" s="19"/>
-      <c r="M195" s="19"/>
-      <c r="N195" s="19"/>
-      <c r="O195" s="19"/>
-      <c r="P195" s="19"/>
-      <c r="Q195" s="19"/>
       <c r="R195" s="5"/>
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196" s="4"/>
-      <c r="B196" s="19"/>
-      <c r="C196" s="19"/>
-      <c r="D196" s="19"/>
-      <c r="E196" s="19"/>
-      <c r="F196" s="19"/>
-      <c r="G196" s="19"/>
-      <c r="H196" s="19"/>
-      <c r="I196" s="19"/>
-      <c r="J196" s="19"/>
-      <c r="K196" s="19"/>
-      <c r="L196" s="19"/>
-      <c r="M196" s="19"/>
-      <c r="N196" s="19"/>
-      <c r="O196" s="19"/>
-      <c r="P196" s="19"/>
-      <c r="Q196" s="19"/>
       <c r="R196" s="5"/>
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197" s="4"/>
-      <c r="B197" s="19"/>
-      <c r="C197" s="19"/>
-      <c r="D197" s="19"/>
-      <c r="E197" s="19"/>
-      <c r="F197" s="19"/>
-      <c r="G197" s="19"/>
-      <c r="H197" s="19"/>
-      <c r="I197" s="19"/>
-      <c r="J197" s="19"/>
-      <c r="K197" s="19"/>
-      <c r="L197" s="19"/>
-      <c r="M197" s="19"/>
-      <c r="N197" s="19"/>
-      <c r="O197" s="19"/>
-      <c r="P197" s="19"/>
-      <c r="Q197" s="19"/>
       <c r="R197" s="5"/>
     </row>
     <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198" s="4"/>
-      <c r="B198" s="19"/>
-      <c r="C198" s="19"/>
-      <c r="D198" s="19"/>
-      <c r="E198" s="19"/>
-      <c r="F198" s="19"/>
-      <c r="G198" s="19"/>
-      <c r="H198" s="19"/>
-      <c r="I198" s="19"/>
-      <c r="J198" s="19"/>
-      <c r="K198" s="19"/>
-      <c r="L198" s="19"/>
-      <c r="M198" s="19"/>
-      <c r="N198" s="19"/>
-      <c r="O198" s="19"/>
-      <c r="P198" s="19"/>
-      <c r="Q198" s="19"/>
       <c r="R198" s="5"/>
     </row>
     <row r="199" spans="1:18" x14ac:dyDescent="0.25">
@@ -11443,4 +9261,4686 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1675FA3A-EC21-4958-8841-6E145E01ED2D}">
+  <dimension ref="A3:T237"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W139" sqref="W139"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="5"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="5"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="5"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="8"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="5"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="5"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="5"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="5"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="5"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="5"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="5"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="5"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="5"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="5"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="5"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="8"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="3"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="5"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="5"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="5"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="5"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="5"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="5"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="5"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="5"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="5"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="5"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="5"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="5"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="5"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="5"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="5"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="5"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="5"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="5"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="5"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="5"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="5"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="5"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="5"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19"/>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="5"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
+      <c r="P57" s="19"/>
+      <c r="Q57" s="5"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="19"/>
+      <c r="P58" s="19"/>
+      <c r="Q58" s="5"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="5"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="19"/>
+      <c r="P60" s="19"/>
+      <c r="Q60" s="5"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="19"/>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="5"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="19"/>
+      <c r="P62" s="19"/>
+      <c r="Q62" s="5"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
+      <c r="O63" s="19"/>
+      <c r="P63" s="19"/>
+      <c r="Q63" s="5"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="19"/>
+      <c r="O64" s="19"/>
+      <c r="P64" s="19"/>
+      <c r="Q64" s="5"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="19"/>
+      <c r="O65" s="19"/>
+      <c r="P65" s="19"/>
+      <c r="Q65" s="5"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="19"/>
+      <c r="O66" s="19"/>
+      <c r="P66" s="19"/>
+      <c r="Q66" s="5"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="19"/>
+      <c r="O67" s="19"/>
+      <c r="P67" s="19"/>
+      <c r="Q67" s="5"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="19"/>
+      <c r="N68" s="19"/>
+      <c r="O68" s="19"/>
+      <c r="P68" s="19"/>
+      <c r="Q68" s="5"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="19"/>
+      <c r="M69" s="19"/>
+      <c r="N69" s="19"/>
+      <c r="O69" s="19"/>
+      <c r="P69" s="19"/>
+      <c r="Q69" s="5"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="19"/>
+      <c r="M70" s="19"/>
+      <c r="N70" s="19"/>
+      <c r="O70" s="19"/>
+      <c r="P70" s="19"/>
+      <c r="Q70" s="5"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="19"/>
+      <c r="L71" s="19"/>
+      <c r="M71" s="19"/>
+      <c r="N71" s="19"/>
+      <c r="O71" s="19"/>
+      <c r="P71" s="19"/>
+      <c r="Q71" s="5"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="19"/>
+      <c r="O72" s="19"/>
+      <c r="P72" s="19"/>
+      <c r="Q72" s="5"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="19"/>
+      <c r="K73" s="19"/>
+      <c r="L73" s="19"/>
+      <c r="M73" s="19"/>
+      <c r="N73" s="19"/>
+      <c r="O73" s="19"/>
+      <c r="P73" s="19"/>
+      <c r="Q73" s="5"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="19"/>
+      <c r="K74" s="19"/>
+      <c r="L74" s="19"/>
+      <c r="M74" s="19"/>
+      <c r="N74" s="19"/>
+      <c r="O74" s="19"/>
+      <c r="P74" s="19"/>
+      <c r="Q74" s="5"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="19"/>
+      <c r="K75" s="19"/>
+      <c r="L75" s="19"/>
+      <c r="M75" s="19"/>
+      <c r="N75" s="19"/>
+      <c r="O75" s="19"/>
+      <c r="P75" s="19"/>
+      <c r="Q75" s="5"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="19"/>
+      <c r="K76" s="19"/>
+      <c r="L76" s="19"/>
+      <c r="M76" s="19"/>
+      <c r="N76" s="19"/>
+      <c r="O76" s="19"/>
+      <c r="P76" s="19"/>
+      <c r="Q76" s="5"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="19"/>
+      <c r="M77" s="19"/>
+      <c r="N77" s="19"/>
+      <c r="O77" s="19"/>
+      <c r="P77" s="19"/>
+      <c r="Q77" s="5"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="19"/>
+      <c r="K78" s="19"/>
+      <c r="L78" s="19"/>
+      <c r="M78" s="19"/>
+      <c r="N78" s="19"/>
+      <c r="O78" s="19"/>
+      <c r="P78" s="19"/>
+      <c r="Q78" s="5"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="19"/>
+      <c r="K79" s="19"/>
+      <c r="L79" s="19"/>
+      <c r="M79" s="19"/>
+      <c r="N79" s="19"/>
+      <c r="O79" s="19"/>
+      <c r="P79" s="19"/>
+      <c r="Q79" s="5"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+      <c r="B80" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="19"/>
+      <c r="K80" s="19"/>
+      <c r="L80" s="19"/>
+      <c r="M80" s="19"/>
+      <c r="N80" s="19"/>
+      <c r="O80" s="19"/>
+      <c r="P80" s="19"/>
+      <c r="Q80" s="5"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="19"/>
+      <c r="K81" s="19"/>
+      <c r="L81" s="19"/>
+      <c r="M81" s="19"/>
+      <c r="N81" s="19"/>
+      <c r="O81" s="19"/>
+      <c r="P81" s="19"/>
+      <c r="Q81" s="5"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="19"/>
+      <c r="K82" s="19"/>
+      <c r="L82" s="19"/>
+      <c r="M82" s="19"/>
+      <c r="N82" s="19"/>
+      <c r="O82" s="19"/>
+      <c r="P82" s="19"/>
+      <c r="Q82" s="5"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="19"/>
+      <c r="K83" s="19"/>
+      <c r="L83" s="19"/>
+      <c r="M83" s="19"/>
+      <c r="N83" s="19"/>
+      <c r="O83" s="19"/>
+      <c r="P83" s="19"/>
+      <c r="Q83" s="5"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="19"/>
+      <c r="K84" s="19"/>
+      <c r="L84" s="19"/>
+      <c r="M84" s="19"/>
+      <c r="N84" s="19"/>
+      <c r="O84" s="19"/>
+      <c r="P84" s="19"/>
+      <c r="Q84" s="5"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="19"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="19"/>
+      <c r="K85" s="19"/>
+      <c r="L85" s="19"/>
+      <c r="M85" s="19"/>
+      <c r="N85" s="19"/>
+      <c r="O85" s="19"/>
+      <c r="P85" s="19"/>
+      <c r="Q85" s="5"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="19"/>
+      <c r="K86" s="19"/>
+      <c r="L86" s="19"/>
+      <c r="M86" s="19"/>
+      <c r="N86" s="19"/>
+      <c r="O86" s="19"/>
+      <c r="P86" s="19"/>
+      <c r="Q86" s="5"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="19"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="19"/>
+      <c r="K87" s="19"/>
+      <c r="L87" s="19"/>
+      <c r="M87" s="19"/>
+      <c r="N87" s="19"/>
+      <c r="O87" s="19"/>
+      <c r="P87" s="19"/>
+      <c r="Q87" s="5"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="19"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="19"/>
+      <c r="K88" s="19"/>
+      <c r="L88" s="19"/>
+      <c r="M88" s="19"/>
+      <c r="N88" s="19"/>
+      <c r="O88" s="19"/>
+      <c r="P88" s="19"/>
+      <c r="Q88" s="5"/>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="19"/>
+      <c r="K89" s="19"/>
+      <c r="L89" s="19"/>
+      <c r="M89" s="19"/>
+      <c r="N89" s="19"/>
+      <c r="O89" s="19"/>
+      <c r="P89" s="19"/>
+      <c r="Q89" s="5"/>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="19"/>
+      <c r="I90" s="19"/>
+      <c r="J90" s="19"/>
+      <c r="K90" s="19"/>
+      <c r="L90" s="19"/>
+      <c r="M90" s="19"/>
+      <c r="N90" s="19"/>
+      <c r="O90" s="19"/>
+      <c r="P90" s="19"/>
+      <c r="Q90" s="5"/>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="19"/>
+      <c r="I91" s="19"/>
+      <c r="J91" s="19"/>
+      <c r="K91" s="19"/>
+      <c r="L91" s="19"/>
+      <c r="M91" s="19"/>
+      <c r="N91" s="19"/>
+      <c r="O91" s="19"/>
+      <c r="P91" s="19"/>
+      <c r="Q91" s="5"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="19"/>
+      <c r="I92" s="19"/>
+      <c r="J92" s="19"/>
+      <c r="K92" s="19"/>
+      <c r="L92" s="19"/>
+      <c r="M92" s="19"/>
+      <c r="N92" s="19"/>
+      <c r="O92" s="19"/>
+      <c r="P92" s="19"/>
+      <c r="Q92" s="5"/>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="19"/>
+      <c r="H93" s="19"/>
+      <c r="I93" s="19"/>
+      <c r="J93" s="19"/>
+      <c r="K93" s="19"/>
+      <c r="L93" s="19"/>
+      <c r="M93" s="19"/>
+      <c r="N93" s="19"/>
+      <c r="O93" s="19"/>
+      <c r="P93" s="19"/>
+      <c r="Q93" s="5"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="19"/>
+      <c r="I94" s="19"/>
+      <c r="J94" s="19"/>
+      <c r="K94" s="19"/>
+      <c r="L94" s="19"/>
+      <c r="M94" s="19"/>
+      <c r="N94" s="19"/>
+      <c r="O94" s="19"/>
+      <c r="P94" s="19"/>
+      <c r="Q94" s="5"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="19"/>
+      <c r="H95" s="19"/>
+      <c r="I95" s="19"/>
+      <c r="J95" s="19"/>
+      <c r="K95" s="19"/>
+      <c r="L95" s="19"/>
+      <c r="M95" s="19"/>
+      <c r="N95" s="19"/>
+      <c r="O95" s="19"/>
+      <c r="P95" s="19"/>
+      <c r="Q95" s="5"/>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="19"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="19"/>
+      <c r="K96" s="19"/>
+      <c r="L96" s="19"/>
+      <c r="M96" s="19"/>
+      <c r="N96" s="19"/>
+      <c r="O96" s="19"/>
+      <c r="P96" s="19"/>
+      <c r="Q96" s="5"/>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+      <c r="B97" s="19"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="19"/>
+      <c r="I97" s="19"/>
+      <c r="J97" s="19"/>
+      <c r="K97" s="19"/>
+      <c r="L97" s="19"/>
+      <c r="M97" s="19"/>
+      <c r="N97" s="19"/>
+      <c r="O97" s="19"/>
+      <c r="P97" s="19"/>
+      <c r="Q97" s="5"/>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+      <c r="B98" s="19"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
+      <c r="G98" s="19"/>
+      <c r="H98" s="19"/>
+      <c r="I98" s="19"/>
+      <c r="J98" s="19"/>
+      <c r="K98" s="19"/>
+      <c r="L98" s="19"/>
+      <c r="M98" s="19"/>
+      <c r="N98" s="19"/>
+      <c r="O98" s="19"/>
+      <c r="P98" s="19"/>
+      <c r="Q98" s="5"/>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="19"/>
+      <c r="H99" s="19"/>
+      <c r="I99" s="19"/>
+      <c r="J99" s="19"/>
+      <c r="K99" s="19"/>
+      <c r="L99" s="19"/>
+      <c r="M99" s="19"/>
+      <c r="N99" s="19"/>
+      <c r="O99" s="19"/>
+      <c r="P99" s="19"/>
+      <c r="Q99" s="5"/>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="19"/>
+      <c r="G100" s="19"/>
+      <c r="H100" s="19"/>
+      <c r="I100" s="19"/>
+      <c r="J100" s="19"/>
+      <c r="K100" s="19"/>
+      <c r="L100" s="19"/>
+      <c r="M100" s="19"/>
+      <c r="N100" s="19"/>
+      <c r="O100" s="19"/>
+      <c r="P100" s="19"/>
+      <c r="Q100" s="5"/>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A101" s="4"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="19"/>
+      <c r="G101" s="19"/>
+      <c r="H101" s="19"/>
+      <c r="I101" s="19"/>
+      <c r="J101" s="19"/>
+      <c r="K101" s="19"/>
+      <c r="L101" s="19"/>
+      <c r="M101" s="19"/>
+      <c r="N101" s="19"/>
+      <c r="O101" s="19"/>
+      <c r="P101" s="19"/>
+      <c r="Q101" s="5"/>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
+      <c r="B102" s="19"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="19"/>
+      <c r="H102" s="19"/>
+      <c r="I102" s="19"/>
+      <c r="J102" s="19"/>
+      <c r="K102" s="19"/>
+      <c r="L102" s="19"/>
+      <c r="M102" s="19"/>
+      <c r="N102" s="19"/>
+      <c r="O102" s="19"/>
+      <c r="P102" s="19"/>
+      <c r="Q102" s="5"/>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="19"/>
+      <c r="G103" s="19"/>
+      <c r="H103" s="19"/>
+      <c r="I103" s="19"/>
+      <c r="J103" s="19"/>
+      <c r="K103" s="19"/>
+      <c r="L103" s="19"/>
+      <c r="M103" s="19"/>
+      <c r="N103" s="19"/>
+      <c r="O103" s="19"/>
+      <c r="P103" s="19"/>
+      <c r="Q103" s="5"/>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+      <c r="B104" s="19"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="19"/>
+      <c r="G104" s="19"/>
+      <c r="H104" s="19"/>
+      <c r="I104" s="19"/>
+      <c r="J104" s="19"/>
+      <c r="K104" s="19"/>
+      <c r="L104" s="19"/>
+      <c r="M104" s="19"/>
+      <c r="N104" s="19"/>
+      <c r="O104" s="19"/>
+      <c r="P104" s="19"/>
+      <c r="Q104" s="5"/>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="19"/>
+      <c r="G105" s="19"/>
+      <c r="H105" s="19"/>
+      <c r="I105" s="19"/>
+      <c r="J105" s="19"/>
+      <c r="K105" s="19"/>
+      <c r="L105" s="19"/>
+      <c r="M105" s="19"/>
+      <c r="N105" s="19"/>
+      <c r="O105" s="19"/>
+      <c r="P105" s="19"/>
+      <c r="Q105" s="5"/>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A106" s="4"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="19"/>
+      <c r="H106" s="19"/>
+      <c r="I106" s="19"/>
+      <c r="J106" s="19"/>
+      <c r="K106" s="19"/>
+      <c r="L106" s="19"/>
+      <c r="M106" s="19"/>
+      <c r="N106" s="19"/>
+      <c r="O106" s="19"/>
+      <c r="P106" s="19"/>
+      <c r="Q106" s="5"/>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A107" s="4"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="19"/>
+      <c r="G107" s="19"/>
+      <c r="H107" s="19"/>
+      <c r="I107" s="19"/>
+      <c r="J107" s="19"/>
+      <c r="K107" s="19"/>
+      <c r="L107" s="19"/>
+      <c r="M107" s="19"/>
+      <c r="N107" s="19"/>
+      <c r="O107" s="19"/>
+      <c r="P107" s="19"/>
+      <c r="Q107" s="5"/>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A108" s="4"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="19"/>
+      <c r="G108" s="19"/>
+      <c r="H108" s="19"/>
+      <c r="I108" s="19"/>
+      <c r="J108" s="19"/>
+      <c r="K108" s="19"/>
+      <c r="L108" s="19"/>
+      <c r="M108" s="19"/>
+      <c r="N108" s="19"/>
+      <c r="O108" s="19"/>
+      <c r="P108" s="19"/>
+      <c r="Q108" s="5"/>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A109" s="6"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7"/>
+      <c r="J109" s="7"/>
+      <c r="K109" s="7"/>
+      <c r="L109" s="7"/>
+      <c r="M109" s="7"/>
+      <c r="N109" s="7"/>
+      <c r="O109" s="7"/>
+      <c r="P109" s="7"/>
+      <c r="Q109" s="8"/>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B112" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
+      <c r="P112" s="2"/>
+      <c r="Q112" s="3"/>
+    </row>
+    <row r="113" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B113" s="4"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="19"/>
+      <c r="G113" s="19"/>
+      <c r="H113" s="19"/>
+      <c r="I113" s="19"/>
+      <c r="J113" s="19"/>
+      <c r="K113" s="19"/>
+      <c r="L113" s="19"/>
+      <c r="M113" s="19"/>
+      <c r="N113" s="19"/>
+      <c r="O113" s="19"/>
+      <c r="P113" s="19"/>
+      <c r="Q113" s="5"/>
+    </row>
+    <row r="114" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B114" s="4"/>
+      <c r="C114" s="19"/>
+      <c r="D114" s="19"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="19"/>
+      <c r="G114" s="19"/>
+      <c r="H114" s="19"/>
+      <c r="I114" s="19"/>
+      <c r="J114" s="19"/>
+      <c r="K114" s="19"/>
+      <c r="L114" s="19"/>
+      <c r="M114" s="19"/>
+      <c r="N114" s="19"/>
+      <c r="O114" s="19"/>
+      <c r="P114" s="19"/>
+      <c r="Q114" s="5"/>
+    </row>
+    <row r="115" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B115" s="4"/>
+      <c r="C115" s="19"/>
+      <c r="D115" s="19"/>
+      <c r="E115" s="19"/>
+      <c r="F115" s="19"/>
+      <c r="G115" s="19"/>
+      <c r="H115" s="19"/>
+      <c r="I115" s="19"/>
+      <c r="J115" s="19"/>
+      <c r="K115" s="19"/>
+      <c r="L115" s="19"/>
+      <c r="M115" s="19"/>
+      <c r="N115" s="19"/>
+      <c r="O115" s="19"/>
+      <c r="P115" s="19"/>
+      <c r="Q115" s="5"/>
+    </row>
+    <row r="116" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B116" s="4"/>
+      <c r="C116" s="19"/>
+      <c r="D116" s="19"/>
+      <c r="E116" s="19"/>
+      <c r="F116" s="19"/>
+      <c r="G116" s="19"/>
+      <c r="H116" s="19"/>
+      <c r="I116" s="19"/>
+      <c r="J116" s="19"/>
+      <c r="K116" s="19"/>
+      <c r="L116" s="19"/>
+      <c r="M116" s="19"/>
+      <c r="N116" s="19"/>
+      <c r="O116" s="19"/>
+      <c r="P116" s="19"/>
+      <c r="Q116" s="5"/>
+    </row>
+    <row r="117" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B117" s="4"/>
+      <c r="C117" s="19"/>
+      <c r="D117" s="19"/>
+      <c r="E117" s="19"/>
+      <c r="F117" s="19"/>
+      <c r="G117" s="19"/>
+      <c r="H117" s="19"/>
+      <c r="I117" s="19"/>
+      <c r="J117" s="19"/>
+      <c r="K117" s="19"/>
+      <c r="L117" s="19"/>
+      <c r="M117" s="19"/>
+      <c r="N117" s="19"/>
+      <c r="O117" s="19"/>
+      <c r="P117" s="19"/>
+      <c r="Q117" s="5"/>
+    </row>
+    <row r="118" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B118" s="4"/>
+      <c r="C118" s="19"/>
+      <c r="D118" s="19"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="19"/>
+      <c r="G118" s="19"/>
+      <c r="H118" s="19"/>
+      <c r="I118" s="19"/>
+      <c r="J118" s="19"/>
+      <c r="K118" s="19"/>
+      <c r="L118" s="19"/>
+      <c r="M118" s="19"/>
+      <c r="N118" s="19"/>
+      <c r="O118" s="19"/>
+      <c r="P118" s="19"/>
+      <c r="Q118" s="5"/>
+    </row>
+    <row r="119" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B119" s="4"/>
+      <c r="C119" s="19"/>
+      <c r="D119" s="19"/>
+      <c r="E119" s="19"/>
+      <c r="F119" s="19"/>
+      <c r="G119" s="19"/>
+      <c r="H119" s="19"/>
+      <c r="I119" s="19"/>
+      <c r="J119" s="19"/>
+      <c r="K119" s="19"/>
+      <c r="L119" s="19"/>
+      <c r="M119" s="19"/>
+      <c r="N119" s="19"/>
+      <c r="O119" s="19"/>
+      <c r="P119" s="19"/>
+      <c r="Q119" s="5"/>
+    </row>
+    <row r="120" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B120" s="4"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="19"/>
+      <c r="E120" s="19"/>
+      <c r="F120" s="19"/>
+      <c r="G120" s="19"/>
+      <c r="H120" s="19"/>
+      <c r="I120" s="19"/>
+      <c r="J120" s="19"/>
+      <c r="K120" s="19"/>
+      <c r="L120" s="19"/>
+      <c r="M120" s="19"/>
+      <c r="N120" s="19"/>
+      <c r="O120" s="19"/>
+      <c r="P120" s="19"/>
+      <c r="Q120" s="5"/>
+    </row>
+    <row r="121" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B121" s="4"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="19"/>
+      <c r="E121" s="19"/>
+      <c r="F121" s="19"/>
+      <c r="G121" s="19"/>
+      <c r="H121" s="19"/>
+      <c r="I121" s="19"/>
+      <c r="J121" s="19"/>
+      <c r="K121" s="19"/>
+      <c r="L121" s="19"/>
+      <c r="M121" s="19"/>
+      <c r="N121" s="19"/>
+      <c r="O121" s="19"/>
+      <c r="P121" s="19"/>
+      <c r="Q121" s="5"/>
+    </row>
+    <row r="122" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B122" s="4"/>
+      <c r="C122" s="19"/>
+      <c r="D122" s="19"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="19"/>
+      <c r="G122" s="19"/>
+      <c r="H122" s="19"/>
+      <c r="I122" s="19"/>
+      <c r="J122" s="19"/>
+      <c r="K122" s="19"/>
+      <c r="L122" s="19"/>
+      <c r="M122" s="19"/>
+      <c r="N122" s="19"/>
+      <c r="O122" s="19"/>
+      <c r="P122" s="19"/>
+      <c r="Q122" s="5"/>
+    </row>
+    <row r="123" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B123" s="4"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="19"/>
+      <c r="E123" s="19"/>
+      <c r="F123" s="19"/>
+      <c r="G123" s="19"/>
+      <c r="H123" s="19"/>
+      <c r="I123" s="19"/>
+      <c r="J123" s="19"/>
+      <c r="K123" s="19"/>
+      <c r="L123" s="19"/>
+      <c r="M123" s="19"/>
+      <c r="N123" s="19"/>
+      <c r="O123" s="19"/>
+      <c r="P123" s="19"/>
+      <c r="Q123" s="5"/>
+    </row>
+    <row r="124" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B124" s="4"/>
+      <c r="C124" s="19"/>
+      <c r="D124" s="19"/>
+      <c r="E124" s="19"/>
+      <c r="F124" s="19"/>
+      <c r="G124" s="19"/>
+      <c r="H124" s="19"/>
+      <c r="I124" s="19"/>
+      <c r="J124" s="19"/>
+      <c r="K124" s="19"/>
+      <c r="L124" s="19"/>
+      <c r="M124" s="19"/>
+      <c r="N124" s="19"/>
+      <c r="O124" s="19"/>
+      <c r="P124" s="19"/>
+      <c r="Q124" s="5"/>
+    </row>
+    <row r="125" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B125" s="4"/>
+      <c r="C125" s="19"/>
+      <c r="D125" s="19"/>
+      <c r="E125" s="19"/>
+      <c r="F125" s="19"/>
+      <c r="G125" s="19"/>
+      <c r="H125" s="19"/>
+      <c r="I125" s="19"/>
+      <c r="J125" s="19"/>
+      <c r="K125" s="19"/>
+      <c r="L125" s="19"/>
+      <c r="M125" s="19"/>
+      <c r="N125" s="19"/>
+      <c r="O125" s="19"/>
+      <c r="P125" s="19"/>
+      <c r="Q125" s="5"/>
+    </row>
+    <row r="126" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B126" s="4"/>
+      <c r="C126" s="19"/>
+      <c r="D126" s="19"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="19"/>
+      <c r="G126" s="19"/>
+      <c r="H126" s="19"/>
+      <c r="I126" s="19"/>
+      <c r="J126" s="19"/>
+      <c r="K126" s="19"/>
+      <c r="L126" s="19"/>
+      <c r="M126" s="19"/>
+      <c r="N126" s="19"/>
+      <c r="O126" s="19"/>
+      <c r="P126" s="19"/>
+      <c r="Q126" s="5"/>
+    </row>
+    <row r="127" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B127" s="4"/>
+      <c r="C127" s="19"/>
+      <c r="D127" s="19"/>
+      <c r="E127" s="19"/>
+      <c r="F127" s="19"/>
+      <c r="G127" s="19"/>
+      <c r="H127" s="19"/>
+      <c r="I127" s="19"/>
+      <c r="J127" s="19"/>
+      <c r="K127" s="19"/>
+      <c r="L127" s="19"/>
+      <c r="M127" s="19"/>
+      <c r="N127" s="19"/>
+      <c r="O127" s="19"/>
+      <c r="P127" s="19"/>
+      <c r="Q127" s="5"/>
+    </row>
+    <row r="128" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B128" s="4"/>
+      <c r="C128" s="19"/>
+      <c r="D128" s="19"/>
+      <c r="E128" s="19"/>
+      <c r="F128" s="19"/>
+      <c r="G128" s="19"/>
+      <c r="H128" s="19"/>
+      <c r="I128" s="19"/>
+      <c r="J128" s="19"/>
+      <c r="K128" s="19"/>
+      <c r="L128" s="19"/>
+      <c r="M128" s="19"/>
+      <c r="N128" s="19"/>
+      <c r="O128" s="19"/>
+      <c r="P128" s="19"/>
+      <c r="Q128" s="5"/>
+    </row>
+    <row r="129" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B129" s="4"/>
+      <c r="C129" s="19"/>
+      <c r="D129" s="19"/>
+      <c r="E129" s="19"/>
+      <c r="F129" s="19"/>
+      <c r="G129" s="19"/>
+      <c r="H129" s="19"/>
+      <c r="I129" s="19"/>
+      <c r="J129" s="19"/>
+      <c r="K129" s="19"/>
+      <c r="L129" s="19"/>
+      <c r="M129" s="19"/>
+      <c r="N129" s="19"/>
+      <c r="O129" s="19"/>
+      <c r="P129" s="19"/>
+      <c r="Q129" s="5"/>
+    </row>
+    <row r="130" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B130" s="4"/>
+      <c r="C130" s="19"/>
+      <c r="D130" s="19"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="19"/>
+      <c r="G130" s="19"/>
+      <c r="H130" s="19"/>
+      <c r="I130" s="19"/>
+      <c r="J130" s="19"/>
+      <c r="K130" s="19"/>
+      <c r="L130" s="19"/>
+      <c r="M130" s="19"/>
+      <c r="N130" s="19"/>
+      <c r="O130" s="19"/>
+      <c r="P130" s="19"/>
+      <c r="Q130" s="5"/>
+    </row>
+    <row r="131" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B131" s="4"/>
+      <c r="C131" s="19"/>
+      <c r="D131" s="19"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="19"/>
+      <c r="G131" s="19"/>
+      <c r="H131" s="19"/>
+      <c r="I131" s="19"/>
+      <c r="J131" s="19"/>
+      <c r="K131" s="19"/>
+      <c r="L131" s="19"/>
+      <c r="M131" s="19"/>
+      <c r="N131" s="19"/>
+      <c r="O131" s="19"/>
+      <c r="P131" s="19"/>
+      <c r="Q131" s="5"/>
+    </row>
+    <row r="132" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B132" s="4"/>
+      <c r="C132" s="19"/>
+      <c r="D132" s="19"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="19"/>
+      <c r="G132" s="19"/>
+      <c r="H132" s="19"/>
+      <c r="I132" s="19"/>
+      <c r="J132" s="19"/>
+      <c r="K132" s="19"/>
+      <c r="L132" s="19"/>
+      <c r="M132" s="19"/>
+      <c r="N132" s="19"/>
+      <c r="O132" s="19"/>
+      <c r="P132" s="19"/>
+      <c r="Q132" s="5"/>
+    </row>
+    <row r="133" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B133" s="4"/>
+      <c r="C133" s="19"/>
+      <c r="D133" s="19"/>
+      <c r="E133" s="19"/>
+      <c r="F133" s="19"/>
+      <c r="G133" s="19"/>
+      <c r="H133" s="19"/>
+      <c r="I133" s="19"/>
+      <c r="J133" s="19"/>
+      <c r="K133" s="19"/>
+      <c r="L133" s="19"/>
+      <c r="M133" s="19"/>
+      <c r="N133" s="19"/>
+      <c r="O133" s="19"/>
+      <c r="P133" s="19"/>
+      <c r="Q133" s="5"/>
+    </row>
+    <row r="134" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B134" s="4"/>
+      <c r="C134" s="19"/>
+      <c r="D134" s="19"/>
+      <c r="E134" s="19"/>
+      <c r="F134" s="19"/>
+      <c r="G134" s="19"/>
+      <c r="H134" s="19"/>
+      <c r="I134" s="19"/>
+      <c r="J134" s="19"/>
+      <c r="K134" s="19"/>
+      <c r="L134" s="19"/>
+      <c r="M134" s="19"/>
+      <c r="N134" s="19"/>
+      <c r="O134" s="19"/>
+      <c r="P134" s="19"/>
+      <c r="Q134" s="5"/>
+    </row>
+    <row r="135" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B135" s="4"/>
+      <c r="C135" s="19"/>
+      <c r="D135" s="19"/>
+      <c r="E135" s="19"/>
+      <c r="F135" s="19"/>
+      <c r="G135" s="19"/>
+      <c r="H135" s="19"/>
+      <c r="I135" s="19"/>
+      <c r="J135" s="19"/>
+      <c r="K135" s="19"/>
+      <c r="L135" s="19"/>
+      <c r="M135" s="19"/>
+      <c r="N135" s="19"/>
+      <c r="O135" s="19"/>
+      <c r="P135" s="19"/>
+      <c r="Q135" s="5"/>
+    </row>
+    <row r="136" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B136" s="4"/>
+      <c r="C136" s="19"/>
+      <c r="D136" s="19"/>
+      <c r="E136" s="19"/>
+      <c r="F136" s="19"/>
+      <c r="G136" s="19"/>
+      <c r="H136" s="19"/>
+      <c r="I136" s="19"/>
+      <c r="J136" s="19"/>
+      <c r="K136" s="19"/>
+      <c r="L136" s="19"/>
+      <c r="M136" s="19"/>
+      <c r="N136" s="19"/>
+      <c r="O136" s="19"/>
+      <c r="P136" s="19"/>
+      <c r="Q136" s="5"/>
+    </row>
+    <row r="137" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B137" s="4"/>
+      <c r="C137" s="19"/>
+      <c r="D137" s="19"/>
+      <c r="E137" s="19"/>
+      <c r="F137" s="19"/>
+      <c r="G137" s="19"/>
+      <c r="H137" s="19"/>
+      <c r="I137" s="19"/>
+      <c r="J137" s="19"/>
+      <c r="K137" s="19"/>
+      <c r="L137" s="19"/>
+      <c r="M137" s="19"/>
+      <c r="N137" s="19"/>
+      <c r="O137" s="19"/>
+      <c r="P137" s="19"/>
+      <c r="Q137" s="5"/>
+    </row>
+    <row r="138" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B138" s="4"/>
+      <c r="C138" s="19"/>
+      <c r="D138" s="19"/>
+      <c r="E138" s="19"/>
+      <c r="F138" s="19"/>
+      <c r="G138" s="19"/>
+      <c r="H138" s="19"/>
+      <c r="I138" s="19"/>
+      <c r="J138" s="19"/>
+      <c r="K138" s="19"/>
+      <c r="L138" s="19"/>
+      <c r="M138" s="19"/>
+      <c r="N138" s="19"/>
+      <c r="O138" s="19"/>
+      <c r="P138" s="19"/>
+      <c r="Q138" s="5"/>
+    </row>
+    <row r="139" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B139" s="4"/>
+      <c r="C139" s="19"/>
+      <c r="D139" s="19"/>
+      <c r="E139" s="19"/>
+      <c r="F139" s="19"/>
+      <c r="G139" s="19"/>
+      <c r="H139" s="19"/>
+      <c r="I139" s="19"/>
+      <c r="J139" s="19"/>
+      <c r="K139" s="19"/>
+      <c r="L139" s="19"/>
+      <c r="M139" s="19"/>
+      <c r="N139" s="19"/>
+      <c r="O139" s="19"/>
+      <c r="P139" s="19"/>
+      <c r="Q139" s="5"/>
+    </row>
+    <row r="140" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B140" s="4"/>
+      <c r="C140" s="19"/>
+      <c r="D140" s="19"/>
+      <c r="E140" s="19"/>
+      <c r="F140" s="19"/>
+      <c r="G140" s="19"/>
+      <c r="H140" s="19"/>
+      <c r="I140" s="19"/>
+      <c r="J140" s="19"/>
+      <c r="K140" s="19"/>
+      <c r="L140" s="19"/>
+      <c r="M140" s="19"/>
+      <c r="N140" s="19"/>
+      <c r="O140" s="19"/>
+      <c r="P140" s="19"/>
+      <c r="Q140" s="5"/>
+    </row>
+    <row r="141" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B141" s="4"/>
+      <c r="C141" s="19"/>
+      <c r="D141" s="19"/>
+      <c r="E141" s="19"/>
+      <c r="F141" s="19"/>
+      <c r="G141" s="19"/>
+      <c r="H141" s="19"/>
+      <c r="I141" s="19"/>
+      <c r="J141" s="19"/>
+      <c r="K141" s="19"/>
+      <c r="L141" s="19"/>
+      <c r="M141" s="19"/>
+      <c r="N141" s="19"/>
+      <c r="O141" s="19"/>
+      <c r="P141" s="19"/>
+      <c r="Q141" s="5"/>
+    </row>
+    <row r="142" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B142" s="6"/>
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="7"/>
+      <c r="G142" s="7"/>
+      <c r="H142" s="7"/>
+      <c r="I142" s="7"/>
+      <c r="J142" s="7"/>
+      <c r="K142" s="7"/>
+      <c r="L142" s="7"/>
+      <c r="M142" s="7"/>
+      <c r="N142" s="7"/>
+      <c r="O142" s="7"/>
+      <c r="P142" s="7"/>
+      <c r="Q142" s="8"/>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A145" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2"/>
+      <c r="K145" s="2"/>
+      <c r="L145" s="2"/>
+      <c r="M145" s="2"/>
+      <c r="N145" s="2"/>
+      <c r="O145" s="2"/>
+      <c r="P145" s="2"/>
+      <c r="Q145" s="2"/>
+      <c r="R145" s="2"/>
+      <c r="S145" s="2"/>
+      <c r="T145" s="3"/>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A146" s="4"/>
+      <c r="B146" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2"/>
+      <c r="K146" s="2"/>
+      <c r="L146" s="2"/>
+      <c r="M146" s="2"/>
+      <c r="N146" s="2"/>
+      <c r="O146" s="2"/>
+      <c r="P146" s="2"/>
+      <c r="Q146" s="2"/>
+      <c r="R146" s="2"/>
+      <c r="S146" s="3"/>
+      <c r="T146" s="5"/>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A147" s="4"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="19"/>
+      <c r="D147" s="19"/>
+      <c r="E147" s="19"/>
+      <c r="F147" s="19"/>
+      <c r="G147" s="19"/>
+      <c r="H147" s="19"/>
+      <c r="I147" s="19"/>
+      <c r="J147" s="19"/>
+      <c r="K147" s="19"/>
+      <c r="L147" s="19"/>
+      <c r="M147" s="19"/>
+      <c r="N147" s="19"/>
+      <c r="O147" s="19"/>
+      <c r="P147" s="19"/>
+      <c r="Q147" s="19"/>
+      <c r="R147" s="19"/>
+      <c r="S147" s="5"/>
+      <c r="T147" s="5"/>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A148" s="4"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="19"/>
+      <c r="D148" s="19"/>
+      <c r="E148" s="19"/>
+      <c r="F148" s="19"/>
+      <c r="G148" s="19"/>
+      <c r="H148" s="19"/>
+      <c r="I148" s="19"/>
+      <c r="J148" s="19"/>
+      <c r="K148" s="19"/>
+      <c r="L148" s="19"/>
+      <c r="M148" s="19"/>
+      <c r="N148" s="19"/>
+      <c r="O148" s="19"/>
+      <c r="P148" s="19"/>
+      <c r="Q148" s="19"/>
+      <c r="R148" s="19"/>
+      <c r="S148" s="5"/>
+      <c r="T148" s="5"/>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A149" s="4"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="19"/>
+      <c r="D149" s="19"/>
+      <c r="E149" s="19"/>
+      <c r="F149" s="19"/>
+      <c r="G149" s="19"/>
+      <c r="H149" s="19"/>
+      <c r="I149" s="19"/>
+      <c r="J149" s="19"/>
+      <c r="K149" s="19"/>
+      <c r="L149" s="19"/>
+      <c r="M149" s="19"/>
+      <c r="N149" s="19"/>
+      <c r="O149" s="19"/>
+      <c r="P149" s="19"/>
+      <c r="Q149" s="19"/>
+      <c r="R149" s="19"/>
+      <c r="S149" s="5"/>
+      <c r="T149" s="5"/>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A150" s="4"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="19"/>
+      <c r="D150" s="19"/>
+      <c r="E150" s="19"/>
+      <c r="F150" s="19"/>
+      <c r="G150" s="19"/>
+      <c r="H150" s="19"/>
+      <c r="I150" s="19"/>
+      <c r="J150" s="19"/>
+      <c r="K150" s="19"/>
+      <c r="L150" s="19"/>
+      <c r="M150" s="19"/>
+      <c r="N150" s="19"/>
+      <c r="O150" s="19"/>
+      <c r="P150" s="19"/>
+      <c r="Q150" s="19"/>
+      <c r="R150" s="19"/>
+      <c r="S150" s="5"/>
+      <c r="T150" s="5"/>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A151" s="4"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="19"/>
+      <c r="D151" s="19"/>
+      <c r="E151" s="19"/>
+      <c r="F151" s="19"/>
+      <c r="G151" s="19"/>
+      <c r="H151" s="19"/>
+      <c r="I151" s="19"/>
+      <c r="J151" s="19"/>
+      <c r="K151" s="19"/>
+      <c r="L151" s="19"/>
+      <c r="M151" s="19"/>
+      <c r="N151" s="19"/>
+      <c r="O151" s="19"/>
+      <c r="P151" s="19"/>
+      <c r="Q151" s="19"/>
+      <c r="R151" s="19"/>
+      <c r="S151" s="5"/>
+      <c r="T151" s="5"/>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A152" s="4"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="19"/>
+      <c r="D152" s="19"/>
+      <c r="E152" s="19"/>
+      <c r="F152" s="19"/>
+      <c r="G152" s="19"/>
+      <c r="H152" s="19"/>
+      <c r="I152" s="19"/>
+      <c r="J152" s="19"/>
+      <c r="K152" s="19"/>
+      <c r="L152" s="19"/>
+      <c r="M152" s="19"/>
+      <c r="N152" s="19"/>
+      <c r="O152" s="19"/>
+      <c r="P152" s="19"/>
+      <c r="Q152" s="19"/>
+      <c r="R152" s="19"/>
+      <c r="S152" s="5"/>
+      <c r="T152" s="5"/>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A153" s="4"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="19"/>
+      <c r="D153" s="19"/>
+      <c r="E153" s="19"/>
+      <c r="F153" s="19"/>
+      <c r="G153" s="19"/>
+      <c r="H153" s="19"/>
+      <c r="I153" s="19"/>
+      <c r="J153" s="19"/>
+      <c r="K153" s="19"/>
+      <c r="L153" s="19"/>
+      <c r="M153" s="19"/>
+      <c r="N153" s="19"/>
+      <c r="O153" s="19"/>
+      <c r="P153" s="19"/>
+      <c r="Q153" s="19"/>
+      <c r="R153" s="19"/>
+      <c r="S153" s="5"/>
+      <c r="T153" s="5"/>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A154" s="4"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="19"/>
+      <c r="D154" s="19"/>
+      <c r="E154" s="19"/>
+      <c r="F154" s="19"/>
+      <c r="G154" s="19"/>
+      <c r="H154" s="19"/>
+      <c r="I154" s="19"/>
+      <c r="J154" s="19"/>
+      <c r="K154" s="19"/>
+      <c r="L154" s="19"/>
+      <c r="M154" s="19"/>
+      <c r="N154" s="19"/>
+      <c r="O154" s="19"/>
+      <c r="P154" s="19"/>
+      <c r="Q154" s="19"/>
+      <c r="R154" s="19"/>
+      <c r="S154" s="5"/>
+      <c r="T154" s="5"/>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A155" s="4"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="19"/>
+      <c r="D155" s="19"/>
+      <c r="E155" s="19"/>
+      <c r="F155" s="19"/>
+      <c r="G155" s="19"/>
+      <c r="H155" s="19"/>
+      <c r="I155" s="19"/>
+      <c r="J155" s="19"/>
+      <c r="K155" s="19"/>
+      <c r="L155" s="19"/>
+      <c r="M155" s="19"/>
+      <c r="N155" s="19"/>
+      <c r="O155" s="19"/>
+      <c r="P155" s="19"/>
+      <c r="Q155" s="19"/>
+      <c r="R155" s="19"/>
+      <c r="S155" s="5"/>
+      <c r="T155" s="5"/>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A156" s="4"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="19"/>
+      <c r="D156" s="19"/>
+      <c r="E156" s="19"/>
+      <c r="F156" s="19"/>
+      <c r="G156" s="19"/>
+      <c r="H156" s="19"/>
+      <c r="I156" s="19"/>
+      <c r="J156" s="19"/>
+      <c r="K156" s="19"/>
+      <c r="L156" s="19"/>
+      <c r="M156" s="19"/>
+      <c r="N156" s="19"/>
+      <c r="O156" s="19"/>
+      <c r="P156" s="19"/>
+      <c r="Q156" s="19"/>
+      <c r="R156" s="19"/>
+      <c r="S156" s="5"/>
+      <c r="T156" s="5"/>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A157" s="4"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="19"/>
+      <c r="D157" s="19"/>
+      <c r="E157" s="19"/>
+      <c r="F157" s="19"/>
+      <c r="G157" s="19"/>
+      <c r="H157" s="19"/>
+      <c r="I157" s="19"/>
+      <c r="J157" s="19"/>
+      <c r="K157" s="19"/>
+      <c r="L157" s="19"/>
+      <c r="M157" s="19"/>
+      <c r="N157" s="19"/>
+      <c r="O157" s="19"/>
+      <c r="P157" s="19"/>
+      <c r="Q157" s="19"/>
+      <c r="R157" s="19"/>
+      <c r="S157" s="5"/>
+      <c r="T157" s="5"/>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A158" s="4"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="19"/>
+      <c r="D158" s="19"/>
+      <c r="E158" s="19"/>
+      <c r="F158" s="19"/>
+      <c r="G158" s="19"/>
+      <c r="H158" s="19"/>
+      <c r="I158" s="19"/>
+      <c r="J158" s="19"/>
+      <c r="K158" s="19"/>
+      <c r="L158" s="19"/>
+      <c r="M158" s="19"/>
+      <c r="N158" s="19"/>
+      <c r="O158" s="19"/>
+      <c r="P158" s="19"/>
+      <c r="Q158" s="19"/>
+      <c r="R158" s="19"/>
+      <c r="S158" s="5"/>
+      <c r="T158" s="5"/>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A159" s="4"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="19"/>
+      <c r="D159" s="19"/>
+      <c r="E159" s="19"/>
+      <c r="F159" s="19"/>
+      <c r="G159" s="19"/>
+      <c r="H159" s="19"/>
+      <c r="I159" s="19"/>
+      <c r="J159" s="19"/>
+      <c r="K159" s="19"/>
+      <c r="L159" s="19"/>
+      <c r="M159" s="19"/>
+      <c r="N159" s="19"/>
+      <c r="O159" s="19"/>
+      <c r="P159" s="19"/>
+      <c r="Q159" s="19"/>
+      <c r="R159" s="19"/>
+      <c r="S159" s="5"/>
+      <c r="T159" s="5"/>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A160" s="4"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="19"/>
+      <c r="D160" s="19"/>
+      <c r="E160" s="19"/>
+      <c r="F160" s="19"/>
+      <c r="G160" s="19"/>
+      <c r="H160" s="19"/>
+      <c r="I160" s="19"/>
+      <c r="J160" s="19"/>
+      <c r="K160" s="19"/>
+      <c r="L160" s="19"/>
+      <c r="M160" s="19"/>
+      <c r="N160" s="19"/>
+      <c r="O160" s="19"/>
+      <c r="P160" s="19"/>
+      <c r="Q160" s="19"/>
+      <c r="R160" s="19"/>
+      <c r="S160" s="5"/>
+      <c r="T160" s="5"/>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A161" s="4"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="19"/>
+      <c r="D161" s="19"/>
+      <c r="E161" s="19"/>
+      <c r="F161" s="19"/>
+      <c r="G161" s="19"/>
+      <c r="H161" s="19"/>
+      <c r="I161" s="19"/>
+      <c r="J161" s="19"/>
+      <c r="K161" s="19"/>
+      <c r="L161" s="19"/>
+      <c r="M161" s="19"/>
+      <c r="N161" s="19"/>
+      <c r="O161" s="19"/>
+      <c r="P161" s="19"/>
+      <c r="Q161" s="19"/>
+      <c r="R161" s="19"/>
+      <c r="S161" s="5"/>
+      <c r="T161" s="5"/>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A162" s="4"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="19"/>
+      <c r="D162" s="19"/>
+      <c r="E162" s="19"/>
+      <c r="F162" s="19"/>
+      <c r="G162" s="19"/>
+      <c r="H162" s="19"/>
+      <c r="I162" s="19"/>
+      <c r="J162" s="19"/>
+      <c r="K162" s="19"/>
+      <c r="L162" s="19"/>
+      <c r="M162" s="19"/>
+      <c r="N162" s="19"/>
+      <c r="O162" s="19"/>
+      <c r="P162" s="19"/>
+      <c r="Q162" s="19"/>
+      <c r="R162" s="19"/>
+      <c r="S162" s="5"/>
+      <c r="T162" s="5"/>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A163" s="4"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="19"/>
+      <c r="D163" s="19"/>
+      <c r="E163" s="19"/>
+      <c r="F163" s="19"/>
+      <c r="G163" s="19"/>
+      <c r="H163" s="19"/>
+      <c r="I163" s="19"/>
+      <c r="J163" s="19"/>
+      <c r="K163" s="19"/>
+      <c r="L163" s="19"/>
+      <c r="M163" s="19"/>
+      <c r="N163" s="19"/>
+      <c r="O163" s="19"/>
+      <c r="P163" s="19"/>
+      <c r="Q163" s="19"/>
+      <c r="R163" s="19"/>
+      <c r="S163" s="5"/>
+      <c r="T163" s="5"/>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A164" s="4"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="19"/>
+      <c r="D164" s="19"/>
+      <c r="E164" s="19"/>
+      <c r="F164" s="19"/>
+      <c r="G164" s="19"/>
+      <c r="H164" s="19"/>
+      <c r="I164" s="19"/>
+      <c r="J164" s="19"/>
+      <c r="K164" s="19"/>
+      <c r="L164" s="19"/>
+      <c r="M164" s="19"/>
+      <c r="N164" s="19"/>
+      <c r="O164" s="19"/>
+      <c r="P164" s="19"/>
+      <c r="Q164" s="19"/>
+      <c r="R164" s="19"/>
+      <c r="S164" s="5"/>
+      <c r="T164" s="5"/>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A165" s="4"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="19"/>
+      <c r="D165" s="19"/>
+      <c r="E165" s="19"/>
+      <c r="F165" s="19"/>
+      <c r="G165" s="19"/>
+      <c r="H165" s="19"/>
+      <c r="I165" s="19"/>
+      <c r="J165" s="19"/>
+      <c r="K165" s="19"/>
+      <c r="L165" s="19"/>
+      <c r="M165" s="19"/>
+      <c r="N165" s="19"/>
+      <c r="O165" s="19"/>
+      <c r="P165" s="19"/>
+      <c r="Q165" s="19"/>
+      <c r="R165" s="19"/>
+      <c r="S165" s="5"/>
+      <c r="T165" s="5"/>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A166" s="4"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="19"/>
+      <c r="D166" s="19"/>
+      <c r="E166" s="19"/>
+      <c r="F166" s="19"/>
+      <c r="G166" s="19"/>
+      <c r="H166" s="19"/>
+      <c r="I166" s="19"/>
+      <c r="J166" s="19"/>
+      <c r="K166" s="19"/>
+      <c r="L166" s="19"/>
+      <c r="M166" s="19"/>
+      <c r="N166" s="19"/>
+      <c r="O166" s="19"/>
+      <c r="P166" s="19"/>
+      <c r="Q166" s="19"/>
+      <c r="R166" s="19"/>
+      <c r="S166" s="5"/>
+      <c r="T166" s="5"/>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A167" s="4"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="19"/>
+      <c r="D167" s="19"/>
+      <c r="E167" s="19"/>
+      <c r="F167" s="19"/>
+      <c r="G167" s="19"/>
+      <c r="H167" s="19"/>
+      <c r="I167" s="19"/>
+      <c r="J167" s="19"/>
+      <c r="K167" s="19"/>
+      <c r="L167" s="19"/>
+      <c r="M167" s="19"/>
+      <c r="N167" s="19"/>
+      <c r="O167" s="19"/>
+      <c r="P167" s="19"/>
+      <c r="Q167" s="19"/>
+      <c r="R167" s="19"/>
+      <c r="S167" s="5"/>
+      <c r="T167" s="5"/>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A168" s="4"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="19"/>
+      <c r="D168" s="19"/>
+      <c r="E168" s="19"/>
+      <c r="F168" s="19"/>
+      <c r="G168" s="19"/>
+      <c r="H168" s="19"/>
+      <c r="I168" s="19"/>
+      <c r="J168" s="19"/>
+      <c r="K168" s="19"/>
+      <c r="L168" s="19"/>
+      <c r="M168" s="19"/>
+      <c r="N168" s="19"/>
+      <c r="O168" s="19"/>
+      <c r="P168" s="19"/>
+      <c r="Q168" s="19"/>
+      <c r="R168" s="19"/>
+      <c r="S168" s="5"/>
+      <c r="T168" s="5"/>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A169" s="4"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="19"/>
+      <c r="D169" s="19"/>
+      <c r="E169" s="19"/>
+      <c r="F169" s="19"/>
+      <c r="G169" s="19"/>
+      <c r="H169" s="19"/>
+      <c r="I169" s="19"/>
+      <c r="J169" s="19"/>
+      <c r="K169" s="19"/>
+      <c r="L169" s="19"/>
+      <c r="M169" s="19"/>
+      <c r="N169" s="19"/>
+      <c r="O169" s="19"/>
+      <c r="P169" s="19"/>
+      <c r="Q169" s="19"/>
+      <c r="R169" s="19"/>
+      <c r="S169" s="5"/>
+      <c r="T169" s="5"/>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A170" s="4"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="19"/>
+      <c r="D170" s="19"/>
+      <c r="E170" s="19"/>
+      <c r="F170" s="19"/>
+      <c r="G170" s="19"/>
+      <c r="H170" s="19"/>
+      <c r="I170" s="19"/>
+      <c r="J170" s="19"/>
+      <c r="K170" s="19"/>
+      <c r="L170" s="19"/>
+      <c r="M170" s="19"/>
+      <c r="N170" s="19"/>
+      <c r="O170" s="19"/>
+      <c r="P170" s="19"/>
+      <c r="Q170" s="19"/>
+      <c r="R170" s="19"/>
+      <c r="S170" s="5"/>
+      <c r="T170" s="5"/>
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A171" s="4"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="19"/>
+      <c r="D171" s="19"/>
+      <c r="E171" s="19"/>
+      <c r="F171" s="19"/>
+      <c r="G171" s="19"/>
+      <c r="H171" s="19"/>
+      <c r="I171" s="19"/>
+      <c r="J171" s="19"/>
+      <c r="K171" s="19"/>
+      <c r="L171" s="19"/>
+      <c r="M171" s="19"/>
+      <c r="N171" s="19"/>
+      <c r="O171" s="19"/>
+      <c r="P171" s="19"/>
+      <c r="Q171" s="19"/>
+      <c r="R171" s="19"/>
+      <c r="S171" s="5"/>
+      <c r="T171" s="5"/>
+    </row>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A172" s="4"/>
+      <c r="B172" s="4"/>
+      <c r="C172" s="19"/>
+      <c r="D172" s="19"/>
+      <c r="E172" s="19"/>
+      <c r="F172" s="19"/>
+      <c r="G172" s="19"/>
+      <c r="H172" s="19"/>
+      <c r="I172" s="19"/>
+      <c r="J172" s="19"/>
+      <c r="K172" s="19"/>
+      <c r="L172" s="19"/>
+      <c r="M172" s="19"/>
+      <c r="N172" s="19"/>
+      <c r="O172" s="19"/>
+      <c r="P172" s="19"/>
+      <c r="Q172" s="19"/>
+      <c r="R172" s="19"/>
+      <c r="S172" s="5"/>
+      <c r="T172" s="5"/>
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A173" s="4"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="19"/>
+      <c r="D173" s="19"/>
+      <c r="E173" s="19"/>
+      <c r="F173" s="19"/>
+      <c r="G173" s="19"/>
+      <c r="H173" s="19"/>
+      <c r="I173" s="19"/>
+      <c r="J173" s="19"/>
+      <c r="K173" s="19"/>
+      <c r="L173" s="19"/>
+      <c r="M173" s="19"/>
+      <c r="N173" s="19"/>
+      <c r="O173" s="19"/>
+      <c r="P173" s="19"/>
+      <c r="Q173" s="19"/>
+      <c r="R173" s="19"/>
+      <c r="S173" s="5"/>
+      <c r="T173" s="5"/>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A174" s="4"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="19"/>
+      <c r="D174" s="19"/>
+      <c r="E174" s="19"/>
+      <c r="F174" s="19"/>
+      <c r="G174" s="19"/>
+      <c r="H174" s="19"/>
+      <c r="I174" s="19"/>
+      <c r="J174" s="19"/>
+      <c r="K174" s="19"/>
+      <c r="L174" s="19"/>
+      <c r="M174" s="19"/>
+      <c r="N174" s="19"/>
+      <c r="O174" s="19"/>
+      <c r="P174" s="19"/>
+      <c r="Q174" s="19"/>
+      <c r="R174" s="19"/>
+      <c r="S174" s="5"/>
+      <c r="T174" s="5"/>
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A175" s="4"/>
+      <c r="B175" s="6"/>
+      <c r="C175" s="7"/>
+      <c r="D175" s="7"/>
+      <c r="E175" s="7"/>
+      <c r="F175" s="7"/>
+      <c r="G175" s="7"/>
+      <c r="H175" s="7"/>
+      <c r="I175" s="7"/>
+      <c r="J175" s="7"/>
+      <c r="K175" s="7"/>
+      <c r="L175" s="7"/>
+      <c r="M175" s="7"/>
+      <c r="N175" s="7"/>
+      <c r="O175" s="7"/>
+      <c r="P175" s="7"/>
+      <c r="Q175" s="7"/>
+      <c r="R175" s="7"/>
+      <c r="S175" s="8"/>
+      <c r="T175" s="5"/>
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A176" s="4"/>
+      <c r="B176" s="19"/>
+      <c r="C176" s="19"/>
+      <c r="D176" s="19"/>
+      <c r="E176" s="19"/>
+      <c r="F176" s="19"/>
+      <c r="G176" s="19"/>
+      <c r="H176" s="19"/>
+      <c r="I176" s="19"/>
+      <c r="J176" s="19"/>
+      <c r="K176" s="19"/>
+      <c r="L176" s="19"/>
+      <c r="M176" s="19"/>
+      <c r="N176" s="19"/>
+      <c r="O176" s="19"/>
+      <c r="P176" s="19"/>
+      <c r="Q176" s="19"/>
+      <c r="R176" s="19"/>
+      <c r="S176" s="19"/>
+      <c r="T176" s="5"/>
+    </row>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A177" s="4"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="19"/>
+      <c r="D177" s="19"/>
+      <c r="E177" s="19"/>
+      <c r="F177" s="19"/>
+      <c r="G177" s="19"/>
+      <c r="H177" s="19"/>
+      <c r="I177" s="19"/>
+      <c r="J177" s="19"/>
+      <c r="K177" s="19"/>
+      <c r="L177" s="19"/>
+      <c r="M177" s="19"/>
+      <c r="N177" s="19"/>
+      <c r="O177" s="19"/>
+      <c r="P177" s="19"/>
+      <c r="Q177" s="19"/>
+      <c r="R177" s="19"/>
+      <c r="S177" s="19"/>
+      <c r="T177" s="5"/>
+    </row>
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A178" s="4"/>
+      <c r="B178" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="2"/>
+      <c r="G178" s="2"/>
+      <c r="H178" s="2"/>
+      <c r="I178" s="2"/>
+      <c r="J178" s="2"/>
+      <c r="K178" s="2"/>
+      <c r="L178" s="2"/>
+      <c r="M178" s="2"/>
+      <c r="N178" s="2"/>
+      <c r="O178" s="2"/>
+      <c r="P178" s="2"/>
+      <c r="Q178" s="2"/>
+      <c r="R178" s="2"/>
+      <c r="S178" s="3"/>
+      <c r="T178" s="5"/>
+    </row>
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A179" s="4"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="19"/>
+      <c r="D179" s="19"/>
+      <c r="E179" s="19"/>
+      <c r="F179" s="19"/>
+      <c r="G179" s="19"/>
+      <c r="H179" s="19"/>
+      <c r="I179" s="19"/>
+      <c r="J179" s="19"/>
+      <c r="K179" s="19"/>
+      <c r="L179" s="19"/>
+      <c r="M179" s="19"/>
+      <c r="N179" s="19"/>
+      <c r="O179" s="19"/>
+      <c r="P179" s="19"/>
+      <c r="Q179" s="19"/>
+      <c r="R179" s="19"/>
+      <c r="S179" s="5"/>
+      <c r="T179" s="5"/>
+    </row>
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A180" s="4"/>
+      <c r="B180" s="4"/>
+      <c r="C180" s="19"/>
+      <c r="D180" s="19"/>
+      <c r="E180" s="19"/>
+      <c r="F180" s="19"/>
+      <c r="G180" s="19"/>
+      <c r="H180" s="19"/>
+      <c r="I180" s="19"/>
+      <c r="J180" s="19"/>
+      <c r="K180" s="19"/>
+      <c r="L180" s="19"/>
+      <c r="M180" s="19"/>
+      <c r="N180" s="19"/>
+      <c r="O180" s="19"/>
+      <c r="P180" s="19"/>
+      <c r="Q180" s="19"/>
+      <c r="R180" s="19"/>
+      <c r="S180" s="5"/>
+      <c r="T180" s="5"/>
+    </row>
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A181" s="4"/>
+      <c r="B181" s="4"/>
+      <c r="C181" s="19"/>
+      <c r="D181" s="19"/>
+      <c r="E181" s="19"/>
+      <c r="F181" s="19"/>
+      <c r="G181" s="19"/>
+      <c r="H181" s="19"/>
+      <c r="I181" s="19"/>
+      <c r="J181" s="19"/>
+      <c r="K181" s="19"/>
+      <c r="L181" s="19"/>
+      <c r="M181" s="19"/>
+      <c r="N181" s="19"/>
+      <c r="O181" s="19"/>
+      <c r="P181" s="19"/>
+      <c r="Q181" s="19"/>
+      <c r="R181" s="19"/>
+      <c r="S181" s="5"/>
+      <c r="T181" s="5"/>
+    </row>
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A182" s="4"/>
+      <c r="B182" s="4"/>
+      <c r="C182" s="19"/>
+      <c r="D182" s="19"/>
+      <c r="E182" s="19"/>
+      <c r="F182" s="19"/>
+      <c r="G182" s="19"/>
+      <c r="H182" s="19"/>
+      <c r="I182" s="19"/>
+      <c r="J182" s="19"/>
+      <c r="K182" s="19"/>
+      <c r="L182" s="19"/>
+      <c r="M182" s="19"/>
+      <c r="N182" s="19"/>
+      <c r="O182" s="19"/>
+      <c r="P182" s="19"/>
+      <c r="Q182" s="19"/>
+      <c r="R182" s="19"/>
+      <c r="S182" s="5"/>
+      <c r="T182" s="5"/>
+    </row>
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A183" s="4"/>
+      <c r="B183" s="4"/>
+      <c r="C183" s="19"/>
+      <c r="D183" s="19"/>
+      <c r="E183" s="19"/>
+      <c r="F183" s="19"/>
+      <c r="G183" s="19"/>
+      <c r="H183" s="19"/>
+      <c r="I183" s="19"/>
+      <c r="J183" s="19"/>
+      <c r="K183" s="19"/>
+      <c r="L183" s="19"/>
+      <c r="M183" s="19"/>
+      <c r="N183" s="19"/>
+      <c r="O183" s="19"/>
+      <c r="P183" s="19"/>
+      <c r="Q183" s="19"/>
+      <c r="R183" s="19"/>
+      <c r="S183" s="5"/>
+      <c r="T183" s="5"/>
+    </row>
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A184" s="4"/>
+      <c r="B184" s="4"/>
+      <c r="C184" s="19"/>
+      <c r="D184" s="19"/>
+      <c r="E184" s="19"/>
+      <c r="F184" s="19"/>
+      <c r="G184" s="19"/>
+      <c r="H184" s="19"/>
+      <c r="I184" s="19"/>
+      <c r="J184" s="19"/>
+      <c r="K184" s="19"/>
+      <c r="L184" s="19"/>
+      <c r="M184" s="19"/>
+      <c r="N184" s="19"/>
+      <c r="O184" s="19"/>
+      <c r="P184" s="19"/>
+      <c r="Q184" s="19"/>
+      <c r="R184" s="19"/>
+      <c r="S184" s="5"/>
+      <c r="T184" s="5"/>
+    </row>
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A185" s="4"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="19"/>
+      <c r="D185" s="19"/>
+      <c r="E185" s="19"/>
+      <c r="F185" s="19"/>
+      <c r="G185" s="19"/>
+      <c r="H185" s="19"/>
+      <c r="I185" s="19"/>
+      <c r="J185" s="19"/>
+      <c r="K185" s="19"/>
+      <c r="L185" s="19"/>
+      <c r="M185" s="19"/>
+      <c r="N185" s="19"/>
+      <c r="O185" s="19"/>
+      <c r="P185" s="19"/>
+      <c r="Q185" s="19"/>
+      <c r="R185" s="19"/>
+      <c r="S185" s="5"/>
+      <c r="T185" s="5"/>
+    </row>
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A186" s="4"/>
+      <c r="B186" s="4"/>
+      <c r="C186" s="19"/>
+      <c r="D186" s="19"/>
+      <c r="E186" s="19"/>
+      <c r="F186" s="19"/>
+      <c r="G186" s="19"/>
+      <c r="H186" s="19"/>
+      <c r="I186" s="19"/>
+      <c r="J186" s="19"/>
+      <c r="K186" s="19"/>
+      <c r="L186" s="19"/>
+      <c r="M186" s="19"/>
+      <c r="N186" s="19"/>
+      <c r="O186" s="19"/>
+      <c r="P186" s="19"/>
+      <c r="Q186" s="19"/>
+      <c r="R186" s="19"/>
+      <c r="S186" s="5"/>
+      <c r="T186" s="5"/>
+    </row>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A187" s="4"/>
+      <c r="B187" s="4"/>
+      <c r="C187" s="19"/>
+      <c r="D187" s="19"/>
+      <c r="E187" s="19"/>
+      <c r="F187" s="19"/>
+      <c r="G187" s="19"/>
+      <c r="H187" s="19"/>
+      <c r="I187" s="19"/>
+      <c r="J187" s="19"/>
+      <c r="K187" s="19"/>
+      <c r="L187" s="19"/>
+      <c r="M187" s="19"/>
+      <c r="N187" s="19"/>
+      <c r="O187" s="19"/>
+      <c r="P187" s="19"/>
+      <c r="Q187" s="19"/>
+      <c r="R187" s="19"/>
+      <c r="S187" s="5"/>
+      <c r="T187" s="5"/>
+    </row>
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A188" s="4"/>
+      <c r="B188" s="4"/>
+      <c r="C188" s="19"/>
+      <c r="D188" s="19"/>
+      <c r="E188" s="19"/>
+      <c r="F188" s="19"/>
+      <c r="G188" s="19"/>
+      <c r="H188" s="19"/>
+      <c r="I188" s="19"/>
+      <c r="J188" s="19"/>
+      <c r="K188" s="19"/>
+      <c r="L188" s="19"/>
+      <c r="M188" s="19"/>
+      <c r="N188" s="19"/>
+      <c r="O188" s="19"/>
+      <c r="P188" s="19"/>
+      <c r="Q188" s="19"/>
+      <c r="R188" s="19"/>
+      <c r="S188" s="5"/>
+      <c r="T188" s="5"/>
+    </row>
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A189" s="4"/>
+      <c r="B189" s="4"/>
+      <c r="C189" s="19"/>
+      <c r="D189" s="19"/>
+      <c r="E189" s="19"/>
+      <c r="F189" s="19"/>
+      <c r="G189" s="19"/>
+      <c r="H189" s="19"/>
+      <c r="I189" s="19"/>
+      <c r="J189" s="19"/>
+      <c r="K189" s="19"/>
+      <c r="L189" s="19"/>
+      <c r="M189" s="19"/>
+      <c r="N189" s="19"/>
+      <c r="O189" s="19"/>
+      <c r="P189" s="19"/>
+      <c r="Q189" s="19"/>
+      <c r="R189" s="19"/>
+      <c r="S189" s="5"/>
+      <c r="T189" s="5"/>
+    </row>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A190" s="4"/>
+      <c r="B190" s="4"/>
+      <c r="C190" s="19"/>
+      <c r="D190" s="19"/>
+      <c r="E190" s="19"/>
+      <c r="F190" s="19"/>
+      <c r="G190" s="19"/>
+      <c r="H190" s="19"/>
+      <c r="I190" s="19"/>
+      <c r="J190" s="19"/>
+      <c r="K190" s="19"/>
+      <c r="L190" s="19"/>
+      <c r="M190" s="19"/>
+      <c r="N190" s="19"/>
+      <c r="O190" s="19"/>
+      <c r="P190" s="19"/>
+      <c r="Q190" s="19"/>
+      <c r="R190" s="19"/>
+      <c r="S190" s="5"/>
+      <c r="T190" s="5"/>
+    </row>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A191" s="4"/>
+      <c r="B191" s="4"/>
+      <c r="C191" s="19"/>
+      <c r="D191" s="19"/>
+      <c r="E191" s="19"/>
+      <c r="F191" s="19"/>
+      <c r="G191" s="19"/>
+      <c r="H191" s="19"/>
+      <c r="I191" s="19"/>
+      <c r="J191" s="19"/>
+      <c r="K191" s="19"/>
+      <c r="L191" s="19"/>
+      <c r="M191" s="19"/>
+      <c r="N191" s="19"/>
+      <c r="O191" s="19"/>
+      <c r="P191" s="19"/>
+      <c r="Q191" s="19"/>
+      <c r="R191" s="19"/>
+      <c r="S191" s="5"/>
+      <c r="T191" s="5"/>
+    </row>
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A192" s="4"/>
+      <c r="B192" s="4"/>
+      <c r="C192" s="19"/>
+      <c r="D192" s="19"/>
+      <c r="E192" s="19"/>
+      <c r="F192" s="19"/>
+      <c r="G192" s="19"/>
+      <c r="H192" s="19"/>
+      <c r="I192" s="19"/>
+      <c r="J192" s="19"/>
+      <c r="K192" s="19"/>
+      <c r="L192" s="19"/>
+      <c r="M192" s="19"/>
+      <c r="N192" s="19"/>
+      <c r="O192" s="19"/>
+      <c r="P192" s="19"/>
+      <c r="Q192" s="19"/>
+      <c r="R192" s="19"/>
+      <c r="S192" s="5"/>
+      <c r="T192" s="5"/>
+    </row>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A193" s="4"/>
+      <c r="B193" s="4"/>
+      <c r="C193" s="19"/>
+      <c r="D193" s="19"/>
+      <c r="E193" s="19"/>
+      <c r="F193" s="19"/>
+      <c r="G193" s="19"/>
+      <c r="H193" s="19"/>
+      <c r="I193" s="19"/>
+      <c r="J193" s="19"/>
+      <c r="K193" s="19"/>
+      <c r="L193" s="19"/>
+      <c r="M193" s="19"/>
+      <c r="N193" s="19"/>
+      <c r="O193" s="19"/>
+      <c r="P193" s="19"/>
+      <c r="Q193" s="19"/>
+      <c r="R193" s="19"/>
+      <c r="S193" s="5"/>
+      <c r="T193" s="5"/>
+    </row>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A194" s="4"/>
+      <c r="B194" s="4"/>
+      <c r="C194" s="19"/>
+      <c r="D194" s="19"/>
+      <c r="E194" s="19"/>
+      <c r="F194" s="19"/>
+      <c r="G194" s="19"/>
+      <c r="H194" s="19"/>
+      <c r="I194" s="19"/>
+      <c r="J194" s="19"/>
+      <c r="K194" s="19"/>
+      <c r="L194" s="19"/>
+      <c r="M194" s="19"/>
+      <c r="N194" s="19"/>
+      <c r="O194" s="19"/>
+      <c r="P194" s="19"/>
+      <c r="Q194" s="19"/>
+      <c r="R194" s="19"/>
+      <c r="S194" s="5"/>
+      <c r="T194" s="5"/>
+    </row>
+    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A195" s="4"/>
+      <c r="B195" s="4"/>
+      <c r="C195" s="19"/>
+      <c r="D195" s="19"/>
+      <c r="E195" s="19"/>
+      <c r="F195" s="19"/>
+      <c r="G195" s="19"/>
+      <c r="H195" s="19"/>
+      <c r="I195" s="19"/>
+      <c r="J195" s="19"/>
+      <c r="K195" s="19"/>
+      <c r="L195" s="19"/>
+      <c r="M195" s="19"/>
+      <c r="N195" s="19"/>
+      <c r="O195" s="19"/>
+      <c r="P195" s="19"/>
+      <c r="Q195" s="19"/>
+      <c r="R195" s="19"/>
+      <c r="S195" s="5"/>
+      <c r="T195" s="5"/>
+    </row>
+    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A196" s="4"/>
+      <c r="B196" s="6"/>
+      <c r="C196" s="7"/>
+      <c r="D196" s="7"/>
+      <c r="E196" s="7"/>
+      <c r="F196" s="7"/>
+      <c r="G196" s="7"/>
+      <c r="H196" s="7"/>
+      <c r="I196" s="7"/>
+      <c r="J196" s="7"/>
+      <c r="K196" s="7"/>
+      <c r="L196" s="7"/>
+      <c r="M196" s="7"/>
+      <c r="N196" s="7"/>
+      <c r="O196" s="7"/>
+      <c r="P196" s="7"/>
+      <c r="Q196" s="7"/>
+      <c r="R196" s="7"/>
+      <c r="S196" s="8"/>
+      <c r="T196" s="5"/>
+    </row>
+    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A197" s="4"/>
+      <c r="B197" s="19"/>
+      <c r="C197" s="19"/>
+      <c r="D197" s="19"/>
+      <c r="E197" s="19"/>
+      <c r="F197" s="19"/>
+      <c r="G197" s="19"/>
+      <c r="H197" s="19"/>
+      <c r="I197" s="19"/>
+      <c r="J197" s="19"/>
+      <c r="K197" s="19"/>
+      <c r="L197" s="19"/>
+      <c r="M197" s="19"/>
+      <c r="N197" s="19"/>
+      <c r="O197" s="19"/>
+      <c r="P197" s="19"/>
+      <c r="Q197" s="19"/>
+      <c r="R197" s="19"/>
+      <c r="S197" s="19"/>
+      <c r="T197" s="5"/>
+    </row>
+    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A198" s="4"/>
+      <c r="B198" s="19"/>
+      <c r="C198" s="19"/>
+      <c r="D198" s="19"/>
+      <c r="E198" s="19"/>
+      <c r="F198" s="19"/>
+      <c r="G198" s="19"/>
+      <c r="H198" s="19"/>
+      <c r="I198" s="19"/>
+      <c r="J198" s="19"/>
+      <c r="K198" s="19"/>
+      <c r="L198" s="19"/>
+      <c r="M198" s="19"/>
+      <c r="N198" s="19"/>
+      <c r="O198" s="19"/>
+      <c r="P198" s="19"/>
+      <c r="Q198" s="19"/>
+      <c r="R198" s="19"/>
+      <c r="S198" s="19"/>
+      <c r="T198" s="5"/>
+    </row>
+    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A199" s="4"/>
+      <c r="B199" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
+      <c r="F199" s="2"/>
+      <c r="G199" s="2"/>
+      <c r="H199" s="2"/>
+      <c r="I199" s="2"/>
+      <c r="J199" s="2"/>
+      <c r="K199" s="2"/>
+      <c r="L199" s="2"/>
+      <c r="M199" s="2"/>
+      <c r="N199" s="2"/>
+      <c r="O199" s="2"/>
+      <c r="P199" s="2"/>
+      <c r="Q199" s="2"/>
+      <c r="R199" s="2"/>
+      <c r="S199" s="3"/>
+      <c r="T199" s="5"/>
+    </row>
+    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A200" s="4"/>
+      <c r="B200" s="4"/>
+      <c r="C200" s="19"/>
+      <c r="D200" s="19"/>
+      <c r="E200" s="19"/>
+      <c r="F200" s="19"/>
+      <c r="G200" s="19"/>
+      <c r="H200" s="19"/>
+      <c r="I200" s="19"/>
+      <c r="J200" s="19"/>
+      <c r="K200" s="19"/>
+      <c r="L200" s="19"/>
+      <c r="M200" s="19"/>
+      <c r="N200" s="19"/>
+      <c r="O200" s="19"/>
+      <c r="P200" s="19"/>
+      <c r="Q200" s="19"/>
+      <c r="R200" s="19"/>
+      <c r="S200" s="5"/>
+      <c r="T200" s="5"/>
+    </row>
+    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A201" s="4"/>
+      <c r="B201" s="4"/>
+      <c r="C201" s="19"/>
+      <c r="D201" s="19"/>
+      <c r="E201" s="19"/>
+      <c r="F201" s="19"/>
+      <c r="G201" s="19"/>
+      <c r="H201" s="19"/>
+      <c r="I201" s="19"/>
+      <c r="J201" s="19"/>
+      <c r="K201" s="19"/>
+      <c r="L201" s="19"/>
+      <c r="M201" s="19"/>
+      <c r="N201" s="19"/>
+      <c r="O201" s="19"/>
+      <c r="P201" s="19"/>
+      <c r="Q201" s="19"/>
+      <c r="R201" s="19"/>
+      <c r="S201" s="5"/>
+      <c r="T201" s="5"/>
+    </row>
+    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A202" s="4"/>
+      <c r="B202" s="4"/>
+      <c r="C202" s="19"/>
+      <c r="D202" s="19"/>
+      <c r="E202" s="19"/>
+      <c r="F202" s="19"/>
+      <c r="G202" s="19"/>
+      <c r="H202" s="19"/>
+      <c r="I202" s="19"/>
+      <c r="J202" s="19"/>
+      <c r="K202" s="19"/>
+      <c r="L202" s="19"/>
+      <c r="M202" s="19"/>
+      <c r="N202" s="19"/>
+      <c r="O202" s="19"/>
+      <c r="P202" s="19"/>
+      <c r="Q202" s="19"/>
+      <c r="R202" s="19"/>
+      <c r="S202" s="5"/>
+      <c r="T202" s="5"/>
+    </row>
+    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A203" s="4"/>
+      <c r="B203" s="4"/>
+      <c r="C203" s="19"/>
+      <c r="D203" s="19"/>
+      <c r="E203" s="19"/>
+      <c r="F203" s="19"/>
+      <c r="G203" s="19"/>
+      <c r="H203" s="19"/>
+      <c r="I203" s="19"/>
+      <c r="J203" s="19"/>
+      <c r="K203" s="19"/>
+      <c r="L203" s="19"/>
+      <c r="M203" s="19"/>
+      <c r="N203" s="19"/>
+      <c r="O203" s="19"/>
+      <c r="P203" s="19"/>
+      <c r="Q203" s="19"/>
+      <c r="R203" s="19"/>
+      <c r="S203" s="5"/>
+      <c r="T203" s="5"/>
+    </row>
+    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A204" s="4"/>
+      <c r="B204" s="4"/>
+      <c r="C204" s="19"/>
+      <c r="D204" s="19"/>
+      <c r="E204" s="19"/>
+      <c r="F204" s="19"/>
+      <c r="G204" s="19"/>
+      <c r="H204" s="19"/>
+      <c r="I204" s="19"/>
+      <c r="J204" s="19"/>
+      <c r="K204" s="19"/>
+      <c r="L204" s="19"/>
+      <c r="M204" s="19"/>
+      <c r="N204" s="19"/>
+      <c r="O204" s="19"/>
+      <c r="P204" s="19"/>
+      <c r="Q204" s="19"/>
+      <c r="R204" s="19"/>
+      <c r="S204" s="5"/>
+      <c r="T204" s="5"/>
+    </row>
+    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A205" s="4"/>
+      <c r="B205" s="4"/>
+      <c r="C205" s="19"/>
+      <c r="D205" s="19"/>
+      <c r="E205" s="19"/>
+      <c r="F205" s="19"/>
+      <c r="G205" s="19"/>
+      <c r="H205" s="19"/>
+      <c r="I205" s="19"/>
+      <c r="J205" s="19"/>
+      <c r="K205" s="19"/>
+      <c r="L205" s="19"/>
+      <c r="M205" s="19"/>
+      <c r="N205" s="19"/>
+      <c r="O205" s="19"/>
+      <c r="P205" s="19"/>
+      <c r="Q205" s="19"/>
+      <c r="R205" s="19"/>
+      <c r="S205" s="5"/>
+      <c r="T205" s="5"/>
+    </row>
+    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A206" s="4"/>
+      <c r="B206" s="4"/>
+      <c r="C206" s="19"/>
+      <c r="D206" s="19"/>
+      <c r="E206" s="19"/>
+      <c r="F206" s="19"/>
+      <c r="G206" s="19"/>
+      <c r="H206" s="19"/>
+      <c r="I206" s="19"/>
+      <c r="J206" s="19"/>
+      <c r="K206" s="19"/>
+      <c r="L206" s="19"/>
+      <c r="M206" s="19"/>
+      <c r="N206" s="19"/>
+      <c r="O206" s="19"/>
+      <c r="P206" s="19"/>
+      <c r="Q206" s="19"/>
+      <c r="R206" s="19"/>
+      <c r="S206" s="5"/>
+      <c r="T206" s="5"/>
+    </row>
+    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A207" s="4"/>
+      <c r="B207" s="4"/>
+      <c r="C207" s="19"/>
+      <c r="D207" s="19"/>
+      <c r="E207" s="19"/>
+      <c r="F207" s="19"/>
+      <c r="G207" s="19"/>
+      <c r="H207" s="19"/>
+      <c r="I207" s="19"/>
+      <c r="J207" s="19"/>
+      <c r="K207" s="19"/>
+      <c r="L207" s="19"/>
+      <c r="M207" s="19"/>
+      <c r="N207" s="19"/>
+      <c r="O207" s="19"/>
+      <c r="P207" s="19"/>
+      <c r="Q207" s="19"/>
+      <c r="R207" s="19"/>
+      <c r="S207" s="5"/>
+      <c r="T207" s="5"/>
+    </row>
+    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A208" s="4"/>
+      <c r="B208" s="4"/>
+      <c r="C208" s="19"/>
+      <c r="D208" s="19"/>
+      <c r="E208" s="19"/>
+      <c r="F208" s="19"/>
+      <c r="G208" s="19"/>
+      <c r="H208" s="19"/>
+      <c r="I208" s="19"/>
+      <c r="J208" s="19"/>
+      <c r="K208" s="19"/>
+      <c r="L208" s="19"/>
+      <c r="M208" s="19"/>
+      <c r="N208" s="19"/>
+      <c r="O208" s="19"/>
+      <c r="P208" s="19"/>
+      <c r="Q208" s="19"/>
+      <c r="R208" s="19"/>
+      <c r="S208" s="5"/>
+      <c r="T208" s="5"/>
+    </row>
+    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A209" s="4"/>
+      <c r="B209" s="4"/>
+      <c r="C209" s="19"/>
+      <c r="D209" s="19"/>
+      <c r="E209" s="19"/>
+      <c r="F209" s="19"/>
+      <c r="G209" s="19"/>
+      <c r="H209" s="19"/>
+      <c r="I209" s="19"/>
+      <c r="J209" s="19"/>
+      <c r="K209" s="19"/>
+      <c r="L209" s="19"/>
+      <c r="M209" s="19"/>
+      <c r="N209" s="19"/>
+      <c r="O209" s="19"/>
+      <c r="P209" s="19"/>
+      <c r="Q209" s="19"/>
+      <c r="R209" s="19"/>
+      <c r="S209" s="5"/>
+      <c r="T209" s="5"/>
+    </row>
+    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A210" s="4"/>
+      <c r="B210" s="4"/>
+      <c r="C210" s="19"/>
+      <c r="D210" s="19"/>
+      <c r="E210" s="19"/>
+      <c r="F210" s="19"/>
+      <c r="G210" s="19"/>
+      <c r="H210" s="19"/>
+      <c r="I210" s="19"/>
+      <c r="J210" s="19"/>
+      <c r="K210" s="19"/>
+      <c r="L210" s="19"/>
+      <c r="M210" s="19"/>
+      <c r="N210" s="19"/>
+      <c r="O210" s="19"/>
+      <c r="P210" s="19"/>
+      <c r="Q210" s="19"/>
+      <c r="R210" s="19"/>
+      <c r="S210" s="5"/>
+      <c r="T210" s="5"/>
+    </row>
+    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A211" s="4"/>
+      <c r="B211" s="4"/>
+      <c r="C211" s="19"/>
+      <c r="D211" s="19"/>
+      <c r="E211" s="19"/>
+      <c r="F211" s="19"/>
+      <c r="G211" s="19"/>
+      <c r="H211" s="19"/>
+      <c r="I211" s="19"/>
+      <c r="J211" s="19"/>
+      <c r="K211" s="19"/>
+      <c r="L211" s="19"/>
+      <c r="M211" s="19"/>
+      <c r="N211" s="19"/>
+      <c r="O211" s="19"/>
+      <c r="P211" s="19"/>
+      <c r="Q211" s="19"/>
+      <c r="R211" s="19"/>
+      <c r="S211" s="5"/>
+      <c r="T211" s="5"/>
+    </row>
+    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A212" s="4"/>
+      <c r="B212" s="4"/>
+      <c r="C212" s="19"/>
+      <c r="D212" s="19"/>
+      <c r="E212" s="19"/>
+      <c r="F212" s="19"/>
+      <c r="G212" s="19"/>
+      <c r="H212" s="19"/>
+      <c r="I212" s="19"/>
+      <c r="J212" s="19"/>
+      <c r="K212" s="19"/>
+      <c r="L212" s="19"/>
+      <c r="M212" s="19"/>
+      <c r="N212" s="19"/>
+      <c r="O212" s="19"/>
+      <c r="P212" s="19"/>
+      <c r="Q212" s="19"/>
+      <c r="R212" s="19"/>
+      <c r="S212" s="5"/>
+      <c r="T212" s="5"/>
+    </row>
+    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A213" s="4"/>
+      <c r="B213" s="4"/>
+      <c r="C213" s="19"/>
+      <c r="D213" s="19"/>
+      <c r="E213" s="19"/>
+      <c r="F213" s="19"/>
+      <c r="G213" s="19"/>
+      <c r="H213" s="19"/>
+      <c r="I213" s="19"/>
+      <c r="J213" s="19"/>
+      <c r="K213" s="19"/>
+      <c r="L213" s="19"/>
+      <c r="M213" s="19"/>
+      <c r="N213" s="19"/>
+      <c r="O213" s="19"/>
+      <c r="P213" s="19"/>
+      <c r="Q213" s="19"/>
+      <c r="R213" s="19"/>
+      <c r="S213" s="5"/>
+      <c r="T213" s="5"/>
+    </row>
+    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A214" s="4"/>
+      <c r="B214" s="4"/>
+      <c r="C214" s="19"/>
+      <c r="D214" s="19"/>
+      <c r="E214" s="19"/>
+      <c r="F214" s="19"/>
+      <c r="G214" s="19"/>
+      <c r="H214" s="19"/>
+      <c r="I214" s="19"/>
+      <c r="J214" s="19"/>
+      <c r="K214" s="19"/>
+      <c r="L214" s="19"/>
+      <c r="M214" s="19"/>
+      <c r="N214" s="19"/>
+      <c r="O214" s="19"/>
+      <c r="P214" s="19"/>
+      <c r="Q214" s="19"/>
+      <c r="R214" s="19"/>
+      <c r="S214" s="5"/>
+      <c r="T214" s="5"/>
+    </row>
+    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A215" s="4"/>
+      <c r="B215" s="4"/>
+      <c r="C215" s="19"/>
+      <c r="D215" s="19"/>
+      <c r="E215" s="19"/>
+      <c r="F215" s="19"/>
+      <c r="G215" s="19"/>
+      <c r="H215" s="19"/>
+      <c r="I215" s="19"/>
+      <c r="J215" s="19"/>
+      <c r="K215" s="19"/>
+      <c r="L215" s="19"/>
+      <c r="M215" s="19"/>
+      <c r="N215" s="19"/>
+      <c r="O215" s="19"/>
+      <c r="P215" s="19"/>
+      <c r="Q215" s="19"/>
+      <c r="R215" s="19"/>
+      <c r="S215" s="5"/>
+      <c r="T215" s="5"/>
+    </row>
+    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A216" s="4"/>
+      <c r="B216" s="6"/>
+      <c r="C216" s="7"/>
+      <c r="D216" s="7"/>
+      <c r="E216" s="7"/>
+      <c r="F216" s="7"/>
+      <c r="G216" s="7"/>
+      <c r="H216" s="7"/>
+      <c r="I216" s="7"/>
+      <c r="J216" s="7"/>
+      <c r="K216" s="7"/>
+      <c r="L216" s="7"/>
+      <c r="M216" s="7"/>
+      <c r="N216" s="7"/>
+      <c r="O216" s="7"/>
+      <c r="P216" s="7"/>
+      <c r="Q216" s="7"/>
+      <c r="R216" s="7"/>
+      <c r="S216" s="8"/>
+      <c r="T216" s="5"/>
+    </row>
+    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A217" s="4"/>
+      <c r="B217" s="19"/>
+      <c r="C217" s="19"/>
+      <c r="D217" s="19"/>
+      <c r="E217" s="19"/>
+      <c r="F217" s="19"/>
+      <c r="G217" s="19"/>
+      <c r="H217" s="19"/>
+      <c r="I217" s="19"/>
+      <c r="J217" s="19"/>
+      <c r="K217" s="19"/>
+      <c r="L217" s="19"/>
+      <c r="M217" s="19"/>
+      <c r="N217" s="19"/>
+      <c r="O217" s="19"/>
+      <c r="P217" s="19"/>
+      <c r="Q217" s="19"/>
+      <c r="R217" s="19"/>
+      <c r="S217" s="19"/>
+      <c r="T217" s="5"/>
+    </row>
+    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A218" s="4"/>
+      <c r="B218" s="19"/>
+      <c r="C218" s="19"/>
+      <c r="D218" s="19"/>
+      <c r="E218" s="19"/>
+      <c r="F218" s="19"/>
+      <c r="G218" s="19"/>
+      <c r="H218" s="19"/>
+      <c r="I218" s="19"/>
+      <c r="J218" s="19"/>
+      <c r="K218" s="19"/>
+      <c r="L218" s="19"/>
+      <c r="M218" s="19"/>
+      <c r="N218" s="19"/>
+      <c r="O218" s="19"/>
+      <c r="P218" s="19"/>
+      <c r="Q218" s="19"/>
+      <c r="R218" s="19"/>
+      <c r="S218" s="19"/>
+      <c r="T218" s="5"/>
+    </row>
+    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A219" s="4"/>
+      <c r="B219" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
+      <c r="F219" s="2"/>
+      <c r="G219" s="2"/>
+      <c r="H219" s="2"/>
+      <c r="I219" s="2"/>
+      <c r="J219" s="2"/>
+      <c r="K219" s="2"/>
+      <c r="L219" s="2"/>
+      <c r="M219" s="2"/>
+      <c r="N219" s="2"/>
+      <c r="O219" s="2"/>
+      <c r="P219" s="2"/>
+      <c r="Q219" s="2"/>
+      <c r="R219" s="2"/>
+      <c r="S219" s="3"/>
+      <c r="T219" s="5"/>
+    </row>
+    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A220" s="4"/>
+      <c r="B220" s="4"/>
+      <c r="C220" s="19"/>
+      <c r="D220" s="19"/>
+      <c r="E220" s="19"/>
+      <c r="F220" s="19"/>
+      <c r="G220" s="19"/>
+      <c r="H220" s="19"/>
+      <c r="I220" s="19"/>
+      <c r="J220" s="19"/>
+      <c r="K220" s="19"/>
+      <c r="L220" s="19"/>
+      <c r="M220" s="19"/>
+      <c r="N220" s="19"/>
+      <c r="O220" s="19"/>
+      <c r="P220" s="19"/>
+      <c r="Q220" s="19"/>
+      <c r="R220" s="19"/>
+      <c r="S220" s="5"/>
+      <c r="T220" s="5"/>
+    </row>
+    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A221" s="4"/>
+      <c r="B221" s="4"/>
+      <c r="C221" s="19"/>
+      <c r="D221" s="19"/>
+      <c r="E221" s="19"/>
+      <c r="F221" s="19"/>
+      <c r="G221" s="19"/>
+      <c r="H221" s="19"/>
+      <c r="I221" s="19"/>
+      <c r="J221" s="19"/>
+      <c r="K221" s="19"/>
+      <c r="L221" s="19"/>
+      <c r="M221" s="19"/>
+      <c r="N221" s="19"/>
+      <c r="O221" s="19"/>
+      <c r="P221" s="19"/>
+      <c r="Q221" s="19"/>
+      <c r="R221" s="19"/>
+      <c r="S221" s="5"/>
+      <c r="T221" s="5"/>
+    </row>
+    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A222" s="4"/>
+      <c r="B222" s="4"/>
+      <c r="C222" s="19"/>
+      <c r="D222" s="19"/>
+      <c r="E222" s="19"/>
+      <c r="F222" s="19"/>
+      <c r="G222" s="19"/>
+      <c r="H222" s="19"/>
+      <c r="I222" s="19"/>
+      <c r="J222" s="19"/>
+      <c r="K222" s="19"/>
+      <c r="L222" s="19"/>
+      <c r="M222" s="19"/>
+      <c r="N222" s="19"/>
+      <c r="O222" s="19"/>
+      <c r="P222" s="19"/>
+      <c r="Q222" s="19"/>
+      <c r="R222" s="19"/>
+      <c r="S222" s="5"/>
+      <c r="T222" s="5"/>
+    </row>
+    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A223" s="4"/>
+      <c r="B223" s="4"/>
+      <c r="C223" s="19"/>
+      <c r="D223" s="19"/>
+      <c r="E223" s="19"/>
+      <c r="F223" s="19"/>
+      <c r="G223" s="19"/>
+      <c r="H223" s="19"/>
+      <c r="I223" s="19"/>
+      <c r="J223" s="19"/>
+      <c r="K223" s="19"/>
+      <c r="L223" s="19"/>
+      <c r="M223" s="19"/>
+      <c r="N223" s="19"/>
+      <c r="O223" s="19"/>
+      <c r="P223" s="19"/>
+      <c r="Q223" s="19"/>
+      <c r="R223" s="19"/>
+      <c r="S223" s="5"/>
+      <c r="T223" s="5"/>
+    </row>
+    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A224" s="4"/>
+      <c r="B224" s="4"/>
+      <c r="C224" s="19"/>
+      <c r="D224" s="19"/>
+      <c r="E224" s="19"/>
+      <c r="F224" s="19"/>
+      <c r="G224" s="19"/>
+      <c r="H224" s="19"/>
+      <c r="I224" s="19"/>
+      <c r="J224" s="19"/>
+      <c r="K224" s="19"/>
+      <c r="L224" s="19"/>
+      <c r="M224" s="19"/>
+      <c r="N224" s="19"/>
+      <c r="O224" s="19"/>
+      <c r="P224" s="19"/>
+      <c r="Q224" s="19"/>
+      <c r="R224" s="19"/>
+      <c r="S224" s="5"/>
+      <c r="T224" s="5"/>
+    </row>
+    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A225" s="4"/>
+      <c r="B225" s="4"/>
+      <c r="C225" s="19"/>
+      <c r="D225" s="19"/>
+      <c r="E225" s="19"/>
+      <c r="F225" s="19"/>
+      <c r="G225" s="19"/>
+      <c r="H225" s="19"/>
+      <c r="I225" s="19"/>
+      <c r="J225" s="19"/>
+      <c r="K225" s="19"/>
+      <c r="L225" s="19"/>
+      <c r="M225" s="19"/>
+      <c r="N225" s="19"/>
+      <c r="O225" s="19"/>
+      <c r="P225" s="19"/>
+      <c r="Q225" s="19"/>
+      <c r="R225" s="19"/>
+      <c r="S225" s="5"/>
+      <c r="T225" s="5"/>
+    </row>
+    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A226" s="4"/>
+      <c r="B226" s="4"/>
+      <c r="C226" s="19"/>
+      <c r="D226" s="19"/>
+      <c r="E226" s="19"/>
+      <c r="F226" s="19"/>
+      <c r="G226" s="19"/>
+      <c r="H226" s="19"/>
+      <c r="I226" s="19"/>
+      <c r="J226" s="19"/>
+      <c r="K226" s="19"/>
+      <c r="L226" s="19"/>
+      <c r="M226" s="19"/>
+      <c r="N226" s="19"/>
+      <c r="O226" s="19"/>
+      <c r="P226" s="19"/>
+      <c r="Q226" s="19"/>
+      <c r="R226" s="19"/>
+      <c r="S226" s="5"/>
+      <c r="T226" s="5"/>
+    </row>
+    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A227" s="4"/>
+      <c r="B227" s="4"/>
+      <c r="C227" s="19"/>
+      <c r="D227" s="19"/>
+      <c r="E227" s="19"/>
+      <c r="F227" s="19"/>
+      <c r="G227" s="19"/>
+      <c r="H227" s="19"/>
+      <c r="I227" s="19"/>
+      <c r="J227" s="19"/>
+      <c r="K227" s="19"/>
+      <c r="L227" s="19"/>
+      <c r="M227" s="19"/>
+      <c r="N227" s="19"/>
+      <c r="O227" s="19"/>
+      <c r="P227" s="19"/>
+      <c r="Q227" s="19"/>
+      <c r="R227" s="19"/>
+      <c r="S227" s="5"/>
+      <c r="T227" s="5"/>
+    </row>
+    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A228" s="4"/>
+      <c r="B228" s="4"/>
+      <c r="C228" s="19"/>
+      <c r="D228" s="19"/>
+      <c r="E228" s="19"/>
+      <c r="F228" s="19"/>
+      <c r="G228" s="19"/>
+      <c r="H228" s="19"/>
+      <c r="I228" s="19"/>
+      <c r="J228" s="19"/>
+      <c r="K228" s="19"/>
+      <c r="L228" s="19"/>
+      <c r="M228" s="19"/>
+      <c r="N228" s="19"/>
+      <c r="O228" s="19"/>
+      <c r="P228" s="19"/>
+      <c r="Q228" s="19"/>
+      <c r="R228" s="19"/>
+      <c r="S228" s="5"/>
+      <c r="T228" s="5"/>
+    </row>
+    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A229" s="4"/>
+      <c r="B229" s="4"/>
+      <c r="C229" s="19"/>
+      <c r="D229" s="19"/>
+      <c r="E229" s="19"/>
+      <c r="F229" s="19"/>
+      <c r="G229" s="19"/>
+      <c r="H229" s="19"/>
+      <c r="I229" s="19"/>
+      <c r="J229" s="19"/>
+      <c r="K229" s="19"/>
+      <c r="L229" s="19"/>
+      <c r="M229" s="19"/>
+      <c r="N229" s="19"/>
+      <c r="O229" s="19"/>
+      <c r="P229" s="19"/>
+      <c r="Q229" s="19"/>
+      <c r="R229" s="19"/>
+      <c r="S229" s="5"/>
+      <c r="T229" s="5"/>
+    </row>
+    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A230" s="4"/>
+      <c r="B230" s="4"/>
+      <c r="C230" s="19"/>
+      <c r="D230" s="19"/>
+      <c r="E230" s="19"/>
+      <c r="F230" s="19"/>
+      <c r="G230" s="19"/>
+      <c r="H230" s="19"/>
+      <c r="I230" s="19"/>
+      <c r="J230" s="19"/>
+      <c r="K230" s="19"/>
+      <c r="L230" s="19"/>
+      <c r="M230" s="19"/>
+      <c r="N230" s="19"/>
+      <c r="O230" s="19"/>
+      <c r="P230" s="19"/>
+      <c r="Q230" s="19"/>
+      <c r="R230" s="19"/>
+      <c r="S230" s="5"/>
+      <c r="T230" s="5"/>
+    </row>
+    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A231" s="4"/>
+      <c r="B231" s="4"/>
+      <c r="C231" s="19"/>
+      <c r="D231" s="19"/>
+      <c r="E231" s="19"/>
+      <c r="F231" s="19"/>
+      <c r="G231" s="19"/>
+      <c r="H231" s="19"/>
+      <c r="I231" s="19"/>
+      <c r="J231" s="19"/>
+      <c r="K231" s="19"/>
+      <c r="L231" s="19"/>
+      <c r="M231" s="19"/>
+      <c r="N231" s="19"/>
+      <c r="O231" s="19"/>
+      <c r="P231" s="19"/>
+      <c r="Q231" s="19"/>
+      <c r="R231" s="19"/>
+      <c r="S231" s="5"/>
+      <c r="T231" s="5"/>
+    </row>
+    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A232" s="4"/>
+      <c r="B232" s="4"/>
+      <c r="C232" s="19"/>
+      <c r="D232" s="19"/>
+      <c r="E232" s="19"/>
+      <c r="F232" s="19"/>
+      <c r="G232" s="19"/>
+      <c r="H232" s="19"/>
+      <c r="I232" s="19"/>
+      <c r="J232" s="19"/>
+      <c r="K232" s="19"/>
+      <c r="L232" s="19"/>
+      <c r="M232" s="19"/>
+      <c r="N232" s="19"/>
+      <c r="O232" s="19"/>
+      <c r="P232" s="19"/>
+      <c r="Q232" s="19"/>
+      <c r="R232" s="19"/>
+      <c r="S232" s="5"/>
+      <c r="T232" s="5"/>
+    </row>
+    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A233" s="4"/>
+      <c r="B233" s="4"/>
+      <c r="C233" s="19"/>
+      <c r="D233" s="19"/>
+      <c r="E233" s="19"/>
+      <c r="F233" s="19"/>
+      <c r="G233" s="19"/>
+      <c r="H233" s="19"/>
+      <c r="I233" s="19"/>
+      <c r="J233" s="19"/>
+      <c r="K233" s="19"/>
+      <c r="L233" s="19"/>
+      <c r="M233" s="19"/>
+      <c r="N233" s="19"/>
+      <c r="O233" s="19"/>
+      <c r="P233" s="19"/>
+      <c r="Q233" s="19"/>
+      <c r="R233" s="19"/>
+      <c r="S233" s="5"/>
+      <c r="T233" s="5"/>
+    </row>
+    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A234" s="4"/>
+      <c r="B234" s="4"/>
+      <c r="C234" s="19"/>
+      <c r="D234" s="19"/>
+      <c r="E234" s="19"/>
+      <c r="F234" s="19"/>
+      <c r="G234" s="19"/>
+      <c r="H234" s="19"/>
+      <c r="I234" s="19"/>
+      <c r="J234" s="19"/>
+      <c r="K234" s="19"/>
+      <c r="L234" s="19"/>
+      <c r="M234" s="19"/>
+      <c r="N234" s="19"/>
+      <c r="O234" s="19"/>
+      <c r="P234" s="19"/>
+      <c r="Q234" s="19"/>
+      <c r="R234" s="19"/>
+      <c r="S234" s="5"/>
+      <c r="T234" s="5"/>
+    </row>
+    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A235" s="4"/>
+      <c r="B235" s="4"/>
+      <c r="C235" s="19"/>
+      <c r="D235" s="19"/>
+      <c r="E235" s="19"/>
+      <c r="F235" s="19"/>
+      <c r="G235" s="19"/>
+      <c r="H235" s="19"/>
+      <c r="I235" s="19"/>
+      <c r="J235" s="19"/>
+      <c r="K235" s="19"/>
+      <c r="L235" s="19"/>
+      <c r="M235" s="19"/>
+      <c r="N235" s="19"/>
+      <c r="O235" s="19"/>
+      <c r="P235" s="19"/>
+      <c r="Q235" s="19"/>
+      <c r="R235" s="19"/>
+      <c r="S235" s="5"/>
+      <c r="T235" s="5"/>
+    </row>
+    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A236" s="4"/>
+      <c r="B236" s="6"/>
+      <c r="C236" s="7"/>
+      <c r="D236" s="7"/>
+      <c r="E236" s="7"/>
+      <c r="F236" s="7"/>
+      <c r="G236" s="7"/>
+      <c r="H236" s="7"/>
+      <c r="I236" s="7"/>
+      <c r="J236" s="7"/>
+      <c r="K236" s="7"/>
+      <c r="L236" s="7"/>
+      <c r="M236" s="7"/>
+      <c r="N236" s="7"/>
+      <c r="O236" s="7"/>
+      <c r="P236" s="7"/>
+      <c r="Q236" s="7"/>
+      <c r="R236" s="7"/>
+      <c r="S236" s="8"/>
+      <c r="T236" s="5"/>
+    </row>
+    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A237" s="6"/>
+      <c r="B237" s="7"/>
+      <c r="C237" s="7"/>
+      <c r="D237" s="7"/>
+      <c r="E237" s="7"/>
+      <c r="F237" s="7"/>
+      <c r="G237" s="7"/>
+      <c r="H237" s="7"/>
+      <c r="I237" s="7"/>
+      <c r="J237" s="7"/>
+      <c r="K237" s="7"/>
+      <c r="L237" s="7"/>
+      <c r="M237" s="7"/>
+      <c r="N237" s="7"/>
+      <c r="O237" s="7"/>
+      <c r="P237" s="7"/>
+      <c r="Q237" s="7"/>
+      <c r="R237" s="7"/>
+      <c r="S237" s="7"/>
+      <c r="T237" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>